--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62549C81-4A70-4AE7-81B5-6B1F568A1AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75508051-36D6-49EA-B652-E442705215CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="576">
   <si>
     <t>Ссылка</t>
   </si>
@@ -1486,6 +1486,294 @@
   </si>
   <si>
     <t>07.07 - 13.07</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4225</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13190</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23897</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157226882919841</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2790049</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157391860724697</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158024336233805</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4229</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/46907</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/46898</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13208</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157229095218593</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23933</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-204895491_456240655</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23995</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157233231981985</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157234877197729</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24017</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-204895491_456240654</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157232285904289</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23973</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23983</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13244</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157231869095329</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157232006065569</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23978</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13237</t>
+  </si>
+  <si>
+    <t>https://t.me/sdelanounas_ru/45377</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157231733632417</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13233</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23969</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157230687088033</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23956</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13225</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2790764</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4240</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000003608141/topic/158025978893645</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13217</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23943</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157230366092705</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2790723</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157393264374745</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/46934</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/857</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3781</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-187624481_42216</t>
+  </si>
+  <si>
+    <t>https://ok.ru/kalugazanashih/topic/157393052824537</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-222134246_456239605</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_450928</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158025652524365</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4237</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000003608141/topic/158022503912781</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/9659</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/9941</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5703</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/16170</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11391</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6398</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7648</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2141</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6010</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12097</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3018</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6197</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6115</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7368</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8208</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5732</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6373</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5583</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8245</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/5924</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/3867</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4571</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6734</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5572</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157230484909473</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_23951</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13219</t>
+  </si>
+  <si>
+    <t>14.07 - 20.07</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13287</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24088</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157238196137377</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24090</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157238224383393</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-180268261_61028</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-54813709_752282</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5587</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4255</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000003608141/topic/158032752629069</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157399675827161</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2792552</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47063</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13281</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24051</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157237666082209</t>
   </si>
 </sst>
 </file>
@@ -1907,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,6 +2521,11 @@
         <v>479</v>
       </c>
     </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2241,9 +2534,288 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14081303-9170-4EFA-93A2-E3A160BF1A11}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>27000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <f>C2/B2*100</f>
+        <v>0.16296296296296295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3592</v>
+      </c>
+      <c r="C3" s="2">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">C3/B3*100</f>
+        <v>2.1714922048997773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2971</v>
+      </c>
+      <c r="C5" s="2">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.8609895658027602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.13580246913580246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7" si="1">C7/B7*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="3">
+        <v>114000</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="3">
+        <v>81800</v>
+      </c>
+      <c r="C9" s="2">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8.3129584352078248E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3447</v>
+      </c>
+      <c r="C10" s="2">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.9727299100667246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D19" si="2">C13/B13*100</f>
+        <v>1.65625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="3">
+        <v>33000</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" s="3">
+        <v>29900</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B17" s="3">
+        <v>76172</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>4.9887097621173132E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="3">
+        <v>77844</v>
+      </c>
+      <c r="C18">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>9.7631159755408245E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3340</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1.6766467065868262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF44B6C-916C-4D23-9E6B-AE95ABFB7419}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -2268,198 +2840,317 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>27000</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44</v>
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3">
+        <v>33000</v>
+      </c>
+      <c r="C2">
+        <v>152</v>
       </c>
       <c r="D2">
         <f>C2/B2*100</f>
-        <v>0.16296296296296295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3592</v>
-      </c>
-      <c r="C3" s="2">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">C3/B3*100</f>
-        <v>2.1714922048997773</v>
+        <v>0.46060606060606057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D15" si="0">C3/B3*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3">
+        <v>29800</v>
+      </c>
+      <c r="C4" s="2">
+        <v>135</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.45302013422818793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="3">
+        <v>32600</v>
+      </c>
+      <c r="C5" s="2">
+        <v>127</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.38957055214723929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" ref="D6" si="1">C6/B6*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7">
+        <v>26500</v>
+      </c>
+      <c r="C7">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.48301886792452831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9">
+        <v>28300</v>
+      </c>
+      <c r="C9">
+        <v>93</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.32862190812720848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10">
+        <v>29900</v>
+      </c>
+      <c r="C10" s="18">
+        <v>117</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.39130434782608697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" s="2">
+        <v>28400</v>
+      </c>
+      <c r="C12" s="2">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.23943661971830987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="3">
+        <v>29500</v>
+      </c>
+      <c r="C14">
+        <v>178</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.60338983050847461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" s="3">
+        <v>29900</v>
+      </c>
+      <c r="C15">
+        <v>291</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.97324414715719065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{0CFF7BCD-B3A2-410D-B795-611949CC8632}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F4AFC-4924-4E19-95BE-A705AC1FD4BE}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2971</v>
-      </c>
-      <c r="C5" s="2">
-        <v>85</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2.8609895658027602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="3">
-        <v>8100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.13580246913580246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" ref="D7" si="1">C7/B7*100</f>
-        <v>0</v>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" s="3">
+        <v>41000</v>
+      </c>
+      <c r="C7">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D18" si="0">C7/B7*100</f>
+        <v>0.18780487804878049</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>469</v>
       </c>
       <c r="B8" s="3">
-        <v>114000</v>
-      </c>
-      <c r="C8" s="2">
-        <v>30</v>
+        <v>7000</v>
+      </c>
+      <c r="C8">
+        <v>57</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.6315789473684209E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="3">
-        <v>81800</v>
-      </c>
-      <c r="C9" s="2">
-        <v>68</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>8.3129584352078248E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3447</v>
-      </c>
-      <c r="C10" s="2">
-        <v>68</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.9727299100667246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3200</v>
-      </c>
-      <c r="C13">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13:D15" si="2">C13/B13*100</f>
-        <v>1.65625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B14" s="3">
-        <v>33000</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B15" s="3">
-        <v>29900</v>
-      </c>
-      <c r="C15">
-        <v>65</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+        <v>0.81428571428571428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.4482758620689653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2468,12 +3159,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF44B6C-916C-4D23-9E6B-AE95ABFB7419}">
-  <dimension ref="A1:D13"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2498,287 +3189,6 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3">
-        <v>33000</v>
-      </c>
-      <c r="C2">
-        <v>152</v>
-      </c>
-      <c r="D2">
-        <f>C2/B2*100</f>
-        <v>0.46060606060606057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D12" si="0">C3/B3*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="3">
-        <v>29800</v>
-      </c>
-      <c r="C4" s="2">
-        <v>135</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.45302013422818793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="3">
-        <v>32600</v>
-      </c>
-      <c r="C5" s="2">
-        <v>127</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.38957055214723929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" ref="D6" si="1">C6/B6*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7">
-        <v>26500</v>
-      </c>
-      <c r="C7">
-        <v>128</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.48301886792452831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9">
-        <v>28300</v>
-      </c>
-      <c r="C9">
-        <v>93</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.32862190812720848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10">
-        <v>29900</v>
-      </c>
-      <c r="C10" s="18">
-        <v>117</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.39130434782608697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B12" s="2">
-        <v>28400</v>
-      </c>
-      <c r="C12" s="2">
-        <v>68</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.23943661971830987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{0CFF7BCD-B3A2-410D-B795-611949CC8632}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F4AFC-4924-4E19-95BE-A705AC1FD4BE}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B7" s="3">
-        <v>41000</v>
-      </c>
-      <c r="C7">
-        <v>77</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D8" si="0">C7/B7*100</f>
-        <v>0.18780487804878049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="C8">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.81428571428571428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:D48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="3">
@@ -3440,6 +3850,176 @@
     <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B49" s="3">
+        <v>20887</v>
+      </c>
+      <c r="C49">
+        <v>70</v>
+      </c>
+      <c r="D49" s="15">
+        <f t="shared" ref="D49:D59" si="1">C49/B49*100</f>
+        <v>0.33513668789199025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1596</v>
+      </c>
+      <c r="C50">
+        <v>72</v>
+      </c>
+      <c r="D50" s="15">
+        <f t="shared" si="1"/>
+        <v>4.5112781954887211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B51" s="3">
+        <v>16000</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6249999999999994E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B52" s="3">
+        <v>143</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0979020979020979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B53" s="3">
+        <v>883</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" si="1"/>
+        <v>3.3975084937712339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B54" s="3">
+        <v>49728</v>
+      </c>
+      <c r="C54">
+        <v>88</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" si="1"/>
+        <v>0.17696267696267698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B55" s="3">
+        <v>45423</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" si="1"/>
+        <v>2.6418334324020867E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B56" s="3">
+        <v>25730</v>
+      </c>
+      <c r="C56">
+        <v>99</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38476486591527403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B57" s="3">
+        <v>16798</v>
+      </c>
+      <c r="C57">
+        <v>73</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" si="1"/>
+        <v>0.43457554470770332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3121</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58" s="15">
+        <f t="shared" si="1"/>
+        <v>1.7622556872797179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B59" s="3">
+        <v>22674</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59" s="15">
+        <f t="shared" si="1"/>
+        <v>5.2924053982535059E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -3450,15 +4030,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:D355"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A308" sqref="A308:XFD308"/>
+    <sheetView topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7982,7 +8562,7 @@
         <v>35</v>
       </c>
       <c r="D305">
-        <f t="shared" ref="D305:D307" si="4">C305/B305*100</f>
+        <f t="shared" ref="D305:D358" si="4">C305/B305*100</f>
         <v>3.1687112398714412E-2</v>
       </c>
     </row>
@@ -8019,6 +8599,701 @@
     <row r="308" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B309" s="3">
+        <v>47182</v>
+      </c>
+      <c r="C309">
+        <v>59</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>0.12504768767750413</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B310" s="3">
+        <v>27550</v>
+      </c>
+      <c r="C310">
+        <v>92</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>0.33393829401088926</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B311" s="3">
+        <v>2990</v>
+      </c>
+      <c r="C311">
+        <v>44</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>1.471571906354515</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B312" s="3">
+        <v>9360</v>
+      </c>
+      <c r="C312">
+        <v>561</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>5.9935897435897436</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B313" s="3">
+        <v>17134</v>
+      </c>
+      <c r="C313">
+        <v>17</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>9.9217929263452784E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B314" s="3">
+        <v>3220</v>
+      </c>
+      <c r="C314">
+        <v>55</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>1.7080745341614907</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B315" s="3">
+        <v>35642</v>
+      </c>
+      <c r="C315">
+        <v>93</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>0.26092811851186803</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B316" s="3">
+        <v>22263</v>
+      </c>
+      <c r="C316">
+        <v>19</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>8.53433948704128E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B317" s="3">
+        <v>44849</v>
+      </c>
+      <c r="C317">
+        <v>93</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>0.20736248299850613</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B318" s="3">
+        <v>3360</v>
+      </c>
+      <c r="C318">
+        <v>59</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>1.7559523809523809</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B319" s="3">
+        <v>15313</v>
+      </c>
+      <c r="C319">
+        <v>142</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>0.92731665904786775</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B320" s="3">
+        <v>49496</v>
+      </c>
+      <c r="C320">
+        <v>87</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>0.17577177953774042</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B321" s="3">
+        <v>44445</v>
+      </c>
+      <c r="C321">
+        <v>30</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>6.7499156260546742E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B322" s="3">
+        <v>3350</v>
+      </c>
+      <c r="C322">
+        <v>68</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="4"/>
+        <v>2.0298507462686568</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B323" s="3">
+        <v>29633</v>
+      </c>
+      <c r="C323">
+        <v>109</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="4"/>
+        <v>0.36783315897816621</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B324" s="3">
+        <v>23685</v>
+      </c>
+      <c r="C324">
+        <v>19</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="4"/>
+        <v>8.0219548237280974E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B325" s="3">
+        <v>11857</v>
+      </c>
+      <c r="C325">
+        <v>132</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="4"/>
+        <v>1.1132664248966855</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B326" s="3">
+        <v>62203</v>
+      </c>
+      <c r="C326">
+        <v>93</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="4"/>
+        <v>0.14951047377136151</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B327" s="3">
+        <v>30500</v>
+      </c>
+      <c r="C327">
+        <v>250</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="4"/>
+        <v>0.81967213114754101</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B328" s="3">
+        <v>31100</v>
+      </c>
+      <c r="C328">
+        <v>56</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="4"/>
+        <v>0.18006430868167203</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B329" s="3">
+        <v>51998</v>
+      </c>
+      <c r="C329">
+        <v>201</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="4"/>
+        <v>0.38655332897419131</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B330" s="3">
+        <v>25049</v>
+      </c>
+      <c r="C330">
+        <v>127</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="4"/>
+        <v>0.50700626771527801</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B331" s="3">
+        <v>17144</v>
+      </c>
+      <c r="C331">
+        <v>42</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="4"/>
+        <v>0.244983667755483</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B332" s="3">
+        <v>104993</v>
+      </c>
+      <c r="C332">
+        <v>84</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="4"/>
+        <v>8.0005333688912592E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B333" s="3">
+        <v>2084</v>
+      </c>
+      <c r="C333">
+        <v>28</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="4"/>
+        <v>1.3435700575815739</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B334" s="3">
+        <v>12204</v>
+      </c>
+      <c r="C334">
+        <v>47</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="4"/>
+        <v>0.38511963290724355</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B335" s="3">
+        <v>69438</v>
+      </c>
+      <c r="C335">
+        <v>230</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="4"/>
+        <v>0.33123073821250615</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B336" s="3">
+        <v>267848</v>
+      </c>
+      <c r="C336">
+        <v>49</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="4"/>
+        <v>1.8293957767091786E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B337" s="3">
+        <v>119595</v>
+      </c>
+      <c r="C337">
+        <v>103</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="4"/>
+        <v>8.6124001839541789E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B338" s="3">
+        <v>66278</v>
+      </c>
+      <c r="C338">
+        <v>84</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="4"/>
+        <v>0.12673888771538067</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B339" s="3">
+        <v>3332</v>
+      </c>
+      <c r="C339">
+        <v>100</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="4"/>
+        <v>3.0012004801920766</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B340" s="3">
+        <v>3116</v>
+      </c>
+      <c r="C340">
+        <v>42</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="4"/>
+        <v>1.3478818998716302</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>560</v>
+      </c>
+      <c r="B342" s="14">
+        <v>634</v>
+      </c>
+      <c r="C342">
+        <v>45</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="4"/>
+        <v>7.0977917981072558</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>561</v>
+      </c>
+      <c r="B343" s="14">
+        <v>52</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="4"/>
+        <v>1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>562</v>
+      </c>
+      <c r="B344" s="14">
+        <v>16</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>565</v>
+      </c>
+      <c r="B345" s="14">
+        <v>1700</v>
+      </c>
+      <c r="C345">
+        <v>40</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="4"/>
+        <v>2.3529411764705883</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>566</v>
+      </c>
+      <c r="B346" s="14">
+        <v>1900</v>
+      </c>
+      <c r="C346">
+        <v>29</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="4"/>
+        <v>1.5263157894736841</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>567</v>
+      </c>
+      <c r="B347" s="14">
+        <v>200</v>
+      </c>
+      <c r="C347">
+        <v>48</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>568</v>
+      </c>
+      <c r="B348" s="14">
+        <v>6700</v>
+      </c>
+      <c r="C348">
+        <v>23</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="4"/>
+        <v>0.34328358208955223</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>569</v>
+      </c>
+      <c r="B349" s="14">
+        <v>8700</v>
+      </c>
+      <c r="C349">
+        <v>15</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="4"/>
+        <v>0.17241379310344829</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>570</v>
+      </c>
+      <c r="B350" s="14">
+        <v>285</v>
+      </c>
+      <c r="C350">
+        <v>10</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="4"/>
+        <v>3.5087719298245612</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>571</v>
+      </c>
+      <c r="B351" s="14">
+        <v>7000</v>
+      </c>
+      <c r="C351">
+        <v>67</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="4"/>
+        <v>0.95714285714285707</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>572</v>
+      </c>
+      <c r="B352" s="14">
+        <v>19200</v>
+      </c>
+      <c r="C352">
+        <v>250</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="4"/>
+        <v>1.3020833333333335</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>573</v>
+      </c>
+      <c r="B353" s="14">
+        <v>2352</v>
+      </c>
+      <c r="C353">
+        <v>77</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="4"/>
+        <v>3.2738095238095242</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>574</v>
+      </c>
+      <c r="B354" s="14">
+        <v>20000</v>
+      </c>
+      <c r="C354">
+        <v>86</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="4"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>575</v>
+      </c>
+      <c r="B355" s="14">
+        <v>8600</v>
+      </c>
+      <c r="C355">
+        <v>22</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="4"/>
+        <v>0.25581395348837205</v>
       </c>
     </row>
   </sheetData>
@@ -8035,10 +9310,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8599,6 +9874,416 @@
         <v>479</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B41" s="3">
+        <v>488</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:D67" si="1">C41/B41*100</f>
+        <v>7.3770491803278686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B42" s="3">
+        <v>955</v>
+      </c>
+      <c r="C42">
+        <v>59</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>6.178010471204189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2230</v>
+      </c>
+      <c r="C43">
+        <v>72</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>3.2286995515695067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1690</v>
+      </c>
+      <c r="C44">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>3.609467455621302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1150</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>3.8260869565217388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2290</v>
+      </c>
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>1.8777292576419216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B47" s="3">
+        <v>187</v>
+      </c>
+      <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>18.71657754010695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B48" s="3">
+        <v>376</v>
+      </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>9.5744680851063837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B49" s="3">
+        <v>653</v>
+      </c>
+      <c r="C49">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>5.9724349157733538</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B50" s="3">
+        <v>437</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>9.1533180778032026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B51" s="3">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>32</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>44.444444444444443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B52" s="3">
+        <v>260</v>
+      </c>
+      <c r="C52">
+        <v>34</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>13.076923076923078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B53" s="3">
+        <v>374</v>
+      </c>
+      <c r="C53">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>11.497326203208557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B54" s="3">
+        <v>404</v>
+      </c>
+      <c r="C54">
+        <v>36</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>8.9108910891089099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B55" s="3">
+        <v>506</v>
+      </c>
+      <c r="C55">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>6.1264822134387353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B56" s="3">
+        <v>329</v>
+      </c>
+      <c r="C56">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>11.854103343465045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B57" s="3">
+        <v>260</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>15.384615384615385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B58" s="3">
+        <v>277</v>
+      </c>
+      <c r="C58">
+        <v>33</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>11.913357400722022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B59" s="3">
+        <v>454</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>6.607929515418502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B60" s="3">
+        <v>786</v>
+      </c>
+      <c r="C60">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>7.1246819338422389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B61" s="3">
+        <v>399</v>
+      </c>
+      <c r="C61">
+        <v>34</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>8.5213032581453625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B62" s="3">
+        <v>438</v>
+      </c>
+      <c r="C62">
+        <v>35</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>7.9908675799086755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B63" s="3">
+        <v>383</v>
+      </c>
+      <c r="C63">
+        <v>33</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>8.6161879895561366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B64" s="3">
+        <v>343</v>
+      </c>
+      <c r="C64">
+        <v>36</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>10.495626822157435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B65" s="3">
+        <v>70339</v>
+      </c>
+      <c r="C65">
+        <v>211</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.29997583133112499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B66" s="3">
+        <v>127269</v>
+      </c>
+      <c r="C66">
+        <v>112</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>8.8002577218332823E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B67" s="3">
+        <v>132760</v>
+      </c>
+      <c r="C67">
+        <v>106</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>7.984332630310334E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8607,10 +10292,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8664,7 +10349,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D49" si="0">C4/B4*100</f>
+        <f t="shared" ref="D4:D54" si="0">C4/B4*100</f>
         <v>9.1150442477876098E-2</v>
       </c>
     </row>
@@ -9321,18 +11006,86 @@
         <v>479</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B51" s="3">
+        <v>59533</v>
+      </c>
+      <c r="C51">
+        <v>123</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20660809970940486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B52" s="3">
+        <v>64318</v>
+      </c>
+      <c r="C52">
+        <v>133</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20678503684816071</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B53" s="3">
+        <v>63799</v>
+      </c>
+      <c r="C53">
+        <v>218</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34169814573896146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B54" s="3">
+        <v>116250</v>
+      </c>
+      <c r="C54">
+        <v>296</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25462365591397851</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A54" r:id="rId1" xr:uid="{6C90B904-099A-47AA-9AC1-3B7B33D68C11}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500971C4-A847-4939-A5E5-85DF2BEEF60A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9560,6 +11313,11 @@
         <v>479</v>
       </c>
     </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9568,10 +11326,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726694B7-4482-401C-9FD1-2B06FEEB1E5D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9624,6 +11382,11 @@
         <v>479</v>
       </c>
     </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9632,10 +11395,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F61FF64-7611-43CF-BBDD-E5C45F4E5AE8}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9688,6 +11451,11 @@
         <v>479</v>
       </c>
     </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9696,10 +11464,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A772FBBA-2BCE-4F6F-A598-2C8AFC21352E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9752,6 +11520,11 @@
         <v>479</v>
       </c>
     </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9760,10 +11533,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9816,6 +11589,11 @@
         <v>479</v>
       </c>
     </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75508051-36D6-49EA-B652-E442705215CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FB6CA2-C6A2-4A29-863C-A4913F7BBAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="626">
   <si>
     <t>Ссылка</t>
   </si>
@@ -1728,52 +1728,202 @@
     <t>14.07 - 20.07</t>
   </si>
   <si>
+    <t>https://ok.ru/raionklg/topic/157402659419097</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2793293</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157240092224929</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24131</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13302</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5627</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2793915</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158036289738061</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4273</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157241825258913</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24165</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13318</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_452504</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13289</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24105</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157238418566561</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2792787</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157238196137377</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-180268261_61028</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24088</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-54813709_752282</t>
+  </si>
+  <si>
     <t>https://t.me/klg_alarm/13287</t>
   </si>
   <si>
-    <t>https://vk.com/wall-204895491_24088</t>
-  </si>
-  <si>
-    <t>https://ok.ru/group/70000036196257/topic/157238196137377</t>
+    <t>https://t.me/Dela_VMalom/5587</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2792552</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000003608141/topic/158032752629069</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47063</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4255</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157237666082209</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/57073276027097/topic/157399675827161</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24051</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13281</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4270</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158036022744397</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21625</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47114</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47107</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157238224383393</t>
   </si>
   <si>
     <t>https://vk.com/wall-204895491_24090</t>
   </si>
   <si>
-    <t>https://ok.ru/group/70000036196257/topic/157238224383393</t>
-  </si>
-  <si>
-    <t>https://vk.com/wall-180268261_61028</t>
-  </si>
-  <si>
-    <t>https://vk.com/wall-54813709_752282</t>
-  </si>
-  <si>
-    <t>https://t.me/Dela_VMalom/5587</t>
-  </si>
-  <si>
-    <t>https://vk.com/wall-222134246_4255</t>
-  </si>
-  <si>
-    <t>https://ok.ru/group/70000003608141/topic/158032752629069</t>
-  </si>
-  <si>
-    <t>https://ok.ru/raionklg/topic/157399675827161</t>
-  </si>
-  <si>
-    <t>https://vk.com/wall-47908301_2792552</t>
-  </si>
-  <si>
-    <t>https://t.me/klgzhest/47063</t>
-  </si>
-  <si>
-    <t>https://t.me/klg_alarm/13281</t>
-  </si>
-  <si>
-    <t>https://vk.com/wall-204895491_24051</t>
-  </si>
-  <si>
-    <t>https://ok.ru/group/70000036196257/topic/157237666082209</t>
+    <t>https://t.me/klg_alarm/13329</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157243108847009</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24201</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157243010084257</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24196</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157241948401057</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24169</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13322</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47075</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47074</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_452744</t>
+  </si>
+  <si>
+    <t>https://vk.ru/wall-93925359_104411</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-84737494_3194903</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47226</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158038980973901</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4285</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2794466</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13355</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157244869471649</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24242</t>
+  </si>
+  <si>
+    <t>https://ok.ru/kalugazanashih/topic/157405381522393</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-187624481_42323</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24229</t>
+  </si>
+  <si>
+    <t>https://t.me/murashko_med/32167</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157405343839193</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157245061885345</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24257</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13359</t>
   </si>
 </sst>
 </file>
@@ -2195,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,6 +2676,96 @@
         <v>559</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B27" s="3">
+        <v>60626</v>
+      </c>
+      <c r="C27" s="2">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D32" si="3">C27/B27*100</f>
+        <v>4.7834262527628416E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B28" s="3">
+        <v>14439</v>
+      </c>
+      <c r="C28" s="2">
+        <v>91</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>0.63023755107694435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B29" s="3">
+        <v>51055</v>
+      </c>
+      <c r="C29" s="2">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>6.8553520712956617E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B30" s="3">
+        <v>32438</v>
+      </c>
+      <c r="C30" s="2">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0.24045872125285159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3540</v>
+      </c>
+      <c r="C31" s="2">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>1.8644067796610171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B32" s="3">
+        <v>361</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>4.43213296398892</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2534,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14081303-9170-4EFA-93A2-E3A160BF1A11}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2716,7 +2956,7 @@
         <v>53</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D19" si="2">C13/B13*100</f>
+        <f t="shared" ref="D13:D23" si="2">C13/B13*100</f>
         <v>1.65625</v>
       </c>
     </row>
@@ -2803,6 +3043,51 @@
     <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B21" s="3">
+        <v>24646</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>6.4919256674511067E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B22" s="3">
+        <v>48699</v>
+      </c>
+      <c r="C22">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.13963325735641388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3509</v>
+      </c>
+      <c r="C23">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1.4819036762610431</v>
       </c>
     </row>
   </sheetData>
@@ -2813,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF44B6C-916C-4D23-9E6B-AE95ABFB7419}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2865,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D15" si="0">C3/B3*100</f>
+        <f t="shared" ref="D3:D18" si="0">C3/B3*100</f>
         <v>0</v>
       </c>
     </row>
@@ -3022,6 +3307,36 @@
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B17" s="3">
+        <v>31500</v>
+      </c>
+      <c r="C17" s="2">
+        <v>126</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" s="3">
+        <v>30138</v>
+      </c>
+      <c r="C18" s="2">
+        <v>127</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.4213949167164377</v>
       </c>
     </row>
   </sheetData>
@@ -3035,136 +3350,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F4AFC-4924-4E19-95BE-A705AC1FD4BE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B7" s="3">
-        <v>41000</v>
-      </c>
-      <c r="C7">
-        <v>77</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D18" si="0">C7/B7*100</f>
-        <v>0.18780487804878049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="C8">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.81428571428571428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B11">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>564</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:D60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3187,6 +3376,138 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" s="3">
+        <v>41000</v>
+      </c>
+      <c r="C7">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D8" si="0">C7/B7*100</f>
+        <v>0.18780487804878049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C8">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.81428571428571428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B11" s="3">
+        <v>49835</v>
+      </c>
+      <c r="C11" s="2">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D12" si="1">C11/B11*100</f>
+        <v>0.11839068927460619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B12" s="3">
+        <v>57277</v>
+      </c>
+      <c r="C12" s="2">
+        <v>168</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.29331145136791387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>50</v>
@@ -3863,7 +4184,7 @@
         <v>70</v>
       </c>
       <c r="D49" s="15">
-        <f t="shared" ref="D49:D59" si="1">C49/B49*100</f>
+        <f t="shared" ref="D49:D70" si="1">C49/B49*100</f>
         <v>0.33513668789199025</v>
       </c>
     </row>
@@ -4020,6 +4341,156 @@
     <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="C61" s="2">
+        <v>50</v>
+      </c>
+      <c r="D61" s="15">
+        <f t="shared" si="1"/>
+        <v>1.3513513513513513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B62" s="3">
+        <v>32474</v>
+      </c>
+      <c r="C62" s="2">
+        <v>15</v>
+      </c>
+      <c r="D62" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6190798792880461E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B63" s="3">
+        <v>26036</v>
+      </c>
+      <c r="C63" s="2">
+        <v>70</v>
+      </c>
+      <c r="D63" s="15">
+        <f t="shared" si="1"/>
+        <v>0.26885850361038566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B64" s="3">
+        <v>55605</v>
+      </c>
+      <c r="C64" s="2">
+        <v>16</v>
+      </c>
+      <c r="D64" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8774390792194945E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B65" s="3">
+        <v>25435</v>
+      </c>
+      <c r="C65" s="2">
+        <v>57</v>
+      </c>
+      <c r="D65" s="15">
+        <f t="shared" si="1"/>
+        <v>0.22410064871240418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B66" s="3">
+        <v>87836</v>
+      </c>
+      <c r="C66" s="2">
+        <v>35</v>
+      </c>
+      <c r="D66" s="15">
+        <f t="shared" si="1"/>
+        <v>3.9846987567739876E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B67" s="3">
+        <v>43383</v>
+      </c>
+      <c r="C67" s="2">
+        <v>127</v>
+      </c>
+      <c r="D67" s="15">
+        <f t="shared" si="1"/>
+        <v>0.2927413963995113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3520</v>
+      </c>
+      <c r="C68" s="2">
+        <v>60</v>
+      </c>
+      <c r="D68" s="15">
+        <f t="shared" si="1"/>
+        <v>1.7045454545454544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B69" s="3">
+        <v>29000</v>
+      </c>
+      <c r="C69" s="2">
+        <v>262</v>
+      </c>
+      <c r="D69" s="15">
+        <f t="shared" si="1"/>
+        <v>0.90344827586206899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B70" s="3">
+        <v>27749</v>
+      </c>
+      <c r="C70" s="2">
+        <v>298</v>
+      </c>
+      <c r="D70" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0739125734260695</v>
       </c>
     </row>
   </sheetData>
@@ -4030,15 +4501,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:D355"/>
+  <dimension ref="A1:D380"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="H355" sqref="H355"/>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="G376" sqref="G376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8562,7 +9033,7 @@
         <v>35</v>
       </c>
       <c r="D305">
-        <f t="shared" ref="D305:D358" si="4">C305/B305*100</f>
+        <f t="shared" ref="D305:D368" si="4">C305/B305*100</f>
         <v>3.1687112398714412E-2</v>
       </c>
     </row>
@@ -9087,213 +9558,588 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>560</v>
-      </c>
-      <c r="B342" s="14">
-        <v>634</v>
-      </c>
-      <c r="C342">
-        <v>45</v>
+      <c r="A342" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B342" s="3">
+        <v>14931</v>
+      </c>
+      <c r="C342" s="2">
+        <v>191</v>
       </c>
       <c r="D342">
         <f t="shared" si="4"/>
-        <v>7.0977917981072558</v>
+        <v>1.2792177349139373</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>561</v>
-      </c>
-      <c r="B343" s="14">
-        <v>52</v>
-      </c>
-      <c r="C343">
-        <v>1</v>
+      <c r="A343" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B343" s="3">
+        <v>4572</v>
+      </c>
+      <c r="C343" s="2">
+        <v>65</v>
       </c>
       <c r="D343">
         <f t="shared" si="4"/>
-        <v>1.9230769230769231</v>
+        <v>1.4216972878390199</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>562</v>
-      </c>
-      <c r="B344" s="14">
-        <v>16</v>
-      </c>
-      <c r="C344">
-        <v>1</v>
+      <c r="A344" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B344" s="3">
+        <v>19952</v>
+      </c>
+      <c r="C344" s="2">
+        <v>117</v>
       </c>
       <c r="D344">
         <f t="shared" si="4"/>
-        <v>6.25</v>
+        <v>0.58640737770649554</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>565</v>
-      </c>
-      <c r="B345" s="14">
-        <v>1700</v>
-      </c>
-      <c r="C345">
-        <v>40</v>
+      <c r="A345" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B345" s="3">
+        <v>26400</v>
+      </c>
+      <c r="C345" s="2">
+        <v>322</v>
       </c>
       <c r="D345">
         <f t="shared" si="4"/>
-        <v>2.3529411764705883</v>
+        <v>1.2196969696969697</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>566</v>
-      </c>
-      <c r="B346" s="14">
-        <v>1900</v>
-      </c>
-      <c r="C346">
-        <v>29</v>
+      <c r="A346" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B346" s="3">
+        <v>20000</v>
+      </c>
+      <c r="C346" s="2">
+        <v>8</v>
       </c>
       <c r="D346">
         <f t="shared" si="4"/>
-        <v>1.5263157894736841</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>567</v>
-      </c>
-      <c r="B347" s="14">
-        <v>200</v>
-      </c>
-      <c r="C347">
-        <v>48</v>
+      <c r="A347" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B347" s="3">
+        <v>21336</v>
+      </c>
+      <c r="C347" s="2">
+        <v>15</v>
       </c>
       <c r="D347">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>7.0303712035995503E-2</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>568</v>
-      </c>
-      <c r="B348" s="14">
-        <v>6700</v>
-      </c>
-      <c r="C348">
-        <v>23</v>
+      <c r="A348" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B348" s="3">
+        <v>20475</v>
+      </c>
+      <c r="C348" s="2">
+        <v>378</v>
       </c>
       <c r="D348">
         <f t="shared" si="4"/>
-        <v>0.34328358208955223</v>
+        <v>1.8461538461538463</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>569</v>
-      </c>
-      <c r="B349" s="14">
-        <v>8700</v>
-      </c>
-      <c r="C349">
-        <v>15</v>
+      <c r="A349" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B349" s="3">
+        <v>3730</v>
+      </c>
+      <c r="C349" s="2">
+        <v>105</v>
       </c>
       <c r="D349">
         <f t="shared" si="4"/>
-        <v>0.17241379310344829</v>
+        <v>2.8150134048257374</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>570</v>
-      </c>
-      <c r="B350" s="14">
-        <v>285</v>
-      </c>
-      <c r="C350">
-        <v>10</v>
+      <c r="A350" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B350" s="3">
+        <v>69000</v>
+      </c>
+      <c r="C350" s="2">
+        <v>142</v>
       </c>
       <c r="D350">
         <f t="shared" si="4"/>
-        <v>3.5087719298245612</v>
+        <v>0.20579710144927538</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>571</v>
-      </c>
-      <c r="B351" s="14">
-        <v>7000</v>
-      </c>
-      <c r="C351">
-        <v>67</v>
+      <c r="A351" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B351" s="3">
+        <v>37583</v>
+      </c>
+      <c r="C351" s="2">
+        <v>157</v>
       </c>
       <c r="D351">
         <f t="shared" si="4"/>
-        <v>0.95714285714285707</v>
+        <v>0.41774206423116833</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>572</v>
-      </c>
-      <c r="B352" s="14">
-        <v>19200</v>
-      </c>
-      <c r="C352">
-        <v>250</v>
+      <c r="A352" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B352" s="3">
+        <v>36371</v>
+      </c>
+      <c r="C352" s="2">
+        <v>63</v>
       </c>
       <c r="D352">
         <f t="shared" si="4"/>
-        <v>1.3020833333333335</v>
+        <v>0.17321492397789448</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>573</v>
-      </c>
-      <c r="B353" s="14">
-        <v>2352</v>
-      </c>
-      <c r="C353">
+      <c r="A353" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B353" s="3">
+        <v>19335</v>
+      </c>
+      <c r="C353" s="2">
         <v>77</v>
       </c>
       <c r="D353">
         <f t="shared" si="4"/>
-        <v>3.2738095238095242</v>
+        <v>0.39824153090250836</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>574</v>
-      </c>
-      <c r="B354" s="14">
-        <v>20000</v>
-      </c>
-      <c r="C354">
-        <v>86</v>
+      <c r="A354" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B354" s="3">
+        <v>12677</v>
+      </c>
+      <c r="C354" s="2">
+        <v>96</v>
       </c>
       <c r="D354">
         <f t="shared" si="4"/>
-        <v>0.43</v>
+        <v>0.75727695827088426</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>575</v>
-      </c>
-      <c r="B355" s="14">
-        <v>8600</v>
-      </c>
-      <c r="C355">
-        <v>22</v>
+      <c r="A355" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B355" s="3">
+        <v>19000</v>
+      </c>
+      <c r="C355" s="2">
+        <v>133</v>
       </c>
       <c r="D355">
         <f t="shared" si="4"/>
-        <v>0.25581395348837205</v>
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B356" s="3">
+        <v>13920</v>
+      </c>
+      <c r="C356" s="2">
+        <v>226</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="4"/>
+        <v>1.6235632183908044</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B357" s="3">
+        <v>44223</v>
+      </c>
+      <c r="C357" s="2">
+        <v>35</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="4"/>
+        <v>7.9144336657395481E-2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B358" s="3">
+        <v>66814</v>
+      </c>
+      <c r="C358" s="2">
+        <v>95</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="4"/>
+        <v>0.14218576944951658</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B359" s="3">
+        <v>41384</v>
+      </c>
+      <c r="C359" s="2">
+        <v>43</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="4"/>
+        <v>0.10390489077904504</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B360" s="3">
+        <v>29327</v>
+      </c>
+      <c r="C360" s="2">
+        <v>104</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="4"/>
+        <v>0.35462202066355236</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B361" s="3">
+        <v>3880</v>
+      </c>
+      <c r="C361" s="2">
+        <v>71</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="4"/>
+        <v>1.829896907216495</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B362" s="3">
+        <v>1081</v>
+      </c>
+      <c r="C362" s="2">
+        <v>27</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="4"/>
+        <v>2.497687326549491</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B363" s="3">
+        <v>3490</v>
+      </c>
+      <c r="C363" s="2">
+        <v>56</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="4"/>
+        <v>1.6045845272206303</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B364" s="3">
+        <v>35890</v>
+      </c>
+      <c r="C364" s="2">
+        <v>81</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="4"/>
+        <v>0.22568960713290612</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B365" s="3">
+        <v>60709</v>
+      </c>
+      <c r="C365" s="2">
+        <v>26</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="4"/>
+        <v>4.2827257902452683E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B366" s="3">
+        <v>24441</v>
+      </c>
+      <c r="C366" s="2">
+        <v>182</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="4"/>
+        <v>0.74465038255390525</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B367" s="3">
+        <v>69782</v>
+      </c>
+      <c r="C367">
+        <v>54</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="4"/>
+        <v>7.738385256943052E-2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B368" s="3">
+        <v>4329</v>
+      </c>
+      <c r="C368">
+        <v>84</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="4"/>
+        <v>1.9404019404019404</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B369" s="3">
+        <v>53344</v>
+      </c>
+      <c r="C369">
+        <v>48</v>
+      </c>
+      <c r="D369">
+        <f t="shared" ref="D369:D380" si="5">C369/B369*100</f>
+        <v>8.9982003599280144E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B370" s="3">
+        <v>3991</v>
+      </c>
+      <c r="C370">
+        <v>54</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="5"/>
+        <v>1.3530443497870208</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B371" s="3">
+        <v>3360</v>
+      </c>
+      <c r="C371">
+        <v>76</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="5"/>
+        <v>2.2619047619047619</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B372" s="3">
+        <v>340</v>
+      </c>
+      <c r="C372">
+        <v>50</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="5"/>
+        <v>14.705882352941178</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B373" s="3">
+        <v>15967</v>
+      </c>
+      <c r="C373">
+        <v>95</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="5"/>
+        <v>0.59497714035197602</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B374" s="3">
+        <v>71777</v>
+      </c>
+      <c r="C374">
+        <v>87</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="5"/>
+        <v>0.12120874374799727</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B375" s="3">
+        <v>29400</v>
+      </c>
+      <c r="C375">
+        <v>306</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="5"/>
+        <v>1.0408163265306123</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B376" s="3">
+        <v>53193</v>
+      </c>
+      <c r="C376">
+        <v>76</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="5"/>
+        <v>0.14287594232323803</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B377" s="3">
+        <v>58474</v>
+      </c>
+      <c r="C377">
+        <v>79</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="5"/>
+        <v>0.1351027807230564</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B378" s="3">
+        <v>60313</v>
+      </c>
+      <c r="C378">
+        <v>75</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="5"/>
+        <v>0.12435130071460547</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B379" s="3">
+        <v>47426</v>
+      </c>
+      <c r="C379">
+        <v>148</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="5"/>
+        <v>0.31206511196390163</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B380" s="3">
+        <v>3630</v>
+      </c>
+      <c r="C380">
+        <v>93</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="5"/>
+        <v>2.5619834710743801</v>
       </c>
     </row>
   </sheetData>
@@ -9312,8 +10158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D67" sqref="A4:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10292,10 +11138,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10349,7 +11195,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D54" si="0">C4/B4*100</f>
+        <f t="shared" ref="D4:D58" si="0">C4/B4*100</f>
         <v>9.1150442477876098E-2</v>
       </c>
     </row>
@@ -11069,6 +11915,51 @@
     <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B56" s="3">
+        <v>30000</v>
+      </c>
+      <c r="C56" s="2">
+        <v>105</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B57" s="3">
+        <v>99900</v>
+      </c>
+      <c r="C57" s="2">
+        <v>239</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23923923923923926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B58" s="3">
+        <v>127000</v>
+      </c>
+      <c r="C58">
+        <v>170</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13385826771653542</v>
       </c>
     </row>
   </sheetData>
@@ -11082,10 +11973,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500971C4-A847-4939-A5E5-85DF2BEEF60A}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11316,6 +12207,21 @@
     <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B20" s="3">
+        <v>56600</v>
+      </c>
+      <c r="C20" s="2">
+        <v>126</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="2">C20/B20*100</f>
+        <v>0.22261484098939927</v>
       </c>
     </row>
   </sheetData>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FB6CA2-C6A2-4A29-863C-A4913F7BBAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCE8968-77B8-4B6E-918A-7D356E5989E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2756,14 +2756,14 @@
         <v>565</v>
       </c>
       <c r="B32" s="3">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C32" s="2">
         <v>16</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>4.43213296398892</v>
+        <v>4.4198895027624303</v>
       </c>
     </row>
   </sheetData>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCE8968-77B8-4B6E-918A-7D356E5989E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A001E78-CD3F-4792-95D4-09412E67CD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="625">
   <si>
     <t>Ссылка</t>
   </si>
@@ -670,9 +670,6 @@
   </si>
   <si>
     <t>15.06 - 22.06</t>
-  </si>
-  <si>
-    <t>16.09 - 22.06</t>
   </si>
   <si>
     <t>https://ok.ru/group/70000036196257/topic/157192561585569</t>
@@ -2347,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -2523,12 +2520,12 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="14">
         <v>12000</v>
@@ -2543,12 +2540,12 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B17" s="3">
         <v>16360</v>
@@ -2563,7 +2560,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" s="3">
         <v>18452</v>
@@ -2578,7 +2575,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B19" s="3">
         <v>29700</v>
@@ -2593,7 +2590,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B20" s="3">
         <v>34700</v>
@@ -2608,7 +2605,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B21" s="3">
         <v>36700</v>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" s="3">
         <v>31000</v>
@@ -2638,7 +2635,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B23" s="3">
         <v>58000</v>
@@ -2653,7 +2650,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B24" s="3">
         <v>3600</v>
@@ -2668,17 +2665,17 @@
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B27" s="3">
         <v>60626</v>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B28" s="3">
         <v>14439</v>
@@ -2708,7 +2705,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B29" s="3">
         <v>51055</v>
@@ -2723,7 +2720,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B30" s="3">
         <v>32438</v>
@@ -2738,7 +2735,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B31" s="3">
         <v>3540</v>
@@ -2753,7 +2750,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B32" s="3">
         <v>362</v>
@@ -2776,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14081303-9170-4EFA-93A2-E3A160BF1A11}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2937,17 +2934,17 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B13" s="3">
         <v>3200</v>
@@ -2962,7 +2959,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B14" s="3">
         <v>33000</v>
@@ -2977,7 +2974,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B15" s="3">
         <v>29900</v>
@@ -2992,12 +2989,12 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B17" s="3">
         <v>76172</v>
@@ -3012,7 +3009,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B18" s="3">
         <v>77844</v>
@@ -3027,7 +3024,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B19" s="3">
         <v>3340</v>
@@ -3042,12 +3039,12 @@
     </row>
     <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B21" s="3">
         <v>24646</v>
@@ -3062,7 +3059,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B22" s="3">
         <v>48699</v>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B23" s="3">
         <v>3509</v>
@@ -3101,7 +3098,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3186,7 +3183,7 @@
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -3201,7 +3198,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>26500</v>
@@ -3216,12 +3213,12 @@
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9">
         <v>28300</v>
@@ -3236,7 +3233,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10">
         <v>29900</v>
@@ -3251,12 +3248,12 @@
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B12" s="2">
         <v>28400</v>
@@ -3271,12 +3268,12 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B14" s="3">
         <v>29500</v>
@@ -3291,7 +3288,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B15" s="3">
         <v>29900</v>
@@ -3306,12 +3303,12 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B17" s="3">
         <v>31500</v>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B18" s="3">
         <v>30138</v>
@@ -3393,17 +3390,17 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B7" s="3">
         <v>41000</v>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B8" s="3">
         <v>7000</v>
@@ -3433,17 +3430,17 @@
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B11" s="3">
         <v>49835</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B12" s="3">
         <v>57277</v>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14">
         <v>119</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15">
         <v>22200</v>
@@ -3710,7 +3707,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16">
         <v>617</v>
@@ -3725,7 +3722,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17">
         <v>19800</v>
@@ -3740,12 +3737,12 @@
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19">
         <v>2652</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B20">
         <v>774</v>
@@ -3775,7 +3772,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21">
         <v>1900</v>
@@ -3790,7 +3787,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B22">
         <v>4059</v>
@@ -3805,7 +3802,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B23">
         <v>53100</v>
@@ -3820,7 +3817,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B24">
         <v>57000</v>
@@ -3835,7 +3832,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B25">
         <v>917</v>
@@ -3850,7 +3847,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B26">
         <v>3000</v>
@@ -3865,12 +3862,12 @@
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B28" s="3">
         <v>1009</v>
@@ -3885,7 +3882,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" s="3">
         <v>45</v>
@@ -3900,7 +3897,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B30" s="3">
         <v>9823</v>
@@ -3915,7 +3912,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B31" s="3">
         <v>10554</v>
@@ -3930,7 +3927,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B32" s="3">
         <v>25700</v>
@@ -3945,7 +3942,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B33" s="3">
         <v>35900</v>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B34" s="3">
         <v>31900</v>
@@ -3975,7 +3972,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B35" s="3">
         <v>40000</v>
@@ -3990,7 +3987,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36" s="3">
         <v>62705</v>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B37" s="3">
         <v>46500</v>
@@ -4020,7 +4017,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B38" s="3">
         <v>3501</v>
@@ -4035,7 +4032,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B39" s="3">
         <v>42800</v>
@@ -4050,7 +4047,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" s="3">
         <v>48000</v>
@@ -4065,7 +4062,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" s="3">
         <v>3358</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B42" s="3">
         <v>30500</v>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B43" s="3">
         <v>15200</v>
@@ -4110,7 +4107,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" s="3">
         <v>58082</v>
@@ -4125,7 +4122,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B45" s="3">
         <v>61600</v>
@@ -4140,7 +4137,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B46" s="3">
         <v>32500</v>
@@ -4155,7 +4152,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B47" s="12">
         <v>1500</v>
@@ -4170,12 +4167,12 @@
     </row>
     <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B49" s="3">
         <v>20887</v>
@@ -4190,7 +4187,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B50" s="3">
         <v>1596</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B51" s="3">
         <v>16000</v>
@@ -4220,7 +4217,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B52" s="3">
         <v>143</v>
@@ -4235,7 +4232,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B53" s="3">
         <v>883</v>
@@ -4250,7 +4247,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B54" s="3">
         <v>49728</v>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B55" s="3">
         <v>45423</v>
@@ -4280,7 +4277,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B56" s="3">
         <v>25730</v>
@@ -4295,7 +4292,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B57" s="3">
         <v>16798</v>
@@ -4310,7 +4307,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B58" s="3">
         <v>3121</v>
@@ -4325,7 +4322,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B59" s="3">
         <v>22674</v>
@@ -4340,12 +4337,12 @@
     </row>
     <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B61" s="3">
         <v>3700</v>
@@ -4360,7 +4357,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B62" s="3">
         <v>32474</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B63" s="3">
         <v>26036</v>
@@ -4390,7 +4387,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B64" s="3">
         <v>55605</v>
@@ -4405,7 +4402,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B65" s="3">
         <v>25435</v>
@@ -4420,7 +4417,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B66" s="3">
         <v>87836</v>
@@ -4435,7 +4432,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B67" s="3">
         <v>43383</v>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B68" s="3">
         <v>3520</v>
@@ -4465,7 +4462,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B69" s="3">
         <v>29000</v>
@@ -4480,7 +4477,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B70" s="3">
         <v>27749</v>
@@ -4503,7 +4500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
   <dimension ref="A1:D380"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="G376" sqref="G376"/>
     </sheetView>
   </sheetViews>
@@ -6659,7 +6656,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B146" s="14">
         <v>6524</v>
@@ -6674,7 +6671,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B147" s="14">
         <v>3203</v>
@@ -6689,7 +6686,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B148" s="14">
         <v>24000</v>
@@ -6704,7 +6701,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B149" s="14">
         <v>8100</v>
@@ -6719,7 +6716,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B150" s="14">
         <v>40300</v>
@@ -6734,7 +6731,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B151" s="14">
         <v>1900</v>
@@ -6749,7 +6746,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B152" s="14">
         <v>3335</v>
@@ -6764,7 +6761,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B153" s="14">
         <v>22000</v>
@@ -6779,7 +6776,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B154" s="14">
         <v>8300</v>
@@ -6794,7 +6791,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B155" s="14">
         <v>18600</v>
@@ -6809,7 +6806,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B156" s="14">
         <v>3366</v>
@@ -6824,7 +6821,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B157" s="14">
         <v>8300</v>
@@ -6839,7 +6836,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B158" s="14">
         <v>21000</v>
@@ -6854,7 +6851,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B159" s="14">
         <v>9200</v>
@@ -6869,7 +6866,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B160" s="14">
         <v>27100</v>
@@ -6884,7 +6881,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B161" s="14">
         <v>26700</v>
@@ -6899,7 +6896,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B162" s="14">
         <v>277</v>
@@ -6914,7 +6911,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B163" s="14">
         <v>403</v>
@@ -6929,7 +6926,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B164" s="14">
         <v>395</v>
@@ -6944,7 +6941,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B165" s="14">
         <v>331</v>
@@ -6959,7 +6956,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B166" s="14">
         <v>627</v>
@@ -6974,7 +6971,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B167" s="14">
         <v>407</v>
@@ -6989,7 +6986,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B168" s="14">
         <v>268</v>
@@ -7004,7 +7001,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B169" s="14">
         <v>222</v>
@@ -7019,7 +7016,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B170" s="14">
         <v>299</v>
@@ -7034,7 +7031,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B171" s="14">
         <v>223</v>
@@ -7049,7 +7046,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B172" s="14">
         <v>79</v>
@@ -7064,7 +7061,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B173" s="14">
         <v>335</v>
@@ -7079,12 +7076,12 @@
     </row>
     <row r="174" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B175" s="14">
         <v>228</v>
@@ -7099,7 +7096,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B176" s="14">
         <v>186</v>
@@ -7114,7 +7111,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B177" s="14">
         <v>77</v>
@@ -7129,7 +7126,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B178" s="14">
         <v>227</v>
@@ -7144,7 +7141,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" s="14">
         <v>365</v>
@@ -7159,7 +7156,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" s="14">
         <v>317</v>
@@ -7174,7 +7171,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" s="14">
         <v>338</v>
@@ -7189,7 +7186,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" s="14">
         <v>376</v>
@@ -7204,7 +7201,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" s="14">
         <v>396</v>
@@ -7219,7 +7216,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" s="14">
         <v>1943</v>
@@ -7234,7 +7231,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" s="14">
         <v>520</v>
@@ -7249,7 +7246,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" s="14">
         <v>475</v>
@@ -7264,7 +7261,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" s="14">
         <v>281</v>
@@ -7279,7 +7276,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" s="14">
         <v>1241</v>
@@ -7294,7 +7291,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" s="14">
         <v>333</v>
@@ -7309,7 +7306,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" s="14">
         <v>475</v>
@@ -7324,7 +7321,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" s="14">
         <v>452</v>
@@ -7339,7 +7336,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" s="14">
         <v>311</v>
@@ -7354,7 +7351,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" s="14">
         <v>996</v>
@@ -7369,7 +7366,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" s="14">
         <v>737</v>
@@ -7384,7 +7381,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" s="14">
         <v>1946</v>
@@ -7399,7 +7396,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" s="14">
         <v>460</v>
@@ -7414,7 +7411,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" s="14">
         <v>1834</v>
@@ -7429,7 +7426,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" s="14">
         <v>582</v>
@@ -7444,7 +7441,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" s="14">
         <v>28100</v>
@@ -7459,7 +7456,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" s="14">
         <v>2500</v>
@@ -7474,7 +7471,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" s="14">
         <v>19000</v>
@@ -7489,7 +7486,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" s="14">
         <v>1200</v>
@@ -7504,7 +7501,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" s="14">
         <v>2700</v>
@@ -7519,7 +7516,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" s="14">
         <v>1600</v>
@@ -7534,7 +7531,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" s="14">
         <v>2200</v>
@@ -7549,7 +7546,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" s="14">
         <v>355</v>
@@ -7564,7 +7561,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" s="14">
         <v>3890</v>
@@ -7579,7 +7576,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" s="14">
         <v>41600</v>
@@ -7594,7 +7591,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" s="14">
         <v>169000</v>
@@ -7609,7 +7606,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" s="14">
         <v>5500</v>
@@ -7624,7 +7621,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B211" s="14">
         <v>173000</v>
@@ -7639,7 +7636,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B212" s="14">
         <v>13000</v>
@@ -7654,7 +7651,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B213" s="14">
         <v>69000</v>
@@ -7669,7 +7666,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B214" s="14">
         <v>3646</v>
@@ -7684,7 +7681,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B215" s="14">
         <v>44900</v>
@@ -7699,7 +7696,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B216" s="14">
         <v>64000</v>
@@ -7714,7 +7711,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B217" s="14">
         <v>27500</v>
@@ -7729,7 +7726,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B218" s="14">
         <v>12400</v>
@@ -7744,7 +7741,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B219" s="14">
         <v>5790</v>
@@ -7759,7 +7756,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B220" s="14">
         <v>48700</v>
@@ -7774,7 +7771,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B221" s="14">
         <v>143000</v>
@@ -7789,7 +7786,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B222" s="14">
         <v>151000</v>
@@ -7804,7 +7801,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B223" s="14">
         <v>24900</v>
@@ -7819,7 +7816,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B224" s="14">
         <v>26800</v>
@@ -7834,7 +7831,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B225" s="14">
         <v>100000</v>
@@ -7849,7 +7846,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B226" s="14">
         <v>17600</v>
@@ -7864,7 +7861,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B227" s="14">
         <v>3289</v>
@@ -7879,7 +7876,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B228" s="14">
         <v>31000</v>
@@ -7894,7 +7891,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B229" s="14">
         <v>101000</v>
@@ -7909,7 +7906,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B230" s="14">
         <v>14600</v>
@@ -7924,7 +7921,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B231" s="14">
         <v>30500</v>
@@ -7939,7 +7936,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B232" s="14">
         <v>126000</v>
@@ -7954,7 +7951,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B233" s="14">
         <v>10500</v>
@@ -7969,7 +7966,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B234" s="14">
         <v>9800</v>
@@ -7984,7 +7981,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B235" s="14">
         <v>3079</v>
@@ -7999,7 +7996,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B236" s="14">
         <v>23800</v>
@@ -8014,7 +8011,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B237" s="14">
         <v>97000</v>
@@ -8029,7 +8026,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B238" s="14">
         <v>89000</v>
@@ -8044,7 +8041,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B239" s="14">
         <v>339</v>
@@ -8059,7 +8056,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B240" s="14">
         <v>72000</v>
@@ -8074,7 +8071,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B241" s="14">
         <v>28700</v>
@@ -8089,7 +8086,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B242" s="14">
         <v>2603</v>
@@ -8104,7 +8101,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B243" s="14">
         <v>10400</v>
@@ -8119,7 +8116,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B244" s="14">
         <v>61000</v>
@@ -8134,7 +8131,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B245" s="14">
         <v>359</v>
@@ -8149,7 +8146,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B246" s="14">
         <v>3362</v>
@@ -8164,7 +8161,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B247" s="14">
         <v>1700</v>
@@ -8179,7 +8176,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B248" s="14">
         <v>85</v>
@@ -8194,7 +8191,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B249" s="14">
         <v>563</v>
@@ -8209,7 +8206,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B250" s="14">
         <v>662</v>
@@ -8224,7 +8221,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B251" s="14">
         <v>3074</v>
@@ -8239,7 +8236,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B252" s="14">
         <v>6300</v>
@@ -8254,7 +8251,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B253" s="14">
         <v>79</v>
@@ -8269,7 +8266,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B254" s="14">
         <v>3296</v>
@@ -8284,7 +8281,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B255" s="14">
         <v>2400</v>
@@ -8299,7 +8296,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B256" s="14">
         <v>68</v>
@@ -8314,7 +8311,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B257" s="14">
         <v>2982</v>
@@ -8329,7 +8326,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B258" s="14">
         <v>12500</v>
@@ -8344,7 +8341,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B259" s="14">
         <v>145</v>
@@ -8359,12 +8356,12 @@
     </row>
     <row r="260" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B261" s="3">
         <v>9200</v>
@@ -8379,7 +8376,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B262" s="3">
         <v>2194</v>
@@ -8394,7 +8391,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B263" s="3">
         <v>8764</v>
@@ -8409,7 +8406,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B264" s="3">
         <v>9200</v>
@@ -8424,7 +8421,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B265" s="3">
         <v>4483</v>
@@ -8439,7 +8436,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B266" s="3">
         <v>2802</v>
@@ -8454,7 +8451,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B267" s="3">
         <v>10565</v>
@@ -8469,7 +8466,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B268" s="3">
         <v>6217</v>
@@ -8484,7 +8481,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B269" s="3">
         <v>15353</v>
@@ -8499,7 +8496,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B270" s="3">
         <v>3819</v>
@@ -8514,7 +8511,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B271" s="3">
         <v>9617</v>
@@ -8529,7 +8526,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B272" s="3">
         <v>2323</v>
@@ -8544,7 +8541,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B273" s="3">
         <v>2239</v>
@@ -8559,7 +8556,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B274" s="3">
         <v>13078</v>
@@ -8574,7 +8571,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B275" s="3">
         <v>3151</v>
@@ -8589,7 +8586,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B276" s="3">
         <v>13231</v>
@@ -8604,7 +8601,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B277" s="3">
         <v>10500</v>
@@ -8619,7 +8616,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B278" s="3">
         <v>31000</v>
@@ -8634,7 +8631,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B279" s="3">
         <v>6000</v>
@@ -8649,7 +8646,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B280" s="3">
         <v>4600</v>
@@ -8664,7 +8661,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B281" s="3">
         <v>29000</v>
@@ -8679,7 +8676,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B282" s="3">
         <v>19100</v>
@@ -8694,7 +8691,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B283" s="3">
         <v>18235</v>
@@ -8709,7 +8706,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B284" s="3">
         <v>15900</v>
@@ -8724,7 +8721,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B285" s="3">
         <v>31269</v>
@@ -8739,7 +8736,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B286" s="3">
         <v>3436</v>
@@ -8754,7 +8751,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B287" s="3">
         <v>31600</v>
@@ -8769,7 +8766,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B288" s="3">
         <v>20400</v>
@@ -8784,7 +8781,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B289" s="3">
         <v>32300</v>
@@ -8799,7 +8796,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B290" s="3">
         <v>23300</v>
@@ -8814,7 +8811,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B291" s="3">
         <v>2518</v>
@@ -8829,7 +8826,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B292" s="3">
         <v>11428</v>
@@ -8844,7 +8841,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B293" s="3">
         <v>45140</v>
@@ -8859,7 +8856,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B294" s="3">
         <v>43000</v>
@@ -8874,7 +8871,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B295" s="3">
         <v>24700</v>
@@ -8889,7 +8886,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B296" s="3">
         <v>3200</v>
@@ -8904,7 +8901,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B297" s="3">
         <v>10600</v>
@@ -8919,7 +8916,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B298" s="3">
         <v>29600</v>
@@ -8934,7 +8931,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B299" s="3">
         <v>80495</v>
@@ -8949,7 +8946,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B300" s="3">
         <v>26000</v>
@@ -8964,7 +8961,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B301" s="3">
         <v>35100</v>
@@ -8979,7 +8976,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B302" s="3">
         <v>531</v>
@@ -8994,7 +8991,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B303" s="3">
         <v>117000</v>
@@ -9009,7 +9006,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B304" s="3">
         <v>10800</v>
@@ -9024,7 +9021,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B305" s="3">
         <v>110455</v>
@@ -9039,7 +9036,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B306" s="3">
         <v>3500</v>
@@ -9054,7 +9051,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B307" s="3">
         <v>61000</v>
@@ -9069,12 +9066,12 @@
     </row>
     <row r="308" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B309" s="3">
         <v>47182</v>
@@ -9089,7 +9086,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B310" s="3">
         <v>27550</v>
@@ -9104,7 +9101,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B311" s="3">
         <v>2990</v>
@@ -9119,7 +9116,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B312" s="3">
         <v>9360</v>
@@ -9134,7 +9131,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B313" s="3">
         <v>17134</v>
@@ -9149,7 +9146,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B314" s="3">
         <v>3220</v>
@@ -9164,7 +9161,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B315" s="3">
         <v>35642</v>
@@ -9179,7 +9176,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B316" s="3">
         <v>22263</v>
@@ -9194,7 +9191,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B317" s="3">
         <v>44849</v>
@@ -9209,7 +9206,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B318" s="3">
         <v>3360</v>
@@ -9224,7 +9221,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B319" s="3">
         <v>15313</v>
@@ -9239,7 +9236,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B320" s="3">
         <v>49496</v>
@@ -9254,7 +9251,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B321" s="3">
         <v>44445</v>
@@ -9269,7 +9266,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B322" s="3">
         <v>3350</v>
@@ -9284,7 +9281,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B323" s="3">
         <v>29633</v>
@@ -9299,7 +9296,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B324" s="3">
         <v>23685</v>
@@ -9314,7 +9311,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B325" s="3">
         <v>11857</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B326" s="3">
         <v>62203</v>
@@ -9344,7 +9341,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B327" s="3">
         <v>30500</v>
@@ -9359,7 +9356,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B328" s="3">
         <v>31100</v>
@@ -9374,7 +9371,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B329" s="3">
         <v>51998</v>
@@ -9389,7 +9386,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B330" s="3">
         <v>25049</v>
@@ -9404,7 +9401,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B331" s="3">
         <v>17144</v>
@@ -9419,7 +9416,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B332" s="3">
         <v>104993</v>
@@ -9434,7 +9431,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B333" s="3">
         <v>2084</v>
@@ -9449,7 +9446,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B334" s="3">
         <v>12204</v>
@@ -9464,7 +9461,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B335" s="3">
         <v>69438</v>
@@ -9479,7 +9476,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B336" s="3">
         <v>267848</v>
@@ -9494,7 +9491,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B337" s="3">
         <v>119595</v>
@@ -9509,7 +9506,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B338" s="3">
         <v>66278</v>
@@ -9524,7 +9521,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B339" s="3">
         <v>3332</v>
@@ -9539,7 +9536,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B340" s="3">
         <v>3116</v>
@@ -9554,12 +9551,12 @@
     </row>
     <row r="341" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B342" s="3">
         <v>14931</v>
@@ -9574,7 +9571,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B343" s="3">
         <v>4572</v>
@@ -9589,7 +9586,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B344" s="3">
         <v>19952</v>
@@ -9604,7 +9601,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B345" s="3">
         <v>26400</v>
@@ -9619,7 +9616,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B346" s="3">
         <v>20000</v>
@@ -9634,7 +9631,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B347" s="3">
         <v>21336</v>
@@ -9649,7 +9646,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B348" s="3">
         <v>20475</v>
@@ -9664,7 +9661,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B349" s="3">
         <v>3730</v>
@@ -9679,7 +9676,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B350" s="3">
         <v>69000</v>
@@ -9694,7 +9691,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B351" s="3">
         <v>37583</v>
@@ -9709,7 +9706,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B352" s="3">
         <v>36371</v>
@@ -9724,7 +9721,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B353" s="3">
         <v>19335</v>
@@ -9739,7 +9736,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B354" s="3">
         <v>12677</v>
@@ -9754,7 +9751,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B355" s="3">
         <v>19000</v>
@@ -9769,7 +9766,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B356" s="3">
         <v>13920</v>
@@ -9784,7 +9781,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B357" s="3">
         <v>44223</v>
@@ -9799,7 +9796,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B358" s="3">
         <v>66814</v>
@@ -9814,7 +9811,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B359" s="3">
         <v>41384</v>
@@ -9829,7 +9826,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B360" s="3">
         <v>29327</v>
@@ -9844,7 +9841,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B361" s="3">
         <v>3880</v>
@@ -9859,7 +9856,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B362" s="3">
         <v>1081</v>
@@ -9874,7 +9871,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B363" s="3">
         <v>3490</v>
@@ -9889,7 +9886,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B364" s="3">
         <v>35890</v>
@@ -9904,7 +9901,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B365" s="3">
         <v>60709</v>
@@ -9919,7 +9916,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B366" s="3">
         <v>24441</v>
@@ -9934,7 +9931,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B367" s="3">
         <v>69782</v>
@@ -9949,7 +9946,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B368" s="3">
         <v>4329</v>
@@ -9964,7 +9961,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B369" s="3">
         <v>53344</v>
@@ -9979,7 +9976,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B370" s="3">
         <v>3991</v>
@@ -9994,7 +9991,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B371" s="3">
         <v>3360</v>
@@ -10009,7 +10006,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B372" s="3">
         <v>340</v>
@@ -10024,7 +10021,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B373" s="3">
         <v>15967</v>
@@ -10039,7 +10036,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B374" s="3">
         <v>71777</v>
@@ -10054,7 +10051,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B375" s="3">
         <v>29400</v>
@@ -10069,7 +10066,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B376" s="3">
         <v>53193</v>
@@ -10084,7 +10081,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B377" s="3">
         <v>58474</v>
@@ -10099,7 +10096,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B378" s="3">
         <v>60313</v>
@@ -10114,7 +10111,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B379" s="3">
         <v>47426</v>
@@ -10129,7 +10126,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B380" s="3">
         <v>3630</v>
@@ -10317,12 +10314,12 @@
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="14">
         <v>241</v>
@@ -10337,7 +10334,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="14">
         <v>292</v>
@@ -10352,7 +10349,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="14">
         <v>342</v>
@@ -10367,7 +10364,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B16" s="14">
         <v>304</v>
@@ -10382,7 +10379,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="14">
         <v>598</v>
@@ -10397,7 +10394,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="14">
         <v>387</v>
@@ -10412,7 +10409,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="14">
         <v>284</v>
@@ -10427,7 +10424,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="14">
         <v>213</v>
@@ -10442,7 +10439,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" s="14">
         <v>287</v>
@@ -10457,7 +10454,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="14">
         <v>409</v>
@@ -10472,7 +10469,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="14">
         <v>324</v>
@@ -10487,7 +10484,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="14">
         <v>275</v>
@@ -10502,7 +10499,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="14">
         <v>213</v>
@@ -10517,7 +10514,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="14">
         <v>74</v>
@@ -10532,7 +10529,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="14">
         <v>374</v>
@@ -10547,7 +10544,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="14">
         <v>430</v>
@@ -10562,7 +10559,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" s="14">
         <v>318</v>
@@ -10577,7 +10574,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="14">
         <v>154</v>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="14">
         <v>1714</v>
@@ -10607,7 +10604,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" s="14">
         <v>878</v>
@@ -10622,7 +10619,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" s="14">
         <v>1640</v>
@@ -10637,7 +10634,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="14">
         <v>1743</v>
@@ -10652,7 +10649,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" s="14">
         <v>827</v>
@@ -10667,7 +10664,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" s="14">
         <v>474</v>
@@ -10682,7 +10679,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37">
         <v>29300</v>
@@ -10697,7 +10694,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B38">
         <v>148000</v>
@@ -10712,17 +10709,17 @@
     </row>
     <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B41" s="3">
         <v>488</v>
@@ -10737,7 +10734,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B42" s="3">
         <v>955</v>
@@ -10752,7 +10749,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B43" s="3">
         <v>2230</v>
@@ -10767,7 +10764,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B44" s="3">
         <v>1690</v>
@@ -10782,7 +10779,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B45" s="3">
         <v>1150</v>
@@ -10797,7 +10794,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B46" s="3">
         <v>2290</v>
@@ -10812,7 +10809,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B47" s="3">
         <v>187</v>
@@ -10827,7 +10824,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B48" s="3">
         <v>376</v>
@@ -10842,7 +10839,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B49" s="3">
         <v>653</v>
@@ -10857,7 +10854,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B50" s="3">
         <v>437</v>
@@ -10872,7 +10869,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B51" s="3">
         <v>72</v>
@@ -10887,7 +10884,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B52" s="3">
         <v>260</v>
@@ -10902,7 +10899,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B53" s="3">
         <v>374</v>
@@ -10917,7 +10914,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B54" s="3">
         <v>404</v>
@@ -10932,7 +10929,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B55" s="3">
         <v>506</v>
@@ -10947,7 +10944,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B56" s="3">
         <v>329</v>
@@ -10962,7 +10959,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B57" s="3">
         <v>260</v>
@@ -10977,7 +10974,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B58" s="3">
         <v>277</v>
@@ -10992,7 +10989,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B59" s="3">
         <v>454</v>
@@ -11007,7 +11004,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B60" s="3">
         <v>786</v>
@@ -11022,7 +11019,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B61" s="3">
         <v>399</v>
@@ -11037,7 +11034,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B62" s="3">
         <v>438</v>
@@ -11052,7 +11049,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B63" s="3">
         <v>383</v>
@@ -11067,7 +11064,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B64" s="3">
         <v>343</v>
@@ -11082,7 +11079,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B65" s="3">
         <v>70339</v>
@@ -11097,7 +11094,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B66" s="3">
         <v>127269</v>
@@ -11112,7 +11109,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B67" s="3">
         <v>132760</v>
@@ -11127,7 +11124,7 @@
     </row>
     <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -11389,12 +11386,12 @@
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B19" s="14">
         <v>389</v>
@@ -11409,7 +11406,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B20" s="14">
         <v>1700</v>
@@ -11424,7 +11421,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="14">
         <v>141000</v>
@@ -11439,7 +11436,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B22" s="14">
         <v>22400</v>
@@ -11454,12 +11451,12 @@
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" s="3">
         <v>1100</v>
@@ -11474,7 +11471,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B25" s="3">
         <v>281000</v>
@@ -11489,7 +11486,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B26" s="3">
         <v>2500</v>
@@ -11504,7 +11501,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B27" s="3">
         <v>442</v>
@@ -11519,7 +11516,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B28" s="3">
         <v>893</v>
@@ -11534,7 +11531,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B29" s="3">
         <v>2200</v>
@@ -11549,7 +11546,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B30" s="3">
         <v>1800</v>
@@ -11564,7 +11561,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B31" s="3">
         <v>2200</v>
@@ -11579,7 +11576,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B32" s="3">
         <v>155</v>
@@ -11594,7 +11591,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B33" s="3">
         <v>367</v>
@@ -11609,7 +11606,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B34" s="3">
         <v>562</v>
@@ -11624,7 +11621,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B35" s="3">
         <v>387</v>
@@ -11639,7 +11636,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B36" s="3">
         <v>69</v>
@@ -11654,7 +11651,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B37" s="3">
         <v>233</v>
@@ -11669,7 +11666,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B38" s="3">
         <v>356</v>
@@ -11684,7 +11681,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B39" s="3">
         <v>537</v>
@@ -11699,7 +11696,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B40" s="3">
         <v>455</v>
@@ -11714,7 +11711,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B41" s="3">
         <v>300</v>
@@ -11729,7 +11726,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B42" s="3">
         <v>245</v>
@@ -11744,7 +11741,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B43" s="3">
         <v>287</v>
@@ -11759,7 +11756,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B44" s="3">
         <v>387</v>
@@ -11774,7 +11771,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B45" s="3">
         <v>723</v>
@@ -11789,7 +11786,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B46" s="3">
         <v>325</v>
@@ -11804,7 +11801,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" s="3">
         <v>422</v>
@@ -11819,7 +11816,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B48" s="3">
         <v>407</v>
@@ -11834,7 +11831,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B49" s="3">
         <v>246</v>
@@ -11849,12 +11846,12 @@
     </row>
     <row r="50" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B51" s="3">
         <v>59533</v>
@@ -11869,7 +11866,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B52" s="3">
         <v>64318</v>
@@ -11884,7 +11881,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B53" s="3">
         <v>63799</v>
@@ -11899,7 +11896,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B54" s="3">
         <v>116250</v>
@@ -11914,12 +11911,12 @@
     </row>
     <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B56" s="3">
         <v>30000</v>
@@ -11934,7 +11931,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B57" s="3">
         <v>99900</v>
@@ -11949,7 +11946,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B58" s="3">
         <v>127000</v>
@@ -12161,17 +12158,17 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B16" s="3">
         <v>52200</v>
@@ -12186,7 +12183,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" s="3">
         <v>52274</v>
@@ -12201,17 +12198,17 @@
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B20" s="3">
         <v>56600</v>
@@ -12275,22 +12272,22 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -12344,22 +12341,22 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -12413,22 +12410,22 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -12482,22 +12479,22 @@
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87827643-CE90-41F9-8069-AC14302EE5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CAD1F4-A44F-4FCD-B239-F6C3B1209B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="816">
   <si>
     <t>Ссылка</t>
   </si>
@@ -2341,6 +2341,159 @@
   </si>
   <si>
     <t>https://t.me/klg_alarm/13558</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-222134246_456239629</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158057119176013</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4336</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157263901781409</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24787</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13580</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47627</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/882</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3873</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_455392</t>
+  </si>
+  <si>
+    <t>https://ok.ru/milayakalu/topic/158057021789517</t>
+  </si>
+  <si>
+    <t>https://t.me/milaya_kaluga/3029</t>
+  </si>
+  <si>
+    <t>https://ok.ru/milayakalu/topic/158055505679693</t>
+  </si>
+  <si>
+    <t>https://t.me/milaya_kaluga/3023</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13596</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24805</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157265543458209</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157265297108385</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24800</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13590</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2798995</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/9865</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10249</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5804</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/16638</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11505</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6503</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7730</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2236</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6085</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12208</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3127</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6327</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6221</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7502</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8320</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5797</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6444</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5717</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8340</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6048</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/3963</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4654</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6817</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5680</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157422791160793</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4331</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158055924323661</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-204895491_456240741</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24808</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157265639009697</t>
   </si>
 </sst>
 </file>
@@ -2428,27 +2581,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2735,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2977,7 +3110,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E37" si="1">D13/C13*100</f>
+        <f t="shared" ref="E13:E51" si="1">D13/C13*100</f>
         <v>0.37936267071320184</v>
       </c>
     </row>
@@ -3411,6 +3544,258 @@
       <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>3.8766519823788546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C38" s="3">
+        <v>499</v>
+      </c>
+      <c r="D38" s="2">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>5.2104208416833666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C39" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D39" s="2">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23809523809523811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C40" s="3">
+        <v>548</v>
+      </c>
+      <c r="D40" s="2">
+        <v>57</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>10.401459854014599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C41" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C42" s="3">
+        <v>34077</v>
+      </c>
+      <c r="D42" s="2">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13498840860404376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3440</v>
+      </c>
+      <c r="D43" s="2">
+        <v>72</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0930232558139537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C44" s="3">
+        <v>26300</v>
+      </c>
+      <c r="D44" s="2">
+        <v>573</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1787072243346008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C45" s="3">
+        <v>28500</v>
+      </c>
+      <c r="D45" s="2">
+        <v>62</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21754385964912279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C46" s="3">
+        <v>17006</v>
+      </c>
+      <c r="D46" s="2">
+        <v>60</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.35281665294601905</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1455</v>
+      </c>
+      <c r="D47" s="2">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41237113402061859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C48" s="3">
+        <v>369</v>
+      </c>
+      <c r="D48" s="2">
+        <v>24</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5040650406504072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C49" s="3">
+        <v>307</v>
+      </c>
+      <c r="D49" s="2">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>19.54397394136808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C50" s="3">
+        <v>35000</v>
+      </c>
+      <c r="D50" s="2">
+        <v>28</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C51" s="3">
+        <v>411</v>
+      </c>
+      <c r="D51" s="2">
+        <v>48</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>11.678832116788321</v>
       </c>
     </row>
   </sheetData>
@@ -4337,10 +4722,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5553,7 +5938,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E81" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E84" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -5724,17 +6109,17 @@
         <v>713</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>760</v>
+        <v>813</v>
       </c>
       <c r="C77" s="3">
-        <v>14000</v>
+        <v>805</v>
       </c>
       <c r="D77" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>0.1142857142857143</v>
+        <v>2.6086956521739131</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -5742,17 +6127,17 @@
         <v>713</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>761</v>
+        <v>814</v>
       </c>
       <c r="C78" s="3">
-        <v>2800</v>
+        <v>866</v>
       </c>
       <c r="D78" s="2">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="1"/>
-        <v>2.1071428571428572</v>
+        <v>2.5404157043879905</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -5760,17 +6145,17 @@
         <v>713</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>762</v>
+        <v>815</v>
       </c>
       <c r="C79" s="3">
-        <v>24000</v>
+        <v>118</v>
       </c>
       <c r="D79" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="1"/>
-        <v>7.9166666666666663E-2</v>
+        <v>11.016949152542372</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -5778,17 +6163,17 @@
         <v>713</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C80" s="3">
-        <v>726</v>
+        <v>41229</v>
       </c>
       <c r="D80" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="1"/>
-        <v>3.0303030303030303</v>
+        <v>7.7615270804530789E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -5796,17 +6181,71 @@
         <v>713</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3120</v>
+      </c>
+      <c r="D81" s="2">
+        <v>60</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C82" s="3">
+        <v>64672</v>
+      </c>
+      <c r="D82" s="2">
+        <v>31</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7934190994557153E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C83" s="3">
+        <v>15045</v>
+      </c>
+      <c r="D83" s="2">
+        <v>30</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19940179461615154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C81" s="3">
-        <v>2820</v>
-      </c>
-      <c r="D81" s="2">
+      <c r="C84" s="3">
+        <v>3150</v>
+      </c>
+      <c r="D84" s="2">
         <v>57</v>
       </c>
-      <c r="E81" s="2">
-        <f t="shared" si="1"/>
-        <v>2.021276595744681</v>
+      <c r="E84" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8095238095238095</v>
       </c>
     </row>
   </sheetData>
@@ -5820,10 +6259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E445"/>
+  <dimension ref="A1:E452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I447" sqref="I447"/>
+    <sheetView topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="C457" sqref="C457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12740,7 +13179,7 @@
         <v>333</v>
       </c>
       <c r="E384" s="2">
-        <f t="shared" ref="E384:E445" si="5">D384/C384*100</f>
+        <f t="shared" ref="E384:E447" si="5">D384/C384*100</f>
         <v>1.1892857142857143</v>
       </c>
     </row>
@@ -13397,17 +13836,17 @@
         <v>713</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>688</v>
+        <v>779</v>
       </c>
       <c r="C421" s="3">
-        <v>23900</v>
+        <v>2760</v>
       </c>
       <c r="D421" s="2">
-        <v>446</v>
+        <v>69</v>
       </c>
       <c r="E421" s="2">
         <f t="shared" si="5"/>
-        <v>1.8661087866108785</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -13415,17 +13854,17 @@
         <v>713</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>689</v>
+        <v>780</v>
       </c>
       <c r="C422" s="3">
-        <v>19600</v>
+        <v>10178</v>
       </c>
       <c r="D422" s="2">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="E422" s="2">
         <f t="shared" si="5"/>
-        <v>0.70918367346938771</v>
+        <v>0.422479858518373</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -13433,17 +13872,17 @@
         <v>713</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>690</v>
+        <v>781</v>
       </c>
       <c r="C423" s="3">
-        <v>690</v>
+        <v>162</v>
       </c>
       <c r="D423" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E423" s="2">
         <f t="shared" si="5"/>
-        <v>0.28985507246376813</v>
+        <v>7.4074074074074066</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -13451,17 +13890,17 @@
         <v>713</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="C424" s="3">
-        <v>908</v>
+        <v>21000</v>
       </c>
       <c r="D424" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E424" s="2">
         <f t="shared" si="5"/>
-        <v>0.44052863436123352</v>
+        <v>8.0952380952380956E-2</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -13469,17 +13908,17 @@
         <v>713</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="C425" s="3">
-        <v>1763</v>
+        <v>11398</v>
       </c>
       <c r="D425" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E425" s="2">
         <f t="shared" si="5"/>
-        <v>0.51049347702779357</v>
+        <v>0.1754693805930865</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -13487,17 +13926,17 @@
         <v>713</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="C426" s="3">
-        <v>1163</v>
+        <v>2910</v>
       </c>
       <c r="D426" s="2">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E426" s="2">
         <f t="shared" si="5"/>
-        <v>0.17196904557179707</v>
+        <v>1.7869415807560136</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -13505,17 +13944,17 @@
         <v>713</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="C427" s="3">
-        <v>6100</v>
+        <v>5395</v>
       </c>
       <c r="D427" s="2">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E427" s="2">
         <f t="shared" si="5"/>
-        <v>0.70491803278688525</v>
+        <v>0.31510658016682114</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -13523,17 +13962,17 @@
         <v>713</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="C428" s="3">
-        <v>1066</v>
+        <v>29700</v>
       </c>
       <c r="D428" s="2">
-        <v>1</v>
+        <v>486</v>
       </c>
       <c r="E428" s="2">
         <f t="shared" si="5"/>
-        <v>9.3808630393996242E-2</v>
+        <v>1.6363636363636365</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -13541,17 +13980,17 @@
         <v>713</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C429" s="3">
-        <v>13000</v>
+        <v>27600</v>
       </c>
       <c r="D429" s="2">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="E429" s="2">
         <f t="shared" si="5"/>
-        <v>0.14615384615384616</v>
+        <v>0.62681159420289856</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -13559,17 +13998,17 @@
         <v>713</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C430" s="3">
-        <v>6010</v>
+        <v>1175</v>
       </c>
       <c r="D430" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E430" s="2">
         <f t="shared" si="5"/>
-        <v>0.28286189683860236</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -13577,17 +14016,17 @@
         <v>713</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="C431" s="3">
-        <v>14000</v>
+        <v>1205</v>
       </c>
       <c r="D431" s="2">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E431" s="2">
         <f t="shared" si="5"/>
-        <v>0.22142857142857142</v>
+        <v>0.41493775933609961</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -13595,17 +14034,17 @@
         <v>713</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="C432" s="3">
-        <v>4048</v>
+        <v>2889</v>
       </c>
       <c r="D432" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E432" s="2">
         <f t="shared" si="5"/>
-        <v>0.69169960474308301</v>
+        <v>0.4845967462789893</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -13613,17 +14052,17 @@
         <v>713</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C433" s="3">
-        <v>26000</v>
+        <v>1587</v>
       </c>
       <c r="D433" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E433" s="2">
         <f t="shared" si="5"/>
-        <v>0.13846153846153844</v>
+        <v>0.12602394454946439</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -13631,17 +14070,17 @@
         <v>713</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C434" s="3">
-        <v>10151</v>
+        <v>11168</v>
       </c>
       <c r="D434" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E434" s="2">
         <f t="shared" si="5"/>
-        <v>0.35464486257511579</v>
+        <v>0.42979942693409745</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -13649,17 +14088,17 @@
         <v>713</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C435" s="3">
-        <v>210</v>
+        <v>1781</v>
       </c>
       <c r="D435" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E435" s="2">
         <f t="shared" si="5"/>
-        <v>5.7142857142857144</v>
+        <v>5.6148231330713089E-2</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -13667,17 +14106,17 @@
         <v>713</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="C436" s="3">
-        <v>310</v>
+        <v>46032</v>
       </c>
       <c r="D436" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E436" s="2">
         <f t="shared" si="5"/>
-        <v>12.580645161290322</v>
+        <v>8.255126868265554E-2</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -13685,17 +14124,17 @@
         <v>713</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C437" s="3">
-        <v>2918</v>
+        <v>39164</v>
       </c>
       <c r="D437" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E437" s="2">
         <f t="shared" si="5"/>
-        <v>0.7539410555174777</v>
+        <v>6.6387498723317326E-2</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -13703,17 +14142,17 @@
         <v>713</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C438" s="3">
-        <v>20000</v>
+        <v>51571</v>
       </c>
       <c r="D438" s="2">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E438" s="2">
         <f t="shared" si="5"/>
-        <v>0.09</v>
+        <v>0.17451668573423049</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -13721,17 +14160,17 @@
         <v>713</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C439" s="3">
-        <v>7265</v>
+        <v>11221</v>
       </c>
       <c r="D439" s="2">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E439" s="2">
         <f t="shared" si="5"/>
-        <v>0.2615278733654508</v>
+        <v>0.81097941359950088</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -13739,17 +14178,17 @@
         <v>713</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C440" s="3">
-        <v>2638</v>
+        <v>54747</v>
       </c>
       <c r="D440" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E440" s="2">
         <f t="shared" si="5"/>
-        <v>2.5018953752843061</v>
+        <v>0.1132482145140373</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -13757,17 +14196,17 @@
         <v>713</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C441" s="3">
-        <v>28785</v>
+        <v>28229</v>
       </c>
       <c r="D441" s="2">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E441" s="2">
         <f t="shared" si="5"/>
-        <v>0.17022754907069654</v>
+        <v>0.22671720571043963</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -13775,17 +14214,17 @@
         <v>713</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C442" s="3">
-        <v>28000</v>
+        <v>317</v>
       </c>
       <c r="D442" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E442" s="2">
         <f t="shared" si="5"/>
-        <v>0.12857142857142856</v>
+        <v>13.564668769716087</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -13793,17 +14232,17 @@
         <v>713</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C443" s="3">
-        <v>3530</v>
+        <v>587</v>
       </c>
       <c r="D443" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E443" s="2">
         <f t="shared" si="5"/>
-        <v>2.237960339943343</v>
+        <v>6.6439522998296416</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -13811,17 +14250,17 @@
         <v>713</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C444" s="3">
-        <v>33164</v>
+        <v>32510</v>
       </c>
       <c r="D444" s="2">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E444" s="2">
         <f t="shared" si="5"/>
-        <v>7.2367627547943555E-2</v>
+        <v>0.20301445709012608</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -13829,17 +14268,143 @@
         <v>713</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C445" s="3">
-        <v>43397</v>
+        <v>47148</v>
       </c>
       <c r="D445" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E445" s="2">
         <f t="shared" si="5"/>
-        <v>5.7607668732861723E-2</v>
+        <v>6.3629422244846023E-2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C446" s="3">
+        <v>34560</v>
+      </c>
+      <c r="D446" s="2">
+        <v>29</v>
+      </c>
+      <c r="E446" s="2">
+        <f t="shared" si="5"/>
+        <v>8.3912037037037035E-2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C447" s="3">
+        <v>3650</v>
+      </c>
+      <c r="D447" s="2">
+        <v>73</v>
+      </c>
+      <c r="E447" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C448" s="3">
+        <v>42866</v>
+      </c>
+      <c r="D448" s="2">
+        <v>69</v>
+      </c>
+      <c r="E448" s="2">
+        <f t="shared" ref="E448:E452" si="6">D448/C448*100</f>
+        <v>0.16096673354173471</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C449" s="3">
+        <v>54623</v>
+      </c>
+      <c r="D449" s="2">
+        <v>51</v>
+      </c>
+      <c r="E449" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3367262874613263E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C450" s="3">
+        <v>3539</v>
+      </c>
+      <c r="D450" s="2">
+        <v>80</v>
+      </c>
+      <c r="E450" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2605255721955353</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C451" s="3">
+        <v>58622</v>
+      </c>
+      <c r="D451" s="2">
+        <v>27</v>
+      </c>
+      <c r="E451" s="2">
+        <f t="shared" si="6"/>
+        <v>4.6057794002251712E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C452" s="3">
+        <v>57615</v>
+      </c>
+      <c r="D452" s="2">
+        <v>25</v>
+      </c>
+      <c r="E452" s="2">
+        <f t="shared" si="6"/>
+        <v>4.3391477913737743E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13858,7 +14423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
@@ -15038,10 +15603,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16252,7 +16817,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E78" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E102" si="1">D67/C67*100</f>
         <v>8.5858585858585847</v>
       </c>
     </row>
@@ -16423,17 +16988,17 @@
         <v>713</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>741</v>
+        <v>786</v>
       </c>
       <c r="C77" s="3">
-        <v>39388</v>
+        <v>512</v>
       </c>
       <c r="D77" s="2">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>0.24626789885244235</v>
+        <v>8.3984375</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -16441,17 +17006,449 @@
         <v>713</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C78" s="3">
+        <v>850</v>
+      </c>
+      <c r="D78" s="2">
+        <v>62</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="1"/>
+        <v>7.2941176470588234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2180</v>
+      </c>
+      <c r="D79" s="2">
+        <v>86</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9449541284403673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1640</v>
+      </c>
+      <c r="D80" s="2">
+        <v>70</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2682926829268295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D81" s="2">
+        <v>58</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="1"/>
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1890</v>
+      </c>
+      <c r="D82" s="2">
+        <v>40</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1164021164021163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C83" s="3">
+        <v>154</v>
+      </c>
+      <c r="D83" s="2">
+        <v>36</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="1"/>
+        <v>23.376623376623375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C84" s="3">
+        <v>302</v>
+      </c>
+      <c r="D84" s="2">
+        <v>34</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="1"/>
+        <v>11.258278145695364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C85" s="3">
+        <v>548</v>
+      </c>
+      <c r="D85" s="2">
+        <v>43</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8467153284671536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C86" s="3">
+        <v>375</v>
+      </c>
+      <c r="D86" s="2">
+        <v>43</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="1"/>
+        <v>11.466666666666667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C87" s="3">
+        <v>79</v>
+      </c>
+      <c r="D87" s="2">
+        <v>33</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="1"/>
+        <v>41.77215189873418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C88" s="3">
+        <v>199</v>
+      </c>
+      <c r="D88" s="2">
+        <v>38</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="1"/>
+        <v>19.095477386934672</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C89" s="3">
+        <v>278</v>
+      </c>
+      <c r="D89" s="2">
+        <v>46</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="1"/>
+        <v>16.546762589928058</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C90" s="3">
+        <v>297</v>
+      </c>
+      <c r="D90" s="2">
+        <v>43</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="1"/>
+        <v>14.478114478114479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C91" s="3">
+        <v>462</v>
+      </c>
+      <c r="D91" s="2">
+        <v>37</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0086580086580081</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C92" s="3">
+        <v>309</v>
+      </c>
+      <c r="D92" s="2">
+        <v>36</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="1"/>
+        <v>11.650485436893204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C93" s="3">
+        <v>223</v>
+      </c>
+      <c r="D93" s="2">
+        <v>43</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="1"/>
+        <v>19.282511210762333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C94" s="3">
+        <v>250</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C95" s="3">
+        <v>405</v>
+      </c>
+      <c r="D95" s="2">
+        <v>36</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C96" s="3">
+        <v>741</v>
+      </c>
+      <c r="D96" s="2">
+        <v>60</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="1"/>
+        <v>8.097165991902834</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C97" s="3">
+        <v>374</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="1"/>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C98" s="3">
+        <v>424</v>
+      </c>
+      <c r="D98" s="2">
+        <v>41</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6698113207547181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C99" s="3">
+        <v>377</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="1"/>
+        <v>11.671087533156498</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C100" s="3">
+        <v>244</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="1"/>
+        <v>18.442622950819672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C101" s="3">
+        <v>59322</v>
+      </c>
+      <c r="D101" s="2">
+        <v>127</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21408583662047809</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C78" s="3">
-        <v>21000</v>
-      </c>
-      <c r="D78" s="2">
-        <v>54</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
+      <c r="C102" s="3">
+        <v>59480</v>
+      </c>
+      <c r="D102" s="2">
+        <v>132</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2219233355749832</v>
       </c>
     </row>
   </sheetData>
@@ -16468,7 +17465,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16527,7 +17524,7 @@
         <v>53</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E13" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E16" si="0">D3/C3*100</f>
         <v>8.7458745874587471</v>
       </c>
     </row>
@@ -16712,25 +17709,58 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C15" s="3">
+        <v>22587</v>
+      </c>
+      <c r="D15" s="2">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.22579359808739541</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C16" s="3">
+        <v>27000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14444444444444443</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87827643-CE90-41F9-8069-AC14302EE5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F821A3-DFAF-41FC-AAF0-AE68F1D6E7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="829">
   <si>
     <t>Ссылка</t>
   </si>
@@ -2341,6 +2341,198 @@
   </si>
   <si>
     <t>https://t.me/klg_alarm/13558</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-222134246_456239629</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158057119176013</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4336</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157263901781409</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24787</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13580</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47627</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/882</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3873</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_455392</t>
+  </si>
+  <si>
+    <t>https://ok.ru/milayakalu/topic/158057021789517</t>
+  </si>
+  <si>
+    <t>https://t.me/milaya_kaluga/3029</t>
+  </si>
+  <si>
+    <t>https://ok.ru/milayakalu/topic/158055505679693</t>
+  </si>
+  <si>
+    <t>https://t.me/milaya_kaluga/3023</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000003608141/topic/158058840479053</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4352</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2799202</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4342</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158058360362317</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21839</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4344</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158058506245453</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13606</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24819</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157266642365857</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157425089508313</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13596</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24805</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157265543458209</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157265297108385</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24800</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13590</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2798995</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-30838009_75365</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/9865</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10249</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5804</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/16638</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11505</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6503</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7730</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2236</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6085</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12208</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3127</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6327</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6221</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7502</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8320</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5797</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6444</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5717</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8340</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6048</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/3963</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4654</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6817</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5680</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157422791160793</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4331</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158055924323661</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-204895491_456240741</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24808</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157265639009697</t>
   </si>
 </sst>
 </file>
@@ -2428,27 +2620,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2735,10 +2907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2977,7 +3149,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E37" si="1">D13/C13*100</f>
+        <f t="shared" ref="E13:E51" si="1">D13/C13*100</f>
         <v>0.37936267071320184</v>
       </c>
     </row>
@@ -3411,6 +3583,258 @@
       <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>3.8766519823788546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C38" s="3">
+        <v>31283</v>
+      </c>
+      <c r="D38" s="2">
+        <v>166</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.53063964453537071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C39" s="3">
+        <v>52661</v>
+      </c>
+      <c r="D39" s="2">
+        <v>97</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18419703385807334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10156</v>
+      </c>
+      <c r="D40" s="2">
+        <v>165</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6246553761323355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C41" s="3">
+        <v>50369</v>
+      </c>
+      <c r="D41" s="2">
+        <v>29</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7575095793047308E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C42" s="3">
+        <v>70373</v>
+      </c>
+      <c r="D42" s="2">
+        <v>99</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14067895357594531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3629</v>
+      </c>
+      <c r="D43" s="2">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1217966381923392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C44" s="3">
+        <v>26300</v>
+      </c>
+      <c r="D44" s="2">
+        <v>573</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1787072243346008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C45" s="3">
+        <v>31700</v>
+      </c>
+      <c r="D45" s="2">
+        <v>67</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2113564668769716</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C46" s="3">
+        <v>35245</v>
+      </c>
+      <c r="D46" s="2">
+        <v>128</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36317208114626187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1898</v>
+      </c>
+      <c r="D47" s="2">
+        <v>26</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C48" s="3">
+        <v>23794</v>
+      </c>
+      <c r="D48" s="2">
+        <v>59</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2479616710094982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C49" s="3">
+        <v>484</v>
+      </c>
+      <c r="D49" s="2">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>14.669421487603307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C50" s="3">
+        <v>55464</v>
+      </c>
+      <c r="D50" s="2">
+        <v>52</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3754507428241735E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C51" s="3">
+        <v>508</v>
+      </c>
+      <c r="D51" s="2">
+        <v>51</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>10.039370078740157</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +4251,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4096,14 +4520,14 @@
         <v>745</v>
       </c>
       <c r="C15" s="3">
-        <v>28887</v>
+        <v>32100</v>
       </c>
       <c r="D15" s="2">
-        <v>157</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54349707480873755</v>
+        <v>164</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.51090342679127732</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4114,14 +4538,14 @@
         <v>746</v>
       </c>
       <c r="C16" s="3">
-        <v>25143</v>
+        <v>28300</v>
       </c>
       <c r="D16" s="2">
-        <v>183</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.72783677365469512</v>
+        <v>187</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.66077738515901052</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4337,10 +4761,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5553,7 +5977,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E81" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E84" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -5724,17 +6148,17 @@
         <v>713</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>760</v>
+        <v>826</v>
       </c>
       <c r="C77" s="3">
-        <v>14000</v>
+        <v>805</v>
       </c>
       <c r="D77" s="2">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>0.1142857142857143</v>
+        <v>7.5776397515527947</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -5742,17 +6166,17 @@
         <v>713</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>761</v>
+        <v>827</v>
       </c>
       <c r="C78" s="3">
-        <v>2800</v>
+        <v>9845</v>
       </c>
       <c r="D78" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="1"/>
-        <v>2.1071428571428572</v>
+        <v>0.98527171152869475</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -5760,17 +6184,17 @@
         <v>713</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>762</v>
+        <v>828</v>
       </c>
       <c r="C79" s="3">
-        <v>24000</v>
+        <v>22566</v>
       </c>
       <c r="D79" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="1"/>
-        <v>7.9166666666666663E-2</v>
+        <v>0.10192324736328991</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -5778,17 +6202,17 @@
         <v>713</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C80" s="3">
-        <v>726</v>
+        <v>75717</v>
       </c>
       <c r="D80" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="1"/>
-        <v>3.0303030303030303</v>
+        <v>5.8111124318184819E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -5796,17 +6220,71 @@
         <v>713</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3470</v>
+      </c>
+      <c r="D81" s="2">
+        <v>61</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7579250720461095</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C82" s="3">
+        <v>102565</v>
+      </c>
+      <c r="D82" s="2">
+        <v>35</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4124701408862673E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C83" s="3">
+        <v>23336</v>
+      </c>
+      <c r="D83" s="2">
+        <v>71</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30425094274940007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C81" s="3">
-        <v>2820</v>
-      </c>
-      <c r="D81" s="2">
-        <v>57</v>
-      </c>
-      <c r="E81" s="2">
-        <f t="shared" si="1"/>
-        <v>2.021276595744681</v>
+      <c r="C84" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D84" s="2">
+        <v>58</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="1"/>
+        <v>1.657142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -5820,10 +6298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E445"/>
+  <dimension ref="A1:E464"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I447" sqref="I447"/>
+    <sheetView topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="B474" sqref="B474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12740,7 +13218,7 @@
         <v>333</v>
       </c>
       <c r="E384" s="2">
-        <f t="shared" ref="E384:E445" si="5">D384/C384*100</f>
+        <f t="shared" ref="E384:E447" si="5">D384/C384*100</f>
         <v>1.1892857142857143</v>
       </c>
     </row>
@@ -13397,17 +13875,17 @@
         <v>713</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>688</v>
+        <v>779</v>
       </c>
       <c r="C421" s="3">
-        <v>23900</v>
+        <v>61000</v>
       </c>
       <c r="D421" s="2">
-        <v>446</v>
+        <v>98</v>
       </c>
       <c r="E421" s="2">
         <f t="shared" si="5"/>
-        <v>1.8661087866108785</v>
+        <v>0.16065573770491803</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -13415,17 +13893,17 @@
         <v>713</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>689</v>
+        <v>780</v>
       </c>
       <c r="C422" s="3">
-        <v>19600</v>
+        <v>8457</v>
       </c>
       <c r="D422" s="2">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="E422" s="2">
         <f t="shared" si="5"/>
-        <v>0.70918367346938771</v>
+        <v>1.0405581175357692</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -13433,17 +13911,17 @@
         <v>713</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>690</v>
+        <v>781</v>
       </c>
       <c r="C423" s="3">
-        <v>690</v>
+        <v>32189</v>
       </c>
       <c r="D423" s="2">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="E423" s="2">
         <f t="shared" si="5"/>
-        <v>0.28985507246376813</v>
+        <v>0.93510205349653597</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -13451,17 +13929,17 @@
         <v>713</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="C424" s="3">
-        <v>908</v>
+        <v>22756</v>
       </c>
       <c r="D424" s="2">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E424" s="2">
         <f t="shared" si="5"/>
-        <v>0.44052863436123352</v>
+        <v>0.42186676041483562</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -13469,17 +13947,17 @@
         <v>713</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="C425" s="3">
-        <v>1763</v>
+        <v>18000</v>
       </c>
       <c r="D425" s="2">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E425" s="2">
         <f t="shared" si="5"/>
-        <v>0.51049347702779357</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -13487,17 +13965,17 @@
         <v>713</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="C426" s="3">
-        <v>1163</v>
+        <v>8393</v>
       </c>
       <c r="D426" s="2">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E426" s="2">
         <f t="shared" si="5"/>
-        <v>0.17196904557179707</v>
+        <v>0.67913737638508276</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -13505,17 +13983,17 @@
         <v>713</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="C427" s="3">
-        <v>6100</v>
+        <v>15249</v>
       </c>
       <c r="D427" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E427" s="2">
         <f t="shared" si="5"/>
-        <v>0.70491803278688525</v>
+        <v>0.30821693225785302</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -13523,17 +14001,17 @@
         <v>713</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>695</v>
+        <v>786</v>
       </c>
       <c r="C428" s="3">
-        <v>1066</v>
+        <v>18000</v>
       </c>
       <c r="D428" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E428" s="2">
         <f t="shared" si="5"/>
-        <v>9.3808630393996242E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -13541,17 +14019,17 @@
         <v>713</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C429" s="3">
-        <v>13000</v>
+        <v>3920</v>
       </c>
       <c r="D429" s="2">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="E429" s="2">
         <f t="shared" si="5"/>
-        <v>0.14615384615384616</v>
+        <v>2.9846938775510203</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -13559,17 +14037,17 @@
         <v>713</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>697</v>
+        <v>788</v>
       </c>
       <c r="C430" s="3">
-        <v>6010</v>
+        <v>14249</v>
       </c>
       <c r="D430" s="2">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E430" s="2">
         <f t="shared" si="5"/>
-        <v>0.28286189683860236</v>
+        <v>0.65969541722226122</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -13577,17 +14055,17 @@
         <v>713</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>698</v>
+        <v>789</v>
       </c>
       <c r="C431" s="3">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="D431" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E431" s="2">
         <f t="shared" si="5"/>
-        <v>0.22142857142857142</v>
+        <v>0.18125000000000002</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -13595,17 +14073,17 @@
         <v>713</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>699</v>
+        <v>790</v>
       </c>
       <c r="C432" s="3">
-        <v>4048</v>
+        <v>18000</v>
       </c>
       <c r="D432" s="2">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E432" s="2">
         <f t="shared" si="5"/>
-        <v>0.69169960474308301</v>
+        <v>0.2277777777777778</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -13613,17 +14091,17 @@
         <v>713</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>700</v>
+        <v>791</v>
       </c>
       <c r="C433" s="3">
-        <v>26000</v>
+        <v>3800</v>
       </c>
       <c r="D433" s="2">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E433" s="2">
         <f t="shared" si="5"/>
-        <v>0.13846153846153844</v>
+        <v>2.0526315789473686</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -13631,17 +14109,17 @@
         <v>713</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>701</v>
+        <v>792</v>
       </c>
       <c r="C434" s="3">
-        <v>10151</v>
+        <v>39229</v>
       </c>
       <c r="D434" s="2">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="E434" s="2">
         <f t="shared" si="5"/>
-        <v>0.35464486257511579</v>
+        <v>0.37727191618445538</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -13649,17 +14127,17 @@
         <v>713</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>702</v>
+        <v>793</v>
       </c>
       <c r="C435" s="3">
-        <v>210</v>
+        <v>19948</v>
       </c>
       <c r="D435" s="2">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E435" s="2">
         <f t="shared" si="5"/>
-        <v>5.7142857142857144</v>
+        <v>0.19550832163625428</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -13667,17 +14145,17 @@
         <v>713</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>703</v>
+        <v>794</v>
       </c>
       <c r="C436" s="3">
-        <v>310</v>
+        <v>60470</v>
       </c>
       <c r="D436" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E436" s="2">
         <f t="shared" si="5"/>
-        <v>12.580645161290322</v>
+        <v>7.2763353729121877E-2</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -13685,17 +14163,17 @@
         <v>713</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>704</v>
+        <v>795</v>
       </c>
       <c r="C437" s="3">
-        <v>2918</v>
+        <v>24465</v>
       </c>
       <c r="D437" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E437" s="2">
         <f t="shared" si="5"/>
-        <v>0.7539410555174777</v>
+        <v>0.29429797670141017</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -13703,17 +14181,17 @@
         <v>713</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
       <c r="C438" s="3">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="D438" s="2">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E438" s="2">
         <f t="shared" si="5"/>
-        <v>0.09</v>
+        <v>1.4749999999999999</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -13721,17 +14199,17 @@
         <v>713</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>706</v>
+        <v>797</v>
       </c>
       <c r="C439" s="3">
-        <v>7265</v>
+        <v>9348</v>
       </c>
       <c r="D439" s="2">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E439" s="2">
         <f t="shared" si="5"/>
-        <v>0.2615278733654508</v>
+        <v>0.78091570389388099</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -13739,17 +14217,17 @@
         <v>713</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="C440" s="3">
-        <v>2638</v>
+        <v>33000</v>
       </c>
       <c r="D440" s="2">
-        <v>66</v>
+        <v>508</v>
       </c>
       <c r="E440" s="2">
         <f t="shared" si="5"/>
-        <v>2.5018953752843061</v>
+        <v>1.5393939393939393</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -13757,17 +14235,17 @@
         <v>713</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="C441" s="3">
-        <v>28785</v>
+        <v>27600</v>
       </c>
       <c r="D441" s="2">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="E441" s="2">
         <f t="shared" si="5"/>
-        <v>0.17022754907069654</v>
+        <v>0.62681159420289856</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -13775,17 +14253,17 @@
         <v>713</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="C442" s="3">
-        <v>28000</v>
+        <v>1323</v>
       </c>
       <c r="D442" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E442" s="2">
         <f t="shared" si="5"/>
-        <v>0.12857142857142856</v>
+        <v>3.1746031746031744</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -13793,17 +14271,17 @@
         <v>713</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>710</v>
+        <v>691</v>
       </c>
       <c r="C443" s="3">
-        <v>3530</v>
+        <v>1331</v>
       </c>
       <c r="D443" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="E443" s="2">
         <f t="shared" si="5"/>
-        <v>2.237960339943343</v>
+        <v>3.3809166040570999</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -13811,17 +14289,17 @@
         <v>713</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="C444" s="3">
-        <v>33164</v>
+        <v>3135</v>
       </c>
       <c r="D444" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E444" s="2">
         <f t="shared" si="5"/>
-        <v>7.2367627547943555E-2</v>
+        <v>1.7543859649122806</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -13829,17 +14307,359 @@
         <v>713</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>712</v>
+        <v>693</v>
       </c>
       <c r="C445" s="3">
-        <v>43397</v>
+        <v>1794</v>
       </c>
       <c r="D445" s="2">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E445" s="2">
         <f t="shared" si="5"/>
-        <v>5.7607668732861723E-2</v>
+        <v>2.3968784838350055</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C446" s="3">
+        <v>13077</v>
+      </c>
+      <c r="D446" s="2">
+        <v>89</v>
+      </c>
+      <c r="E446" s="2">
+        <f t="shared" si="5"/>
+        <v>0.68058423185745964</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C447" s="3">
+        <v>2043</v>
+      </c>
+      <c r="D447" s="2">
+        <v>41</v>
+      </c>
+      <c r="E447" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0068526676456191</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C448" s="3">
+        <v>75034</v>
+      </c>
+      <c r="D448" s="2">
+        <v>45</v>
+      </c>
+      <c r="E448" s="2">
+        <f t="shared" ref="E448:E464" si="6">D448/C448*100</f>
+        <v>5.997281232507929E-2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C449" s="3">
+        <v>55417</v>
+      </c>
+      <c r="D449" s="2">
+        <v>67</v>
+      </c>
+      <c r="E449" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12090152841185918</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C450" s="3">
+        <v>82780</v>
+      </c>
+      <c r="D450" s="2">
+        <v>107</v>
+      </c>
+      <c r="E450" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12925827494563905</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C451" s="3">
+        <v>14254</v>
+      </c>
+      <c r="D451" s="2">
+        <v>146</v>
+      </c>
+      <c r="E451" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0242738880314299</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C452" s="3">
+        <v>88824</v>
+      </c>
+      <c r="D452" s="2">
+        <v>74</v>
+      </c>
+      <c r="E452" s="2">
+        <f t="shared" si="6"/>
+        <v>8.3310816896334322E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C453" s="3">
+        <v>35290</v>
+      </c>
+      <c r="D453" s="2">
+        <v>112</v>
+      </c>
+      <c r="E453" s="2">
+        <f t="shared" si="6"/>
+        <v>0.31737035987531881</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C454" s="3">
+        <v>353</v>
+      </c>
+      <c r="D454" s="2">
+        <v>43</v>
+      </c>
+      <c r="E454" s="2">
+        <f t="shared" si="6"/>
+        <v>12.181303116147308</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C455" s="3">
+        <v>735</v>
+      </c>
+      <c r="D455" s="2">
+        <v>41</v>
+      </c>
+      <c r="E455" s="2">
+        <f t="shared" si="6"/>
+        <v>5.5782312925170068</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C456" s="3">
+        <v>57110</v>
+      </c>
+      <c r="D456" s="2">
+        <v>134</v>
+      </c>
+      <c r="E456" s="2">
+        <f t="shared" si="6"/>
+        <v>0.23463491507616879</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C457" s="3">
+        <v>87171</v>
+      </c>
+      <c r="D457" s="2">
+        <v>36</v>
+      </c>
+      <c r="E457" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1298138142272088E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C458" s="3">
+        <v>55530</v>
+      </c>
+      <c r="D458" s="2">
+        <v>73</v>
+      </c>
+      <c r="E458" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13146047181703582</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C459" s="3">
+        <v>3650</v>
+      </c>
+      <c r="D459" s="2">
+        <v>73</v>
+      </c>
+      <c r="E459" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C460" s="3">
+        <v>43771</v>
+      </c>
+      <c r="D460" s="2">
+        <v>119</v>
+      </c>
+      <c r="E460" s="2">
+        <f t="shared" si="6"/>
+        <v>0.27186950263873338</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C461" s="3">
+        <v>85909</v>
+      </c>
+      <c r="D461" s="2">
+        <v>77</v>
+      </c>
+      <c r="E461" s="2">
+        <f t="shared" si="6"/>
+        <v>8.9629724475898911E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C462" s="3">
+        <v>3940</v>
+      </c>
+      <c r="D462" s="2">
+        <v>83</v>
+      </c>
+      <c r="E462" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1065989847715736</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C463" s="3">
+        <v>58622</v>
+      </c>
+      <c r="D463" s="2">
+        <v>27</v>
+      </c>
+      <c r="E463" s="2">
+        <f t="shared" si="6"/>
+        <v>4.6057794002251712E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C464" s="3">
+        <v>57615</v>
+      </c>
+      <c r="D464" s="2">
+        <v>66</v>
+      </c>
+      <c r="E464" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11455350169226763</v>
       </c>
     </row>
   </sheetData>
@@ -13858,7 +14678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
@@ -15038,10 +15858,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16252,7 +17072,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E78" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E103" si="1">D67/C67*100</f>
         <v>8.5858585858585847</v>
       </c>
     </row>
@@ -16423,17 +17243,17 @@
         <v>713</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>741</v>
+        <v>798</v>
       </c>
       <c r="C77" s="3">
-        <v>39388</v>
+        <v>1788</v>
       </c>
       <c r="D77" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>0.24626789885244235</v>
+        <v>1.0626398210290828</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -16441,17 +17261,467 @@
         <v>713</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C78" s="3">
+        <v>569</v>
+      </c>
+      <c r="D78" s="2">
+        <v>46</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0843585237258342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C79" s="3">
+        <v>945</v>
+      </c>
+      <c r="D79" s="2">
+        <v>63</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2430</v>
+      </c>
+      <c r="D80" s="2">
+        <v>88</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6213991769547325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2040</v>
+      </c>
+      <c r="D81" s="2">
+        <v>72</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5294117647058822</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1490</v>
+      </c>
+      <c r="D82" s="2">
+        <v>60</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0268456375838921</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D83" s="2">
+        <v>41</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9523809523809523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C84" s="3">
+        <v>192</v>
+      </c>
+      <c r="D84" s="2">
+        <v>36</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C85" s="3">
+        <v>376</v>
+      </c>
+      <c r="D85" s="2">
+        <v>35</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3085106382978715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C86" s="3">
+        <v>678</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="1"/>
+        <v>6.6371681415929213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C87" s="3">
+        <v>468</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="1"/>
+        <v>9.4017094017094021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C88" s="3">
+        <v>115</v>
+      </c>
+      <c r="D88" s="2">
+        <v>34</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="1"/>
+        <v>29.565217391304348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C89" s="3">
+        <v>247</v>
+      </c>
+      <c r="D89" s="2">
+        <v>38</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="1"/>
+        <v>15.384615384615385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C90" s="3">
+        <v>344</v>
+      </c>
+      <c r="D90" s="2">
+        <v>47</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="1"/>
+        <v>13.662790697674417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C91" s="3">
+        <v>368</v>
+      </c>
+      <c r="D91" s="2">
+        <v>43</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="1"/>
+        <v>11.684782608695652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C92" s="3">
+        <v>575</v>
+      </c>
+      <c r="D92" s="2">
+        <v>39</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7826086956521747</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C93" s="3">
+        <v>388</v>
+      </c>
+      <c r="D93" s="2">
+        <v>38</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7938144329896915</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C94" s="3">
+        <v>282</v>
+      </c>
+      <c r="D94" s="2">
+        <v>43</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="1"/>
+        <v>15.24822695035461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C95" s="3">
+        <v>278</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="1"/>
+        <v>16.187050359712231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C96" s="3">
+        <v>507</v>
+      </c>
+      <c r="D96" s="2">
+        <v>36</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1005917159763312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C97" s="3">
+        <v>824</v>
+      </c>
+      <c r="D97" s="2">
+        <v>62</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5242718446601939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C98" s="3">
+        <v>464</v>
+      </c>
+      <c r="D98" s="2">
+        <v>46</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9137931034482758</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C99" s="3">
+        <v>595</v>
+      </c>
+      <c r="D99" s="2">
+        <v>42</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0588235294117645</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C100" s="3">
+        <v>468</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6153846153846168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C101" s="3">
+        <v>272</v>
+      </c>
+      <c r="D101" s="2">
+        <v>47</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="1"/>
+        <v>17.27941176470588</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C102" s="3">
+        <v>59868</v>
+      </c>
+      <c r="D102" s="2">
+        <v>175</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2923097481125142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C78" s="3">
-        <v>21000</v>
-      </c>
-      <c r="D78" s="2">
-        <v>54</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25714285714285712</v>
+      <c r="C103" s="3">
+        <v>96100</v>
+      </c>
+      <c r="D103" s="2">
+        <v>171</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17793964620187305</v>
       </c>
     </row>
   </sheetData>
@@ -16468,7 +17738,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16527,7 +17797,7 @@
         <v>53</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E13" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E16" si="0">D3/C3*100</f>
         <v>8.7458745874587471</v>
       </c>
     </row>
@@ -16712,25 +17982,58 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18275862068965518</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C15" s="3">
+        <v>22587</v>
+      </c>
+      <c r="D15" s="2">
+        <v>122</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54013370522867143</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C16" s="3">
+        <v>27000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21111111111111108</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -16771,7 +18074,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CAD1F4-A44F-4FCD-B239-F6C3B1209B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A506F3-8DC7-4BE3-892E-23C790394641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="829">
   <si>
     <t>Ссылка</t>
   </si>
@@ -2494,6 +2494,45 @@
   </si>
   <si>
     <t>https://ok.ru/group/70000036196257/topic/157265639009697</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-30838009_75365</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000003608141/topic/158058840479053</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4352</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2799202</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4342</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158058360362317</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21839</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4344</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158058506245453</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13606</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24819</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157266642365857</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157425089508313</t>
   </si>
 </sst>
 </file>
@@ -2870,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3554,14 +3593,14 @@
         <v>765</v>
       </c>
       <c r="C38" s="3">
-        <v>499</v>
+        <v>31283</v>
       </c>
       <c r="D38" s="2">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>5.2104208416833666</v>
+        <v>0.53063964453537071</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3572,14 +3611,14 @@
         <v>766</v>
       </c>
       <c r="C39" s="3">
-        <v>21000</v>
+        <v>52661</v>
       </c>
       <c r="D39" s="2">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>0.23809523809523811</v>
+        <v>0.18419703385807334</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3590,14 +3629,14 @@
         <v>767</v>
       </c>
       <c r="C40" s="3">
-        <v>548</v>
+        <v>10156</v>
       </c>
       <c r="D40" s="2">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>10.401459854014599</v>
+        <v>1.6246553761323355</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3608,14 +3647,14 @@
         <v>768</v>
       </c>
       <c r="C41" s="3">
-        <v>30000</v>
+        <v>50369</v>
       </c>
       <c r="D41" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>5.7575095793047308E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3626,14 +3665,14 @@
         <v>769</v>
       </c>
       <c r="C42" s="3">
-        <v>34077</v>
+        <v>70373</v>
       </c>
       <c r="D42" s="2">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>0.13498840860404376</v>
+        <v>0.14067895357594531</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3644,14 +3683,14 @@
         <v>770</v>
       </c>
       <c r="C43" s="3">
-        <v>3440</v>
+        <v>3629</v>
       </c>
       <c r="D43" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>2.0930232558139537</v>
+        <v>2.1217966381923392</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3680,14 +3719,14 @@
         <v>772</v>
       </c>
       <c r="C45" s="3">
-        <v>28500</v>
+        <v>31700</v>
       </c>
       <c r="D45" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>0.21754385964912279</v>
+        <v>0.2113564668769716</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3698,14 +3737,14 @@
         <v>773</v>
       </c>
       <c r="C46" s="3">
-        <v>17006</v>
+        <v>35245</v>
       </c>
       <c r="D46" s="2">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>0.35281665294601905</v>
+        <v>0.36317208114626187</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3716,14 +3755,14 @@
         <v>774</v>
       </c>
       <c r="C47" s="3">
-        <v>1455</v>
+        <v>1898</v>
       </c>
       <c r="D47" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>0.41237113402061859</v>
+        <v>1.3698630136986301</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3734,14 +3773,14 @@
         <v>775</v>
       </c>
       <c r="C48" s="3">
-        <v>369</v>
+        <v>23794</v>
       </c>
       <c r="D48" s="2">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>6.5040650406504072</v>
+        <v>0.2479616710094982</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3752,14 +3791,14 @@
         <v>776</v>
       </c>
       <c r="C49" s="3">
-        <v>307</v>
+        <v>484</v>
       </c>
       <c r="D49" s="2">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>19.54397394136808</v>
+        <v>14.669421487603307</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3770,14 +3809,14 @@
         <v>777</v>
       </c>
       <c r="C50" s="3">
-        <v>35000</v>
+        <v>55464</v>
       </c>
       <c r="D50" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>9.3754507428241735E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3788,14 +3827,14 @@
         <v>778</v>
       </c>
       <c r="C51" s="3">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="D51" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>11.678832116788321</v>
+        <v>10.039370078740157</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4251,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4481,14 +4520,14 @@
         <v>745</v>
       </c>
       <c r="C15" s="3">
-        <v>28887</v>
+        <v>32100</v>
       </c>
       <c r="D15" s="2">
-        <v>157</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.54349707480873755</v>
+        <v>164</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.51090342679127732</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4499,14 +4538,14 @@
         <v>746</v>
       </c>
       <c r="C16" s="3">
-        <v>25143</v>
+        <v>28300</v>
       </c>
       <c r="D16" s="2">
-        <v>183</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.72783677365469512</v>
+        <v>187</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.66077738515901052</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4724,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6115,11 +6154,11 @@
         <v>805</v>
       </c>
       <c r="D77" s="2">
-        <v>21</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" si="1"/>
-        <v>2.6086956521739131</v>
+        <v>61</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>7.5776397515527947</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -6130,14 +6169,14 @@
         <v>814</v>
       </c>
       <c r="C78" s="3">
-        <v>866</v>
+        <v>9845</v>
       </c>
       <c r="D78" s="2">
-        <v>22</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5404157043879905</v>
+        <v>97</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>0.98527171152869475</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -6148,14 +6187,14 @@
         <v>815</v>
       </c>
       <c r="C79" s="3">
-        <v>118</v>
+        <v>22566</v>
       </c>
       <c r="D79" s="2">
-        <v>13</v>
-      </c>
-      <c r="E79" s="2">
-        <f t="shared" si="1"/>
-        <v>11.016949152542372</v>
+        <v>23</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>0.10192324736328991</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -6166,14 +6205,14 @@
         <v>760</v>
       </c>
       <c r="C80" s="3">
-        <v>41229</v>
+        <v>75717</v>
       </c>
       <c r="D80" s="2">
-        <v>32</v>
-      </c>
-      <c r="E80" s="2">
-        <f t="shared" si="1"/>
-        <v>7.7615270804530789E-2</v>
+        <v>44</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>5.8111124318184819E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -6184,14 +6223,14 @@
         <v>761</v>
       </c>
       <c r="C81" s="3">
-        <v>3120</v>
+        <v>3470</v>
       </c>
       <c r="D81" s="2">
-        <v>60</v>
-      </c>
-      <c r="E81" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9230769230769231</v>
+        <v>61</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>1.7579250720461095</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -6202,14 +6241,14 @@
         <v>762</v>
       </c>
       <c r="C82" s="3">
-        <v>64672</v>
+        <v>102565</v>
       </c>
       <c r="D82" s="2">
-        <v>31</v>
-      </c>
-      <c r="E82" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7934190994557153E-2</v>
+        <v>35</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>3.4124701408862673E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -6220,14 +6259,14 @@
         <v>763</v>
       </c>
       <c r="C83" s="3">
-        <v>15045</v>
+        <v>23336</v>
       </c>
       <c r="D83" s="2">
-        <v>30</v>
-      </c>
-      <c r="E83" s="2">
-        <f t="shared" si="1"/>
-        <v>0.19940179461615154</v>
+        <v>71</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>0.30425094274940007</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -6238,14 +6277,14 @@
         <v>764</v>
       </c>
       <c r="C84" s="3">
-        <v>3150</v>
+        <v>3500</v>
       </c>
       <c r="D84" s="2">
-        <v>57</v>
-      </c>
-      <c r="E84" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8095238095238095</v>
+        <v>58</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>1.657142857142857</v>
       </c>
     </row>
   </sheetData>
@@ -6259,10 +6298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E452"/>
+  <dimension ref="A1:E464"/>
   <sheetViews>
-    <sheetView topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="C457" sqref="C457"/>
+    <sheetView topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="E464" sqref="A361:E464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13836,17 +13875,17 @@
         <v>713</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>779</v>
+        <v>817</v>
       </c>
       <c r="C421" s="3">
-        <v>2760</v>
+        <v>61000</v>
       </c>
       <c r="D421" s="2">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E421" s="2">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>0.16065573770491803</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -13854,17 +13893,17 @@
         <v>713</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
       <c r="C422" s="3">
-        <v>10178</v>
+        <v>8457</v>
       </c>
       <c r="D422" s="2">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E422" s="2">
         <f t="shared" si="5"/>
-        <v>0.422479858518373</v>
+        <v>1.0405581175357692</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -13872,17 +13911,17 @@
         <v>713</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
       <c r="C423" s="3">
-        <v>162</v>
+        <v>32189</v>
       </c>
       <c r="D423" s="2">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="E423" s="2">
         <f t="shared" si="5"/>
-        <v>7.4074074074074066</v>
+        <v>0.93510205349653597</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -13890,17 +13929,17 @@
         <v>713</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
       <c r="C424" s="3">
-        <v>21000</v>
+        <v>22756</v>
       </c>
       <c r="D424" s="2">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E424" s="2">
         <f t="shared" si="5"/>
-        <v>8.0952380952380956E-2</v>
+        <v>0.42186676041483562</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -13908,17 +13947,17 @@
         <v>713</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>783</v>
+        <v>821</v>
       </c>
       <c r="C425" s="3">
-        <v>11398</v>
+        <v>18000</v>
       </c>
       <c r="D425" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E425" s="2">
         <f t="shared" si="5"/>
-        <v>0.1754693805930865</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -13926,17 +13965,17 @@
         <v>713</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="C426" s="3">
-        <v>2910</v>
+        <v>8393</v>
       </c>
       <c r="D426" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E426" s="2">
         <f t="shared" si="5"/>
-        <v>1.7869415807560136</v>
+        <v>0.67913737638508276</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -13944,17 +13983,17 @@
         <v>713</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="C427" s="3">
-        <v>5395</v>
+        <v>15249</v>
       </c>
       <c r="D427" s="2">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E427" s="2">
         <f t="shared" si="5"/>
-        <v>0.31510658016682114</v>
+        <v>0.30821693225785302</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -13962,17 +14001,17 @@
         <v>713</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>688</v>
+        <v>824</v>
       </c>
       <c r="C428" s="3">
-        <v>29700</v>
+        <v>18000</v>
       </c>
       <c r="D428" s="2">
-        <v>486</v>
+        <v>20</v>
       </c>
       <c r="E428" s="2">
         <f t="shared" si="5"/>
-        <v>1.6363636363636365</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -13980,17 +14019,17 @@
         <v>713</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>689</v>
+        <v>825</v>
       </c>
       <c r="C429" s="3">
-        <v>27600</v>
+        <v>3920</v>
       </c>
       <c r="D429" s="2">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="E429" s="2">
         <f t="shared" si="5"/>
-        <v>0.62681159420289856</v>
+        <v>2.9846938775510203</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -13998,17 +14037,17 @@
         <v>713</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>690</v>
+        <v>826</v>
       </c>
       <c r="C430" s="3">
-        <v>1175</v>
+        <v>14249</v>
       </c>
       <c r="D430" s="2">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="E430" s="2">
         <f t="shared" si="5"/>
-        <v>0.1702127659574468</v>
+        <v>0.65969541722226122</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -14016,17 +14055,17 @@
         <v>713</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>691</v>
+        <v>827</v>
       </c>
       <c r="C431" s="3">
-        <v>1205</v>
+        <v>16000</v>
       </c>
       <c r="D431" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E431" s="2">
         <f t="shared" si="5"/>
-        <v>0.41493775933609961</v>
+        <v>0.18125000000000002</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -14034,17 +14073,17 @@
         <v>713</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>692</v>
+        <v>828</v>
       </c>
       <c r="C432" s="3">
-        <v>2889</v>
+        <v>18000</v>
       </c>
       <c r="D432" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E432" s="2">
         <f t="shared" si="5"/>
-        <v>0.4845967462789893</v>
+        <v>0.2277777777777778</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -14052,17 +14091,17 @@
         <v>713</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
       <c r="C433" s="3">
-        <v>1587</v>
+        <v>3800</v>
       </c>
       <c r="D433" s="2">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E433" s="2">
         <f t="shared" si="5"/>
-        <v>0.12602394454946439</v>
+        <v>2.0526315789473686</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -14070,17 +14109,17 @@
         <v>713</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
       <c r="C434" s="3">
-        <v>11168</v>
+        <v>39229</v>
       </c>
       <c r="D434" s="2">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="E434" s="2">
         <f t="shared" si="5"/>
-        <v>0.42979942693409745</v>
+        <v>0.37727191618445538</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -14088,17 +14127,17 @@
         <v>713</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>695</v>
+        <v>781</v>
       </c>
       <c r="C435" s="3">
-        <v>1781</v>
+        <v>19948</v>
       </c>
       <c r="D435" s="2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E435" s="2">
         <f t="shared" si="5"/>
-        <v>5.6148231330713089E-2</v>
+        <v>0.19550832163625428</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -14106,17 +14145,17 @@
         <v>713</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>696</v>
+        <v>782</v>
       </c>
       <c r="C436" s="3">
-        <v>46032</v>
+        <v>60470</v>
       </c>
       <c r="D436" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E436" s="2">
         <f t="shared" si="5"/>
-        <v>8.255126868265554E-2</v>
+        <v>7.2763353729121877E-2</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -14124,17 +14163,17 @@
         <v>713</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="C437" s="3">
-        <v>39164</v>
+        <v>24465</v>
       </c>
       <c r="D437" s="2">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E437" s="2">
         <f t="shared" si="5"/>
-        <v>6.6387498723317326E-2</v>
+        <v>0.29429797670141017</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -14142,17 +14181,17 @@
         <v>713</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
       <c r="C438" s="3">
-        <v>51571</v>
+        <v>4000</v>
       </c>
       <c r="D438" s="2">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E438" s="2">
         <f t="shared" si="5"/>
-        <v>0.17451668573423049</v>
+        <v>1.4749999999999999</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -14160,17 +14199,17 @@
         <v>713</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
       <c r="C439" s="3">
-        <v>11221</v>
+        <v>9348</v>
       </c>
       <c r="D439" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E439" s="2">
         <f t="shared" si="5"/>
-        <v>0.81097941359950088</v>
+        <v>0.78091570389388099</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -14178,17 +14217,17 @@
         <v>713</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C440" s="3">
-        <v>54747</v>
+        <v>33000</v>
       </c>
       <c r="D440" s="2">
-        <v>62</v>
+        <v>508</v>
       </c>
       <c r="E440" s="2">
         <f t="shared" si="5"/>
-        <v>0.1132482145140373</v>
+        <v>1.5393939393939393</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -14196,17 +14235,17 @@
         <v>713</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C441" s="3">
-        <v>28229</v>
+        <v>27600</v>
       </c>
       <c r="D441" s="2">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="E441" s="2">
         <f t="shared" si="5"/>
-        <v>0.22671720571043963</v>
+        <v>0.62681159420289856</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -14214,17 +14253,17 @@
         <v>713</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="C442" s="3">
-        <v>317</v>
+        <v>1323</v>
       </c>
       <c r="D442" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E442" s="2">
         <f t="shared" si="5"/>
-        <v>13.564668769716087</v>
+        <v>3.1746031746031744</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -14232,17 +14271,17 @@
         <v>713</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C443" s="3">
-        <v>587</v>
+        <v>1331</v>
       </c>
       <c r="D443" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E443" s="2">
         <f t="shared" si="5"/>
-        <v>6.6439522998296416</v>
+        <v>3.3809166040570999</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -14250,17 +14289,17 @@
         <v>713</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="C444" s="3">
-        <v>32510</v>
+        <v>3135</v>
       </c>
       <c r="D444" s="2">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E444" s="2">
         <f t="shared" si="5"/>
-        <v>0.20301445709012608</v>
+        <v>1.7543859649122806</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -14268,17 +14307,17 @@
         <v>713</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="C445" s="3">
-        <v>47148</v>
+        <v>1794</v>
       </c>
       <c r="D445" s="2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E445" s="2">
         <f t="shared" si="5"/>
-        <v>6.3629422244846023E-2</v>
+        <v>2.3968784838350055</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -14286,17 +14325,17 @@
         <v>713</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C446" s="3">
-        <v>34560</v>
+        <v>13077</v>
       </c>
       <c r="D446" s="2">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="E446" s="2">
         <f t="shared" si="5"/>
-        <v>8.3912037037037035E-2</v>
+        <v>0.68058423185745964</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
@@ -14304,17 +14343,17 @@
         <v>713</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="C447" s="3">
-        <v>3650</v>
+        <v>2043</v>
       </c>
       <c r="D447" s="2">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E447" s="2">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2.0068526676456191</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -14322,17 +14361,17 @@
         <v>713</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="C448" s="3">
-        <v>42866</v>
+        <v>75034</v>
       </c>
       <c r="D448" s="2">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E448" s="2">
-        <f t="shared" ref="E448:E452" si="6">D448/C448*100</f>
-        <v>0.16096673354173471</v>
+        <f t="shared" ref="E448:E464" si="6">D448/C448*100</f>
+        <v>5.997281232507929E-2</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -14340,17 +14379,17 @@
         <v>713</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="C449" s="3">
-        <v>54623</v>
+        <v>55417</v>
       </c>
       <c r="D449" s="2">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E449" s="2">
         <f t="shared" si="6"/>
-        <v>9.3367262874613263E-2</v>
+        <v>0.12090152841185918</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
@@ -14358,17 +14397,17 @@
         <v>713</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C450" s="3">
-        <v>3539</v>
+        <v>82780</v>
       </c>
       <c r="D450" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E450" s="2">
         <f t="shared" si="6"/>
-        <v>2.2605255721955353</v>
+        <v>0.12925827494563905</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
@@ -14376,17 +14415,17 @@
         <v>713</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="C451" s="3">
-        <v>58622</v>
+        <v>14254</v>
       </c>
       <c r="D451" s="2">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="E451" s="2">
         <f t="shared" si="6"/>
-        <v>4.6057794002251712E-2</v>
+        <v>1.0242738880314299</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -14394,17 +14433,233 @@
         <v>713</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C452" s="3">
-        <v>57615</v>
+        <v>88824</v>
       </c>
       <c r="D452" s="2">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E452" s="2">
         <f t="shared" si="6"/>
-        <v>4.3391477913737743E-2</v>
+        <v>8.3310816896334322E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C453" s="3">
+        <v>35290</v>
+      </c>
+      <c r="D453" s="2">
+        <v>112</v>
+      </c>
+      <c r="E453" s="2">
+        <f t="shared" si="6"/>
+        <v>0.31737035987531881</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C454" s="3">
+        <v>353</v>
+      </c>
+      <c r="D454" s="2">
+        <v>43</v>
+      </c>
+      <c r="E454" s="2">
+        <f t="shared" si="6"/>
+        <v>12.181303116147308</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C455" s="3">
+        <v>735</v>
+      </c>
+      <c r="D455" s="2">
+        <v>41</v>
+      </c>
+      <c r="E455" s="2">
+        <f t="shared" si="6"/>
+        <v>5.5782312925170068</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C456" s="3">
+        <v>57110</v>
+      </c>
+      <c r="D456" s="2">
+        <v>134</v>
+      </c>
+      <c r="E456" s="2">
+        <f t="shared" si="6"/>
+        <v>0.23463491507616879</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C457" s="3">
+        <v>87171</v>
+      </c>
+      <c r="D457" s="2">
+        <v>36</v>
+      </c>
+      <c r="E457" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1298138142272088E-2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C458" s="3">
+        <v>55530</v>
+      </c>
+      <c r="D458" s="2">
+        <v>73</v>
+      </c>
+      <c r="E458" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13146047181703582</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C459" s="3">
+        <v>3650</v>
+      </c>
+      <c r="D459" s="2">
+        <v>73</v>
+      </c>
+      <c r="E459" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C460" s="3">
+        <v>43771</v>
+      </c>
+      <c r="D460" s="2">
+        <v>119</v>
+      </c>
+      <c r="E460" s="2">
+        <f t="shared" si="6"/>
+        <v>0.27186950263873338</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C461" s="3">
+        <v>85909</v>
+      </c>
+      <c r="D461" s="2">
+        <v>77</v>
+      </c>
+      <c r="E461" s="2">
+        <f t="shared" si="6"/>
+        <v>8.9629724475898911E-2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C462" s="3">
+        <v>3940</v>
+      </c>
+      <c r="D462" s="2">
+        <v>83</v>
+      </c>
+      <c r="E462" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1065989847715736</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C463" s="3">
+        <v>58622</v>
+      </c>
+      <c r="D463" s="2">
+        <v>27</v>
+      </c>
+      <c r="E463" s="2">
+        <f t="shared" si="6"/>
+        <v>4.6057794002251712E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C464" s="3">
+        <v>57615</v>
+      </c>
+      <c r="D464" s="2">
+        <v>66</v>
+      </c>
+      <c r="E464" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11455350169226763</v>
       </c>
     </row>
   </sheetData>
@@ -15603,10 +15858,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="E103" sqref="A74:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16817,7 +17072,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E102" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E103" si="1">D67/C67*100</f>
         <v>8.5858585858585847</v>
       </c>
     </row>
@@ -16988,17 +17243,17 @@
         <v>713</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="C77" s="3">
-        <v>512</v>
+        <v>1788</v>
       </c>
       <c r="D77" s="2">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E77" s="2">
         <f t="shared" si="1"/>
-        <v>8.3984375</v>
+        <v>1.0626398210290828</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -17006,17 +17261,17 @@
         <v>713</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C78" s="3">
-        <v>850</v>
+        <v>569</v>
       </c>
       <c r="D78" s="2">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="1"/>
-        <v>7.2941176470588234</v>
+        <v>8.0843585237258342</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -17024,17 +17279,17 @@
         <v>713</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C79" s="3">
-        <v>2180</v>
+        <v>945</v>
       </c>
       <c r="D79" s="2">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="1"/>
-        <v>3.9449541284403673</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -17042,17 +17297,17 @@
         <v>713</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C80" s="3">
-        <v>1640</v>
+        <v>2430</v>
       </c>
       <c r="D80" s="2">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="1"/>
-        <v>4.2682926829268295</v>
+        <v>3.6213991769547325</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -17060,17 +17315,17 @@
         <v>713</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C81" s="3">
-        <v>1200</v>
+        <v>2040</v>
       </c>
       <c r="D81" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" si="1"/>
-        <v>4.833333333333333</v>
+        <v>3.5294117647058822</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -17078,17 +17333,17 @@
         <v>713</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C82" s="3">
-        <v>1890</v>
+        <v>1490</v>
       </c>
       <c r="D82" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="1"/>
-        <v>2.1164021164021163</v>
+        <v>4.0268456375838921</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -17096,17 +17351,17 @@
         <v>713</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C83" s="3">
-        <v>154</v>
+        <v>2100</v>
       </c>
       <c r="D83" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" si="1"/>
-        <v>23.376623376623375</v>
+        <v>1.9523809523809523</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -17114,17 +17369,17 @@
         <v>713</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C84" s="3">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="D84" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E84" s="2">
         <f t="shared" si="1"/>
-        <v>11.258278145695364</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -17132,17 +17387,17 @@
         <v>713</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C85" s="3">
-        <v>548</v>
+        <v>376</v>
       </c>
       <c r="D85" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" si="1"/>
-        <v>7.8467153284671536</v>
+        <v>9.3085106382978715</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -17150,17 +17405,17 @@
         <v>713</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C86" s="3">
-        <v>375</v>
+        <v>678</v>
       </c>
       <c r="D86" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" si="1"/>
-        <v>11.466666666666667</v>
+        <v>6.6371681415929213</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -17168,17 +17423,17 @@
         <v>713</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C87" s="3">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="D87" s="2">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" si="1"/>
-        <v>41.77215189873418</v>
+        <v>9.4017094017094021</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -17186,17 +17441,17 @@
         <v>713</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C88" s="3">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="D88" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" si="1"/>
-        <v>19.095477386934672</v>
+        <v>29.565217391304348</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -17204,17 +17459,17 @@
         <v>713</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C89" s="3">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="D89" s="2">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" si="1"/>
-        <v>16.546762589928058</v>
+        <v>15.384615384615385</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -17222,17 +17477,17 @@
         <v>713</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C90" s="3">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="D90" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" si="1"/>
-        <v>14.478114478114479</v>
+        <v>13.662790697674417</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -17240,17 +17495,17 @@
         <v>713</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C91" s="3">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="D91" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" si="1"/>
-        <v>8.0086580086580081</v>
+        <v>11.684782608695652</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -17258,17 +17513,17 @@
         <v>713</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C92" s="3">
-        <v>309</v>
+        <v>575</v>
       </c>
       <c r="D92" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" si="1"/>
-        <v>11.650485436893204</v>
+        <v>6.7826086956521747</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -17276,17 +17531,17 @@
         <v>713</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C93" s="3">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="D93" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" si="1"/>
-        <v>19.282511210762333</v>
+        <v>9.7938144329896915</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -17294,17 +17549,17 @@
         <v>713</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C94" s="3">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="D94" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15.24822695035461</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -17312,17 +17567,17 @@
         <v>713</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C95" s="3">
-        <v>405</v>
+        <v>278</v>
       </c>
       <c r="D95" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" si="1"/>
-        <v>8.8888888888888893</v>
+        <v>16.187050359712231</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -17330,17 +17585,17 @@
         <v>713</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C96" s="3">
-        <v>741</v>
+        <v>507</v>
       </c>
       <c r="D96" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" si="1"/>
-        <v>8.097165991902834</v>
+        <v>7.1005917159763312</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -17348,17 +17603,17 @@
         <v>713</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C97" s="3">
-        <v>374</v>
+        <v>824</v>
       </c>
       <c r="D97" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" si="1"/>
-        <v>11.76470588235294</v>
+        <v>7.5242718446601939</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -17366,17 +17621,17 @@
         <v>713</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C98" s="3">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="D98" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" si="1"/>
-        <v>9.6698113207547181</v>
+        <v>9.9137931034482758</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -17384,17 +17639,17 @@
         <v>713</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C99" s="3">
-        <v>377</v>
+        <v>595</v>
       </c>
       <c r="D99" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" si="1"/>
-        <v>11.671087533156498</v>
+        <v>7.0588235294117645</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -17402,17 +17657,17 @@
         <v>713</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C100" s="3">
-        <v>244</v>
+        <v>468</v>
       </c>
       <c r="D100" s="2">
         <v>45</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" si="1"/>
-        <v>18.442622950819672</v>
+        <v>9.6153846153846168</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -17420,17 +17675,17 @@
         <v>713</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>741</v>
+        <v>809</v>
       </c>
       <c r="C101" s="3">
-        <v>59322</v>
+        <v>272</v>
       </c>
       <c r="D101" s="2">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" si="1"/>
-        <v>0.21408583662047809</v>
+        <v>17.27941176470588</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -17438,17 +17693,35 @@
         <v>713</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C102" s="3">
+        <v>59868</v>
+      </c>
+      <c r="D102" s="2">
+        <v>175</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2923097481125142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="C102" s="3">
-        <v>59480</v>
-      </c>
-      <c r="D102" s="2">
-        <v>132</v>
-      </c>
-      <c r="E102" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2219233355749832</v>
+      <c r="C103" s="3">
+        <v>96100</v>
+      </c>
+      <c r="D103" s="2">
+        <v>171</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17793964620187305</v>
       </c>
     </row>
   </sheetData>
@@ -17465,7 +17738,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17719,11 +17992,11 @@
         <v>29000</v>
       </c>
       <c r="D14" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.18275862068965518</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -17737,11 +18010,11 @@
         <v>22587</v>
       </c>
       <c r="D15" s="2">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>0.22579359808739541</v>
+        <v>0.54013370522867143</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -17755,11 +18028,11 @@
         <v>27000</v>
       </c>
       <c r="D16" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>0.14444444444444443</v>
+        <v>0.21111111111111108</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A506F3-8DC7-4BE3-892E-23C790394641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765A7C24-3C40-4964-B152-96118BB1E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="877">
   <si>
     <t>Ссылка</t>
   </si>
@@ -2533,6 +2533,150 @@
   </si>
   <si>
     <t>https://ok.ru/raionklg/topic/157425089508313</t>
+  </si>
+  <si>
+    <t>04.08 - 10.08</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24906</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157272663092641</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157430445962201</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2800523</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4371</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158064484439373</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/890</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3899</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47802</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/891</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3902</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13645</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47783</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13647</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157271411092897</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157429302948825</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24885</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4366</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158063496418637</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157271670746529</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24891</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-93925359_104730</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_456632</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2800275</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2800250</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13657</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157272552140193</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24903</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157430384948185</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158064671544653</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4374</t>
+  </si>
+  <si>
+    <t>https://ok.ru/kalugazanashih/topic/157430530372569</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-187624481_42513</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13671</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24919</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157273298988449</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-187624481_42520</t>
+  </si>
+  <si>
+    <t>https://ok.ru/kalugazanashih/topic/157431358551001</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2801054</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157431400297433</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4376</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158065565193549</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13679</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_24931</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157274032860577</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4379</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158065874457933</t>
   </si>
 </sst>
 </file>
@@ -2601,7 +2745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2615,6 +2759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2907,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3149,7 +3294,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E51" si="1">D13/C13*100</f>
+        <f t="shared" ref="E13:E62" si="1">D13/C13*100</f>
         <v>0.37936267071320184</v>
       </c>
     </row>
@@ -3835,6 +3980,204 @@
       <c r="E51" s="2">
         <f t="shared" si="1"/>
         <v>10.039370078740157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9100</v>
+      </c>
+      <c r="D52" s="2">
+        <v>41</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4505494505494505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C53" s="2">
+        <v>26400</v>
+      </c>
+      <c r="D53" s="2">
+        <v>42</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15909090909090909</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C54" s="2">
+        <v>223</v>
+      </c>
+      <c r="D54" s="2">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8295964125560538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C55" s="2">
+        <v>6700</v>
+      </c>
+      <c r="D55" s="2">
+        <v>60</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89552238805970152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C56" s="2">
+        <v>298</v>
+      </c>
+      <c r="D56" s="2">
+        <v>26</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>8.724832214765101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C57" s="2">
+        <v>796</v>
+      </c>
+      <c r="D57" s="2">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2613065326633168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C58" s="2">
+        <v>26020</v>
+      </c>
+      <c r="D58" s="2">
+        <v>127</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48808608762490391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C59" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D59" s="2">
+        <v>38</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C60" s="2">
+        <v>25615</v>
+      </c>
+      <c r="D60" s="2">
+        <v>222</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86667967987507311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C61" s="2">
+        <v>272</v>
+      </c>
+      <c r="D61" s="2">
+        <v>59</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="1"/>
+        <v>21.691176470588236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C62" s="2">
+        <v>290</v>
+      </c>
+      <c r="D62" s="2">
+        <v>20</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8965517241379306</v>
       </c>
     </row>
   </sheetData>
@@ -3848,7 +4191,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3945,7 +4288,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E20" si="1">D5/C5*100</f>
+        <f t="shared" ref="E5:E23" si="1">D5/C5*100</f>
         <v>0.13580246913580246</v>
       </c>
     </row>
@@ -4220,25 +4563,58 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1998</v>
+      </c>
+      <c r="D21" s="2">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8538538538538538</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="D22" s="2">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.9565217391304347</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1987</v>
+      </c>
+      <c r="D23" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.70457976849521886</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4576,7 +4952,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4617,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E7" si="0">D2/C2*100</f>
+        <f t="shared" ref="E2:E9" si="0">D2/C2*100</f>
         <v>0.18780487804878049</v>
       </c>
     </row>
@@ -4712,18 +5088,40 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C8" s="3">
+        <v>364</v>
+      </c>
+      <c r="D8" s="2">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3186813186813184</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4513</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42100598271659645</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -6298,16 +6696,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E464"/>
+  <dimension ref="A1:E493"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="E464" sqref="A361:E464"/>
+    <sheetView topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="A483" sqref="A483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14370,7 +14768,7 @@
         <v>45</v>
       </c>
       <c r="E448" s="2">
-        <f t="shared" ref="E448:E464" si="6">D448/C448*100</f>
+        <f t="shared" ref="E448:E493" si="6">D448/C448*100</f>
         <v>5.997281232507929E-2</v>
       </c>
     </row>
@@ -14660,6 +15058,528 @@
       <c r="E464" s="2">
         <f t="shared" si="6"/>
         <v>0.11455350169226763</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C465" s="2">
+        <v>3568</v>
+      </c>
+      <c r="D465" s="2">
+        <v>67</v>
+      </c>
+      <c r="E465" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8778026905829595</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C466" s="2">
+        <v>31239</v>
+      </c>
+      <c r="D466" s="2">
+        <v>359</v>
+      </c>
+      <c r="E466" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1492045199910368</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C467" s="2">
+        <v>3371</v>
+      </c>
+      <c r="D467" s="2">
+        <v>88</v>
+      </c>
+      <c r="E467" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6105013349154551</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C468" s="2">
+        <v>44306</v>
+      </c>
+      <c r="D468" s="2">
+        <v>45</v>
+      </c>
+      <c r="E468" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1015663792714305</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C469" s="2">
+        <v>46723</v>
+      </c>
+      <c r="D469" s="2">
+        <v>51</v>
+      </c>
+      <c r="E469" s="2">
+        <f t="shared" si="6"/>
+        <v>0.109153949874794</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C470" s="2">
+        <v>15700</v>
+      </c>
+      <c r="D470" s="2">
+        <v>73</v>
+      </c>
+      <c r="E470" s="2">
+        <f t="shared" si="6"/>
+        <v>0.46496815286624205</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C471" s="2">
+        <v>9900</v>
+      </c>
+      <c r="D471" s="2">
+        <v>29</v>
+      </c>
+      <c r="E471" s="2">
+        <f t="shared" si="6"/>
+        <v>0.29292929292929293</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C472" s="2">
+        <v>426</v>
+      </c>
+      <c r="D472" s="2">
+        <v>17</v>
+      </c>
+      <c r="E472" s="2">
+        <f t="shared" si="6"/>
+        <v>3.9906103286384975</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C473" s="2">
+        <v>50502</v>
+      </c>
+      <c r="D473" s="2">
+        <v>71</v>
+      </c>
+      <c r="E473" s="2">
+        <f t="shared" si="6"/>
+        <v>0.14058849154488931</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C474" s="2">
+        <v>15400</v>
+      </c>
+      <c r="D474" s="2">
+        <v>66</v>
+      </c>
+      <c r="E474" s="2">
+        <f t="shared" si="6"/>
+        <v>0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C475" s="2">
+        <v>6800</v>
+      </c>
+      <c r="D475" s="2">
+        <v>5</v>
+      </c>
+      <c r="E475" s="2">
+        <f t="shared" si="6"/>
+        <v>7.3529411764705885E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C476" s="2">
+        <v>1700</v>
+      </c>
+      <c r="D476" s="2">
+        <v>11</v>
+      </c>
+      <c r="E476" s="2">
+        <f t="shared" si="6"/>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C477" s="2">
+        <v>7900</v>
+      </c>
+      <c r="D477" s="2">
+        <v>45</v>
+      </c>
+      <c r="E477" s="2">
+        <f t="shared" si="6"/>
+        <v>0.569620253164557</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C478" s="2">
+        <v>8900</v>
+      </c>
+      <c r="D478" s="2">
+        <v>163</v>
+      </c>
+      <c r="E478" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8314606741573032</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C479" s="2">
+        <v>3226</v>
+      </c>
+      <c r="D479" s="2">
+        <v>67</v>
+      </c>
+      <c r="E479" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0768753874767514</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C480" s="2">
+        <v>154</v>
+      </c>
+      <c r="D480" s="2">
+        <v>19</v>
+      </c>
+      <c r="E480" s="2">
+        <f t="shared" si="6"/>
+        <v>12.337662337662337</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C481" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D481" s="2">
+        <v>27</v>
+      </c>
+      <c r="E481" s="2">
+        <f t="shared" si="6"/>
+        <v>2.0769230769230771</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C482" s="9">
+        <v>24471</v>
+      </c>
+      <c r="D482" s="2">
+        <v>21</v>
+      </c>
+      <c r="E482" s="2">
+        <f t="shared" si="6"/>
+        <v>8.5815863675370849E-2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C483" s="9">
+        <v>16028</v>
+      </c>
+      <c r="D483" s="2">
+        <v>26</v>
+      </c>
+      <c r="E483" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16221612178687297</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C484" s="2">
+        <v>5200</v>
+      </c>
+      <c r="D484" s="2">
+        <v>22</v>
+      </c>
+      <c r="E484" s="2">
+        <f t="shared" si="6"/>
+        <v>0.42307692307692307</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C485" s="2">
+        <v>17100</v>
+      </c>
+      <c r="D485" s="2">
+        <v>23</v>
+      </c>
+      <c r="E485" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13450292397660821</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C486" s="2">
+        <v>27</v>
+      </c>
+      <c r="D486" s="2">
+        <v>900</v>
+      </c>
+      <c r="E486" s="2">
+        <f t="shared" si="6"/>
+        <v>3333.3333333333335</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C487" s="2">
+        <v>3010</v>
+      </c>
+      <c r="D487" s="2">
+        <v>64</v>
+      </c>
+      <c r="E487" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1262458471760799</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C488" s="2">
+        <v>6500</v>
+      </c>
+      <c r="D488" s="2">
+        <v>35</v>
+      </c>
+      <c r="E488" s="2">
+        <f t="shared" si="6"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C489" s="2">
+        <v>15071</v>
+      </c>
+      <c r="D489" s="2">
+        <v>27</v>
+      </c>
+      <c r="E489" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17915201380134033</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C490" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D490" s="2">
+        <v>18</v>
+      </c>
+      <c r="E490" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C491" s="2">
+        <v>3783</v>
+      </c>
+      <c r="D491" s="2">
+        <v>22</v>
+      </c>
+      <c r="E491" s="2">
+        <f t="shared" si="6"/>
+        <v>0.58154903515728262</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C492" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D492" s="2">
+        <v>24</v>
+      </c>
+      <c r="E492" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C493" s="2">
+        <v>154</v>
+      </c>
+      <c r="D493" s="2">
+        <v>6</v>
+      </c>
+      <c r="E493" s="2">
+        <f t="shared" si="6"/>
+        <v>3.8961038961038961</v>
       </c>
     </row>
   </sheetData>
@@ -14678,8 +15598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14738,7 +15658,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E63" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E65" si="0">D3/C3*100</f>
         <v>0.47505938242280288</v>
       </c>
     </row>
@@ -15823,18 +16743,40 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="A64" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C64" s="3">
+        <v>29</v>
+      </c>
+      <c r="D64" s="2">
+        <v>15</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="0"/>
+        <v>51.724137931034484</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C65" s="3">
+        <v>128</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8125</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765A7C24-3C40-4964-B152-96118BB1E2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D38F356-2A58-422E-B274-395362F7C3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="894">
   <si>
     <t>Ссылка</t>
   </si>
@@ -2677,6 +2677,57 @@
   </si>
   <si>
     <t>https://ok.ru/goodnewsklg/topic/158065874457933</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157275898473889</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25019</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158066872177997</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-222134246_456239636</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4385</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47840</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-187624481_42535</t>
+  </si>
+  <si>
+    <t>https://ok.ru/kalugazanashih/topic/157432890061785</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157275810459041</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-93925359_104787</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25013</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2801635</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13701</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158067162699085</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-222134246_456239637</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4387</t>
+  </si>
+  <si>
+    <t>https://t.me/kalugachannel/24430</t>
   </si>
 </sst>
 </file>
@@ -2717,7 +2768,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2740,12 +2791,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2759,7 +2834,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3052,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3294,7 +3372,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E62" si="1">D13/C13*100</f>
+        <f t="shared" ref="E13:E70" si="1">D13/C13*100</f>
         <v>0.37936267071320184</v>
       </c>
     </row>
@@ -3989,15 +4067,15 @@
       <c r="B52" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C52" s="2">
-        <v>9100</v>
+      <c r="C52" s="3">
+        <v>20310</v>
       </c>
       <c r="D52" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>0.4505494505494505</v>
+        <v>0.23141309699655344</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4007,15 +4085,15 @@
       <c r="B53" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C53" s="2">
-        <v>26400</v>
+      <c r="C53" s="3">
+        <v>43774</v>
       </c>
       <c r="D53" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>0.15909090909090909</v>
+        <v>0.18047242655457579</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4025,15 +4103,15 @@
       <c r="B54" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C54" s="2">
-        <v>223</v>
+      <c r="C54" s="3">
+        <v>197237</v>
       </c>
       <c r="D54" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>5.8295964125560538</v>
+        <v>1.9773166292328517E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4151,15 +4229,15 @@
       <c r="B61" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C61" s="2">
-        <v>272</v>
+      <c r="C61" s="3">
+        <v>1397</v>
       </c>
       <c r="D61" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="1"/>
-        <v>21.691176470588236</v>
+        <v>2.9348604151753759</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -4169,16 +4247,175 @@
       <c r="B62" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C62" s="2">
-        <v>290</v>
+      <c r="C62" s="3">
+        <v>512</v>
       </c>
       <c r="D62" s="2">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="1"/>
-        <v>6.8965517241379306</v>
-      </c>
+        <v>13.28125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C63" s="3">
+        <v>5220</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1615</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="1"/>
+        <v>30.938697318007662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C64" s="3">
+        <v>28100</v>
+      </c>
+      <c r="D64" s="2">
+        <v>232</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="1"/>
+        <v>0.82562277580071164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C65" s="3">
+        <v>26793</v>
+      </c>
+      <c r="D65" s="2">
+        <v>61</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22767140671070804</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="D66" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C67" s="3">
+        <v>120392</v>
+      </c>
+      <c r="D67" s="2">
+        <v>51</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="1"/>
+        <v>4.236161871220679E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C68" s="3">
+        <v>10164</v>
+      </c>
+      <c r="D68" s="2">
+        <v>31</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30499803227075956</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C69" s="3">
+        <v>9065</v>
+      </c>
+      <c r="D69" s="2">
+        <v>80</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88251516822945397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C70" s="3">
+        <v>46317</v>
+      </c>
+      <c r="D70" s="2">
+        <v>31</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="1"/>
+        <v>6.6930068873199897E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4188,10 +4425,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14081303-9170-4EFA-93A2-E3A160BF1A11}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4570,14 +4807,14 @@
         <v>872</v>
       </c>
       <c r="C21" s="3">
-        <v>1998</v>
+        <v>3170</v>
       </c>
       <c r="D21" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>3.8538538538538538</v>
+        <v>2.8706624605678233</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4588,14 +4825,14 @@
         <v>873</v>
       </c>
       <c r="C22" s="3">
-        <v>2300</v>
+        <v>36453</v>
       </c>
       <c r="D22" s="2">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>0.9565217391304347</v>
+        <v>0.12344662990700354</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4606,15 +4843,32 @@
         <v>874</v>
       </c>
       <c r="C23" s="3">
-        <v>1987</v>
+        <v>23000</v>
       </c>
       <c r="D23" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>0.70457976849521886</v>
-      </c>
+        <v>0.10869565217391304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4624,10 +4878,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF44B6C-916C-4D23-9E6B-AE95ABFB7419}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E16"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4686,7 +4940,7 @@
         <v>135</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E16" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E17" si="0">D3/C3*100</f>
         <v>0.45302013422818793</v>
       </c>
     </row>
@@ -4925,11 +5179,22 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C17" s="3">
+        <v>28884</v>
+      </c>
+      <c r="D17" s="2">
+        <v>146</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.50547015648802107</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
@@ -4937,6 +5202,11 @@
       <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5159,16 +5429,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:E84"/>
+      <selection activeCell="E86" sqref="A81:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.21875" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
@@ -6375,7 +6645,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E84" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E86" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -6596,16 +6866,16 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="12">
         <v>75717</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="11">
         <v>44</v>
       </c>
       <c r="E80">
@@ -6626,7 +6896,7 @@
       <c r="D81" s="2">
         <v>61</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <f t="shared" si="1"/>
         <v>1.7579250720461095</v>
       </c>
@@ -6644,7 +6914,7 @@
       <c r="D82" s="2">
         <v>35</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <f t="shared" si="1"/>
         <v>3.4124701408862673E-2</v>
       </c>
@@ -6662,7 +6932,7 @@
       <c r="D83" s="2">
         <v>71</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <f t="shared" si="1"/>
         <v>0.30425094274940007</v>
       </c>
@@ -6680,9 +6950,45 @@
       <c r="D84" s="2">
         <v>58</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <f t="shared" si="1"/>
         <v>1.657142857142857</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C85" s="2">
+        <v>136</v>
+      </c>
+      <c r="D85" s="2">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3529411764705888</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C86" s="3">
+        <v>748</v>
+      </c>
+      <c r="D86" s="2">
+        <v>17</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272729</v>
       </c>
     </row>
   </sheetData>
@@ -6696,10 +7002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E516"/>
   <sheetViews>
-    <sheetView topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="A483" sqref="A483"/>
+    <sheetView topLeftCell="A491" workbookViewId="0">
+      <selection activeCell="G515" sqref="G515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14768,7 +15074,7 @@
         <v>45</v>
       </c>
       <c r="E448" s="2">
-        <f t="shared" ref="E448:E493" si="6">D448/C448*100</f>
+        <f t="shared" ref="E448:E511" si="6">D448/C448*100</f>
         <v>5.997281232507929E-2</v>
       </c>
     </row>
@@ -15065,17 +15371,17 @@
         <v>829</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="C465" s="2">
-        <v>3568</v>
+        <v>883</v>
+      </c>
+      <c r="C465" s="3">
+        <v>11279</v>
       </c>
       <c r="D465" s="2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E465" s="2">
         <f t="shared" si="6"/>
-        <v>1.8778026905829595</v>
+        <v>0.1507225817891657</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -15083,17 +15389,17 @@
         <v>829</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C466" s="2">
-        <v>31239</v>
+        <v>884</v>
+      </c>
+      <c r="C466" s="3">
+        <v>13683</v>
       </c>
       <c r="D466" s="2">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="E466" s="2">
         <f t="shared" si="6"/>
-        <v>1.1492045199910368</v>
+        <v>0.15347511510633632</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -15101,17 +15407,17 @@
         <v>829</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C467" s="2">
-        <v>3371</v>
+        <v>885</v>
+      </c>
+      <c r="C467" s="3">
+        <v>7671</v>
       </c>
       <c r="D467" s="2">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E467" s="2">
         <f t="shared" si="6"/>
-        <v>2.6105013349154551</v>
+        <v>0.27375831052014077</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -15119,17 +15425,17 @@
         <v>829</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="C468" s="2">
-        <v>44306</v>
+        <v>886</v>
+      </c>
+      <c r="C468" s="3">
+        <v>5159</v>
       </c>
       <c r="D468" s="2">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E468" s="2">
         <f t="shared" si="6"/>
-        <v>0.1015663792714305</v>
+        <v>7.7534405892614844E-2</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -15137,17 +15443,17 @@
         <v>829</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C469" s="2">
-        <v>46723</v>
+        <v>887</v>
+      </c>
+      <c r="C469" s="3">
+        <v>3206</v>
       </c>
       <c r="D469" s="2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E469" s="2">
         <f t="shared" si="6"/>
-        <v>0.109153949874794</v>
+        <v>0.90455396132252031</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -15155,17 +15461,17 @@
         <v>829</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C470" s="2">
-        <v>15700</v>
+        <v>888</v>
+      </c>
+      <c r="C470" s="3">
+        <v>4901</v>
       </c>
       <c r="D470" s="2">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E470" s="2">
         <f t="shared" si="6"/>
-        <v>0.46496815286624205</v>
+        <v>0.61211997551520092</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -15173,17 +15479,17 @@
         <v>829</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="C471" s="2">
-        <v>9900</v>
+        <v>889</v>
+      </c>
+      <c r="C471" s="3">
+        <v>2610</v>
       </c>
       <c r="D471" s="2">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E471" s="2">
         <f t="shared" si="6"/>
-        <v>0.29292929292929293</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -15191,17 +15497,17 @@
         <v>829</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="C472" s="2">
-        <v>426</v>
+        <v>869</v>
+      </c>
+      <c r="C472" s="3">
+        <v>530</v>
       </c>
       <c r="D472" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E472" s="2">
         <f t="shared" si="6"/>
-        <v>3.9906103286384975</v>
+        <v>3.3962264150943398</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -15209,17 +15515,17 @@
         <v>829</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="C473" s="2">
-        <v>50502</v>
+        <v>890</v>
+      </c>
+      <c r="C473" s="3">
+        <v>9156</v>
       </c>
       <c r="D473" s="2">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E473" s="2">
         <f t="shared" si="6"/>
-        <v>0.14058849154488931</v>
+        <v>0.218435998252512</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -15227,17 +15533,17 @@
         <v>829</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C474" s="2">
-        <v>15400</v>
+        <v>868</v>
+      </c>
+      <c r="C474" s="3">
+        <v>9997</v>
       </c>
       <c r="D474" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E474" s="2">
         <f t="shared" si="6"/>
-        <v>0.4285714285714286</v>
+        <v>0.63018905671701508</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -15245,17 +15551,17 @@
         <v>829</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="C475" s="2">
-        <v>6800</v>
+        <v>891</v>
+      </c>
+      <c r="C475" s="3">
+        <v>8100</v>
       </c>
       <c r="D475" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E475" s="2">
         <f t="shared" si="6"/>
-        <v>7.3529411764705885E-2</v>
+        <v>0.30864197530864196</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -15263,17 +15569,17 @@
         <v>829</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="C476" s="2">
-        <v>1700</v>
+        <v>867</v>
+      </c>
+      <c r="C476" s="3">
+        <v>29240</v>
       </c>
       <c r="D476" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E476" s="2">
         <f t="shared" si="6"/>
-        <v>0.6470588235294118</v>
+        <v>0.14363885088919287</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -15281,17 +15587,17 @@
         <v>829</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="C477" s="2">
-        <v>7900</v>
+        <v>892</v>
+      </c>
+      <c r="C477" s="3">
+        <v>3151</v>
       </c>
       <c r="D477" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E477" s="2">
         <f t="shared" si="6"/>
-        <v>0.569620253164557</v>
+        <v>0.79339892097746745</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -15299,17 +15605,17 @@
         <v>829</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C478" s="2">
-        <v>8900</v>
+        <v>866</v>
+      </c>
+      <c r="C478" s="3">
+        <v>21665</v>
       </c>
       <c r="D478" s="2">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="E478" s="2">
         <f t="shared" si="6"/>
-        <v>1.8314606741573032</v>
+        <v>0.30002307869836142</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -15317,17 +15623,17 @@
         <v>829</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="C479" s="2">
-        <v>3226</v>
+        <v>865</v>
+      </c>
+      <c r="C479" s="3">
+        <v>45993</v>
       </c>
       <c r="D479" s="2">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E479" s="2">
         <f t="shared" si="6"/>
-        <v>2.0768753874767514</v>
+        <v>0.11306068314743548</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -15335,17 +15641,17 @@
         <v>829</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C480" s="2">
-        <v>154</v>
+        <v>864</v>
+      </c>
+      <c r="C480" s="3">
+        <v>14132</v>
       </c>
       <c r="D480" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E480" s="2">
         <f t="shared" si="6"/>
-        <v>12.337662337662337</v>
+        <v>0.32550240588734786</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -15353,17 +15659,17 @@
         <v>829</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="C481" s="2">
-        <v>1300</v>
+        <v>863</v>
+      </c>
+      <c r="C481" s="3">
+        <v>3510</v>
       </c>
       <c r="D481" s="2">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E481" s="2">
         <f t="shared" si="6"/>
-        <v>2.0769230769230771</v>
+        <v>1.9373219373219372</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -15371,17 +15677,17 @@
         <v>829</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C482" s="9">
-        <v>24471</v>
+        <v>862</v>
+      </c>
+      <c r="C482" s="3">
+        <v>27673</v>
       </c>
       <c r="D482" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E482" s="2">
         <f t="shared" si="6"/>
-        <v>8.5815863675370849E-2</v>
+        <v>0.133704332743107</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -15389,17 +15695,17 @@
         <v>829</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="C483" s="9">
-        <v>16028</v>
+        <v>861</v>
+      </c>
+      <c r="C483" s="3">
+        <v>44487</v>
       </c>
       <c r="D483" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E483" s="2">
         <f t="shared" si="6"/>
-        <v>0.16221612178687297</v>
+        <v>7.193112594690583E-2</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -15409,15 +15715,15 @@
       <c r="B484" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="C484" s="2">
-        <v>5200</v>
+      <c r="C484" s="3">
+        <v>12049</v>
       </c>
       <c r="D484" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E484" s="2">
         <f t="shared" si="6"/>
-        <v>0.42307692307692307</v>
+        <v>0.20748609843140509</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -15425,17 +15731,17 @@
         <v>829</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="C485" s="2">
-        <v>17100</v>
+        <v>859</v>
+      </c>
+      <c r="C485" s="3">
+        <v>33507</v>
       </c>
       <c r="D485" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E485" s="2">
         <f t="shared" si="6"/>
-        <v>0.13450292397660821</v>
+        <v>9.8486883337810013E-2</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -15443,17 +15749,17 @@
         <v>829</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C486" s="2">
-        <v>27</v>
+        <v>857</v>
+      </c>
+      <c r="C486" s="3">
+        <v>7763</v>
       </c>
       <c r="D486" s="2">
-        <v>900</v>
+        <v>31</v>
       </c>
       <c r="E486" s="2">
         <f t="shared" si="6"/>
-        <v>3333.3333333333335</v>
+        <v>0.39933015586757703</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -15461,17 +15767,17 @@
         <v>829</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="C487" s="2">
-        <v>3010</v>
+        <v>856</v>
+      </c>
+      <c r="C487" s="3">
+        <v>22714</v>
       </c>
       <c r="D487" s="2">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E487" s="2">
         <f t="shared" si="6"/>
-        <v>2.1262458471760799</v>
+        <v>0.1232719908426521</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -15479,17 +15785,17 @@
         <v>829</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="C488" s="2">
-        <v>6500</v>
+        <v>855</v>
+      </c>
+      <c r="C488" s="3">
+        <v>3660</v>
       </c>
       <c r="D488" s="2">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E488" s="2">
         <f t="shared" si="6"/>
-        <v>0.53846153846153844</v>
+        <v>1.8306010928961749</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -15497,17 +15803,17 @@
         <v>829</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C489" s="2">
-        <v>15071</v>
+        <v>854</v>
+      </c>
+      <c r="C489" s="3">
+        <v>10761</v>
       </c>
       <c r="D489" s="2">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="E489" s="2">
         <f t="shared" si="6"/>
-        <v>0.17915201380134033</v>
+        <v>1.6634141808382119</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -15515,17 +15821,17 @@
         <v>829</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C490" s="2">
-        <v>1200</v>
+        <v>853</v>
+      </c>
+      <c r="C490" s="3">
+        <v>10137</v>
       </c>
       <c r="D490" s="2">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E490" s="2">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>0.55243168590312719</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -15533,17 +15839,17 @@
         <v>829</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="C491" s="2">
-        <v>3783</v>
+        <v>852</v>
+      </c>
+      <c r="C491" s="3">
+        <v>2168</v>
       </c>
       <c r="D491" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E491" s="2">
         <f t="shared" si="6"/>
-        <v>0.58154903515728262</v>
+        <v>0.55350553505535049</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -15551,17 +15857,17 @@
         <v>829</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="C492" s="2">
-        <v>2000</v>
+        <v>851</v>
+      </c>
+      <c r="C492" s="3">
+        <v>7053</v>
       </c>
       <c r="D492" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E492" s="2">
         <f t="shared" si="6"/>
-        <v>1.2</v>
+        <v>7.0891819084077698E-2</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -15569,17 +15875,431 @@
         <v>829</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="C493" s="2">
-        <v>154</v>
+        <v>843</v>
+      </c>
+      <c r="C493" s="3">
+        <v>3750</v>
       </c>
       <c r="D493" s="2">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E493" s="2">
         <f t="shared" si="6"/>
-        <v>3.8961038961038961</v>
+        <v>2.4266666666666667</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C494" s="3">
+        <v>22365</v>
+      </c>
+      <c r="D494" s="2">
+        <v>79</v>
+      </c>
+      <c r="E494" s="2">
+        <f t="shared" si="6"/>
+        <v>0.35323049407556451</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C495" s="3">
+        <v>74774</v>
+      </c>
+      <c r="D495" s="2">
+        <v>88</v>
+      </c>
+      <c r="E495" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11768796640543504</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C496" s="3">
+        <v>32299</v>
+      </c>
+      <c r="D496" s="2">
+        <v>354</v>
+      </c>
+      <c r="E496" s="2">
+        <f t="shared" si="6"/>
+        <v>1.096009164370414</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C497" s="3">
+        <v>164539</v>
+      </c>
+      <c r="D497" s="2">
+        <v>35</v>
+      </c>
+      <c r="E497" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1271552641015198E-2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C498" s="3">
+        <v>15933</v>
+      </c>
+      <c r="D498" s="2">
+        <v>33</v>
+      </c>
+      <c r="E498" s="2">
+        <f t="shared" si="6"/>
+        <v>0.20711730370928261</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C499" s="3">
+        <v>67150</v>
+      </c>
+      <c r="D499" s="2">
+        <v>65</v>
+      </c>
+      <c r="E499" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6798212956068497E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C500" s="3">
+        <v>21997</v>
+      </c>
+      <c r="D500" s="2">
+        <v>80</v>
+      </c>
+      <c r="E500" s="2">
+        <f t="shared" si="6"/>
+        <v>0.36368595717597857</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C501" s="3">
+        <v>61091</v>
+      </c>
+      <c r="D501" s="2">
+        <v>55</v>
+      </c>
+      <c r="E501" s="2">
+        <f t="shared" si="6"/>
+        <v>9.0029627932101286E-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C502" s="3">
+        <v>3660</v>
+      </c>
+      <c r="D502" s="2">
+        <v>67</v>
+      </c>
+      <c r="E502" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8306010928961749</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C503" s="3">
+        <v>18863</v>
+      </c>
+      <c r="D503" s="2">
+        <v>53</v>
+      </c>
+      <c r="E503" s="2">
+        <f t="shared" si="6"/>
+        <v>0.28097333404018449</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C504" s="3">
+        <v>62814</v>
+      </c>
+      <c r="D504" s="2">
+        <v>113</v>
+      </c>
+      <c r="E504" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17989620148374566</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C505" s="3">
+        <v>36614</v>
+      </c>
+      <c r="D505" s="2">
+        <v>123</v>
+      </c>
+      <c r="E505" s="2">
+        <f t="shared" si="6"/>
+        <v>0.33593707325066918</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C506" s="3">
+        <v>48197</v>
+      </c>
+      <c r="D506" s="2">
+        <v>412</v>
+      </c>
+      <c r="E506" s="2">
+        <f t="shared" si="6"/>
+        <v>0.85482498910720595</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C507" s="3">
+        <v>31252</v>
+      </c>
+      <c r="D507" s="2">
+        <v>105</v>
+      </c>
+      <c r="E507" s="2">
+        <f t="shared" si="6"/>
+        <v>0.33597849737616792</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C508" s="3">
+        <v>18251</v>
+      </c>
+      <c r="D508" s="2">
+        <v>67</v>
+      </c>
+      <c r="E508" s="2">
+        <f t="shared" si="6"/>
+        <v>0.367103172428908</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C509" s="3">
+        <v>9427</v>
+      </c>
+      <c r="D509" s="2">
+        <v>74</v>
+      </c>
+      <c r="E509" s="2">
+        <f t="shared" si="6"/>
+        <v>0.78497931473427396</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C510" s="3">
+        <v>15630</v>
+      </c>
+      <c r="D510" s="2">
+        <v>51</v>
+      </c>
+      <c r="E510" s="2">
+        <f t="shared" si="6"/>
+        <v>0.32629558541266795</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C511" s="3">
+        <v>18099</v>
+      </c>
+      <c r="D511" s="2">
+        <v>28</v>
+      </c>
+      <c r="E511" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15470467981656444</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C512" s="3">
+        <v>4320</v>
+      </c>
+      <c r="D512" s="2">
+        <v>124</v>
+      </c>
+      <c r="E512" s="2">
+        <f t="shared" ref="E512:E516" si="7">D512/C512*100</f>
+        <v>2.8703703703703702</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C513" s="3">
+        <v>17622</v>
+      </c>
+      <c r="D513" s="2">
+        <v>120</v>
+      </c>
+      <c r="E513" s="2">
+        <f t="shared" si="7"/>
+        <v>0.68096697310180454</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C514" s="3">
+        <v>16697</v>
+      </c>
+      <c r="D514" s="2">
+        <v>35</v>
+      </c>
+      <c r="E514" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20961849434030064</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C515" s="3">
+        <v>35072</v>
+      </c>
+      <c r="D515" s="2">
+        <v>36</v>
+      </c>
+      <c r="E515" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10264598540145986</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C516" s="3">
+        <v>12381</v>
+      </c>
+      <c r="D516" s="2">
+        <v>63</v>
+      </c>
+      <c r="E516" s="2">
+        <f t="shared" si="7"/>
+        <v>0.50884419675308934</v>
       </c>
     </row>
   </sheetData>
@@ -15598,8 +16318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15658,7 +16378,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E65" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E66" si="0">D3/C3*100</f>
         <v>0.47505938242280288</v>
       </c>
     </row>
@@ -16779,18 +17499,40 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C66" s="3">
+        <v>22349</v>
+      </c>
+      <c r="D66" s="2">
+        <v>27</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12081077453129895</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C67" s="3">
+        <v>61373</v>
+      </c>
+      <c r="D67" s="2">
+        <v>75</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67" si="1">D67/C67*100</f>
+        <v>0.12220357486190997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16800,10 +17542,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E103" sqref="A74:E103"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18014,7 +18756,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E103" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E106" si="1">D67/C67*100</f>
         <v>8.5858585858585847</v>
       </c>
     </row>
@@ -18664,6 +19406,60 @@
       <c r="E103" s="2">
         <f t="shared" si="1"/>
         <v>0.17793964620187305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C104" s="3">
+        <v>9783</v>
+      </c>
+      <c r="D104" s="2">
+        <v>70</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="1"/>
+        <v>0.7155269344781765</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C105" s="3">
+        <v>35200</v>
+      </c>
+      <c r="D105" s="2">
+        <v>76</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21590909090909091</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C106" s="3">
+        <v>13371</v>
+      </c>
+      <c r="D106" s="2">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="1"/>
+        <v>0.59083090269987282</v>
       </c>
     </row>
   </sheetData>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D38F356-2A58-422E-B274-395362F7C3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F56BE1-EA3D-4CA7-A13E-8E14DE483691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="894">
   <si>
     <t>Ссылка</t>
   </si>
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4065,17 +4065,17 @@
         <v>829</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>830</v>
+        <v>893</v>
       </c>
       <c r="C52" s="3">
-        <v>20310</v>
+        <v>5220</v>
       </c>
       <c r="D52" s="2">
-        <v>47</v>
+        <v>1615</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>0.23141309699655344</v>
+        <v>30.938697318007662</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4083,17 +4083,17 @@
         <v>829</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="C53" s="3">
-        <v>43774</v>
+        <v>28100</v>
       </c>
       <c r="D53" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>0.18047242655457579</v>
+        <v>0.82562277580071164</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4101,17 +4101,17 @@
         <v>829</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C54" s="3">
-        <v>197237</v>
+        <v>26793</v>
       </c>
       <c r="D54" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>1.9773166292328517E-2</v>
+        <v>0.22767140671070804</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4119,17 +4119,17 @@
         <v>829</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C55" s="2">
-        <v>6700</v>
+        <v>836</v>
+      </c>
+      <c r="C55" s="3">
+        <v>28500</v>
       </c>
       <c r="D55" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
-        <v>0.89552238805970152</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4137,17 +4137,17 @@
         <v>829</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="C56" s="2">
-        <v>298</v>
+        <v>835</v>
+      </c>
+      <c r="C56" s="3">
+        <v>120392</v>
       </c>
       <c r="D56" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
-        <v>8.724832214765101</v>
+        <v>4.236161871220679E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -4155,17 +4155,17 @@
         <v>829</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C57" s="2">
-        <v>796</v>
+        <v>834</v>
+      </c>
+      <c r="C57" s="3">
+        <v>10164</v>
       </c>
       <c r="D57" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
-        <v>2.2613065326633168</v>
+        <v>0.30499803227075956</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -4173,17 +4173,17 @@
         <v>829</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C58" s="2">
-        <v>26020</v>
+        <v>833</v>
+      </c>
+      <c r="C58" s="3">
+        <v>9065</v>
       </c>
       <c r="D58" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
-        <v>0.48808608762490391</v>
+        <v>0.88251516822945397</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -4191,17 +4191,17 @@
         <v>829</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="C59" s="2">
-        <v>8000</v>
+        <v>858</v>
+      </c>
+      <c r="C59" s="3">
+        <v>46317</v>
       </c>
       <c r="D59" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="1"/>
-        <v>0.47499999999999998</v>
+        <v>6.6930068873199897E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4209,17 +4209,17 @@
         <v>829</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C60" s="2">
-        <v>25615</v>
+        <v>832</v>
+      </c>
+      <c r="C60" s="3">
+        <v>197237</v>
       </c>
       <c r="D60" s="2">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="1"/>
-        <v>0.86667967987507311</v>
+        <v>1.9773166292328517E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -4227,17 +4227,17 @@
         <v>829</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C61" s="3">
-        <v>1397</v>
+        <v>43774</v>
       </c>
       <c r="D61" s="2">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="1"/>
-        <v>2.9348604151753759</v>
+        <v>0.18047242655457579</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -4245,17 +4245,17 @@
         <v>829</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C62" s="3">
-        <v>512</v>
+        <v>20310</v>
       </c>
       <c r="D62" s="2">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="1"/>
-        <v>13.28125</v>
+        <v>0.23141309699655344</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4263,17 +4263,17 @@
         <v>829</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>893</v>
+        <v>840</v>
       </c>
       <c r="C63" s="3">
-        <v>5220</v>
+        <v>1397</v>
       </c>
       <c r="D63" s="2">
-        <v>1615</v>
+        <v>41</v>
       </c>
       <c r="E63" s="2">
         <f t="shared" si="1"/>
-        <v>30.938697318007662</v>
+        <v>2.9348604151753759</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -4281,126 +4281,60 @@
         <v>829</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C64" s="3">
-        <v>28100</v>
+        <v>512</v>
       </c>
       <c r="D64" s="2">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="1"/>
-        <v>0.82562277580071164</v>
+        <v>13.28125</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="C65" s="3">
-        <v>26793</v>
-      </c>
-      <c r="D65" s="2">
-        <v>61</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" si="1"/>
-        <v>0.22767140671070804</v>
-      </c>
+      <c r="A65" s="8"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="C66" s="3">
-        <v>28500</v>
-      </c>
-      <c r="D66" s="2">
-        <v>76</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="1"/>
-        <v>0.26666666666666666</v>
-      </c>
+      <c r="A66" s="8"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C67" s="3">
-        <v>120392</v>
-      </c>
-      <c r="D67" s="2">
-        <v>51</v>
-      </c>
-      <c r="E67" s="2">
-        <f t="shared" si="1"/>
-        <v>4.236161871220679E-2</v>
-      </c>
+      <c r="A67" s="8"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="C68" s="3">
-        <v>10164</v>
-      </c>
-      <c r="D68" s="2">
-        <v>31</v>
-      </c>
-      <c r="E68" s="2">
-        <f t="shared" si="1"/>
-        <v>0.30499803227075956</v>
-      </c>
+      <c r="A68" s="8"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C69" s="3">
-        <v>9065</v>
-      </c>
-      <c r="D69" s="2">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88251516822945397</v>
-      </c>
+      <c r="A69" s="8"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C70" s="3">
-        <v>46317</v>
-      </c>
-      <c r="D70" s="2">
-        <v>31</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="1"/>
-        <v>6.6930068873199897E-2</v>
-      </c>
+      <c r="A70" s="8"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
@@ -4428,7 +4362,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B21" sqref="B21:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4804,17 +4738,17 @@
         <v>829</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C21" s="3">
-        <v>3170</v>
+        <v>24000</v>
       </c>
       <c r="D21" s="2">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>2.8706624605678233</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4840,17 +4774,17 @@
         <v>829</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C23" s="3">
-        <v>23000</v>
+        <v>3170</v>
       </c>
       <c r="D23" s="2">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>0.10869565217391304</v>
+        <v>2.8706624605678233</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -4881,7 +4815,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5222,7 +5156,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5362,17 +5296,17 @@
         <v>829</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C8" s="3">
-        <v>364</v>
+        <v>35150</v>
       </c>
       <c r="D8" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>6.3186813186813184</v>
+        <v>0.10241820768136557</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -5380,23 +5314,23 @@
         <v>829</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4513</v>
+        <v>870</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12381</v>
       </c>
       <c r="D9" s="2">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0.42100598271659645</v>
+        <v>0.50884419675308934</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
@@ -5432,7 +5366,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E86" sqref="A81:E86"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6962,15 +6896,15 @@
       <c r="B85" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="C85" s="2">
-        <v>136</v>
+      <c r="C85" s="3">
+        <v>138</v>
       </c>
       <c r="D85" s="2">
         <v>10</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" si="1"/>
-        <v>7.3529411764705888</v>
+        <v>7.2463768115942031</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -7004,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
   <dimension ref="A1:E516"/>
   <sheetViews>
-    <sheetView topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="G515" sqref="G515"/>
+    <sheetView topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="A515" sqref="A515:A516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15371,17 +15305,17 @@
         <v>829</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>883</v>
+        <v>826</v>
       </c>
       <c r="C465" s="3">
-        <v>11279</v>
+        <v>17622</v>
       </c>
       <c r="D465" s="2">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="E465" s="2">
         <f t="shared" si="6"/>
-        <v>0.1507225817891657</v>
+        <v>0.68096697310180454</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -15389,17 +15323,17 @@
         <v>829</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>884</v>
+        <v>827</v>
       </c>
       <c r="C466" s="3">
-        <v>13683</v>
+        <v>16697</v>
       </c>
       <c r="D466" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E466" s="2">
         <f t="shared" si="6"/>
-        <v>0.15347511510633632</v>
+        <v>0.20961849434030064</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -15407,17 +15341,17 @@
         <v>829</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C467" s="3">
-        <v>7671</v>
+        <v>11279</v>
       </c>
       <c r="D467" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E467" s="2">
         <f t="shared" si="6"/>
-        <v>0.27375831052014077</v>
+        <v>0.1507225817891657</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -15425,17 +15359,17 @@
         <v>829</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C468" s="3">
-        <v>5159</v>
+        <v>15055</v>
       </c>
       <c r="D468" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E468" s="2">
         <f t="shared" si="6"/>
-        <v>7.7534405892614844E-2</v>
+        <v>0.1394885420126204</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -15443,17 +15377,17 @@
         <v>829</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C469" s="3">
-        <v>3206</v>
+        <v>7669</v>
       </c>
       <c r="D469" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E469" s="2">
         <f t="shared" si="6"/>
-        <v>0.90455396132252031</v>
+        <v>0.2738297040031295</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -15461,17 +15395,17 @@
         <v>829</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C470" s="3">
-        <v>4901</v>
+        <v>5159</v>
       </c>
       <c r="D470" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E470" s="2">
         <f t="shared" si="6"/>
-        <v>0.61211997551520092</v>
+        <v>7.7534405892614844E-2</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -15479,17 +15413,17 @@
         <v>829</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C471" s="3">
-        <v>2610</v>
+        <v>3206</v>
       </c>
       <c r="D471" s="2">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E471" s="2">
         <f t="shared" si="6"/>
-        <v>2.2222222222222223</v>
+        <v>0.90455396132252031</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -15497,17 +15431,17 @@
         <v>829</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="C472" s="3">
-        <v>530</v>
+        <v>4901</v>
       </c>
       <c r="D472" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E472" s="2">
         <f t="shared" si="6"/>
-        <v>3.3962264150943398</v>
+        <v>0.61211997551520092</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -15515,17 +15449,17 @@
         <v>829</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C473" s="3">
-        <v>9156</v>
+        <v>2610</v>
       </c>
       <c r="D473" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E473" s="2">
         <f t="shared" si="6"/>
-        <v>0.218435998252512</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -15533,17 +15467,17 @@
         <v>829</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C474" s="3">
-        <v>9997</v>
+        <v>524</v>
       </c>
       <c r="D474" s="2">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E474" s="2">
         <f t="shared" si="6"/>
-        <v>0.63018905671701508</v>
+        <v>3.4351145038167941</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -15551,17 +15485,17 @@
         <v>829</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C475" s="3">
-        <v>8100</v>
+        <v>9800</v>
       </c>
       <c r="D475" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E475" s="2">
         <f t="shared" si="6"/>
-        <v>0.30864197530864196</v>
+        <v>0.20408163265306123</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -15569,17 +15503,17 @@
         <v>829</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C476" s="3">
-        <v>29240</v>
+        <v>9997</v>
       </c>
       <c r="D476" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E476" s="2">
         <f t="shared" si="6"/>
-        <v>0.14363885088919287</v>
+        <v>0.63018905671701508</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -15587,17 +15521,17 @@
         <v>829</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C477" s="3">
-        <v>3151</v>
+        <v>8100</v>
       </c>
       <c r="D477" s="2">
         <v>25</v>
       </c>
       <c r="E477" s="2">
         <f t="shared" si="6"/>
-        <v>0.79339892097746745</v>
+        <v>0.30864197530864196</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -15605,17 +15539,17 @@
         <v>829</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C478" s="3">
-        <v>21665</v>
+        <v>29240</v>
       </c>
       <c r="D478" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E478" s="2">
         <f t="shared" si="6"/>
-        <v>0.30002307869836142</v>
+        <v>0.14363885088919287</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -15623,17 +15557,17 @@
         <v>829</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="C479" s="3">
-        <v>45993</v>
+        <v>3151</v>
       </c>
       <c r="D479" s="2">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E479" s="2">
         <f t="shared" si="6"/>
-        <v>0.11306068314743548</v>
+        <v>0.79339892097746745</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -15641,17 +15575,17 @@
         <v>829</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C480" s="3">
-        <v>14132</v>
+        <v>21665</v>
       </c>
       <c r="D480" s="2">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E480" s="2">
         <f t="shared" si="6"/>
-        <v>0.32550240588734786</v>
+        <v>0.30002307869836142</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -15659,17 +15593,17 @@
         <v>829</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C481" s="3">
-        <v>3510</v>
+        <v>45993</v>
       </c>
       <c r="D481" s="2">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E481" s="2">
         <f t="shared" si="6"/>
-        <v>1.9373219373219372</v>
+        <v>0.11306068314743548</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -15677,17 +15611,17 @@
         <v>829</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C482" s="3">
-        <v>27673</v>
+        <v>14132</v>
       </c>
       <c r="D482" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E482" s="2">
         <f t="shared" si="6"/>
-        <v>0.133704332743107</v>
+        <v>0.32550240588734786</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -15695,17 +15629,17 @@
         <v>829</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C483" s="3">
-        <v>44487</v>
+        <v>3510</v>
       </c>
       <c r="D483" s="2">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E483" s="2">
         <f t="shared" si="6"/>
-        <v>7.193112594690583E-2</v>
+        <v>1.9373219373219372</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -15713,17 +15647,17 @@
         <v>829</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C484" s="3">
-        <v>12049</v>
+        <v>27673</v>
       </c>
       <c r="D484" s="2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E484" s="2">
         <f t="shared" si="6"/>
-        <v>0.20748609843140509</v>
+        <v>0.133704332743107</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -15731,17 +15665,17 @@
         <v>829</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C485" s="3">
-        <v>33507</v>
+        <v>44487</v>
       </c>
       <c r="D485" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E485" s="2">
         <f t="shared" si="6"/>
-        <v>9.8486883337810013E-2</v>
+        <v>7.193112594690583E-2</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -15749,17 +15683,17 @@
         <v>829</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C486" s="3">
-        <v>7763</v>
+        <v>12049</v>
       </c>
       <c r="D486" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E486" s="2">
         <f t="shared" si="6"/>
-        <v>0.39933015586757703</v>
+        <v>0.20748609843140509</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -15767,17 +15701,17 @@
         <v>829</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C487" s="3">
-        <v>22714</v>
+        <v>33507</v>
       </c>
       <c r="D487" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E487" s="2">
         <f t="shared" si="6"/>
-        <v>0.1232719908426521</v>
+        <v>9.8486883337810013E-2</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -15785,17 +15719,17 @@
         <v>829</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C488" s="3">
-        <v>3660</v>
+        <v>7763</v>
       </c>
       <c r="D488" s="2">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E488" s="2">
         <f t="shared" si="6"/>
-        <v>1.8306010928961749</v>
+        <v>0.39933015586757703</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -15803,17 +15737,17 @@
         <v>829</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C489" s="3">
-        <v>10761</v>
+        <v>22714</v>
       </c>
       <c r="D489" s="2">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="E489" s="2">
         <f t="shared" si="6"/>
-        <v>1.6634141808382119</v>
+        <v>0.1232719908426521</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -15821,17 +15755,17 @@
         <v>829</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C490" s="3">
-        <v>10137</v>
+        <v>3660</v>
       </c>
       <c r="D490" s="2">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E490" s="2">
         <f t="shared" si="6"/>
-        <v>0.55243168590312719</v>
+        <v>1.8306010928961749</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -15839,17 +15773,17 @@
         <v>829</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C491" s="3">
-        <v>2168</v>
+        <v>10761</v>
       </c>
       <c r="D491" s="2">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="E491" s="2">
         <f t="shared" si="6"/>
-        <v>0.55350553505535049</v>
+        <v>1.6634141808382119</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -15857,17 +15791,17 @@
         <v>829</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C492" s="3">
-        <v>7053</v>
+        <v>10137</v>
       </c>
       <c r="D492" s="2">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="E492" s="2">
         <f t="shared" si="6"/>
-        <v>7.0891819084077698E-2</v>
+        <v>0.55243168590312719</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -15875,17 +15809,17 @@
         <v>829</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="C493" s="3">
-        <v>3750</v>
+        <v>2168</v>
       </c>
       <c r="D493" s="2">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="E493" s="2">
         <f t="shared" si="6"/>
-        <v>2.4266666666666667</v>
+        <v>0.55350553505535049</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -15893,17 +15827,17 @@
         <v>829</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C494" s="3">
-        <v>22365</v>
+        <v>7053</v>
       </c>
       <c r="D494" s="2">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E494" s="2">
         <f t="shared" si="6"/>
-        <v>0.35323049407556451</v>
+        <v>7.0891819084077698E-2</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -15911,17 +15845,17 @@
         <v>829</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C495" s="3">
-        <v>74774</v>
+        <v>3750</v>
       </c>
       <c r="D495" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E495" s="2">
         <f t="shared" si="6"/>
-        <v>0.11768796640543504</v>
+        <v>2.4266666666666667</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -15929,17 +15863,17 @@
         <v>829</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="C496" s="3">
-        <v>32299</v>
+        <v>22365</v>
       </c>
       <c r="D496" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="E496" s="2">
         <f t="shared" si="6"/>
-        <v>1.096009164370414</v>
+        <v>0.35323049407556451</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -15947,17 +15881,17 @@
         <v>829</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C497" s="3">
-        <v>164539</v>
+        <v>74774</v>
       </c>
       <c r="D497" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E497" s="2">
         <f t="shared" si="6"/>
-        <v>2.1271552641015198E-2</v>
+        <v>0.11768796640543504</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -15965,17 +15899,17 @@
         <v>829</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C498" s="3">
-        <v>15933</v>
+        <v>32299</v>
       </c>
       <c r="D498" s="2">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="E498" s="2">
         <f t="shared" si="6"/>
-        <v>0.20711730370928261</v>
+        <v>1.096009164370414</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -15983,17 +15917,17 @@
         <v>829</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C499" s="3">
-        <v>67150</v>
+        <v>164539</v>
       </c>
       <c r="D499" s="2">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E499" s="2">
         <f t="shared" si="6"/>
-        <v>9.6798212956068497E-2</v>
+        <v>2.1271552641015198E-2</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -16001,17 +15935,17 @@
         <v>829</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C500" s="3">
-        <v>21997</v>
+        <v>15933</v>
       </c>
       <c r="D500" s="2">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E500" s="2">
         <f t="shared" si="6"/>
-        <v>0.36368595717597857</v>
+        <v>0.20711730370928261</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -16019,17 +15953,17 @@
         <v>829</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C501" s="3">
-        <v>61091</v>
+        <v>67150</v>
       </c>
       <c r="D501" s="2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E501" s="2">
         <f t="shared" si="6"/>
-        <v>9.0029627932101286E-2</v>
+        <v>9.6798212956068497E-2</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -16037,17 +15971,17 @@
         <v>829</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="C502" s="3">
-        <v>3660</v>
+        <v>21997</v>
       </c>
       <c r="D502" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E502" s="2">
         <f t="shared" si="6"/>
-        <v>1.8306010928961749</v>
+        <v>0.36368595717597857</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -16055,17 +15989,17 @@
         <v>829</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="C503" s="3">
-        <v>18863</v>
+        <v>61091</v>
       </c>
       <c r="D503" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E503" s="2">
         <f t="shared" si="6"/>
-        <v>0.28097333404018449</v>
+        <v>9.0029627932101286E-2</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -16073,17 +16007,17 @@
         <v>829</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="C504" s="3">
-        <v>62814</v>
+        <v>3660</v>
       </c>
       <c r="D504" s="2">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E504" s="2">
         <f t="shared" si="6"/>
-        <v>0.17989620148374566</v>
+        <v>1.8306010928961749</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -16091,17 +16025,17 @@
         <v>829</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="C505" s="3">
-        <v>36614</v>
+        <v>18863</v>
       </c>
       <c r="D505" s="2">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="E505" s="2">
         <f t="shared" si="6"/>
-        <v>0.33593707325066918</v>
+        <v>0.28097333404018449</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
@@ -16109,17 +16043,17 @@
         <v>829</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C506" s="3">
-        <v>48197</v>
+        <v>62814</v>
       </c>
       <c r="D506" s="2">
-        <v>412</v>
+        <v>113</v>
       </c>
       <c r="E506" s="2">
         <f t="shared" si="6"/>
-        <v>0.85482498910720595</v>
+        <v>0.17989620148374566</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -16127,17 +16061,17 @@
         <v>829</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C507" s="3">
-        <v>31252</v>
+        <v>36614</v>
       </c>
       <c r="D507" s="2">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E507" s="2">
         <f t="shared" si="6"/>
-        <v>0.33597849737616792</v>
+        <v>0.33593707325066918</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -16145,17 +16079,17 @@
         <v>829</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C508" s="3">
-        <v>18251</v>
+        <v>48197</v>
       </c>
       <c r="D508" s="2">
-        <v>67</v>
+        <v>412</v>
       </c>
       <c r="E508" s="2">
         <f t="shared" si="6"/>
-        <v>0.367103172428908</v>
+        <v>0.85482498910720595</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -16163,17 +16097,17 @@
         <v>829</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C509" s="3">
-        <v>9427</v>
+        <v>31252</v>
       </c>
       <c r="D509" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E509" s="2">
         <f t="shared" si="6"/>
-        <v>0.78497931473427396</v>
+        <v>0.33597849737616792</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -16181,17 +16115,17 @@
         <v>829</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C510" s="3">
-        <v>15630</v>
+        <v>18251</v>
       </c>
       <c r="D510" s="2">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E510" s="2">
         <f t="shared" si="6"/>
-        <v>0.32629558541266795</v>
+        <v>0.367103172428908</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -16199,17 +16133,17 @@
         <v>829</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C511" s="3">
-        <v>18099</v>
+        <v>9427</v>
       </c>
       <c r="D511" s="2">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E511" s="2">
         <f t="shared" si="6"/>
-        <v>0.15470467981656444</v>
+        <v>0.78497931473427396</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -16217,17 +16151,17 @@
         <v>829</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C512" s="3">
-        <v>4320</v>
+        <v>15630</v>
       </c>
       <c r="D512" s="2">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="E512" s="2">
         <f t="shared" ref="E512:E516" si="7">D512/C512*100</f>
-        <v>2.8703703703703702</v>
+        <v>0.32629558541266795</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -16235,17 +16169,17 @@
         <v>829</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C513" s="3">
-        <v>17622</v>
+        <v>18099</v>
       </c>
       <c r="D513" s="2">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="E513" s="2">
         <f t="shared" si="7"/>
-        <v>0.68096697310180454</v>
+        <v>0.15470467981656444</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -16253,54 +16187,32 @@
         <v>829</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C514" s="3">
-        <v>16697</v>
+        <v>4320</v>
       </c>
       <c r="D514" s="2">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="E514" s="2">
         <f t="shared" si="7"/>
-        <v>0.20961849434030064</v>
+        <v>2.8703703703703702</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A515" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="C515" s="3">
-        <v>35072</v>
-      </c>
-      <c r="D515" s="2">
-        <v>36</v>
-      </c>
-      <c r="E515" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10264598540145986</v>
-      </c>
+      <c r="A515" s="8"/>
+      <c r="B515" s="2"/>
+      <c r="C515" s="3"/>
+      <c r="D515" s="2"/>
+      <c r="E515" s="2"/>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A516" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="C516" s="3">
-        <v>12381</v>
-      </c>
-      <c r="D516" s="2">
-        <v>63</v>
-      </c>
-      <c r="E516" s="2">
-        <f t="shared" si="7"/>
-        <v>0.50884419675308934</v>
-      </c>
+      <c r="A516" s="8"/>
+      <c r="B516" s="2"/>
+      <c r="C516" s="3"/>
+      <c r="D516" s="2"/>
+      <c r="E516" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B62:B142">
@@ -16318,8 +16230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17467,17 +17379,17 @@
         <v>829</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C64" s="3">
-        <v>29</v>
+        <v>22000</v>
       </c>
       <c r="D64" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="0"/>
-        <v>51.724137931034484</v>
+        <v>0.12272727272727273</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -17485,54 +17397,32 @@
         <v>829</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C65" s="3">
-        <v>128</v>
+        <v>61373</v>
       </c>
       <c r="D65" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="0"/>
-        <v>7.8125</v>
+        <v>0.12220357486190997</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C66" s="3">
-        <v>22349</v>
-      </c>
-      <c r="D66" s="2">
-        <v>27</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12081077453129895</v>
-      </c>
+      <c r="A66" s="8"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="C67" s="3">
-        <v>61373</v>
-      </c>
-      <c r="D67" s="2">
-        <v>75</v>
-      </c>
-      <c r="E67" s="2">
-        <f t="shared" ref="E67" si="1">D67/C67*100</f>
-        <v>0.12220357486190997</v>
-      </c>
+      <c r="A67" s="8"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17545,7 +17435,7 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+      <selection activeCell="B104" sqref="B104:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19416,14 +19306,14 @@
         <v>879</v>
       </c>
       <c r="C104" s="3">
-        <v>9783</v>
+        <v>10001</v>
       </c>
       <c r="D104" s="2">
         <v>70</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" si="1"/>
-        <v>0.7155269344781765</v>
+        <v>0.69993000699930008</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -19434,14 +19324,14 @@
         <v>880</v>
       </c>
       <c r="C105" s="3">
-        <v>35200</v>
+        <v>39100</v>
       </c>
       <c r="D105" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E105" s="2">
         <f t="shared" si="1"/>
-        <v>0.21590909090909091</v>
+        <v>0.20204603580562661</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F56BE1-EA3D-4CA7-A13E-8E14DE483691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D80DC5-67C7-4D83-99CD-D5BD8AD1137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="941">
   <si>
     <t>Ссылка</t>
   </si>
@@ -2728,6 +2728,147 @@
   </si>
   <si>
     <t>https://t.me/kalugachannel/24430</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4411</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158074015601997</t>
+  </si>
+  <si>
+    <t>11.08 - 17.08</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6115</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157277347278241</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25058</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2803067</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13784</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25250</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157282576002465</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157281406840225</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25213</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13772</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6570</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6405</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158072589014349</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4408</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25206</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157281275964833</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13767</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/16863</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157281190768033</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25201</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13766</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157437713839065</t>
+  </si>
+  <si>
+    <t>https://vk.ru/wall-93925359_104843</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2802816</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158072471442765</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4406</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/47980</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/9950</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10357</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5850</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/16762</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11569</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6540</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-217970441_5757</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157282718477729</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25256</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48027</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48017</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157282379263393</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25232</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13781</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25175</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-204895491_456240764</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157280667856289</t>
   </si>
 </sst>
 </file>
@@ -2768,7 +2909,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2798,17 +2939,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2820,7 +2950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2835,9 +2965,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3132,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:A70"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3372,7 +3501,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E70" si="1">D13/C13*100</f>
+        <f t="shared" ref="E13:E66" si="1">D13/C13*100</f>
         <v>0.37936267071320184</v>
       </c>
     </row>
@@ -4295,18 +4424,40 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="A65" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C65" s="3">
+        <v>800</v>
+      </c>
+      <c r="D65" s="2">
+        <v>20</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="A66" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C66" s="3">
+        <v>11000</v>
+      </c>
+      <c r="D66" s="2">
+        <v>23</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20909090909090908</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
@@ -4362,7 +4513,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4741,14 +4892,14 @@
         <v>874</v>
       </c>
       <c r="C21" s="3">
-        <v>24000</v>
+        <v>71105</v>
       </c>
       <c r="D21" s="2">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>0.10416666666666667</v>
+        <v>8.0163139019759508E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4759,14 +4910,14 @@
         <v>873</v>
       </c>
       <c r="C22" s="3">
-        <v>36453</v>
+        <v>36912</v>
       </c>
       <c r="D22" s="2">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>0.12344662990700354</v>
+        <v>0.23298656263545733</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -4777,32 +4928,50 @@
         <v>872</v>
       </c>
       <c r="C23" s="3">
-        <v>3170</v>
+        <v>3490</v>
       </c>
       <c r="D23" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>2.8706624605678233</v>
+        <v>2.664756446991404</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4815,7 +4984,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4874,7 +5043,7 @@
         <v>135</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E17" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E19" si="0">D3/C3*100</f>
         <v>0.45302013422818793</v>
       </c>
     </row>
@@ -5089,7 +5258,7 @@
       <c r="D15" s="2">
         <v>164</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>0.51090342679127732</v>
       </c>
@@ -5107,7 +5276,7 @@
       <c r="D16" s="2">
         <v>187</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>0.66077738515901052</v>
       </c>
@@ -5125,22 +5294,46 @@
       <c r="D17" s="2">
         <v>146</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>0.50547015648802107</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>133</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20700</v>
+      </c>
+      <c r="D19" s="2">
+        <v>112</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54106280193236722</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5156,7 +5349,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D9"/>
+      <selection activeCell="B8" sqref="B8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5299,14 +5492,14 @@
         <v>871</v>
       </c>
       <c r="C8" s="3">
-        <v>35150</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10241820768136557</v>
+        <v>36192</v>
+      </c>
+      <c r="D8">
+        <v>38</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.10499557913351015</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -5317,14 +5510,14 @@
         <v>870</v>
       </c>
       <c r="C9" s="3">
-        <v>12381</v>
-      </c>
-      <c r="D9" s="2">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.50884419675308934</v>
+        <v>13546</v>
+      </c>
+      <c r="D9">
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.7972833308725823</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -5363,10 +5556,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6579,7 +6772,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E86" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E92" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -6764,16 +6957,16 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="11">
         <v>9845</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="10">
         <v>97</v>
       </c>
       <c r="E78">
@@ -6794,25 +6987,25 @@
       <c r="D79" s="2">
         <v>23</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <f t="shared" si="1"/>
         <v>0.10192324736328991</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="3">
         <v>75717</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="2">
         <v>44</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <f t="shared" si="1"/>
         <v>5.8111124318184819E-2</v>
       </c>
@@ -6897,14 +7090,14 @@
         <v>877</v>
       </c>
       <c r="C85" s="3">
-        <v>138</v>
+        <v>17131</v>
       </c>
       <c r="D85" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E85" s="2">
         <f t="shared" si="1"/>
-        <v>7.2463768115942031</v>
+        <v>0.1576090129005896</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -6915,14 +7108,122 @@
         <v>878</v>
       </c>
       <c r="C86" s="3">
-        <v>748</v>
+        <v>15659</v>
       </c>
       <c r="D86" s="2">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" si="1"/>
-        <v>2.2727272727272729</v>
+        <v>0.75356025288971207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D87" s="2">
+        <v>21</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="1"/>
+        <v>0.55263157894736836</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4433</v>
+      </c>
+      <c r="D88" s="2">
+        <v>38</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="1"/>
+        <v>0.85720730882021201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3050</v>
+      </c>
+      <c r="D89" s="2">
+        <v>75</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="1"/>
+        <v>2.459016393442623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C90" s="3">
+        <v>13000</v>
+      </c>
+      <c r="D90" s="2">
+        <v>36</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27692307692307688</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C91" s="3">
+        <v>55400</v>
+      </c>
+      <c r="D91" s="2">
+        <v>36</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4981949458483748E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C92" s="3">
+        <v>38000</v>
+      </c>
+      <c r="D92" s="2">
+        <v>33</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="1"/>
+        <v>8.6842105263157901E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6936,10 +7237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E516"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
-    <sheetView topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A515" sqref="A515:A516"/>
+    <sheetView topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="H465" sqref="H465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15305,17 +15606,17 @@
         <v>829</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>826</v>
+        <v>897</v>
       </c>
       <c r="C465" s="3">
-        <v>17622</v>
+        <v>725</v>
       </c>
       <c r="D465" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E465" s="2">
         <f t="shared" si="6"/>
-        <v>0.68096697310180454</v>
+        <v>5.5172413793103452</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -15323,17 +15624,17 @@
         <v>829</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>827</v>
+        <v>898</v>
       </c>
       <c r="C466" s="3">
-        <v>16697</v>
+        <v>219</v>
       </c>
       <c r="D466" s="2">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E466" s="2">
         <f t="shared" si="6"/>
-        <v>0.20961849434030064</v>
+        <v>5.93607305936073</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -15341,17 +15642,17 @@
         <v>829</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="C467" s="3">
-        <v>11279</v>
+        <v>805</v>
       </c>
       <c r="D467" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E467" s="2">
         <f t="shared" si="6"/>
-        <v>0.1507225817891657</v>
+        <v>3.2298136645962732</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -15359,17 +15660,17 @@
         <v>829</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C468" s="3">
-        <v>15055</v>
+        <v>14927</v>
       </c>
       <c r="D468" s="2">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E468" s="2">
         <f t="shared" si="6"/>
-        <v>0.1394885420126204</v>
+        <v>0.44215180545320559</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -15377,17 +15678,17 @@
         <v>829</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C469" s="3">
-        <v>7669</v>
+        <v>36554</v>
       </c>
       <c r="D469" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E469" s="2">
         <f t="shared" si="6"/>
-        <v>0.2738297040031295</v>
+        <v>9.0277397822399741E-2</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -15395,17 +15696,17 @@
         <v>829</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C470" s="3">
-        <v>5159</v>
+        <v>14590</v>
       </c>
       <c r="D470" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E470" s="2">
         <f t="shared" si="6"/>
-        <v>7.7534405892614844E-2</v>
+        <v>0.19876627827278959</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -15413,17 +15714,17 @@
         <v>829</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C471" s="3">
-        <v>3206</v>
+        <v>5481</v>
       </c>
       <c r="D471" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E471" s="2">
         <f t="shared" si="6"/>
-        <v>0.90455396132252031</v>
+        <v>0.72979383324210911</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -15431,17 +15732,17 @@
         <v>829</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C472" s="3">
-        <v>4901</v>
+        <v>7106</v>
       </c>
       <c r="D472" s="2">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E472" s="2">
         <f t="shared" si="6"/>
-        <v>0.61211997551520092</v>
+        <v>1.0554461018857304</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -15449,17 +15750,17 @@
         <v>829</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C473" s="3">
-        <v>2610</v>
+        <v>7620</v>
       </c>
       <c r="D473" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E473" s="2">
         <f t="shared" si="6"/>
-        <v>2.2222222222222223</v>
+        <v>1.1811023622047243</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -15467,17 +15768,17 @@
         <v>829</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="C474" s="3">
-        <v>524</v>
+        <v>3430</v>
       </c>
       <c r="D474" s="2">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="E474" s="2">
         <f t="shared" si="6"/>
-        <v>3.4351145038167941</v>
+        <v>1.8950437317784257</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -15485,17 +15786,17 @@
         <v>829</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="C475" s="3">
-        <v>9800</v>
+        <v>6064</v>
       </c>
       <c r="D475" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E475" s="2">
         <f t="shared" si="6"/>
-        <v>0.20408163265306123</v>
+        <v>0.34630606860158308</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -15503,17 +15804,17 @@
         <v>829</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="C476" s="3">
-        <v>9997</v>
+        <v>16746</v>
       </c>
       <c r="D476" s="2">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E476" s="2">
         <f t="shared" si="6"/>
-        <v>0.63018905671701508</v>
+        <v>0.14928938253911381</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -15521,17 +15822,17 @@
         <v>829</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
       <c r="C477" s="3">
-        <v>8100</v>
+        <v>16383</v>
       </c>
       <c r="D477" s="2">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E477" s="2">
         <f t="shared" si="6"/>
-        <v>0.30864197530864196</v>
+        <v>0.72636269303546364</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -15539,17 +15840,17 @@
         <v>829</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="C478" s="3">
-        <v>29240</v>
+        <v>13900</v>
       </c>
       <c r="D478" s="2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E478" s="2">
         <f t="shared" si="6"/>
-        <v>0.14363885088919287</v>
+        <v>0.21582733812949639</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -15557,17 +15858,17 @@
         <v>829</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="C479" s="3">
-        <v>3151</v>
+        <v>35727</v>
       </c>
       <c r="D479" s="2">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="E479" s="2">
         <f t="shared" si="6"/>
-        <v>0.79339892097746745</v>
+        <v>0.13435217062725671</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -15575,17 +15876,17 @@
         <v>829</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="C480" s="3">
-        <v>21665</v>
+        <v>6211</v>
       </c>
       <c r="D480" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E480" s="2">
         <f t="shared" si="6"/>
-        <v>0.30002307869836142</v>
+        <v>1.1431331508613749</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -15593,17 +15894,17 @@
         <v>829</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C481" s="3">
-        <v>45993</v>
+        <v>27257</v>
       </c>
       <c r="D481" s="2">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="E481" s="2">
         <f t="shared" si="6"/>
-        <v>0.11306068314743548</v>
+        <v>0.52463587335363393</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -15611,17 +15912,17 @@
         <v>829</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C482" s="3">
-        <v>14132</v>
+        <v>63416</v>
       </c>
       <c r="D482" s="2">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E482" s="2">
         <f t="shared" si="6"/>
-        <v>0.32550240588734786</v>
+        <v>9.7767125015768883E-2</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -15629,17 +15930,17 @@
         <v>829</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C483" s="3">
-        <v>3510</v>
+        <v>15409</v>
       </c>
       <c r="D483" s="2">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E483" s="2">
         <f t="shared" si="6"/>
-        <v>1.9373219373219372</v>
+        <v>0.57109481471867096</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -15647,17 +15948,17 @@
         <v>829</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C484" s="3">
-        <v>27673</v>
+        <v>3510</v>
       </c>
       <c r="D484" s="2">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E484" s="2">
         <f t="shared" si="6"/>
-        <v>0.133704332743107</v>
+        <v>1.9373219373219372</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -15665,17 +15966,17 @@
         <v>829</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C485" s="3">
-        <v>44487</v>
+        <v>30571</v>
       </c>
       <c r="D485" s="2">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="E485" s="2">
         <f t="shared" si="6"/>
-        <v>7.193112594690583E-2</v>
+        <v>0.25841483759118117</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -15683,17 +15984,17 @@
         <v>829</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C486" s="3">
-        <v>12049</v>
+        <v>50886</v>
       </c>
       <c r="D486" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E486" s="2">
         <f t="shared" si="6"/>
-        <v>0.20748609843140509</v>
+        <v>6.4850843060959784E-2</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -15701,17 +16002,17 @@
         <v>829</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C487" s="3">
-        <v>33507</v>
+        <v>13257</v>
       </c>
       <c r="D487" s="2">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E487" s="2">
         <f t="shared" si="6"/>
-        <v>9.8486883337810013E-2</v>
+        <v>0.4978501923512107</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -15719,17 +16020,17 @@
         <v>829</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C488" s="3">
-        <v>7763</v>
+        <v>45411</v>
       </c>
       <c r="D488" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E488" s="2">
         <f t="shared" si="6"/>
-        <v>0.39933015586757703</v>
+        <v>7.7073836735592705E-2</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -15737,17 +16038,17 @@
         <v>829</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C489" s="3">
-        <v>22714</v>
+        <v>10678</v>
       </c>
       <c r="D489" s="2">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E489" s="2">
         <f t="shared" si="6"/>
-        <v>0.1232719908426521</v>
+        <v>0.67428357370294068</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -15755,17 +16056,17 @@
         <v>829</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C490" s="3">
-        <v>3660</v>
+        <v>29216</v>
       </c>
       <c r="D490" s="2">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E490" s="2">
         <f t="shared" si="6"/>
-        <v>1.8306010928961749</v>
+        <v>9.5837897042716322E-2</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -15773,17 +16074,17 @@
         <v>829</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C491" s="3">
-        <v>10761</v>
+        <v>3660</v>
       </c>
       <c r="D491" s="2">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="E491" s="2">
         <f t="shared" si="6"/>
-        <v>1.6634141808382119</v>
+        <v>1.8306010928961749</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -15791,17 +16092,17 @@
         <v>829</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C492" s="3">
-        <v>10137</v>
+        <v>13663</v>
       </c>
       <c r="D492" s="2">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="E492" s="2">
         <f t="shared" si="6"/>
-        <v>0.55243168590312719</v>
+        <v>1.4784454365805459</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -15809,17 +16110,17 @@
         <v>829</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C493" s="3">
-        <v>2168</v>
+        <v>11227</v>
       </c>
       <c r="D493" s="2">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E493" s="2">
         <f t="shared" si="6"/>
-        <v>0.55350553505535049</v>
+        <v>0.87289569787120325</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -15827,17 +16128,17 @@
         <v>829</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C494" s="3">
-        <v>7053</v>
+        <v>2617</v>
       </c>
       <c r="D494" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E494" s="2">
         <f t="shared" si="6"/>
-        <v>7.0891819084077698E-2</v>
+        <v>1.2227741688956821</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -15845,17 +16146,17 @@
         <v>829</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="C495" s="3">
-        <v>3750</v>
+        <v>7478</v>
       </c>
       <c r="D495" s="2">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="E495" s="2">
         <f t="shared" si="6"/>
-        <v>2.4266666666666667</v>
+        <v>0.34768654720513509</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -15863,17 +16164,17 @@
         <v>829</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C496" s="3">
-        <v>22365</v>
+        <v>3750</v>
       </c>
       <c r="D496" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E496" s="2">
         <f t="shared" si="6"/>
-        <v>0.35323049407556451</v>
+        <v>2.4266666666666667</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -15881,17 +16182,17 @@
         <v>829</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C497" s="3">
-        <v>74774</v>
+        <v>25102</v>
       </c>
       <c r="D497" s="2">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="E497" s="2">
         <f t="shared" si="6"/>
-        <v>0.11768796640543504</v>
+        <v>0.53780575252967888</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -15899,17 +16200,17 @@
         <v>829</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="C498" s="3">
-        <v>32299</v>
+        <v>80638</v>
       </c>
       <c r="D498" s="2">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="E498" s="2">
         <f t="shared" si="6"/>
-        <v>1.096009164370414</v>
+        <v>0.11285002108187207</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -15917,17 +16218,17 @@
         <v>829</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C499" s="3">
-        <v>164539</v>
+        <v>32299</v>
       </c>
       <c r="D499" s="2">
-        <v>35</v>
+        <v>354</v>
       </c>
       <c r="E499" s="2">
         <f t="shared" si="6"/>
-        <v>2.1271552641015198E-2</v>
+        <v>1.096009164370414</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -15935,17 +16236,17 @@
         <v>829</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C500" s="3">
-        <v>15933</v>
+        <v>166517</v>
       </c>
       <c r="D500" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E500" s="2">
         <f t="shared" si="6"/>
-        <v>0.20711730370928261</v>
+        <v>2.1619414233982115E-2</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -15953,17 +16254,17 @@
         <v>829</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C501" s="3">
-        <v>67150</v>
+        <v>17225</v>
       </c>
       <c r="D501" s="2">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E501" s="2">
         <f t="shared" si="6"/>
-        <v>9.6798212956068497E-2</v>
+        <v>0.42960812772133522</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -15971,17 +16272,17 @@
         <v>829</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C502" s="3">
-        <v>21997</v>
+        <v>75378</v>
       </c>
       <c r="D502" s="2">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E502" s="2">
         <f t="shared" si="6"/>
-        <v>0.36368595717597857</v>
+        <v>9.1538645228050622E-2</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -15989,17 +16290,17 @@
         <v>829</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C503" s="3">
-        <v>61091</v>
+        <v>21997</v>
       </c>
       <c r="D503" s="2">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="E503" s="2">
         <f t="shared" si="6"/>
-        <v>9.0029627932101286E-2</v>
+        <v>0.5682593080874665</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -16007,17 +16308,17 @@
         <v>829</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C504" s="3">
-        <v>3660</v>
+        <v>65719</v>
       </c>
       <c r="D504" s="2">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E504" s="2">
         <f t="shared" si="6"/>
-        <v>1.8306010928961749</v>
+        <v>8.8254538261385601E-2</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -16025,194 +16326,450 @@
         <v>829</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="C505" s="3">
-        <v>18863</v>
+        <v>3660</v>
       </c>
       <c r="D505" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E505" s="2">
         <f t="shared" si="6"/>
-        <v>0.28097333404018449</v>
+        <v>1.8306010928961749</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>817</v>
+        <v>900</v>
       </c>
       <c r="C506" s="3">
-        <v>62814</v>
+        <v>6702</v>
       </c>
       <c r="D506" s="2">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="E506" s="2">
         <f t="shared" si="6"/>
-        <v>0.17989620148374566</v>
+        <v>0.80572963294538946</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>818</v>
+        <v>901</v>
       </c>
       <c r="C507" s="3">
-        <v>36614</v>
+        <v>2880</v>
       </c>
       <c r="D507" s="2">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="E507" s="2">
         <f t="shared" si="6"/>
-        <v>0.33593707325066918</v>
+        <v>1.9791666666666665</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>819</v>
+        <v>902</v>
       </c>
       <c r="C508" s="3">
-        <v>48197</v>
+        <v>1988</v>
       </c>
       <c r="D508" s="2">
-        <v>412</v>
+        <v>21</v>
       </c>
       <c r="E508" s="2">
         <f t="shared" si="6"/>
-        <v>0.85482498910720595</v>
+        <v>1.056338028169014</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>820</v>
+        <v>903</v>
       </c>
       <c r="C509" s="3">
-        <v>31252</v>
+        <v>5000</v>
       </c>
       <c r="D509" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="E509" s="2">
         <f t="shared" si="6"/>
-        <v>0.33597849737616792</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>821</v>
+        <v>904</v>
       </c>
       <c r="C510" s="3">
-        <v>18251</v>
+        <v>22000</v>
       </c>
       <c r="D510" s="2">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E510" s="2">
         <f t="shared" si="6"/>
-        <v>0.367103172428908</v>
+        <v>0.2181818181818182</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>822</v>
+        <v>905</v>
       </c>
       <c r="C511" s="3">
-        <v>9427</v>
+        <v>24267</v>
       </c>
       <c r="D511" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E511" s="2">
         <f t="shared" si="6"/>
-        <v>0.78497931473427396</v>
+        <v>0.42444471916594551</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>823</v>
+        <v>906</v>
       </c>
       <c r="C512" s="3">
-        <v>15630</v>
+        <v>3520</v>
       </c>
       <c r="D512" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E512" s="2">
-        <f t="shared" ref="E512:E516" si="7">D512/C512*100</f>
-        <v>0.32629558541266795</v>
+        <f t="shared" ref="E512:E529" si="7">D512/C512*100</f>
+        <v>2.1590909090909092</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>824</v>
+        <v>907</v>
       </c>
       <c r="C513" s="3">
-        <v>18099</v>
+        <v>1920</v>
       </c>
       <c r="D513" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E513" s="2">
         <f t="shared" si="7"/>
-        <v>0.15470467981656444</v>
+        <v>2.604166666666667</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="8" t="s">
-        <v>829</v>
+        <v>896</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>825</v>
+        <v>908</v>
       </c>
       <c r="C514" s="3">
-        <v>4320</v>
+        <v>264</v>
       </c>
       <c r="D514" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="E514" s="2">
         <f t="shared" si="7"/>
-        <v>2.8703703703703702</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A515" s="8"/>
-      <c r="B515" s="2"/>
-      <c r="C515" s="3"/>
-      <c r="D515" s="2"/>
-      <c r="E515" s="2"/>
+      <c r="A515" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C515" s="3">
+        <v>21000</v>
+      </c>
+      <c r="D515" s="2">
+        <v>41</v>
+      </c>
+      <c r="E515" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19523809523809524</v>
+      </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A516" s="8"/>
-      <c r="B516" s="2"/>
-      <c r="C516" s="3"/>
-      <c r="D516" s="2"/>
-      <c r="E516" s="2"/>
+      <c r="A516" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C516" s="3">
+        <v>11262</v>
+      </c>
+      <c r="D516" s="2">
+        <v>25</v>
+      </c>
+      <c r="E516" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22198543775528326</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C517" s="3">
+        <v>18651</v>
+      </c>
+      <c r="D517" s="2">
+        <v>35</v>
+      </c>
+      <c r="E517" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18765749825746608</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C518" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D518" s="2">
+        <v>33</v>
+      </c>
+      <c r="E518" s="2">
+        <f t="shared" si="7"/>
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C519" s="3">
+        <v>3220</v>
+      </c>
+      <c r="D519" s="2">
+        <v>84</v>
+      </c>
+      <c r="E519" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6086956521739131</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C520" s="3">
+        <v>1960</v>
+      </c>
+      <c r="D520" s="2">
+        <v>80</v>
+      </c>
+      <c r="E520" s="2">
+        <f t="shared" si="7"/>
+        <v>4.0816326530612246</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C521" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D521" s="2">
+        <v>24</v>
+      </c>
+      <c r="E521" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4363636363636364</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C522" s="3">
+        <v>1967</v>
+      </c>
+      <c r="D522" s="2">
+        <v>29</v>
+      </c>
+      <c r="E522" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4743263853584139</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C523" s="3">
+        <v>3400</v>
+      </c>
+      <c r="D523" s="2">
+        <v>87</v>
+      </c>
+      <c r="E523" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5588235294117649</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C524" s="3">
+        <v>6200</v>
+      </c>
+      <c r="D524" s="2">
+        <v>30</v>
+      </c>
+      <c r="E524" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4838709677419355</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C525" s="3">
+        <v>3749</v>
+      </c>
+      <c r="D525" s="2">
+        <v>22</v>
+      </c>
+      <c r="E525" s="2">
+        <f t="shared" si="7"/>
+        <v>0.58682315284075748</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C526" s="3">
+        <v>6393</v>
+      </c>
+      <c r="D526" s="2">
+        <v>39</v>
+      </c>
+      <c r="E526" s="2">
+        <f t="shared" si="7"/>
+        <v>0.61004223369310184</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C527" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D527" s="2">
+        <v>24</v>
+      </c>
+      <c r="E527" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4363636363636364</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C528" s="3">
+        <v>3329</v>
+      </c>
+      <c r="D528" s="2">
+        <v>24</v>
+      </c>
+      <c r="E528" s="2">
+        <f t="shared" si="7"/>
+        <v>0.72093721838389901</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C529" s="3">
+        <v>28100</v>
+      </c>
+      <c r="D529" s="2">
+        <v>399</v>
+      </c>
+      <c r="E529" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4199288256227758</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B62:B142">
@@ -16230,8 +16787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16290,7 +16847,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E65" si="0">D3/C3*100</f>
         <v>0.47505938242280288</v>
       </c>
     </row>
@@ -17382,14 +17939,14 @@
         <v>876</v>
       </c>
       <c r="C64" s="3">
-        <v>22000</v>
+        <v>23517</v>
       </c>
       <c r="D64" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E64" s="2">
         <f t="shared" si="0"/>
-        <v>0.12272727272727273</v>
+        <v>0.12756729174639622</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -17400,14 +17957,14 @@
         <v>875</v>
       </c>
       <c r="C65" s="3">
-        <v>61373</v>
+        <v>62586</v>
       </c>
       <c r="D65" s="2">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="0"/>
-        <v>0.12220357486190997</v>
+        <v>0.1901383696034257</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -17432,10 +17989,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104:D106"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18646,7 +19203,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E106" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E112" si="1">D67/C67*100</f>
         <v>8.5858585858585847</v>
       </c>
     </row>
@@ -19299,57 +19856,165 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>829</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C104" s="3">
+        <v>498</v>
+      </c>
+      <c r="D104" s="2">
+        <v>17</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4136546184738958</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C105" s="3">
+        <v>852</v>
+      </c>
+      <c r="D105" s="2">
+        <v>31</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6384976525821595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2610</v>
+      </c>
+      <c r="D106" s="2">
+        <v>104</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="1"/>
+        <v>3.984674329501916</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C107" s="3">
+        <v>1990</v>
+      </c>
+      <c r="D107" s="2">
+        <v>88</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4221105527638196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1380</v>
+      </c>
+      <c r="D108" s="2">
+        <v>54</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9130434782608701</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2070</v>
+      </c>
+      <c r="D109" s="2">
+        <v>56</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7053140096618358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C104" s="3">
-        <v>10001</v>
-      </c>
-      <c r="D104" s="2">
-        <v>70</v>
-      </c>
-      <c r="E104" s="2">
-        <f t="shared" si="1"/>
-        <v>0.69993000699930008</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
+      <c r="C110" s="3">
+        <v>38781</v>
+      </c>
+      <c r="D110" s="2">
+        <v>249</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64206699156803593</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="C105" s="3">
-        <v>39100</v>
-      </c>
-      <c r="D105" s="2">
-        <v>79</v>
-      </c>
-      <c r="E105" s="2">
-        <f t="shared" si="1"/>
-        <v>0.20204603580562661</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
+      <c r="C111" s="3">
+        <v>7600</v>
+      </c>
+      <c r="D111" s="2">
+        <v>119</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5657894736842106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="C106" s="3">
-        <v>13371</v>
-      </c>
-      <c r="D106" s="2">
-        <v>79</v>
-      </c>
-      <c r="E106" s="2">
-        <f t="shared" si="1"/>
-        <v>0.59083090269987282</v>
+      <c r="C112" s="3">
+        <v>20053</v>
+      </c>
+      <c r="D112" s="2">
+        <v>174</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="1"/>
+        <v>0.86770059342741734</v>
       </c>
     </row>
   </sheetData>
@@ -19366,7 +20031,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19725,23 +20390,179 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F61FF64-7611-43CF-BBDD-E5C45F4E5AE8}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12898</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2/C2*100</f>
+        <v>0.46518840130252753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19777,23 +20598,190 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2/C2*100</f>
+        <v>0.11874999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4104</v>
+      </c>
+      <c r="D3" s="2">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D3/C3*100</f>
+        <v>0.51169590643274854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\telegram-mini-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D80DC5-67C7-4D83-99CD-D5BD8AD1137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D77F604-2988-4447-8241-83694D815E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1005">
   <si>
     <t>Ссылка</t>
   </si>
@@ -2869,6 +2869,198 @@
   </si>
   <si>
     <t>https://ok.ru/group/70000036196257/topic/157280667856289</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2803367</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25316</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157284403342753</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13801</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157284094078369</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25300</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_457825</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157440406713305</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21892</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7587</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6167</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4017</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48099</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11645</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10089</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5875</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/16916</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6585</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10482</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6308</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6165</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6144</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7585</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5872</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2288</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/908</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3942</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2803618</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13817</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157285672971681</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25338</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158077003060557</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4419</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13823</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157285935443361</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25347</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4014</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4702</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6879</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5868</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6492</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10065</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2283</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6158</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8427</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3214</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8391</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5792</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12278</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6138</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5779</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6293</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5871</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11632</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158075274548557</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4413</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157440301921241</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3936</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/903</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157285228834209</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25326</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25303</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13802</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157284205424033</t>
   </si>
 </sst>
 </file>
@@ -3259,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3501,7 +3693,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E66" si="1">D13/C13*100</f>
+        <f t="shared" ref="E13:E75" si="1">D13/C13*100</f>
         <v>0.37936267071320184</v>
       </c>
     </row>
@@ -4428,17 +4620,17 @@
         <v>896</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>894</v>
+        <v>941</v>
       </c>
       <c r="C65" s="3">
-        <v>800</v>
+        <v>10573</v>
       </c>
       <c r="D65" s="2">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>1.1917147451054573</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4446,61 +4638,180 @@
         <v>896</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>895</v>
+        <v>942</v>
       </c>
       <c r="C66" s="3">
-        <v>11000</v>
+        <v>792</v>
       </c>
       <c r="D66" s="2">
         <v>23</v>
       </c>
       <c r="E66" s="2">
         <f t="shared" si="1"/>
-        <v>0.20909090909090908</v>
+        <v>2.904040404040404</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C67" s="3">
+        <v>242</v>
+      </c>
+      <c r="D67" s="2">
+        <v>19</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8512396694214877</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="A68" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3210</v>
+      </c>
+      <c r="D68" s="2">
+        <v>73</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2741433021806854</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C69" s="3">
+        <v>17000</v>
+      </c>
+      <c r="D69" s="2">
+        <v>29</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17058823529411765</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C70" s="3">
+        <v>8637</v>
+      </c>
+      <c r="D70" s="2">
+        <v>47</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54417042954729655</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="2"/>
+      <c r="A71" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1545</v>
+      </c>
+      <c r="D71" s="2">
+        <v>27</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7475728155339807</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="2"/>
+      <c r="A72" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C72" s="3">
+        <v>279</v>
+      </c>
+      <c r="D72" s="2">
+        <v>14</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0179211469534053</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="2"/>
+      <c r="A73" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C73" s="3">
+        <v>671</v>
+      </c>
+      <c r="D73" s="2">
+        <v>21</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="1"/>
+        <v>3.129657228017884</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C74" s="3">
+        <v>4846</v>
+      </c>
+      <c r="D74" s="2">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6603384234420141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C75" s="3">
+        <v>32237</v>
+      </c>
+      <c r="D75" s="2">
+        <v>47</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14579520426838724</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4984,7 +5295,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5307,14 +5618,14 @@
         <v>933</v>
       </c>
       <c r="C18" s="3">
-        <v>21000</v>
+        <v>28800</v>
       </c>
       <c r="D18" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -5325,14 +5636,14 @@
         <v>934</v>
       </c>
       <c r="C19" s="3">
-        <v>20700</v>
+        <v>28800</v>
       </c>
       <c r="D19" s="2">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0.54106280193236722</v>
+        <v>0.46527777777777773</v>
       </c>
     </row>
   </sheetData>
@@ -5556,10 +5867,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6772,7 +7083,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E92" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E97" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -7123,17 +7434,17 @@
         <v>896</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>935</v>
+        <v>1000</v>
       </c>
       <c r="C87" s="3">
-        <v>3800</v>
+        <v>9800</v>
       </c>
       <c r="D87" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" si="1"/>
-        <v>0.55263157894736836</v>
+        <v>0.22448979591836735</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -7141,17 +7452,17 @@
         <v>896</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>936</v>
+        <v>1001</v>
       </c>
       <c r="C88" s="3">
-        <v>4433</v>
+        <v>5212</v>
       </c>
       <c r="D88" s="2">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" si="1"/>
-        <v>0.85720730882021201</v>
+        <v>0.49884881043745205</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -7159,17 +7470,17 @@
         <v>896</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>937</v>
+        <v>1002</v>
       </c>
       <c r="C89" s="3">
-        <v>3050</v>
+        <v>14468</v>
       </c>
       <c r="D89" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" si="1"/>
-        <v>2.459016393442623</v>
+        <v>0.26264860381531652</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -7177,17 +7488,17 @@
         <v>896</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>938</v>
+        <v>1003</v>
       </c>
       <c r="C90" s="3">
-        <v>13000</v>
+        <v>3110</v>
       </c>
       <c r="D90" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" si="1"/>
-        <v>0.27692307692307688</v>
+        <v>2.315112540192926</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -7195,17 +7506,17 @@
         <v>896</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>939</v>
+        <v>1004</v>
       </c>
       <c r="C91" s="3">
-        <v>55400</v>
+        <v>16000</v>
       </c>
       <c r="D91" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" si="1"/>
-        <v>6.4981949458483748E-2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -7216,14 +7527,104 @@
         <v>940</v>
       </c>
       <c r="C92" s="3">
-        <v>38000</v>
+        <v>53675</v>
       </c>
       <c r="D92" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" si="1"/>
-        <v>8.6842105263157901E-2</v>
+        <v>6.520726595249185E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C93" s="3">
+        <v>55191</v>
+      </c>
+      <c r="D93" s="2">
+        <v>36</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5228026308637277E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C94" s="3">
+        <v>18217</v>
+      </c>
+      <c r="D94" s="2">
+        <v>38</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20859636603172863</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C95" s="3">
+        <v>18965</v>
+      </c>
+      <c r="D95" s="2">
+        <v>41</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21618771421038754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C96" s="3">
+        <v>25739</v>
+      </c>
+      <c r="D96" s="2">
+        <v>66</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25642021834570106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3600</v>
+      </c>
+      <c r="D97" s="2">
+        <v>76</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1111111111111112</v>
       </c>
     </row>
   </sheetData>
@@ -7237,10 +7638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E529"/>
+  <dimension ref="A1:E574"/>
   <sheetViews>
-    <sheetView topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="H465" sqref="H465"/>
+    <sheetView topLeftCell="A561" workbookViewId="0">
+      <selection activeCell="A574" sqref="A574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16344,17 +16745,17 @@
         <v>896</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="C506" s="3">
-        <v>6702</v>
+        <v>295</v>
       </c>
       <c r="D506" s="2">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E506" s="2">
         <f t="shared" si="6"/>
-        <v>0.80572963294538946</v>
+        <v>4.0677966101694913</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -16362,17 +16763,17 @@
         <v>896</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>901</v>
+        <v>951</v>
       </c>
       <c r="C507" s="3">
-        <v>2880</v>
+        <v>373</v>
       </c>
       <c r="D507" s="2">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E507" s="2">
         <f t="shared" si="6"/>
-        <v>1.9791666666666665</v>
+        <v>3.2171581769436997</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -16380,17 +16781,17 @@
         <v>896</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>902</v>
+        <v>952</v>
       </c>
       <c r="C508" s="3">
-        <v>1988</v>
+        <v>275</v>
       </c>
       <c r="D508" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E508" s="2">
         <f t="shared" si="6"/>
-        <v>1.056338028169014</v>
+        <v>3.6363636363636362</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -16398,17 +16799,17 @@
         <v>896</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>903</v>
+        <v>953</v>
       </c>
       <c r="C509" s="3">
-        <v>5000</v>
+        <v>15900</v>
       </c>
       <c r="D509" s="2">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="E509" s="2">
         <f t="shared" si="6"/>
-        <v>0.38</v>
+        <v>1.5597484276729559</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -16416,17 +16817,17 @@
         <v>896</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>904</v>
+        <v>954</v>
       </c>
       <c r="C510" s="3">
-        <v>22000</v>
+        <v>764</v>
       </c>
       <c r="D510" s="2">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E510" s="2">
         <f t="shared" si="6"/>
-        <v>0.2181818181818182</v>
+        <v>1.3089005235602094</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -16434,17 +16835,17 @@
         <v>896</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="C511" s="3">
-        <v>24267</v>
+        <v>360</v>
       </c>
       <c r="D511" s="2">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="E511" s="2">
         <f t="shared" si="6"/>
-        <v>0.42444471916594551</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -16452,17 +16853,17 @@
         <v>896</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>906</v>
+        <v>956</v>
       </c>
       <c r="C512" s="3">
-        <v>3520</v>
+        <v>1690</v>
       </c>
       <c r="D512" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E512" s="2">
-        <f t="shared" ref="E512:E529" si="7">D512/C512*100</f>
-        <v>2.1590909090909092</v>
+        <f t="shared" ref="E512:E574" si="7">D512/C512*100</f>
+        <v>3.0177514792899407</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -16470,17 +16871,17 @@
         <v>896</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>907</v>
+        <v>957</v>
       </c>
       <c r="C513" s="3">
-        <v>1920</v>
+        <v>1470</v>
       </c>
       <c r="D513" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E513" s="2">
         <f t="shared" si="7"/>
-        <v>2.604166666666667</v>
+        <v>2.7210884353741496</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -16488,17 +16889,17 @@
         <v>896</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>908</v>
+        <v>958</v>
       </c>
       <c r="C514" s="3">
-        <v>264</v>
+        <v>1580</v>
       </c>
       <c r="D514" s="2">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E514" s="2">
         <f t="shared" si="7"/>
-        <v>16.666666666666664</v>
+        <v>1.5822784810126582</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -16506,17 +16907,17 @@
         <v>896</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>909</v>
+        <v>959</v>
       </c>
       <c r="C515" s="3">
-        <v>21000</v>
+        <v>553</v>
       </c>
       <c r="D515" s="2">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E515" s="2">
         <f t="shared" si="7"/>
-        <v>0.19523809523809524</v>
+        <v>0.54249547920433994</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
@@ -16524,17 +16925,17 @@
         <v>896</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>910</v>
+        <v>960</v>
       </c>
       <c r="C516" s="3">
-        <v>11262</v>
+        <v>232</v>
       </c>
       <c r="D516" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E516" s="2">
         <f t="shared" si="7"/>
-        <v>0.22198543775528326</v>
+        <v>5.1724137931034484</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
@@ -16542,17 +16943,17 @@
         <v>896</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>911</v>
+        <v>961</v>
       </c>
       <c r="C517" s="3">
-        <v>18651</v>
+        <v>417</v>
       </c>
       <c r="D517" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E517" s="2">
         <f t="shared" si="7"/>
-        <v>0.18765749825746608</v>
+        <v>1.9184652278177456</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
@@ -16560,17 +16961,17 @@
         <v>896</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>912</v>
+        <v>962</v>
       </c>
       <c r="C518" s="3">
-        <v>20000</v>
+        <v>541</v>
       </c>
       <c r="D518" s="2">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E518" s="2">
         <f t="shared" si="7"/>
-        <v>0.16500000000000001</v>
+        <v>1.8484288354898337</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
@@ -16578,17 +16979,17 @@
         <v>896</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>913</v>
+        <v>963</v>
       </c>
       <c r="C519" s="3">
-        <v>3220</v>
+        <v>291</v>
       </c>
       <c r="D519" s="2">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="E519" s="2">
         <f t="shared" si="7"/>
-        <v>2.6086956521739131</v>
+        <v>2.7491408934707904</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -16596,17 +16997,17 @@
         <v>896</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>914</v>
+        <v>964</v>
       </c>
       <c r="C520" s="3">
-        <v>1960</v>
+        <v>260</v>
       </c>
       <c r="D520" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E520" s="2">
         <f t="shared" si="7"/>
-        <v>4.0816326530612246</v>
+        <v>3.8461538461538463</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -16614,17 +17015,17 @@
         <v>896</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>915</v>
+        <v>965</v>
       </c>
       <c r="C521" s="3">
-        <v>5500</v>
+        <v>321</v>
       </c>
       <c r="D521" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E521" s="2">
         <f t="shared" si="7"/>
-        <v>0.4363636363636364</v>
+        <v>2.4922118380062304</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -16632,17 +17033,17 @@
         <v>896</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>916</v>
+        <v>966</v>
       </c>
       <c r="C522" s="3">
-        <v>1967</v>
+        <v>325</v>
       </c>
       <c r="D522" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E522" s="2">
         <f t="shared" si="7"/>
-        <v>1.4743263853584139</v>
+        <v>13.538461538461538</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -16650,17 +17051,17 @@
         <v>896</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>917</v>
+        <v>967</v>
       </c>
       <c r="C523" s="3">
-        <v>3400</v>
+        <v>207</v>
       </c>
       <c r="D523" s="2">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E523" s="2">
         <f t="shared" si="7"/>
-        <v>2.5588235294117649</v>
+        <v>10.628019323671497</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
@@ -16668,17 +17069,17 @@
         <v>896</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>918</v>
+        <v>968</v>
       </c>
       <c r="C524" s="3">
-        <v>6200</v>
+        <v>2048</v>
       </c>
       <c r="D524" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E524" s="2">
         <f t="shared" si="7"/>
-        <v>0.4838709677419355</v>
+        <v>1.220703125</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -16686,17 +17087,17 @@
         <v>896</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>919</v>
+        <v>969</v>
       </c>
       <c r="C525" s="3">
-        <v>3749</v>
+        <v>2630</v>
       </c>
       <c r="D525" s="2">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E525" s="2">
         <f t="shared" si="7"/>
-        <v>0.58682315284075748</v>
+        <v>3.1178707224334601</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
@@ -16704,17 +17105,17 @@
         <v>896</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>920</v>
+        <v>970</v>
       </c>
       <c r="C526" s="3">
-        <v>6393</v>
+        <v>135</v>
       </c>
       <c r="D526" s="2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E526" s="2">
         <f t="shared" si="7"/>
-        <v>0.61004223369310184</v>
+        <v>11.851851851851853</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -16722,17 +17123,17 @@
         <v>896</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>921</v>
+        <v>971</v>
       </c>
       <c r="C527" s="3">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="D527" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E527" s="2">
         <f t="shared" si="7"/>
-        <v>0.4363636363636364</v>
+        <v>1.5789473684210527</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
@@ -16740,17 +17141,17 @@
         <v>896</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>922</v>
+        <v>972</v>
       </c>
       <c r="C528" s="3">
-        <v>3329</v>
+        <v>437</v>
       </c>
       <c r="D528" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E528" s="2">
         <f t="shared" si="7"/>
-        <v>0.72093721838389901</v>
+        <v>5.0343249427917618</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
@@ -16758,17 +17159,827 @@
         <v>896</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>923</v>
+        <v>973</v>
       </c>
       <c r="C529" s="3">
-        <v>28100</v>
+        <v>213</v>
       </c>
       <c r="D529" s="2">
-        <v>399</v>
+        <v>20</v>
       </c>
       <c r="E529" s="2">
         <f t="shared" si="7"/>
-        <v>1.4199288256227758</v>
+        <v>9.3896713615023462</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C530" s="3">
+        <v>2470</v>
+      </c>
+      <c r="D530" s="2">
+        <v>64</v>
+      </c>
+      <c r="E530" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5910931174089069</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C531" s="3">
+        <v>118</v>
+      </c>
+      <c r="D531" s="2">
+        <v>11</v>
+      </c>
+      <c r="E531" s="2">
+        <f t="shared" si="7"/>
+        <v>9.3220338983050848</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C532" s="3">
+        <v>852</v>
+      </c>
+      <c r="D532" s="2">
+        <v>22</v>
+      </c>
+      <c r="E532" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5821596244131455</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C533" s="3">
+        <v>299</v>
+      </c>
+      <c r="D533" s="2">
+        <v>8</v>
+      </c>
+      <c r="E533" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6755852842809364</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C534" s="3">
+        <v>385</v>
+      </c>
+      <c r="D534" s="2">
+        <v>10</v>
+      </c>
+      <c r="E534" s="2">
+        <f t="shared" si="7"/>
+        <v>2.5974025974025974</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C535" s="3">
+        <v>332</v>
+      </c>
+      <c r="D535" s="2">
+        <v>9</v>
+      </c>
+      <c r="E535" s="2">
+        <f t="shared" si="7"/>
+        <v>2.7108433734939759</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C536" s="3">
+        <v>293</v>
+      </c>
+      <c r="D536" s="2">
+        <v>9</v>
+      </c>
+      <c r="E536" s="2">
+        <f t="shared" si="7"/>
+        <v>3.0716723549488054</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C537" s="3">
+        <v>210</v>
+      </c>
+      <c r="D537" s="2">
+        <v>7</v>
+      </c>
+      <c r="E537" s="2">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C538" s="3">
+        <v>453</v>
+      </c>
+      <c r="D538" s="2">
+        <v>4</v>
+      </c>
+      <c r="E538" s="2">
+        <f t="shared" si="7"/>
+        <v>0.88300220750551872</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C539" s="3">
+        <v>329</v>
+      </c>
+      <c r="D539" s="2">
+        <v>7</v>
+      </c>
+      <c r="E539" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1276595744680851</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C540" s="3">
+        <v>625</v>
+      </c>
+      <c r="D540" s="2">
+        <v>19</v>
+      </c>
+      <c r="E540" s="2">
+        <f t="shared" si="7"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C541" s="3">
+        <v>403</v>
+      </c>
+      <c r="D541" s="2">
+        <v>6</v>
+      </c>
+      <c r="E541" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4888337468982631</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C542" s="3">
+        <v>62</v>
+      </c>
+      <c r="D542" s="2">
+        <v>5</v>
+      </c>
+      <c r="E542" s="2">
+        <f t="shared" si="7"/>
+        <v>8.064516129032258</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C543" s="3">
+        <v>408</v>
+      </c>
+      <c r="D543" s="2">
+        <v>10</v>
+      </c>
+      <c r="E543" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4509803921568629</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C544" s="3">
+        <v>254</v>
+      </c>
+      <c r="D544" s="2">
+        <v>10</v>
+      </c>
+      <c r="E544" s="2">
+        <f t="shared" si="7"/>
+        <v>3.9370078740157481</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A545" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C545" s="3">
+        <v>391</v>
+      </c>
+      <c r="D545" s="2">
+        <v>16</v>
+      </c>
+      <c r="E545" s="2">
+        <f t="shared" si="7"/>
+        <v>4.0920716112531972</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A546" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C546" s="3">
+        <v>773</v>
+      </c>
+      <c r="D546" s="2">
+        <v>17</v>
+      </c>
+      <c r="E546" s="2">
+        <f t="shared" si="7"/>
+        <v>2.1992238033635187</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A547" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C547" s="3">
+        <v>221</v>
+      </c>
+      <c r="D547" s="2">
+        <v>9</v>
+      </c>
+      <c r="E547" s="2">
+        <f t="shared" si="7"/>
+        <v>4.0723981900452486</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A548" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C548" s="3">
+        <v>299</v>
+      </c>
+      <c r="D548" s="2">
+        <v>16</v>
+      </c>
+      <c r="E548" s="2">
+        <f t="shared" si="7"/>
+        <v>5.3511705685618729</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A549" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C549" s="3">
+        <v>2130</v>
+      </c>
+      <c r="D549" s="2">
+        <v>98</v>
+      </c>
+      <c r="E549" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6009389671361509</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A550" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C550" s="3">
+        <v>1160</v>
+      </c>
+      <c r="D550" s="2">
+        <v>55</v>
+      </c>
+      <c r="E550" s="2">
+        <f t="shared" si="7"/>
+        <v>4.7413793103448274</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A551" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C551" s="3">
+        <v>10886</v>
+      </c>
+      <c r="D551" s="2">
+        <v>70</v>
+      </c>
+      <c r="E551" s="2">
+        <f t="shared" si="7"/>
+        <v>0.64302774205401436</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A552" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C552" s="3">
+        <v>7260</v>
+      </c>
+      <c r="D552" s="2">
+        <v>75</v>
+      </c>
+      <c r="E552" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0330578512396695</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A553" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C553" s="3">
+        <v>15697</v>
+      </c>
+      <c r="D553" s="2">
+        <v>35</v>
+      </c>
+      <c r="E553" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22297254252404919</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A554" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C554" s="3">
+        <v>17787</v>
+      </c>
+      <c r="D554" s="2">
+        <v>42</v>
+      </c>
+      <c r="E554" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23612750885478156</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A555" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C555" s="3">
+        <v>34497</v>
+      </c>
+      <c r="D555" s="2">
+        <v>58</v>
+      </c>
+      <c r="E555" s="2">
+        <f t="shared" si="7"/>
+        <v>0.16813056207786184</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A556" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C556" s="3">
+        <v>50035</v>
+      </c>
+      <c r="D556" s="2">
+        <v>145</v>
+      </c>
+      <c r="E556" s="2">
+        <f t="shared" si="7"/>
+        <v>0.28979714200059958</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A557" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C557" s="3">
+        <v>3800</v>
+      </c>
+      <c r="D557" s="2">
+        <v>79</v>
+      </c>
+      <c r="E557" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0789473684210527</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A558" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C558" s="3">
+        <v>2230</v>
+      </c>
+      <c r="D558" s="2">
+        <v>52</v>
+      </c>
+      <c r="E558" s="2">
+        <f t="shared" si="7"/>
+        <v>2.3318385650224216</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A559" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C559" s="3">
+        <v>298</v>
+      </c>
+      <c r="D559" s="2">
+        <v>44</v>
+      </c>
+      <c r="E559" s="2">
+        <f t="shared" si="7"/>
+        <v>14.76510067114094</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A560" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C560" s="3">
+        <v>39291</v>
+      </c>
+      <c r="D560" s="2">
+        <v>53</v>
+      </c>
+      <c r="E560" s="2">
+        <f t="shared" si="7"/>
+        <v>0.13489094194599272</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A561" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C561" s="3">
+        <v>18849</v>
+      </c>
+      <c r="D561" s="2">
+        <v>30</v>
+      </c>
+      <c r="E561" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15915963711602737</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A562" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C562" s="3">
+        <v>41551</v>
+      </c>
+      <c r="D562" s="2">
+        <v>47</v>
+      </c>
+      <c r="E562" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11311400447642656</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A563" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C563" s="3">
+        <v>32658</v>
+      </c>
+      <c r="D563" s="2">
+        <v>44</v>
+      </c>
+      <c r="E563" s="2">
+        <f t="shared" si="7"/>
+        <v>0.13472962214465062</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A564" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C564" s="3">
+        <v>3500</v>
+      </c>
+      <c r="D564" s="2">
+        <v>87</v>
+      </c>
+      <c r="E564" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4857142857142858</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A565" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C565" s="3">
+        <v>2090</v>
+      </c>
+      <c r="D565" s="2">
+        <v>81</v>
+      </c>
+      <c r="E565" s="2">
+        <f t="shared" si="7"/>
+        <v>3.8755980861244015</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A566" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C566" s="3">
+        <v>17412</v>
+      </c>
+      <c r="D566" s="2">
+        <v>39</v>
+      </c>
+      <c r="E566" s="2">
+        <f t="shared" si="7"/>
+        <v>0.22398345968297728</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A567" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C567" s="3">
+        <v>15266</v>
+      </c>
+      <c r="D567" s="2">
+        <v>37</v>
+      </c>
+      <c r="E567" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2423686623870038</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A568" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C568" s="3">
+        <v>3700</v>
+      </c>
+      <c r="D568" s="2">
+        <v>89</v>
+      </c>
+      <c r="E568" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4054054054054053</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A569" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C569" s="3">
+        <v>19613</v>
+      </c>
+      <c r="D569" s="2">
+        <v>65</v>
+      </c>
+      <c r="E569" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33141283842349462</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A570" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C570" s="3">
+        <v>4622</v>
+      </c>
+      <c r="D570" s="2">
+        <v>23</v>
+      </c>
+      <c r="E570" s="2">
+        <f t="shared" si="7"/>
+        <v>0.49762007788835999</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A571" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C571" s="3">
+        <v>8180</v>
+      </c>
+      <c r="D571" s="2">
+        <v>41</v>
+      </c>
+      <c r="E571" s="2">
+        <f t="shared" si="7"/>
+        <v>0.5012224938875306</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A572" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C572" s="3">
+        <v>19624</v>
+      </c>
+      <c r="D572" s="2">
+        <v>42</v>
+      </c>
+      <c r="E572" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21402364451691805</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C573" s="3">
+        <v>10965</v>
+      </c>
+      <c r="D573" s="2">
+        <v>29</v>
+      </c>
+      <c r="E573" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26447788417692658</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C574" s="3">
+        <v>29700</v>
+      </c>
+      <c r="D574" s="2">
+        <v>419</v>
+      </c>
+      <c r="E574" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4107744107744107</v>
       </c>
     </row>
   </sheetData>
@@ -17989,10 +19200,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19203,7 +20414,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E112" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E115" si="1">D67/C67*100</f>
         <v>8.5858585858585847</v>
       </c>
     </row>
@@ -20015,6 +21226,60 @@
       <c r="E112" s="2">
         <f t="shared" si="1"/>
         <v>0.86770059342741734</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C113" s="3">
+        <v>18000</v>
+      </c>
+      <c r="D113" s="2">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15555555555555556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C114" s="3">
+        <v>31859</v>
+      </c>
+      <c r="D114" s="2">
+        <v>33</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10358140556828525</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C115" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D115" s="2">
+        <v>19</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -20393,7 +21658,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20428,14 +21693,14 @@
         <v>930</v>
       </c>
       <c r="C2" s="3">
-        <v>12898</v>
+        <v>36010</v>
       </c>
       <c r="D2" s="2">
-        <v>60</v>
-      </c>
-      <c r="E2" s="2">
+        <v>85</v>
+      </c>
+      <c r="E2">
         <f>D2/C2*100</f>
-        <v>0.46518840130252753</v>
+        <v>0.23604554290474869</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -20601,7 +21866,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E5" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20633,17 +21898,17 @@
         <v>896</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>931</v>
+        <v>998</v>
       </c>
       <c r="C2" s="3">
-        <v>16000</v>
+        <v>10221</v>
       </c>
       <c r="D2" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <f>D2/C2*100</f>
-        <v>0.11874999999999999</v>
+        <v>0.2445944623813717</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -20651,32 +21916,54 @@
         <v>896</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>932</v>
+        <v>999</v>
       </c>
       <c r="C3" s="3">
-        <v>4104</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <f>D3/C3*100</f>
-        <v>0.51169590643274854</v>
+        <v>8.8888888888888893</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41740</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E5" si="0">D4/C4*100</f>
+        <v>7.4269286056540484E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C5" s="3">
+        <v>28025</v>
+      </c>
+      <c r="D5" s="2">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2774308652988399E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D77F604-2988-4447-8241-83694D815E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0D8097-7DCD-4A4B-BA93-306A50EA0B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1037">
   <si>
     <t>Ссылка</t>
   </si>
@@ -3061,6 +3061,102 @@
   </si>
   <si>
     <t>https://ok.ru/group/70000036196257/topic/157284205424033</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-104288823_215534</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-82003693_563720</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-145316206_132461</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-180268261_61878</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6595</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10090</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158078114944333</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4421</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10084</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10481</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5872</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/16894</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11636</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6581</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7798</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2296</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6170</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12295</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3221</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6438</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6312</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7592</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8419</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5885</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6501</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5805</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8437</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6147</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4026</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4709</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6884</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5783</t>
   </si>
 </sst>
 </file>
@@ -3453,8 +3549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4623,14 +4719,14 @@
         <v>941</v>
       </c>
       <c r="C65" s="3">
-        <v>10573</v>
+        <v>14685</v>
       </c>
       <c r="D65" s="2">
-        <v>126</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1917147451054573</v>
+        <v>217</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>1.4776983316309158</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4641,14 +4737,14 @@
         <v>942</v>
       </c>
       <c r="C66" s="3">
-        <v>792</v>
+        <v>39818</v>
       </c>
       <c r="D66" s="2">
-        <v>23</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="1"/>
-        <v>2.904040404040404</v>
+        <v>79</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>0.1984027324325682</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -4659,14 +4755,14 @@
         <v>943</v>
       </c>
       <c r="C67" s="3">
-        <v>242</v>
+        <v>21571</v>
       </c>
       <c r="D67" s="2">
-        <v>19</v>
-      </c>
-      <c r="E67" s="2">
-        <f t="shared" si="1"/>
-        <v>7.8512396694214877</v>
+        <v>42</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>0.19470585508321359</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -4677,14 +4773,14 @@
         <v>944</v>
       </c>
       <c r="C68" s="3">
-        <v>3210</v>
+        <v>3590</v>
       </c>
       <c r="D68" s="2">
-        <v>73</v>
-      </c>
-      <c r="E68" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2741433021806854</v>
+        <v>77</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>2.1448467966573816</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4695,14 +4791,14 @@
         <v>945</v>
       </c>
       <c r="C69" s="3">
-        <v>17000</v>
+        <v>36516</v>
       </c>
       <c r="D69" s="2">
-        <v>29</v>
-      </c>
-      <c r="E69" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17058823529411765</v>
+        <v>89</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>0.24372877642677182</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -4713,14 +4809,14 @@
         <v>946</v>
       </c>
       <c r="C70" s="3">
-        <v>8637</v>
+        <v>19806</v>
       </c>
       <c r="D70" s="2">
-        <v>47</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="1"/>
-        <v>0.54417042954729655</v>
+        <v>104</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>0.52509340603857424</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -4731,14 +4827,14 @@
         <v>947</v>
       </c>
       <c r="C71" s="3">
-        <v>1545</v>
+        <v>2125</v>
       </c>
       <c r="D71" s="2">
-        <v>27</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="1"/>
-        <v>1.7475728155339807</v>
+        <v>47</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>2.2117647058823531</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -4749,14 +4845,14 @@
         <v>948</v>
       </c>
       <c r="C72" s="3">
-        <v>279</v>
+        <v>27921</v>
       </c>
       <c r="D72" s="2">
-        <v>14</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="1"/>
-        <v>5.0179211469534053</v>
+        <v>82</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>0.29368575624082233</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -4767,14 +4863,14 @@
         <v>949</v>
       </c>
       <c r="C73" s="3">
-        <v>671</v>
+        <v>45559</v>
       </c>
       <c r="D73" s="2">
-        <v>21</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" si="1"/>
-        <v>3.129657228017884</v>
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>0.15803683136153121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -4785,14 +4881,14 @@
         <v>894</v>
       </c>
       <c r="C74" s="3">
-        <v>4846</v>
+        <v>12894</v>
       </c>
       <c r="D74" s="2">
-        <v>32</v>
-      </c>
-      <c r="E74" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6603384234420141</v>
+        <v>80</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>0.62044361718628827</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4803,14 +4899,14 @@
         <v>895</v>
       </c>
       <c r="C75" s="3">
-        <v>32237</v>
+        <v>61341</v>
       </c>
       <c r="D75" s="2">
-        <v>47</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14579520426838724</v>
+        <v>62</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>0.10107432223146019</v>
       </c>
     </row>
   </sheetData>
@@ -5295,7 +5391,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E19" sqref="A16:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5618,14 +5714,14 @@
         <v>933</v>
       </c>
       <c r="C18" s="3">
-        <v>28800</v>
+        <v>30100</v>
       </c>
       <c r="D18" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0.53125</v>
+        <v>0.50498338870431891</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -5636,14 +5732,14 @@
         <v>934</v>
       </c>
       <c r="C19" s="3">
-        <v>28800</v>
+        <v>30300</v>
       </c>
       <c r="D19" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>0.46527777777777773</v>
+        <v>0.45214521452145212</v>
       </c>
     </row>
   </sheetData>
@@ -5870,7 +5966,7 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7437,14 +7533,14 @@
         <v>1000</v>
       </c>
       <c r="C87" s="3">
-        <v>9800</v>
+        <v>32958</v>
       </c>
       <c r="D87" s="2">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E87" s="2">
         <f t="shared" si="1"/>
-        <v>0.22448979591836735</v>
+        <v>0.10316159961162692</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -7455,14 +7551,14 @@
         <v>1001</v>
       </c>
       <c r="C88" s="3">
-        <v>5212</v>
+        <v>15431</v>
       </c>
       <c r="D88" s="2">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E88" s="2">
         <f t="shared" si="1"/>
-        <v>0.49884881043745205</v>
+        <v>0.48603460566392331</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -7473,14 +7569,14 @@
         <v>1002</v>
       </c>
       <c r="C89" s="3">
-        <v>14468</v>
+        <v>24389</v>
       </c>
       <c r="D89" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2">
         <f t="shared" si="1"/>
-        <v>0.26264860381531652</v>
+        <v>0.40592070195579971</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -7491,14 +7587,14 @@
         <v>1003</v>
       </c>
       <c r="C90" s="3">
-        <v>3110</v>
+        <v>3490</v>
       </c>
       <c r="D90" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E90" s="2">
         <f t="shared" si="1"/>
-        <v>2.315112540192926</v>
+        <v>2.0916905444126077</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -7509,14 +7605,14 @@
         <v>1004</v>
       </c>
       <c r="C91" s="3">
-        <v>16000</v>
+        <v>26790</v>
       </c>
       <c r="D91" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" si="1"/>
-        <v>0.1875</v>
+        <v>0.13437849944008959</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -7527,14 +7623,14 @@
         <v>940</v>
       </c>
       <c r="C92" s="3">
-        <v>53675</v>
+        <v>66498</v>
       </c>
       <c r="D92" s="2">
         <v>35</v>
       </c>
       <c r="E92" s="2">
         <f t="shared" si="1"/>
-        <v>6.520726595249185E-2</v>
+        <v>5.2633161899606005E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -7548,11 +7644,11 @@
         <v>55191</v>
       </c>
       <c r="D93" s="2">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2">
         <f t="shared" si="1"/>
-        <v>6.5228026308637277E-2</v>
+        <v>0.14313927995506515</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -7563,14 +7659,14 @@
         <v>938</v>
       </c>
       <c r="C94" s="3">
-        <v>18217</v>
+        <v>20027</v>
       </c>
       <c r="D94" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" si="1"/>
-        <v>0.20859636603172863</v>
+        <v>0.39446746891696211</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -7581,14 +7677,14 @@
         <v>935</v>
       </c>
       <c r="C95" s="3">
-        <v>18965</v>
+        <v>31829</v>
       </c>
       <c r="D95" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E95" s="2">
         <f t="shared" si="1"/>
-        <v>0.21618771421038754</v>
+        <v>0.14452229099249111</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -7599,14 +7695,14 @@
         <v>936</v>
       </c>
       <c r="C96" s="3">
-        <v>25739</v>
+        <v>36652</v>
       </c>
       <c r="D96" s="2">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2">
         <f t="shared" si="1"/>
-        <v>0.25642021834570106</v>
+        <v>0.33831714503983412</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -7617,14 +7713,14 @@
         <v>937</v>
       </c>
       <c r="C97" s="3">
-        <v>3600</v>
+        <v>3810</v>
       </c>
       <c r="D97" s="2">
         <v>76</v>
       </c>
       <c r="E97" s="2">
         <f t="shared" si="1"/>
-        <v>2.1111111111111112</v>
+        <v>1.9947506561679789</v>
       </c>
     </row>
   </sheetData>
@@ -7638,10 +7734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E574"/>
+  <dimension ref="A1:E580"/>
   <sheetViews>
-    <sheetView topLeftCell="A561" workbookViewId="0">
-      <selection activeCell="A574" sqref="A574"/>
+    <sheetView topLeftCell="A565" workbookViewId="0">
+      <selection activeCell="B587" sqref="B587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16745,17 +16841,17 @@
         <v>896</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>950</v>
+        <v>1005</v>
       </c>
       <c r="C506" s="3">
-        <v>295</v>
+        <v>3471</v>
       </c>
       <c r="D506" s="2">
-        <v>12</v>
-      </c>
-      <c r="E506" s="2">
+        <v>39</v>
+      </c>
+      <c r="E506">
         <f t="shared" si="6"/>
-        <v>4.0677966101694913</v>
+        <v>1.1235955056179776</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -16763,17 +16859,17 @@
         <v>896</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>951</v>
+        <v>1006</v>
       </c>
       <c r="C507" s="3">
-        <v>373</v>
+        <v>14812</v>
       </c>
       <c r="D507" s="2">
-        <v>12</v>
-      </c>
-      <c r="E507" s="2">
+        <v>178</v>
+      </c>
+      <c r="E507">
         <f t="shared" si="6"/>
-        <v>3.2171581769436997</v>
+        <v>1.2017283283823925</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -16781,17 +16877,17 @@
         <v>896</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>952</v>
+        <v>1007</v>
       </c>
       <c r="C508" s="3">
-        <v>275</v>
+        <v>2537</v>
       </c>
       <c r="D508" s="2">
-        <v>10</v>
-      </c>
-      <c r="E508" s="2">
+        <v>31</v>
+      </c>
+      <c r="E508">
         <f t="shared" si="6"/>
-        <v>3.6363636363636362</v>
+        <v>1.2219156484036262</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -16799,17 +16895,17 @@
         <v>896</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>953</v>
+        <v>1008</v>
       </c>
       <c r="C509" s="3">
-        <v>15900</v>
+        <v>678</v>
       </c>
       <c r="D509" s="2">
-        <v>248</v>
-      </c>
-      <c r="E509" s="2">
+        <v>5</v>
+      </c>
+      <c r="E509">
         <f t="shared" si="6"/>
-        <v>1.5597484276729559</v>
+        <v>0.73746312684365778</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -16817,17 +16913,17 @@
         <v>896</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>954</v>
+        <v>1009</v>
       </c>
       <c r="C510" s="3">
-        <v>764</v>
+        <v>2120</v>
       </c>
       <c r="D510" s="2">
-        <v>10</v>
-      </c>
-      <c r="E510" s="2">
+        <v>58</v>
+      </c>
+      <c r="E510">
         <f t="shared" si="6"/>
-        <v>1.3089005235602094</v>
+        <v>2.7358490566037736</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -16835,17 +16931,17 @@
         <v>896</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>955</v>
+        <v>1010</v>
       </c>
       <c r="C511" s="3">
-        <v>360</v>
+        <v>578</v>
       </c>
       <c r="D511" s="2">
-        <v>2</v>
-      </c>
-      <c r="E511" s="2">
+        <v>45</v>
+      </c>
+      <c r="E511">
         <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
+        <v>7.7854671280276815</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -16853,17 +16949,17 @@
         <v>896</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C512" s="3">
-        <v>1690</v>
+        <v>448</v>
       </c>
       <c r="D512" s="2">
-        <v>51</v>
-      </c>
-      <c r="E512" s="2">
-        <f t="shared" ref="E512:E574" si="7">D512/C512*100</f>
-        <v>3.0177514792899407</v>
+        <v>42</v>
+      </c>
+      <c r="E512">
+        <f t="shared" ref="E512:E575" si="7">D512/C512*100</f>
+        <v>9.375</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -16871,17 +16967,17 @@
         <v>896</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="C513" s="3">
-        <v>1470</v>
+        <v>687</v>
       </c>
       <c r="D513" s="2">
-        <v>40</v>
-      </c>
-      <c r="E513" s="2">
+        <v>46</v>
+      </c>
+      <c r="E513">
         <f t="shared" si="7"/>
-        <v>2.7210884353741496</v>
+        <v>6.6957787481804951</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -16889,17 +16985,17 @@
         <v>896</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C514" s="3">
-        <v>1580</v>
+        <v>392</v>
       </c>
       <c r="D514" s="2">
-        <v>25</v>
-      </c>
-      <c r="E514" s="2">
+        <v>42</v>
+      </c>
+      <c r="E514">
         <f t="shared" si="7"/>
-        <v>1.5822784810126582</v>
+        <v>10.714285714285714</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -16907,17 +17003,17 @@
         <v>896</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C515" s="3">
-        <v>553</v>
+        <v>27000</v>
       </c>
       <c r="D515" s="2">
-        <v>3</v>
-      </c>
-      <c r="E515" s="2">
+        <v>318</v>
+      </c>
+      <c r="E515">
         <f t="shared" si="7"/>
-        <v>0.54249547920433994</v>
+        <v>1.1777777777777778</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.3">
@@ -16925,17 +17021,17 @@
         <v>896</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C516" s="3">
-        <v>232</v>
+        <v>1150</v>
       </c>
       <c r="D516" s="2">
-        <v>12</v>
-      </c>
-      <c r="E516" s="2">
+        <v>48</v>
+      </c>
+      <c r="E516">
         <f t="shared" si="7"/>
-        <v>5.1724137931034484</v>
+        <v>4.1739130434782616</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.3">
@@ -16943,17 +17039,17 @@
         <v>896</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C517" s="3">
-        <v>417</v>
+        <v>604</v>
       </c>
       <c r="D517" s="2">
-        <v>8</v>
-      </c>
-      <c r="E517" s="2">
+        <v>43</v>
+      </c>
+      <c r="E517">
         <f t="shared" si="7"/>
-        <v>1.9184652278177456</v>
+        <v>7.1192052980132452</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.3">
@@ -16961,17 +17057,17 @@
         <v>896</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C518" s="3">
-        <v>541</v>
+        <v>2380</v>
       </c>
       <c r="D518" s="2">
-        <v>10</v>
-      </c>
-      <c r="E518" s="2">
+        <v>100</v>
+      </c>
+      <c r="E518">
         <f t="shared" si="7"/>
-        <v>1.8484288354898337</v>
+        <v>4.2016806722689077</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.3">
@@ -16979,17 +17075,17 @@
         <v>896</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C519" s="3">
-        <v>291</v>
+        <v>1990</v>
       </c>
       <c r="D519" s="2">
-        <v>8</v>
-      </c>
-      <c r="E519" s="2">
+        <v>80</v>
+      </c>
+      <c r="E519">
         <f t="shared" si="7"/>
-        <v>2.7491408934707904</v>
+        <v>4.0201005025125625</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.3">
@@ -16997,17 +17093,17 @@
         <v>896</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C520" s="3">
-        <v>260</v>
+        <v>2190</v>
       </c>
       <c r="D520" s="2">
-        <v>10</v>
-      </c>
-      <c r="E520" s="2">
+        <v>64</v>
+      </c>
+      <c r="E520">
         <f t="shared" si="7"/>
-        <v>3.8461538461538463</v>
+        <v>2.9223744292237441</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.3">
@@ -17015,17 +17111,17 @@
         <v>896</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C521" s="3">
-        <v>321</v>
+        <v>794</v>
       </c>
       <c r="D521" s="2">
-        <v>8</v>
-      </c>
-      <c r="E521" s="2">
+        <v>34</v>
+      </c>
+      <c r="E521">
         <f t="shared" si="7"/>
-        <v>2.4922118380062304</v>
+        <v>4.2821158690176322</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.3">
@@ -17033,17 +17129,17 @@
         <v>896</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C522" s="3">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="D522" s="2">
-        <v>44</v>
-      </c>
-      <c r="E522" s="2">
+        <v>42</v>
+      </c>
+      <c r="E522">
         <f t="shared" si="7"/>
-        <v>13.538461538461538</v>
+        <v>11.830985915492958</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.3">
@@ -17051,17 +17147,17 @@
         <v>896</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C523" s="3">
-        <v>207</v>
+        <v>751</v>
       </c>
       <c r="D523" s="2">
-        <v>22</v>
-      </c>
-      <c r="E523" s="2">
+        <v>37</v>
+      </c>
+      <c r="E523">
         <f t="shared" si="7"/>
-        <v>10.628019323671497</v>
+        <v>4.92676431424767</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.3">
@@ -17069,17 +17165,17 @@
         <v>896</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C524" s="3">
-        <v>2048</v>
+        <v>839</v>
       </c>
       <c r="D524" s="2">
-        <v>25</v>
-      </c>
-      <c r="E524" s="2">
+        <v>40</v>
+      </c>
+      <c r="E524">
         <f t="shared" si="7"/>
-        <v>1.220703125</v>
+        <v>4.7675804529201429</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.3">
@@ -17087,17 +17183,17 @@
         <v>896</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="C525" s="3">
-        <v>2630</v>
+        <v>396</v>
       </c>
       <c r="D525" s="2">
-        <v>82</v>
-      </c>
-      <c r="E525" s="2">
+        <v>38</v>
+      </c>
+      <c r="E525">
         <f t="shared" si="7"/>
-        <v>3.1178707224334601</v>
+        <v>9.5959595959595951</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.3">
@@ -17105,17 +17201,17 @@
         <v>896</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C526" s="3">
-        <v>135</v>
+        <v>487</v>
       </c>
       <c r="D526" s="2">
-        <v>16</v>
-      </c>
-      <c r="E526" s="2">
+        <v>39</v>
+      </c>
+      <c r="E526">
         <f t="shared" si="7"/>
-        <v>11.851851851851853</v>
+        <v>8.0082135523613953</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.3">
@@ -17123,17 +17219,17 @@
         <v>896</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="C527" s="3">
-        <v>1900</v>
+        <v>445</v>
       </c>
       <c r="D527" s="2">
-        <v>30</v>
-      </c>
-      <c r="E527" s="2">
+        <v>43</v>
+      </c>
+      <c r="E527">
         <f t="shared" si="7"/>
-        <v>1.5789473684210527</v>
+        <v>9.6629213483146064</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.3">
@@ -17141,17 +17237,17 @@
         <v>896</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C528" s="3">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="D528" s="2">
-        <v>22</v>
-      </c>
-      <c r="E528" s="2">
+        <v>59</v>
+      </c>
+      <c r="E528">
         <f t="shared" si="7"/>
-        <v>5.0343249427917618</v>
+        <v>11.368015414258188</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.3">
@@ -17159,17 +17255,17 @@
         <v>896</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C529" s="3">
-        <v>213</v>
+        <v>473</v>
       </c>
       <c r="D529" s="2">
-        <v>20</v>
-      </c>
-      <c r="E529" s="2">
+        <v>29</v>
+      </c>
+      <c r="E529">
         <f t="shared" si="7"/>
-        <v>9.3896713615023462</v>
+        <v>6.1310782241014801</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.3">
@@ -17177,17 +17273,17 @@
         <v>896</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C530" s="3">
-        <v>2470</v>
+        <v>7032</v>
       </c>
       <c r="D530" s="2">
-        <v>64</v>
-      </c>
-      <c r="E530" s="2">
+        <v>108</v>
+      </c>
+      <c r="E530">
         <f t="shared" si="7"/>
-        <v>2.5910931174089069</v>
+        <v>1.5358361774744027</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.3">
@@ -17195,17 +17291,17 @@
         <v>896</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C531" s="3">
-        <v>118</v>
+        <v>3630</v>
       </c>
       <c r="D531" s="2">
-        <v>11</v>
-      </c>
-      <c r="E531" s="2">
+        <v>94</v>
+      </c>
+      <c r="E531">
         <f t="shared" si="7"/>
-        <v>9.3220338983050848</v>
+        <v>2.5895316804407713</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.3">
@@ -17213,17 +17309,17 @@
         <v>896</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C532" s="3">
-        <v>852</v>
+        <v>377</v>
       </c>
       <c r="D532" s="2">
-        <v>22</v>
-      </c>
-      <c r="E532" s="2">
+        <v>19</v>
+      </c>
+      <c r="E532">
         <f t="shared" si="7"/>
-        <v>2.5821596244131455</v>
+        <v>5.0397877984084882</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.3">
@@ -17231,17 +17327,17 @@
         <v>896</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C533" s="3">
-        <v>299</v>
+        <v>3749</v>
       </c>
       <c r="D533" s="2">
-        <v>8</v>
-      </c>
-      <c r="E533" s="2">
+        <v>81</v>
+      </c>
+      <c r="E533">
         <f t="shared" si="7"/>
-        <v>2.6755852842809364</v>
+        <v>2.1605761536409709</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.3">
@@ -17249,17 +17345,17 @@
         <v>896</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C534" s="3">
-        <v>385</v>
+        <v>28033</v>
       </c>
       <c r="D534" s="2">
-        <v>10</v>
-      </c>
-      <c r="E534" s="2">
+        <v>40</v>
+      </c>
+      <c r="E534">
         <f t="shared" si="7"/>
-        <v>2.5974025974025974</v>
+        <v>0.1426889737095566</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
@@ -17267,17 +17363,17 @@
         <v>896</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C535" s="3">
-        <v>332</v>
+        <v>19667</v>
       </c>
       <c r="D535" s="2">
-        <v>9</v>
-      </c>
-      <c r="E535" s="2">
+        <v>74</v>
+      </c>
+      <c r="E535">
         <f t="shared" si="7"/>
-        <v>2.7108433734939759</v>
+        <v>0.37626480907103266</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
@@ -17285,17 +17381,17 @@
         <v>896</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C536" s="3">
-        <v>293</v>
+        <v>3670</v>
       </c>
       <c r="D536" s="2">
-        <v>9</v>
-      </c>
-      <c r="E536" s="2">
+        <v>74</v>
+      </c>
+      <c r="E536">
         <f t="shared" si="7"/>
-        <v>3.0716723549488054</v>
+        <v>2.0163487738419619</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
@@ -17303,17 +17399,17 @@
         <v>896</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C537" s="3">
-        <v>210</v>
+        <v>9115</v>
       </c>
       <c r="D537" s="2">
-        <v>7</v>
-      </c>
-      <c r="E537" s="2">
+        <v>40</v>
+      </c>
+      <c r="E537">
         <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
+        <v>0.43883708173340652</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
@@ -17321,17 +17417,17 @@
         <v>896</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C538" s="3">
-        <v>453</v>
+        <v>2724</v>
       </c>
       <c r="D538" s="2">
-        <v>4</v>
-      </c>
-      <c r="E538" s="2">
+        <v>55</v>
+      </c>
+      <c r="E538">
         <f t="shared" si="7"/>
-        <v>0.88300220750551872</v>
+        <v>2.0190895741556534</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
@@ -17339,17 +17435,17 @@
         <v>896</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C539" s="3">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="D539" s="2">
-        <v>7</v>
-      </c>
-      <c r="E539" s="2">
+        <v>39</v>
+      </c>
+      <c r="E539">
         <f t="shared" si="7"/>
-        <v>2.1276595744680851</v>
+        <v>10.955056179775282</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
@@ -17357,17 +17453,17 @@
         <v>896</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C540" s="3">
-        <v>625</v>
+        <v>447</v>
       </c>
       <c r="D540" s="2">
-        <v>19</v>
-      </c>
-      <c r="E540" s="2">
+        <v>42</v>
+      </c>
+      <c r="E540">
         <f t="shared" si="7"/>
-        <v>3.04</v>
+        <v>9.3959731543624159</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
@@ -17375,17 +17471,17 @@
         <v>896</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C541" s="3">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="D541" s="2">
-        <v>6</v>
-      </c>
-      <c r="E541" s="2">
+        <v>45</v>
+      </c>
+      <c r="E541">
         <f t="shared" si="7"/>
-        <v>1.4888337468982631</v>
+        <v>9.7826086956521738</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
@@ -17393,17 +17489,17 @@
         <v>896</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="C542" s="3">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="D542" s="2">
-        <v>5</v>
-      </c>
-      <c r="E542" s="2">
+        <v>41</v>
+      </c>
+      <c r="E542">
         <f t="shared" si="7"/>
-        <v>8.064516129032258</v>
+        <v>11.988304093567251</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
@@ -17411,17 +17507,17 @@
         <v>896</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C543" s="3">
-        <v>408</v>
+        <v>254</v>
       </c>
       <c r="D543" s="2">
-        <v>10</v>
-      </c>
-      <c r="E543" s="2">
+        <v>43</v>
+      </c>
+      <c r="E543">
         <f t="shared" si="7"/>
-        <v>2.4509803921568629</v>
+        <v>16.929133858267718</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
@@ -17429,17 +17525,17 @@
         <v>896</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C544" s="3">
-        <v>254</v>
+        <v>505</v>
       </c>
       <c r="D544" s="2">
-        <v>10</v>
-      </c>
-      <c r="E544" s="2">
+        <v>39</v>
+      </c>
+      <c r="E544">
         <f t="shared" si="7"/>
-        <v>3.9370078740157481</v>
+        <v>7.7227722772277225</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.3">
@@ -17447,17 +17543,17 @@
         <v>896</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C545" s="3">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="D545" s="2">
-        <v>16</v>
-      </c>
-      <c r="E545" s="2">
+        <v>41</v>
+      </c>
+      <c r="E545">
         <f t="shared" si="7"/>
-        <v>4.0920716112531972</v>
+        <v>10.962566844919785</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.3">
@@ -17465,17 +17561,17 @@
         <v>896</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C546" s="3">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="D546" s="2">
-        <v>17</v>
-      </c>
-      <c r="E546" s="2">
+        <v>49</v>
+      </c>
+      <c r="E546">
         <f t="shared" si="7"/>
-        <v>2.1992238033635187</v>
+        <v>6.5420560747663545</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.3">
@@ -17483,17 +17579,17 @@
         <v>896</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="C547" s="3">
-        <v>221</v>
+        <v>469</v>
       </c>
       <c r="D547" s="2">
-        <v>9</v>
-      </c>
-      <c r="E547" s="2">
+        <v>39</v>
+      </c>
+      <c r="E547">
         <f t="shared" si="7"/>
-        <v>4.0723981900452486</v>
+        <v>8.3155650319829419</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.3">
@@ -17501,17 +17597,17 @@
         <v>896</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C548" s="3">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="D548" s="2">
-        <v>16</v>
-      </c>
-      <c r="E548" s="2">
+        <v>37</v>
+      </c>
+      <c r="E548">
         <f t="shared" si="7"/>
-        <v>5.3511705685618729</v>
+        <v>53.623188405797109</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.3">
@@ -17519,17 +17615,17 @@
         <v>896</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="C549" s="3">
-        <v>2130</v>
+        <v>471</v>
       </c>
       <c r="D549" s="2">
-        <v>98</v>
-      </c>
-      <c r="E549" s="2">
+        <v>41</v>
+      </c>
+      <c r="E549">
         <f t="shared" si="7"/>
-        <v>4.6009389671361509</v>
+        <v>8.7048832271762198</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.3">
@@ -17537,17 +17633,17 @@
         <v>896</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C550" s="3">
-        <v>1160</v>
+        <v>290</v>
       </c>
       <c r="D550" s="2">
-        <v>55</v>
-      </c>
-      <c r="E550" s="2">
+        <v>40</v>
+      </c>
+      <c r="E550">
         <f t="shared" si="7"/>
-        <v>4.7413793103448274</v>
+        <v>13.793103448275861</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.3">
@@ -17555,17 +17651,17 @@
         <v>896</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>900</v>
+        <v>989</v>
       </c>
       <c r="C551" s="3">
-        <v>10886</v>
+        <v>470</v>
       </c>
       <c r="D551" s="2">
-        <v>70</v>
-      </c>
-      <c r="E551" s="2">
+        <v>52</v>
+      </c>
+      <c r="E551">
         <f t="shared" si="7"/>
-        <v>0.64302774205401436</v>
+        <v>11.063829787234042</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.3">
@@ -17573,17 +17669,17 @@
         <v>896</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>901</v>
+        <v>990</v>
       </c>
       <c r="C552" s="3">
-        <v>7260</v>
+        <v>899</v>
       </c>
       <c r="D552" s="2">
-        <v>75</v>
-      </c>
-      <c r="E552" s="2">
+        <v>49</v>
+      </c>
+      <c r="E552">
         <f t="shared" si="7"/>
-        <v>1.0330578512396695</v>
+        <v>5.4505005561735267</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.3">
@@ -17591,17 +17687,17 @@
         <v>896</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>902</v>
+        <v>991</v>
       </c>
       <c r="C553" s="3">
-        <v>15697</v>
+        <v>267</v>
       </c>
       <c r="D553" s="2">
-        <v>35</v>
-      </c>
-      <c r="E553" s="2">
+        <v>41</v>
+      </c>
+      <c r="E553">
         <f t="shared" si="7"/>
-        <v>0.22297254252404919</v>
+        <v>15.355805243445692</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.3">
@@ -17609,17 +17705,17 @@
         <v>896</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>903</v>
+        <v>992</v>
       </c>
       <c r="C554" s="3">
-        <v>17787</v>
+        <v>369</v>
       </c>
       <c r="D554" s="2">
-        <v>42</v>
-      </c>
-      <c r="E554" s="2">
+        <v>52</v>
+      </c>
+      <c r="E554">
         <f t="shared" si="7"/>
-        <v>0.23612750885478156</v>
+        <v>14.092140921409213</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.3">
@@ -17627,17 +17723,17 @@
         <v>896</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>904</v>
+        <v>993</v>
       </c>
       <c r="C555" s="3">
-        <v>34497</v>
+        <v>2610</v>
       </c>
       <c r="D555" s="2">
-        <v>58</v>
-      </c>
-      <c r="E555" s="2">
+        <v>106</v>
+      </c>
+      <c r="E555">
         <f t="shared" si="7"/>
-        <v>0.16813056207786184</v>
+        <v>4.0613026819923368</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.3">
@@ -17645,17 +17741,17 @@
         <v>896</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>905</v>
+        <v>994</v>
       </c>
       <c r="C556" s="3">
-        <v>50035</v>
+        <v>1310</v>
       </c>
       <c r="D556" s="2">
-        <v>145</v>
-      </c>
-      <c r="E556" s="2">
+        <v>65</v>
+      </c>
+      <c r="E556">
         <f t="shared" si="7"/>
-        <v>0.28979714200059958</v>
+        <v>4.9618320610687023</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.3">
@@ -17663,17 +17759,17 @@
         <v>896</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C557" s="3">
-        <v>3800</v>
+        <v>22130</v>
       </c>
       <c r="D557" s="2">
-        <v>79</v>
-      </c>
-      <c r="E557" s="2">
+        <v>158</v>
+      </c>
+      <c r="E557">
         <f t="shared" si="7"/>
-        <v>2.0789473684210527</v>
+        <v>0.71396294622684142</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.3">
@@ -17681,17 +17777,17 @@
         <v>896</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C558" s="3">
-        <v>2230</v>
+        <v>8150</v>
       </c>
       <c r="D558" s="2">
-        <v>52</v>
-      </c>
-      <c r="E558" s="2">
+        <v>76</v>
+      </c>
+      <c r="E558">
         <f t="shared" si="7"/>
-        <v>2.3318385650224216</v>
+        <v>0.93251533742331283</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.3">
@@ -17699,17 +17795,17 @@
         <v>896</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="C559" s="3">
-        <v>298</v>
+        <v>35736</v>
       </c>
       <c r="D559" s="2">
-        <v>44</v>
-      </c>
-      <c r="E559" s="2">
+        <v>86</v>
+      </c>
+      <c r="E559">
         <f t="shared" si="7"/>
-        <v>14.76510067114094</v>
+        <v>0.24065368256100289</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.3">
@@ -17717,17 +17813,17 @@
         <v>896</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C560" s="3">
-        <v>39291</v>
+        <v>31430</v>
       </c>
       <c r="D560" s="2">
-        <v>53</v>
-      </c>
-      <c r="E560" s="2">
+        <v>55</v>
+      </c>
+      <c r="E560">
         <f t="shared" si="7"/>
-        <v>0.13489094194599272</v>
+        <v>0.17499204581609928</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.3">
@@ -17735,17 +17831,17 @@
         <v>896</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C561" s="3">
-        <v>18849</v>
+        <v>49503</v>
       </c>
       <c r="D561" s="2">
-        <v>30</v>
-      </c>
-      <c r="E561" s="2">
+        <v>84</v>
+      </c>
+      <c r="E561">
         <f t="shared" si="7"/>
-        <v>0.15915963711602737</v>
+        <v>0.16968668565541481</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.3">
@@ -17753,17 +17849,17 @@
         <v>896</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C562" s="3">
-        <v>41551</v>
+        <v>64847</v>
       </c>
       <c r="D562" s="2">
-        <v>47</v>
-      </c>
-      <c r="E562" s="2">
+        <v>204</v>
+      </c>
+      <c r="E562">
         <f t="shared" si="7"/>
-        <v>0.11311400447642656</v>
+        <v>0.31458664240442891</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.3">
@@ -17771,17 +17867,17 @@
         <v>896</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C563" s="3">
-        <v>32658</v>
+        <v>3980</v>
       </c>
       <c r="D563" s="2">
-        <v>44</v>
-      </c>
-      <c r="E563" s="2">
+        <v>79</v>
+      </c>
+      <c r="E563">
         <f t="shared" si="7"/>
-        <v>0.13472962214465062</v>
+        <v>1.9849246231155779</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.3">
@@ -17789,17 +17885,17 @@
         <v>896</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="C564" s="3">
-        <v>3500</v>
+        <v>2420</v>
       </c>
       <c r="D564" s="2">
-        <v>87</v>
-      </c>
-      <c r="E564" s="2">
+        <v>52</v>
+      </c>
+      <c r="E564">
         <f t="shared" si="7"/>
-        <v>2.4857142857142858</v>
+        <v>2.1487603305785123</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.3">
@@ -17807,17 +17903,17 @@
         <v>896</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C565" s="3">
-        <v>2090</v>
+        <v>316</v>
       </c>
       <c r="D565" s="2">
-        <v>81</v>
-      </c>
-      <c r="E565" s="2">
+        <v>44</v>
+      </c>
+      <c r="E565">
         <f t="shared" si="7"/>
-        <v>3.8755980861244015</v>
+        <v>13.924050632911392</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.3">
@@ -17825,17 +17921,17 @@
         <v>896</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C566" s="3">
-        <v>17412</v>
+        <v>63744</v>
       </c>
       <c r="D566" s="2">
-        <v>39</v>
-      </c>
-      <c r="E566" s="2">
+        <v>64</v>
+      </c>
+      <c r="E566">
         <f t="shared" si="7"/>
-        <v>0.22398345968297728</v>
+        <v>0.1004016064257028</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.3">
@@ -17843,17 +17939,17 @@
         <v>896</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C567" s="3">
-        <v>15266</v>
+        <v>35639</v>
       </c>
       <c r="D567" s="2">
         <v>37</v>
       </c>
-      <c r="E567" s="2">
+      <c r="E567">
         <f t="shared" si="7"/>
-        <v>0.2423686623870038</v>
+        <v>0.10381885013608687</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.3">
@@ -17861,17 +17957,17 @@
         <v>896</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C568" s="3">
-        <v>3700</v>
+        <v>54431</v>
       </c>
       <c r="D568" s="2">
-        <v>89</v>
-      </c>
-      <c r="E568" s="2">
+        <v>93</v>
+      </c>
+      <c r="E568">
         <f t="shared" si="7"/>
-        <v>2.4054054054054053</v>
+        <v>0.17085851812386324</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.3">
@@ -17879,17 +17975,17 @@
         <v>896</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C569" s="3">
-        <v>19613</v>
+        <v>49589</v>
       </c>
       <c r="D569" s="2">
-        <v>65</v>
-      </c>
-      <c r="E569" s="2">
+        <v>58</v>
+      </c>
+      <c r="E569">
         <f t="shared" si="7"/>
-        <v>0.33141283842349462</v>
+        <v>0.11696142289620683</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.3">
@@ -17897,17 +17993,17 @@
         <v>896</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C570" s="3">
-        <v>4622</v>
+        <v>3660</v>
       </c>
       <c r="D570" s="2">
-        <v>23</v>
-      </c>
-      <c r="E570" s="2">
+        <v>88</v>
+      </c>
+      <c r="E570">
         <f t="shared" si="7"/>
-        <v>0.49762007788835999</v>
+        <v>2.4043715846994536</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.3">
@@ -17915,17 +18011,17 @@
         <v>896</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="C571" s="3">
-        <v>8180</v>
+        <v>2190</v>
       </c>
       <c r="D571" s="2">
-        <v>41</v>
-      </c>
-      <c r="E571" s="2">
+        <v>81</v>
+      </c>
+      <c r="E571">
         <f t="shared" si="7"/>
-        <v>0.5012224938875306</v>
+        <v>3.6986301369863015</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.3">
@@ -17933,17 +18029,17 @@
         <v>896</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C572" s="3">
-        <v>19624</v>
+        <v>32303</v>
       </c>
       <c r="D572" s="2">
-        <v>42</v>
-      </c>
-      <c r="E572" s="2">
+        <v>51</v>
+      </c>
+      <c r="E572">
         <f t="shared" si="7"/>
-        <v>0.21402364451691805</v>
+        <v>0.15788007305822988</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.3">
@@ -17951,17 +18047,17 @@
         <v>896</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C573" s="3">
-        <v>10965</v>
+        <v>34477</v>
       </c>
       <c r="D573" s="2">
-        <v>29</v>
-      </c>
-      <c r="E573" s="2">
+        <v>88</v>
+      </c>
+      <c r="E573">
         <f t="shared" si="7"/>
-        <v>0.26447788417692658</v>
+        <v>0.25524262551846155</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.3">
@@ -17969,17 +18065,125 @@
         <v>896</v>
       </c>
       <c r="B574" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C574" s="3">
+        <v>3870</v>
+      </c>
+      <c r="D574" s="2">
+        <v>90</v>
+      </c>
+      <c r="E574">
+        <f t="shared" si="7"/>
+        <v>2.3255813953488373</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C575" s="3">
+        <v>35949</v>
+      </c>
+      <c r="D575">
+        <v>110</v>
+      </c>
+      <c r="E575">
+        <f t="shared" si="7"/>
+        <v>0.30598904002892985</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C576" s="3">
+        <v>6173</v>
+      </c>
+      <c r="D576">
+        <v>44</v>
+      </c>
+      <c r="E576">
+        <f t="shared" ref="E576:E580" si="8">D576/C576*100</f>
+        <v>0.71278146768184025</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C577" s="3">
+        <v>10026</v>
+      </c>
+      <c r="D577">
+        <v>85</v>
+      </c>
+      <c r="E577">
+        <f t="shared" si="8"/>
+        <v>0.8477957310991423</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C578" s="3">
+        <v>35416</v>
+      </c>
+      <c r="D578">
+        <v>63</v>
+      </c>
+      <c r="E578">
+        <f t="shared" si="8"/>
+        <v>0.1778857013779083</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C579" s="3">
+        <v>28057</v>
+      </c>
+      <c r="D579">
+        <v>75</v>
+      </c>
+      <c r="E579">
+        <f t="shared" si="8"/>
+        <v>0.26731297002530563</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B580" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="C574" s="3">
-        <v>29700</v>
-      </c>
-      <c r="D574" s="2">
-        <v>419</v>
-      </c>
-      <c r="E574" s="2">
-        <f t="shared" si="7"/>
-        <v>1.4107744107744107</v>
+      <c r="C580" s="3">
+        <v>30600</v>
+      </c>
+      <c r="D580">
+        <v>421</v>
+      </c>
+      <c r="E580">
+        <f t="shared" si="8"/>
+        <v>1.3758169934640523</v>
       </c>
     </row>
   </sheetData>
@@ -19200,10 +19404,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20414,7 +20618,7 @@
         <v>34</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E115" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E130" si="1">D67/C67*100</f>
         <v>8.5858585858585847</v>
       </c>
     </row>
@@ -21233,17 +21437,17 @@
         <v>896</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="C113" s="3">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="D113" s="2">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E113" s="2">
         <f t="shared" si="1"/>
-        <v>0.15555555555555556</v>
+        <v>0.17272727272727273</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -21251,17 +21455,17 @@
         <v>896</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="C114" s="3">
-        <v>31859</v>
+        <v>30190</v>
       </c>
       <c r="D114" s="2">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2">
         <f t="shared" si="1"/>
-        <v>0.10358140556828525</v>
+        <v>0.31136137793971513</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -21269,17 +21473,485 @@
         <v>896</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C115" s="3">
+        <v>529</v>
+      </c>
+      <c r="D115" s="2">
+        <v>8</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5122873345935728</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C116" s="3">
+        <v>814</v>
+      </c>
+      <c r="D116" s="2">
+        <v>13</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="1"/>
+        <v>1.597051597051597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C117" s="3">
+        <v>2380</v>
+      </c>
+      <c r="D117" s="2">
+        <v>31</v>
+      </c>
+      <c r="E117" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3025210084033614</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C118" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D118" s="2">
+        <v>23</v>
+      </c>
+      <c r="E118" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1448481831757094</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C119" s="3">
+        <v>1330</v>
+      </c>
+      <c r="D119" s="2">
+        <v>15</v>
+      </c>
+      <c r="E119" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1278195488721803</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C120" s="3">
+        <v>2190</v>
+      </c>
+      <c r="D120" s="2">
+        <v>17</v>
+      </c>
+      <c r="E120" s="2">
+        <f t="shared" si="1"/>
+        <v>0.77625570776255703</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C121" s="3">
+        <v>163</v>
+      </c>
+      <c r="D121" s="2">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8404907975460123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C122" s="3">
+        <v>314</v>
+      </c>
+      <c r="D122" s="2">
+        <v>5</v>
+      </c>
+      <c r="E122" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5923566878980893</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C123" s="3">
+        <v>621</v>
+      </c>
+      <c r="D123" s="2">
+        <v>9</v>
+      </c>
+      <c r="E123" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4492753623188406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C124" s="3">
+        <v>352</v>
+      </c>
+      <c r="D124" s="2">
+        <v>9</v>
+      </c>
+      <c r="E124" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5568181818181821</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C125" s="3">
+        <v>76</v>
+      </c>
+      <c r="D125" s="2">
+        <v>6</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C126" s="3">
+        <v>236</v>
+      </c>
+      <c r="D126" s="2">
+        <v>8</v>
+      </c>
+      <c r="E126" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3898305084745761</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C127" s="3">
+        <v>282</v>
+      </c>
+      <c r="D127" s="2">
+        <v>9</v>
+      </c>
+      <c r="E127" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1914893617021276</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C128" s="3">
+        <v>335</v>
+      </c>
+      <c r="D128" s="2">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0895522388059704</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C129" s="3">
+        <v>429</v>
+      </c>
+      <c r="D129" s="2">
+        <v>6</v>
+      </c>
+      <c r="E129" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3986013986013985</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C130" s="3">
+        <v>283</v>
+      </c>
+      <c r="D130" s="2">
+        <v>5</v>
+      </c>
+      <c r="E130" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7667844522968199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C131" s="3">
+        <v>231</v>
+      </c>
+      <c r="D131" s="2">
+        <v>7</v>
+      </c>
+      <c r="E131" s="2">
+        <f t="shared" ref="E131:E141" si="2">D131/C131*100</f>
+        <v>3.0303030303030303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C132" s="3">
+        <v>267</v>
+      </c>
+      <c r="D132" s="2">
+        <v>8</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9962546816479403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C133" s="3">
+        <v>394</v>
+      </c>
+      <c r="D133" s="2">
+        <v>8</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" si="2"/>
+        <v>2.030456852791878</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C134" s="3">
+        <v>680</v>
+      </c>
+      <c r="D134" s="2">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6176470588235297</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C135" s="3">
+        <v>327</v>
+      </c>
+      <c r="D135" s="2">
+        <v>8</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="2"/>
+        <v>2.4464831804281344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C136" s="3">
+        <v>425</v>
+      </c>
+      <c r="D136" s="2">
+        <v>6</v>
+      </c>
+      <c r="E136" s="2">
+        <f t="shared" si="2"/>
+        <v>1.411764705882353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C137" s="3">
+        <v>386</v>
+      </c>
+      <c r="D137" s="2">
+        <v>9</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3316062176165802</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C138" s="3">
+        <v>223</v>
+      </c>
+      <c r="D138" s="2">
+        <v>8</v>
+      </c>
+      <c r="E138" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5874439461883409</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C139" s="3">
+        <v>47000</v>
+      </c>
+      <c r="D139" s="2">
+        <v>41</v>
+      </c>
+      <c r="E139" s="2">
+        <f t="shared" si="2"/>
+        <v>8.723404255319149E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C140" s="3">
+        <v>40921</v>
+      </c>
+      <c r="D140" s="2">
+        <v>75</v>
+      </c>
+      <c r="E140" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18327997849514918</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="C115" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D115" s="2">
-        <v>19</v>
-      </c>
-      <c r="E115" s="2">
-        <f t="shared" si="1"/>
-        <v>9.5000000000000001E-2</v>
+      <c r="C141" s="3">
+        <v>40423</v>
+      </c>
+      <c r="D141" s="2">
+        <v>44</v>
+      </c>
+      <c r="E141" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10884892264304974</v>
       </c>
     </row>
   </sheetData>
@@ -21296,7 +21968,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21658,7 +22330,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E3" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21693,14 +22365,14 @@
         <v>930</v>
       </c>
       <c r="C2" s="3">
-        <v>36010</v>
+        <v>87862</v>
       </c>
       <c r="D2" s="2">
-        <v>85</v>
-      </c>
-      <c r="E2">
+        <v>170</v>
+      </c>
+      <c r="E2" s="2">
         <f>D2/C2*100</f>
-        <v>0.23604554290474869</v>
+        <v>0.19348523821447269</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -21866,7 +22538,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A2:E5"/>
+      <selection activeCell="E20" sqref="A2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21901,14 +22573,14 @@
         <v>998</v>
       </c>
       <c r="C2" s="3">
-        <v>10221</v>
+        <v>22380</v>
       </c>
       <c r="D2" s="2">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <f>D2/C2*100</f>
-        <v>0.2445944623813717</v>
+        <v>0.29937444146559428</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -21919,14 +22591,14 @@
         <v>999</v>
       </c>
       <c r="C3" s="3">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="D3" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2">
         <f>D3/C3*100</f>
-        <v>8.8888888888888893</v>
+        <v>7.6791808873720138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -21937,14 +22609,14 @@
         <v>931</v>
       </c>
       <c r="C4" s="3">
-        <v>41740</v>
+        <v>59105</v>
       </c>
       <c r="D4" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E5" si="0">D4/C4*100</f>
-        <v>7.4269286056540484E-2</v>
+        <v>5.4140935623043736E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -21955,14 +22627,14 @@
         <v>932</v>
       </c>
       <c r="C5" s="3">
-        <v>28025</v>
+        <v>49865</v>
       </c>
       <c r="D5" s="2">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>9.2774308652988399E-2</v>
+        <v>0.13436277950466261</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0D8097-7DCD-4A4B-BA93-306A50EA0B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099007A1-5903-405C-B2A0-2F4B3EB09BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1079">
   <si>
     <t>Ссылка</t>
   </si>
@@ -3157,6 +3157,132 @@
   </si>
   <si>
     <t>https://t.me/Dela_VMalom/5783</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10148</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10530</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5897</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17064</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17035</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11666</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6605</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7809</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2308</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6184</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12314</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3247</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6452</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6322</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7615</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7606</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8431</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5896</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6509</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5821</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8449</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6168</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4032</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4716</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157291529072033</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6896</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13869</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5805</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25404</t>
+  </si>
+  <si>
+    <t>18.08 - 24.08</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158082115196237</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4435</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21917</t>
+  </si>
+  <si>
+    <t>https://t.me/vibornyk/101203</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48216</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3948</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/910</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-145316206_132641</t>
+  </si>
+  <si>
+    <t>18.08 - 25.08</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157293334588833</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-204895491_456240794?c=1</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25418</t>
   </si>
 </sst>
 </file>
@@ -5756,7 +5882,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5797,7 +5923,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E9" si="0">D2/C2*100</f>
+        <f t="shared" ref="E2:E10" si="0">D2/C2*100</f>
         <v>0.18780487804878049</v>
       </c>
     </row>
@@ -5901,10 +6027,10 @@
       <c r="C8" s="3">
         <v>36192</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>38</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.10499557913351015</v>
       </c>
@@ -5919,20 +6045,31 @@
       <c r="C9" s="3">
         <v>13546</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>108</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.7972833308725823</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C10" s="3">
+        <v>694</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7377521613832854</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -5963,10 +6100,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7179,7 +7316,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E97" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E100" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -7721,6 +7858,60 @@
       <c r="E97" s="2">
         <f t="shared" si="1"/>
         <v>1.9947506561679789</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C98" s="3">
+        <v>136</v>
+      </c>
+      <c r="D98" s="2">
+        <v>19</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="1"/>
+        <v>13.970588235294118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1237</v>
+      </c>
+      <c r="D99" s="2">
+        <v>34</v>
+      </c>
+      <c r="E99" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7485852869846403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C100" s="3">
+        <v>919</v>
+      </c>
+      <c r="D100" s="2">
+        <v>36</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9173014145810661</v>
       </c>
     </row>
   </sheetData>
@@ -7734,17 +7925,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E580"/>
+  <dimension ref="A1:E609"/>
   <sheetViews>
-    <sheetView topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="B587" sqref="B587"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H602" sqref="H602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -16849,7 +17041,7 @@
       <c r="D506" s="2">
         <v>39</v>
       </c>
-      <c r="E506">
+      <c r="E506" s="2">
         <f t="shared" si="6"/>
         <v>1.1235955056179776</v>
       </c>
@@ -16867,7 +17059,7 @@
       <c r="D507" s="2">
         <v>178</v>
       </c>
-      <c r="E507">
+      <c r="E507" s="2">
         <f t="shared" si="6"/>
         <v>1.2017283283823925</v>
       </c>
@@ -16885,7 +17077,7 @@
       <c r="D508" s="2">
         <v>31</v>
       </c>
-      <c r="E508">
+      <c r="E508" s="2">
         <f t="shared" si="6"/>
         <v>1.2219156484036262</v>
       </c>
@@ -16903,7 +17095,7 @@
       <c r="D509" s="2">
         <v>5</v>
       </c>
-      <c r="E509">
+      <c r="E509" s="2">
         <f t="shared" si="6"/>
         <v>0.73746312684365778</v>
       </c>
@@ -16921,7 +17113,7 @@
       <c r="D510" s="2">
         <v>58</v>
       </c>
-      <c r="E510">
+      <c r="E510" s="2">
         <f t="shared" si="6"/>
         <v>2.7358490566037736</v>
       </c>
@@ -16939,7 +17131,7 @@
       <c r="D511" s="2">
         <v>45</v>
       </c>
-      <c r="E511">
+      <c r="E511" s="2">
         <f t="shared" si="6"/>
         <v>7.7854671280276815</v>
       </c>
@@ -16957,7 +17149,7 @@
       <c r="D512" s="2">
         <v>42</v>
       </c>
-      <c r="E512">
+      <c r="E512" s="2">
         <f t="shared" ref="E512:E575" si="7">D512/C512*100</f>
         <v>9.375</v>
       </c>
@@ -16975,7 +17167,7 @@
       <c r="D513" s="2">
         <v>46</v>
       </c>
-      <c r="E513">
+      <c r="E513" s="2">
         <f t="shared" si="7"/>
         <v>6.6957787481804951</v>
       </c>
@@ -16993,7 +17185,7 @@
       <c r="D514" s="2">
         <v>42</v>
       </c>
-      <c r="E514">
+      <c r="E514" s="2">
         <f t="shared" si="7"/>
         <v>10.714285714285714</v>
       </c>
@@ -17011,7 +17203,7 @@
       <c r="D515" s="2">
         <v>318</v>
       </c>
-      <c r="E515">
+      <c r="E515" s="2">
         <f t="shared" si="7"/>
         <v>1.1777777777777778</v>
       </c>
@@ -17029,7 +17221,7 @@
       <c r="D516" s="2">
         <v>48</v>
       </c>
-      <c r="E516">
+      <c r="E516" s="2">
         <f t="shared" si="7"/>
         <v>4.1739130434782616</v>
       </c>
@@ -17047,7 +17239,7 @@
       <c r="D517" s="2">
         <v>43</v>
       </c>
-      <c r="E517">
+      <c r="E517" s="2">
         <f t="shared" si="7"/>
         <v>7.1192052980132452</v>
       </c>
@@ -17065,7 +17257,7 @@
       <c r="D518" s="2">
         <v>100</v>
       </c>
-      <c r="E518">
+      <c r="E518" s="2">
         <f t="shared" si="7"/>
         <v>4.2016806722689077</v>
       </c>
@@ -17083,7 +17275,7 @@
       <c r="D519" s="2">
         <v>80</v>
       </c>
-      <c r="E519">
+      <c r="E519" s="2">
         <f t="shared" si="7"/>
         <v>4.0201005025125625</v>
       </c>
@@ -17101,7 +17293,7 @@
       <c r="D520" s="2">
         <v>64</v>
       </c>
-      <c r="E520">
+      <c r="E520" s="2">
         <f t="shared" si="7"/>
         <v>2.9223744292237441</v>
       </c>
@@ -17119,7 +17311,7 @@
       <c r="D521" s="2">
         <v>34</v>
       </c>
-      <c r="E521">
+      <c r="E521" s="2">
         <f t="shared" si="7"/>
         <v>4.2821158690176322</v>
       </c>
@@ -17137,7 +17329,7 @@
       <c r="D522" s="2">
         <v>42</v>
       </c>
-      <c r="E522">
+      <c r="E522" s="2">
         <f t="shared" si="7"/>
         <v>11.830985915492958</v>
       </c>
@@ -17155,7 +17347,7 @@
       <c r="D523" s="2">
         <v>37</v>
       </c>
-      <c r="E523">
+      <c r="E523" s="2">
         <f t="shared" si="7"/>
         <v>4.92676431424767</v>
       </c>
@@ -17173,7 +17365,7 @@
       <c r="D524" s="2">
         <v>40</v>
       </c>
-      <c r="E524">
+      <c r="E524" s="2">
         <f t="shared" si="7"/>
         <v>4.7675804529201429</v>
       </c>
@@ -17191,7 +17383,7 @@
       <c r="D525" s="2">
         <v>38</v>
       </c>
-      <c r="E525">
+      <c r="E525" s="2">
         <f t="shared" si="7"/>
         <v>9.5959595959595951</v>
       </c>
@@ -17209,7 +17401,7 @@
       <c r="D526" s="2">
         <v>39</v>
       </c>
-      <c r="E526">
+      <c r="E526" s="2">
         <f t="shared" si="7"/>
         <v>8.0082135523613953</v>
       </c>
@@ -17227,7 +17419,7 @@
       <c r="D527" s="2">
         <v>43</v>
       </c>
-      <c r="E527">
+      <c r="E527" s="2">
         <f t="shared" si="7"/>
         <v>9.6629213483146064</v>
       </c>
@@ -17245,7 +17437,7 @@
       <c r="D528" s="2">
         <v>59</v>
       </c>
-      <c r="E528">
+      <c r="E528" s="2">
         <f t="shared" si="7"/>
         <v>11.368015414258188</v>
       </c>
@@ -17263,7 +17455,7 @@
       <c r="D529" s="2">
         <v>29</v>
       </c>
-      <c r="E529">
+      <c r="E529" s="2">
         <f t="shared" si="7"/>
         <v>6.1310782241014801</v>
       </c>
@@ -17281,7 +17473,7 @@
       <c r="D530" s="2">
         <v>108</v>
       </c>
-      <c r="E530">
+      <c r="E530" s="2">
         <f t="shared" si="7"/>
         <v>1.5358361774744027</v>
       </c>
@@ -17299,7 +17491,7 @@
       <c r="D531" s="2">
         <v>94</v>
       </c>
-      <c r="E531">
+      <c r="E531" s="2">
         <f t="shared" si="7"/>
         <v>2.5895316804407713</v>
       </c>
@@ -17317,7 +17509,7 @@
       <c r="D532" s="2">
         <v>19</v>
       </c>
-      <c r="E532">
+      <c r="E532" s="2">
         <f t="shared" si="7"/>
         <v>5.0397877984084882</v>
       </c>
@@ -17335,7 +17527,7 @@
       <c r="D533" s="2">
         <v>81</v>
       </c>
-      <c r="E533">
+      <c r="E533" s="2">
         <f t="shared" si="7"/>
         <v>2.1605761536409709</v>
       </c>
@@ -17353,7 +17545,7 @@
       <c r="D534" s="2">
         <v>40</v>
       </c>
-      <c r="E534">
+      <c r="E534" s="2">
         <f t="shared" si="7"/>
         <v>0.1426889737095566</v>
       </c>
@@ -17371,7 +17563,7 @@
       <c r="D535" s="2">
         <v>74</v>
       </c>
-      <c r="E535">
+      <c r="E535" s="2">
         <f t="shared" si="7"/>
         <v>0.37626480907103266</v>
       </c>
@@ -17389,7 +17581,7 @@
       <c r="D536" s="2">
         <v>74</v>
       </c>
-      <c r="E536">
+      <c r="E536" s="2">
         <f t="shared" si="7"/>
         <v>2.0163487738419619</v>
       </c>
@@ -17407,7 +17599,7 @@
       <c r="D537" s="2">
         <v>40</v>
       </c>
-      <c r="E537">
+      <c r="E537" s="2">
         <f t="shared" si="7"/>
         <v>0.43883708173340652</v>
       </c>
@@ -17425,7 +17617,7 @@
       <c r="D538" s="2">
         <v>55</v>
       </c>
-      <c r="E538">
+      <c r="E538" s="2">
         <f t="shared" si="7"/>
         <v>2.0190895741556534</v>
       </c>
@@ -17443,7 +17635,7 @@
       <c r="D539" s="2">
         <v>39</v>
       </c>
-      <c r="E539">
+      <c r="E539" s="2">
         <f t="shared" si="7"/>
         <v>10.955056179775282</v>
       </c>
@@ -17461,7 +17653,7 @@
       <c r="D540" s="2">
         <v>42</v>
       </c>
-      <c r="E540">
+      <c r="E540" s="2">
         <f t="shared" si="7"/>
         <v>9.3959731543624159</v>
       </c>
@@ -17479,7 +17671,7 @@
       <c r="D541" s="2">
         <v>45</v>
       </c>
-      <c r="E541">
+      <c r="E541" s="2">
         <f t="shared" si="7"/>
         <v>9.7826086956521738</v>
       </c>
@@ -17497,7 +17689,7 @@
       <c r="D542" s="2">
         <v>41</v>
       </c>
-      <c r="E542">
+      <c r="E542" s="2">
         <f t="shared" si="7"/>
         <v>11.988304093567251</v>
       </c>
@@ -17515,7 +17707,7 @@
       <c r="D543" s="2">
         <v>43</v>
       </c>
-      <c r="E543">
+      <c r="E543" s="2">
         <f t="shared" si="7"/>
         <v>16.929133858267718</v>
       </c>
@@ -17533,7 +17725,7 @@
       <c r="D544" s="2">
         <v>39</v>
       </c>
-      <c r="E544">
+      <c r="E544" s="2">
         <f t="shared" si="7"/>
         <v>7.7227722772277225</v>
       </c>
@@ -17551,7 +17743,7 @@
       <c r="D545" s="2">
         <v>41</v>
       </c>
-      <c r="E545">
+      <c r="E545" s="2">
         <f t="shared" si="7"/>
         <v>10.962566844919785</v>
       </c>
@@ -17569,7 +17761,7 @@
       <c r="D546" s="2">
         <v>49</v>
       </c>
-      <c r="E546">
+      <c r="E546" s="2">
         <f t="shared" si="7"/>
         <v>6.5420560747663545</v>
       </c>
@@ -17587,7 +17779,7 @@
       <c r="D547" s="2">
         <v>39</v>
       </c>
-      <c r="E547">
+      <c r="E547" s="2">
         <f t="shared" si="7"/>
         <v>8.3155650319829419</v>
       </c>
@@ -17605,7 +17797,7 @@
       <c r="D548" s="2">
         <v>37</v>
       </c>
-      <c r="E548">
+      <c r="E548" s="2">
         <f t="shared" si="7"/>
         <v>53.623188405797109</v>
       </c>
@@ -17623,7 +17815,7 @@
       <c r="D549" s="2">
         <v>41</v>
       </c>
-      <c r="E549">
+      <c r="E549" s="2">
         <f t="shared" si="7"/>
         <v>8.7048832271762198</v>
       </c>
@@ -17641,7 +17833,7 @@
       <c r="D550" s="2">
         <v>40</v>
       </c>
-      <c r="E550">
+      <c r="E550" s="2">
         <f t="shared" si="7"/>
         <v>13.793103448275861</v>
       </c>
@@ -17659,7 +17851,7 @@
       <c r="D551" s="2">
         <v>52</v>
       </c>
-      <c r="E551">
+      <c r="E551" s="2">
         <f t="shared" si="7"/>
         <v>11.063829787234042</v>
       </c>
@@ -17677,7 +17869,7 @@
       <c r="D552" s="2">
         <v>49</v>
       </c>
-      <c r="E552">
+      <c r="E552" s="2">
         <f t="shared" si="7"/>
         <v>5.4505005561735267</v>
       </c>
@@ -17695,7 +17887,7 @@
       <c r="D553" s="2">
         <v>41</v>
       </c>
-      <c r="E553">
+      <c r="E553" s="2">
         <f t="shared" si="7"/>
         <v>15.355805243445692</v>
       </c>
@@ -17713,7 +17905,7 @@
       <c r="D554" s="2">
         <v>52</v>
       </c>
-      <c r="E554">
+      <c r="E554" s="2">
         <f t="shared" si="7"/>
         <v>14.092140921409213</v>
       </c>
@@ -17731,7 +17923,7 @@
       <c r="D555" s="2">
         <v>106</v>
       </c>
-      <c r="E555">
+      <c r="E555" s="2">
         <f t="shared" si="7"/>
         <v>4.0613026819923368</v>
       </c>
@@ -17749,7 +17941,7 @@
       <c r="D556" s="2">
         <v>65</v>
       </c>
-      <c r="E556">
+      <c r="E556" s="2">
         <f t="shared" si="7"/>
         <v>4.9618320610687023</v>
       </c>
@@ -17767,7 +17959,7 @@
       <c r="D557" s="2">
         <v>158</v>
       </c>
-      <c r="E557">
+      <c r="E557" s="2">
         <f t="shared" si="7"/>
         <v>0.71396294622684142</v>
       </c>
@@ -17785,7 +17977,7 @@
       <c r="D558" s="2">
         <v>76</v>
       </c>
-      <c r="E558">
+      <c r="E558" s="2">
         <f t="shared" si="7"/>
         <v>0.93251533742331283</v>
       </c>
@@ -17803,7 +17995,7 @@
       <c r="D559" s="2">
         <v>86</v>
       </c>
-      <c r="E559">
+      <c r="E559" s="2">
         <f t="shared" si="7"/>
         <v>0.24065368256100289</v>
       </c>
@@ -17821,7 +18013,7 @@
       <c r="D560" s="2">
         <v>55</v>
       </c>
-      <c r="E560">
+      <c r="E560" s="2">
         <f t="shared" si="7"/>
         <v>0.17499204581609928</v>
       </c>
@@ -17839,7 +18031,7 @@
       <c r="D561" s="2">
         <v>84</v>
       </c>
-      <c r="E561">
+      <c r="E561" s="2">
         <f t="shared" si="7"/>
         <v>0.16968668565541481</v>
       </c>
@@ -17857,7 +18049,7 @@
       <c r="D562" s="2">
         <v>204</v>
       </c>
-      <c r="E562">
+      <c r="E562" s="2">
         <f t="shared" si="7"/>
         <v>0.31458664240442891</v>
       </c>
@@ -17875,7 +18067,7 @@
       <c r="D563" s="2">
         <v>79</v>
       </c>
-      <c r="E563">
+      <c r="E563" s="2">
         <f t="shared" si="7"/>
         <v>1.9849246231155779</v>
       </c>
@@ -17893,7 +18085,7 @@
       <c r="D564" s="2">
         <v>52</v>
       </c>
-      <c r="E564">
+      <c r="E564" s="2">
         <f t="shared" si="7"/>
         <v>2.1487603305785123</v>
       </c>
@@ -17911,7 +18103,7 @@
       <c r="D565" s="2">
         <v>44</v>
       </c>
-      <c r="E565">
+      <c r="E565" s="2">
         <f t="shared" si="7"/>
         <v>13.924050632911392</v>
       </c>
@@ -17929,7 +18121,7 @@
       <c r="D566" s="2">
         <v>64</v>
       </c>
-      <c r="E566">
+      <c r="E566" s="2">
         <f t="shared" si="7"/>
         <v>0.1004016064257028</v>
       </c>
@@ -17947,7 +18139,7 @@
       <c r="D567" s="2">
         <v>37</v>
       </c>
-      <c r="E567">
+      <c r="E567" s="2">
         <f t="shared" si="7"/>
         <v>0.10381885013608687</v>
       </c>
@@ -17965,7 +18157,7 @@
       <c r="D568" s="2">
         <v>93</v>
       </c>
-      <c r="E568">
+      <c r="E568" s="2">
         <f t="shared" si="7"/>
         <v>0.17085851812386324</v>
       </c>
@@ -17983,7 +18175,7 @@
       <c r="D569" s="2">
         <v>58</v>
       </c>
-      <c r="E569">
+      <c r="E569" s="2">
         <f t="shared" si="7"/>
         <v>0.11696142289620683</v>
       </c>
@@ -18001,7 +18193,7 @@
       <c r="D570" s="2">
         <v>88</v>
       </c>
-      <c r="E570">
+      <c r="E570" s="2">
         <f t="shared" si="7"/>
         <v>2.4043715846994536</v>
       </c>
@@ -18019,7 +18211,7 @@
       <c r="D571" s="2">
         <v>81</v>
       </c>
-      <c r="E571">
+      <c r="E571" s="2">
         <f t="shared" si="7"/>
         <v>3.6986301369863015</v>
       </c>
@@ -18037,7 +18229,7 @@
       <c r="D572" s="2">
         <v>51</v>
       </c>
-      <c r="E572">
+      <c r="E572" s="2">
         <f t="shared" si="7"/>
         <v>0.15788007305822988</v>
       </c>
@@ -18055,7 +18247,7 @@
       <c r="D573" s="2">
         <v>88</v>
       </c>
-      <c r="E573">
+      <c r="E573" s="2">
         <f t="shared" si="7"/>
         <v>0.25524262551846155</v>
       </c>
@@ -18073,7 +18265,7 @@
       <c r="D574" s="2">
         <v>90</v>
       </c>
-      <c r="E574">
+      <c r="E574" s="2">
         <f t="shared" si="7"/>
         <v>2.3255813953488373</v>
       </c>
@@ -18088,10 +18280,10 @@
       <c r="C575" s="3">
         <v>35949</v>
       </c>
-      <c r="D575">
+      <c r="D575" s="2">
         <v>110</v>
       </c>
-      <c r="E575">
+      <c r="E575" s="2">
         <f t="shared" si="7"/>
         <v>0.30598904002892985</v>
       </c>
@@ -18106,11 +18298,11 @@
       <c r="C576" s="3">
         <v>6173</v>
       </c>
-      <c r="D576">
+      <c r="D576" s="2">
         <v>44</v>
       </c>
-      <c r="E576">
-        <f t="shared" ref="E576:E580" si="8">D576/C576*100</f>
+      <c r="E576" s="2">
+        <f t="shared" ref="E576:E609" si="8">D576/C576*100</f>
         <v>0.71278146768184025</v>
       </c>
     </row>
@@ -18124,10 +18316,10 @@
       <c r="C577" s="3">
         <v>10026</v>
       </c>
-      <c r="D577">
+      <c r="D577" s="2">
         <v>85</v>
       </c>
-      <c r="E577">
+      <c r="E577" s="2">
         <f t="shared" si="8"/>
         <v>0.8477957310991423</v>
       </c>
@@ -18142,10 +18334,10 @@
       <c r="C578" s="3">
         <v>35416</v>
       </c>
-      <c r="D578">
+      <c r="D578" s="2">
         <v>63</v>
       </c>
-      <c r="E578">
+      <c r="E578" s="2">
         <f t="shared" si="8"/>
         <v>0.1778857013779083</v>
       </c>
@@ -18160,10 +18352,10 @@
       <c r="C579" s="3">
         <v>28057</v>
       </c>
-      <c r="D579">
+      <c r="D579" s="2">
         <v>75</v>
       </c>
-      <c r="E579">
+      <c r="E579" s="2">
         <f t="shared" si="8"/>
         <v>0.26731297002530563</v>
       </c>
@@ -18178,12 +18370,534 @@
       <c r="C580" s="3">
         <v>30600</v>
       </c>
-      <c r="D580">
+      <c r="D580" s="2">
         <v>421</v>
       </c>
-      <c r="E580">
+      <c r="E580" s="2">
         <f t="shared" si="8"/>
         <v>1.3758169934640523</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C581" s="3">
+        <v>402</v>
+      </c>
+      <c r="D581" s="2">
+        <v>14</v>
+      </c>
+      <c r="E581" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4825870646766171</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C582" s="3">
+        <v>1150</v>
+      </c>
+      <c r="D582" s="2">
+        <v>16</v>
+      </c>
+      <c r="E582" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3913043478260869</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C583" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D583" s="2">
+        <v>37</v>
+      </c>
+      <c r="E583" s="2">
+        <f t="shared" si="8"/>
+        <v>1.8235584031542633</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C584" s="3">
+        <v>1660</v>
+      </c>
+      <c r="D584" s="2">
+        <v>25</v>
+      </c>
+      <c r="E584" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5060240963855422</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C585" s="3">
+        <v>1780</v>
+      </c>
+      <c r="D585" s="2">
+        <v>48</v>
+      </c>
+      <c r="E585" s="2">
+        <f t="shared" si="8"/>
+        <v>2.696629213483146</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C586" s="3">
+        <v>1160</v>
+      </c>
+      <c r="D586" s="2">
+        <v>14</v>
+      </c>
+      <c r="E586" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2068965517241379</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C587" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D587" s="2">
+        <v>7</v>
+      </c>
+      <c r="E587" s="2">
+        <f t="shared" si="8"/>
+        <v>0.34499753573188763</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C588" s="3">
+        <v>129</v>
+      </c>
+      <c r="D588" s="2">
+        <v>1</v>
+      </c>
+      <c r="E588" s="2">
+        <f t="shared" si="8"/>
+        <v>0.77519379844961245</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C589" s="3">
+        <v>306</v>
+      </c>
+      <c r="D589" s="2">
+        <v>6</v>
+      </c>
+      <c r="E589" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9607843137254901</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C590" s="3">
+        <v>413</v>
+      </c>
+      <c r="D590" s="2">
+        <v>9</v>
+      </c>
+      <c r="E590" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1791767554479415</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C591" s="3">
+        <v>259</v>
+      </c>
+      <c r="D591" s="2">
+        <v>10</v>
+      </c>
+      <c r="E591" s="2">
+        <f t="shared" si="8"/>
+        <v>3.8610038610038608</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C592" s="3">
+        <v>56</v>
+      </c>
+      <c r="D592" s="2">
+        <v>4</v>
+      </c>
+      <c r="E592" s="2">
+        <f t="shared" si="8"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C593" s="3">
+        <v>161</v>
+      </c>
+      <c r="D593" s="2">
+        <v>7</v>
+      </c>
+      <c r="E593" s="2">
+        <f t="shared" si="8"/>
+        <v>4.3478260869565215</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C594" s="3">
+        <v>272</v>
+      </c>
+      <c r="D594" s="2">
+        <v>13</v>
+      </c>
+      <c r="E594" s="2">
+        <f t="shared" si="8"/>
+        <v>4.7794117647058822</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C595" s="3">
+        <v>235</v>
+      </c>
+      <c r="D595" s="2">
+        <v>9</v>
+      </c>
+      <c r="E595" s="2">
+        <f t="shared" si="8"/>
+        <v>3.8297872340425529</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C596" s="3">
+        <v>375</v>
+      </c>
+      <c r="D596" s="2">
+        <v>13</v>
+      </c>
+      <c r="E596" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4666666666666663</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C597" s="3">
+        <v>349</v>
+      </c>
+      <c r="D597" s="2">
+        <v>16</v>
+      </c>
+      <c r="E597" s="2">
+        <f t="shared" si="8"/>
+        <v>4.5845272206303722</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C598" s="3">
+        <v>220</v>
+      </c>
+      <c r="D598" s="2">
+        <v>4</v>
+      </c>
+      <c r="E598" s="2">
+        <f t="shared" si="8"/>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C599" s="3">
+        <v>190</v>
+      </c>
+      <c r="D599" s="2">
+        <v>5</v>
+      </c>
+      <c r="E599" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6315789473684208</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C600" s="3">
+        <v>223</v>
+      </c>
+      <c r="D600" s="2">
+        <v>6</v>
+      </c>
+      <c r="E600" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6905829596412558</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C601" s="3">
+        <v>351</v>
+      </c>
+      <c r="D601" s="2">
+        <v>6</v>
+      </c>
+      <c r="E601" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7094017094017095</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C602" s="3">
+        <v>546</v>
+      </c>
+      <c r="D602" s="2">
+        <v>8</v>
+      </c>
+      <c r="E602" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4652014652014651</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C603" s="3">
+        <v>276</v>
+      </c>
+      <c r="D603" s="2">
+        <v>7</v>
+      </c>
+      <c r="E603" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5362318840579712</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C604" s="3">
+        <v>356</v>
+      </c>
+      <c r="D604" s="2">
+        <v>7</v>
+      </c>
+      <c r="E604" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9662921348314606</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C605" s="3">
+        <v>42000</v>
+      </c>
+      <c r="D605" s="2">
+        <v>92</v>
+      </c>
+      <c r="E605" s="2">
+        <f t="shared" si="8"/>
+        <v>0.21904761904761905</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C606" s="3">
+        <v>309</v>
+      </c>
+      <c r="D606" s="2">
+        <v>12</v>
+      </c>
+      <c r="E606" s="2">
+        <f t="shared" si="8"/>
+        <v>3.8834951456310676</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A607" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C607" s="3">
+        <v>3640</v>
+      </c>
+      <c r="D607" s="2">
+        <v>85</v>
+      </c>
+      <c r="E607" s="2">
+        <f t="shared" si="8"/>
+        <v>2.3351648351648353</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A608" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C608" s="3">
+        <v>234</v>
+      </c>
+      <c r="D608" s="2">
+        <v>9</v>
+      </c>
+      <c r="E608" s="2">
+        <f t="shared" si="8"/>
+        <v>3.8461538461538463</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C609" s="3">
+        <v>23203</v>
+      </c>
+      <c r="D609" s="2">
+        <v>61</v>
+      </c>
+      <c r="E609" s="2">
+        <f t="shared" si="8"/>
+        <v>0.26289703917596863</v>
       </c>
     </row>
   </sheetData>
@@ -19406,7 +20120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
+    <sheetView topLeftCell="A101" workbookViewId="0">
       <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
@@ -22538,7 +23252,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="A2:E20"/>
+      <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22615,7 +23329,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E5" si="0">D4/C4*100</f>
+        <f t="shared" ref="E4:E12" si="0">D4/C4*100</f>
         <v>5.4140935623043736E-2</v>
       </c>
     </row>
@@ -22638,53 +23352,130 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7419354838709681E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C7" s="3">
+        <v>34420</v>
+      </c>
+      <c r="D7" s="2">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9726902963393386E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22391</v>
+      </c>
+      <c r="D8" s="2">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1071859229154571</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7060</v>
+      </c>
+      <c r="D9" s="2">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77903682719546741</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C10" s="3">
+        <v>28700</v>
+      </c>
+      <c r="D10" s="2">
+        <v>193</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67247386759581884</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C11" s="3">
+        <v>24138</v>
+      </c>
+      <c r="D11" s="2">
+        <v>81</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33557046979865773</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C12" s="3">
+        <v>31000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15161290322580645</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099007A1-5903-405C-B2A0-2F4B3EB09BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D6532-9A11-4A00-B6D3-10F8D0AA612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1078">
   <si>
     <t>Ссылка</t>
   </si>
@@ -3271,9 +3271,6 @@
   </si>
   <si>
     <t>https://vk.com/wall-145316206_132641</t>
-  </si>
-  <si>
-    <t>18.08 - 25.08</t>
   </si>
   <si>
     <t>https://ok.ru/group/70000036196257/topic/157293334588833</t>
@@ -3675,7 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -5882,7 +5879,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6055,7 +6052,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1074</v>
@@ -6102,7 +6099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
@@ -7865,7 +7862,7 @@
         <v>1066</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C98" s="3">
         <v>136</v>
@@ -7883,7 +7880,7 @@
         <v>1066</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C99" s="3">
         <v>1237</v>
@@ -7901,7 +7898,7 @@
         <v>1066</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C100" s="3">
         <v>919</v>
@@ -7927,7 +7924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
   <dimension ref="A1:E609"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A567" workbookViewId="0">
       <selection activeCell="H602" sqref="H602"/>
     </sheetView>
   </sheetViews>
@@ -20120,7 +20117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A128" workbookViewId="0">
       <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D6532-9A11-4A00-B6D3-10F8D0AA612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803E5F5-2DC4-45F1-8CA0-4CDFD76155B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="1164">
   <si>
     <t>Ссылка</t>
   </si>
@@ -3280,6 +3280,264 @@
   </si>
   <si>
     <t>https://vk.com/wall-204895491_25418</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_459164</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-67433083_208786</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-88454669_52771</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-88454669_52766</t>
+  </si>
+  <si>
+    <t>https://t.me/klgazhensovet/11054</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158085789406541</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-222134246_456239653</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4446</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10175</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5913</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17102</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6621</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7635</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10172</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10558</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5901</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11685</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6614</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7818</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2316</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6204</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12326</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3260</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6460</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6343</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8444</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5906</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6518</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5837</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8456</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6190</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4041</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4723</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6906</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5814</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13901</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25430</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157294460431777</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157294720675233</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25435</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13909</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21925</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10177</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5904</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17119</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11682</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6620</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7819</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2318</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6206</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12327</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3256</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6465</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6344</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7636</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8450</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5907</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6519</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5833</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8460</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6193</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4050</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4726</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6907</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5818</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158085431645517</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4441</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157449797104601</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25456</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157295943576993</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4450</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158086897882445</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/915</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3962</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48274</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48314</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48281</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4444</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158085703619917</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-73333960_1032561</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157296419499425</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25478</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13924</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13923</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25451</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157295816502689</t>
   </si>
 </sst>
 </file>
@@ -3670,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3912,7 +4170,7 @@
         <v>70</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E75" si="1">D13/C13*100</f>
+        <f t="shared" ref="E13:E76" si="1">D13/C13*100</f>
         <v>0.37936267071320184</v>
       </c>
     </row>
@@ -4889,16 +5147,16 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="11">
         <v>3590</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="10">
         <v>77</v>
       </c>
       <c r="E68">
@@ -4919,7 +5177,7 @@
       <c r="D69" s="2">
         <v>89</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <f t="shared" si="1"/>
         <v>0.24372877642677182</v>
       </c>
@@ -4937,7 +5195,7 @@
       <c r="D70" s="2">
         <v>104</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <f t="shared" si="1"/>
         <v>0.52509340603857424</v>
       </c>
@@ -4955,7 +5213,7 @@
       <c r="D71" s="2">
         <v>47</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <f t="shared" si="1"/>
         <v>2.2117647058823531</v>
       </c>
@@ -4973,7 +5231,7 @@
       <c r="D72" s="2">
         <v>82</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <f t="shared" si="1"/>
         <v>0.29368575624082233</v>
       </c>
@@ -4991,7 +5249,7 @@
       <c r="D73" s="2">
         <v>72</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <f t="shared" si="1"/>
         <v>0.15803683136153121</v>
       </c>
@@ -5009,7 +5267,7 @@
       <c r="D74" s="2">
         <v>80</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <f t="shared" si="1"/>
         <v>0.62044361718628827</v>
       </c>
@@ -5027,9 +5285,153 @@
       <c r="D75" s="2">
         <v>62</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <f t="shared" si="1"/>
         <v>0.10107432223146019</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1525</v>
+      </c>
+      <c r="D76" s="2">
+        <v>47</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="1"/>
+        <v>3.081967213114754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1714</v>
+      </c>
+      <c r="D77" s="2">
+        <v>20</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" ref="E77:E83" si="2">D77/C77*100</f>
+        <v>1.1668611435239207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C78" s="3">
+        <v>7894</v>
+      </c>
+      <c r="D78" s="2">
+        <v>53</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67139599695971619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2188</v>
+      </c>
+      <c r="D79" s="2">
+        <v>26</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1882998171846435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C80" s="3">
+        <v>362</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="2"/>
+        <v>12.154696132596685</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C81" s="3">
+        <v>58000</v>
+      </c>
+      <c r="D81" s="2">
+        <v>43</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="2"/>
+        <v>7.4137931034482754E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C82" s="3">
+        <v>15304</v>
+      </c>
+      <c r="D82" s="2">
+        <v>23</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15028750653423942</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C83" s="3">
+        <v>30275</v>
+      </c>
+      <c r="D83" s="2">
+        <v>52</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17175887696118911</v>
       </c>
     </row>
   </sheetData>
@@ -5511,10 +5913,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF44B6C-916C-4D23-9E6B-AE95ABFB7419}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="A16:E19"/>
+      <selection activeCell="E21" sqref="A17:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5573,7 +5975,7 @@
         <v>135</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E19" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E21" si="0">D3/C3*100</f>
         <v>0.45302013422818793</v>
       </c>
     </row>
@@ -5863,6 +6265,42 @@
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>0.45214521452145212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20200</v>
+      </c>
+      <c r="D20" s="2">
+        <v>87</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43069306930693074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C21" s="3">
+        <v>26149</v>
+      </c>
+      <c r="D21" s="2">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43213889632490721</v>
       </c>
     </row>
   </sheetData>
@@ -5879,7 +6317,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E12" sqref="A7:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5920,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E10" si="0">D2/C2*100</f>
+        <f t="shared" ref="E2:E12" si="0">D2/C2*100</f>
         <v>0.18780487804878049</v>
       </c>
     </row>
@@ -6055,32 +6493,54 @@
         <v>1066</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33441</v>
+      </c>
+      <c r="D10" s="2">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19736251906342517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C11" s="3">
+        <v>48000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="C10" s="3">
-        <v>694</v>
-      </c>
-      <c r="D10" s="2">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7377521613832854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3">
+        <v>1350</v>
+      </c>
+      <c r="D12" s="2">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.074074074074074</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -6097,10 +6557,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7313,7 +7773,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E100" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E107" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -7862,17 +8322,17 @@
         <v>1066</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1075</v>
+        <v>1157</v>
       </c>
       <c r="C98" s="3">
-        <v>136</v>
+        <v>1385</v>
       </c>
       <c r="D98" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" si="1"/>
-        <v>13.970588235294118</v>
+        <v>1.0108303249097472</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -7880,17 +8340,17 @@
         <v>1066</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1076</v>
+        <v>1158</v>
       </c>
       <c r="C99" s="3">
-        <v>1237</v>
+        <v>18000</v>
       </c>
       <c r="D99" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" si="1"/>
-        <v>2.7485852869846403</v>
+        <v>9.4444444444444442E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -7898,17 +8358,143 @@
         <v>1066</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C100" s="3">
+        <v>439</v>
+      </c>
+      <c r="D100" s="2">
+        <v>17</v>
+      </c>
+      <c r="E100" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8724373576309796</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2610</v>
+      </c>
+      <c r="D101" s="2">
+        <v>52</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="1"/>
+        <v>1.992337164750958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C102" s="3">
+        <v>2540</v>
+      </c>
+      <c r="D102" s="2">
+        <v>56</v>
+      </c>
+      <c r="E102" s="2">
+        <f t="shared" si="1"/>
+        <v>2.204724409448819</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5476</v>
+      </c>
+      <c r="D103" s="2">
+        <v>27</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4930606281957633</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C104" s="3">
+        <v>11000</v>
+      </c>
+      <c r="D104" s="2">
+        <v>20</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C105" s="3">
+        <v>62000</v>
+      </c>
+      <c r="D105" s="2">
+        <v>67</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10806451612903226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C106" s="3">
+        <v>72090</v>
+      </c>
+      <c r="D106" s="2">
+        <v>81</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11235955056179776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="C100" s="3">
-        <v>919</v>
-      </c>
-      <c r="D100" s="2">
-        <v>36</v>
-      </c>
-      <c r="E100" s="2">
-        <f t="shared" si="1"/>
-        <v>3.9173014145810661</v>
+      <c r="C107" s="3">
+        <v>29586</v>
+      </c>
+      <c r="D107" s="2">
+        <v>102</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34475765564794159</v>
       </c>
     </row>
   </sheetData>
@@ -7922,10 +8508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E609"/>
+  <dimension ref="A1:E643"/>
   <sheetViews>
-    <sheetView topLeftCell="A567" workbookViewId="0">
-      <selection activeCell="H602" sqref="H602"/>
+    <sheetView topLeftCell="A627" workbookViewId="0">
+      <selection activeCell="A643" sqref="A643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18299,7 +18885,7 @@
         <v>44</v>
       </c>
       <c r="E576" s="2">
-        <f t="shared" ref="E576:E609" si="8">D576/C576*100</f>
+        <f t="shared" ref="E576:E639" si="8">D576/C576*100</f>
         <v>0.71278146768184025</v>
       </c>
     </row>
@@ -18380,17 +18966,17 @@
         <v>1066</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1037</v>
+        <v>1086</v>
       </c>
       <c r="C581" s="3">
-        <v>402</v>
+        <v>520</v>
       </c>
       <c r="D581" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E581" s="2">
         <f t="shared" si="8"/>
-        <v>3.4825870646766171</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
@@ -18398,17 +18984,17 @@
         <v>1066</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1038</v>
+        <v>1087</v>
       </c>
       <c r="C582" s="3">
-        <v>1150</v>
+        <v>1570</v>
       </c>
       <c r="D582" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E582" s="2">
         <f t="shared" si="8"/>
-        <v>1.3913043478260869</v>
+        <v>1.7834394904458599</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
@@ -18416,17 +19002,17 @@
         <v>1066</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1039</v>
+        <v>1088</v>
       </c>
       <c r="C583" s="3">
-        <v>2029</v>
+        <v>1750</v>
       </c>
       <c r="D583" s="2">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E583" s="2">
         <f t="shared" si="8"/>
-        <v>1.8235584031542633</v>
+        <v>1.0285714285714285</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
@@ -18434,17 +19020,17 @@
         <v>1066</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1040</v>
+        <v>1089</v>
       </c>
       <c r="C584" s="3">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="D584" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E584" s="2">
         <f t="shared" si="8"/>
-        <v>1.5060240963855422</v>
+        <v>0.77380952380952384</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
@@ -18452,17 +19038,17 @@
         <v>1066</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1041</v>
+        <v>1090</v>
       </c>
       <c r="C585" s="3">
-        <v>1780</v>
+        <v>283</v>
       </c>
       <c r="D585" s="2">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E585" s="2">
         <f t="shared" si="8"/>
-        <v>2.696629213483146</v>
+        <v>2.1201413427561837</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
@@ -18470,17 +19056,17 @@
         <v>1066</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1042</v>
+        <v>1091</v>
       </c>
       <c r="C586" s="3">
-        <v>1160</v>
+        <v>529</v>
       </c>
       <c r="D586" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E586" s="2">
         <f t="shared" si="8"/>
-        <v>1.2068965517241379</v>
+        <v>0.94517958412098302</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
@@ -18488,17 +19074,17 @@
         <v>1066</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1043</v>
+        <v>1092</v>
       </c>
       <c r="C587" s="3">
-        <v>2029</v>
+        <v>1180</v>
       </c>
       <c r="D587" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E587" s="2">
         <f t="shared" si="8"/>
-        <v>0.34499753573188763</v>
+        <v>2.1186440677966099</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
@@ -18506,17 +19092,17 @@
         <v>1066</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1044</v>
+        <v>1093</v>
       </c>
       <c r="C588" s="3">
-        <v>129</v>
+        <v>2070</v>
       </c>
       <c r="D588" s="2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E588" s="2">
         <f t="shared" si="8"/>
-        <v>0.77519379844961245</v>
+        <v>2.0289855072463765</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
@@ -18524,17 +19110,17 @@
         <v>1066</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1045</v>
+        <v>1094</v>
       </c>
       <c r="C589" s="3">
-        <v>306</v>
+        <v>966</v>
       </c>
       <c r="D589" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E589" s="2">
         <f t="shared" si="8"/>
-        <v>1.9607843137254901</v>
+        <v>2.2774327122153206</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
@@ -18542,17 +19128,17 @@
         <v>1066</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1046</v>
+        <v>1095</v>
       </c>
       <c r="C590" s="3">
-        <v>413</v>
+        <v>2000</v>
       </c>
       <c r="D590" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E590" s="2">
         <f t="shared" si="8"/>
-        <v>2.1791767554479415</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
@@ -18560,17 +19146,17 @@
         <v>1066</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1047</v>
+        <v>1096</v>
       </c>
       <c r="C591" s="3">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="D591" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E591" s="2">
         <f t="shared" si="8"/>
-        <v>3.8610038610038608</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
@@ -18578,17 +19164,17 @@
         <v>1066</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1048</v>
+        <v>1097</v>
       </c>
       <c r="C592" s="3">
-        <v>56</v>
+        <v>344</v>
       </c>
       <c r="D592" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E592" s="2">
         <f t="shared" si="8"/>
-        <v>7.1428571428571423</v>
+        <v>9.3023255813953494</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -18596,17 +19182,17 @@
         <v>1066</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1049</v>
+        <v>1098</v>
       </c>
       <c r="C593" s="3">
-        <v>161</v>
+        <v>434</v>
       </c>
       <c r="D593" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E593" s="2">
         <f t="shared" si="8"/>
-        <v>4.3478260869565215</v>
+        <v>2.0737327188940093</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -18614,17 +19200,17 @@
         <v>1066</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1050</v>
+        <v>1099</v>
       </c>
       <c r="C594" s="3">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D594" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E594" s="2">
         <f t="shared" si="8"/>
-        <v>4.7794117647058822</v>
+        <v>2.1818181818181821</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
@@ -18632,17 +19218,17 @@
         <v>1066</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1051</v>
+        <v>1100</v>
       </c>
       <c r="C595" s="3">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="D595" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E595" s="2">
         <f t="shared" si="8"/>
-        <v>3.8297872340425529</v>
+        <v>47.222222222222221</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
@@ -18650,17 +19236,17 @@
         <v>1066</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1052</v>
+        <v>1101</v>
       </c>
       <c r="C596" s="3">
-        <v>375</v>
+        <v>239</v>
       </c>
       <c r="D596" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E596" s="2">
         <f t="shared" si="8"/>
-        <v>3.4666666666666663</v>
+        <v>3.7656903765690379</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
@@ -18668,17 +19254,17 @@
         <v>1066</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1053</v>
+        <v>1102</v>
       </c>
       <c r="C597" s="3">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="D597" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E597" s="2">
         <f t="shared" si="8"/>
-        <v>4.5845272206303722</v>
+        <v>3.3898305084745761</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
@@ -18686,17 +19272,17 @@
         <v>1066</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1054</v>
+        <v>1103</v>
       </c>
       <c r="C598" s="3">
-        <v>220</v>
+        <v>442</v>
       </c>
       <c r="D598" s="2">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E598" s="2">
         <f t="shared" si="8"/>
-        <v>1.8181818181818181</v>
+        <v>9.2760180995475121</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
@@ -18704,17 +19290,17 @@
         <v>1066</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="C599" s="3">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="D599" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E599" s="2">
         <f t="shared" si="8"/>
-        <v>2.6315789473684208</v>
+        <v>2.0618556701030926</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
@@ -18722,17 +19308,17 @@
         <v>1066</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1056</v>
+        <v>1105</v>
       </c>
       <c r="C600" s="3">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D600" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E600" s="2">
         <f t="shared" si="8"/>
-        <v>2.6905829596412558</v>
+        <v>4.6511627906976747</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
@@ -18740,17 +19326,17 @@
         <v>1066</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1057</v>
+        <v>1106</v>
       </c>
       <c r="C601" s="3">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="D601" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E601" s="2">
         <f t="shared" si="8"/>
-        <v>1.7094017094017095</v>
+        <v>4.329004329004329</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
@@ -18758,17 +19344,17 @@
         <v>1066</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1058</v>
+        <v>1107</v>
       </c>
       <c r="C602" s="3">
-        <v>546</v>
+        <v>428</v>
       </c>
       <c r="D602" s="2">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E602" s="2">
         <f t="shared" si="8"/>
-        <v>1.4652014652014651</v>
+        <v>7.2429906542056068</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
@@ -18776,17 +19362,17 @@
         <v>1066</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1059</v>
+        <v>1108</v>
       </c>
       <c r="C603" s="3">
-        <v>276</v>
+        <v>629</v>
       </c>
       <c r="D603" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E603" s="2">
         <f t="shared" si="8"/>
-        <v>2.5362318840579712</v>
+        <v>1.5898251192368837</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
@@ -18794,17 +19380,17 @@
         <v>1066</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1060</v>
+        <v>1109</v>
       </c>
       <c r="C604" s="3">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D604" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E604" s="2">
         <f t="shared" si="8"/>
-        <v>1.9662921348314606</v>
+        <v>2.4390243902439024</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
@@ -18812,17 +19398,17 @@
         <v>1066</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1061</v>
+        <v>1110</v>
       </c>
       <c r="C605" s="3">
-        <v>42000</v>
+        <v>411</v>
       </c>
       <c r="D605" s="2">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E605" s="2">
         <f t="shared" si="8"/>
-        <v>0.21904761904761905</v>
+        <v>1.4598540145985401</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
@@ -18830,17 +19416,17 @@
         <v>1066</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1062</v>
+        <v>1111</v>
       </c>
       <c r="C606" s="3">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="D606" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E606" s="2">
         <f t="shared" si="8"/>
-        <v>3.8834951456310676</v>
+        <v>2.481389578163772</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
@@ -18848,17 +19434,17 @@
         <v>1066</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1063</v>
+        <v>1112</v>
       </c>
       <c r="C607" s="3">
-        <v>3640</v>
+        <v>221</v>
       </c>
       <c r="D607" s="2">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E607" s="2">
         <f t="shared" si="8"/>
-        <v>2.3351648351648353</v>
+        <v>3.6199095022624439</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
@@ -18866,17 +19452,17 @@
         <v>1066</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1064</v>
+        <v>1113</v>
       </c>
       <c r="C608" s="3">
-        <v>234</v>
+        <v>3380</v>
       </c>
       <c r="D608" s="2">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E608" s="2">
         <f t="shared" si="8"/>
-        <v>3.8461538461538463</v>
+        <v>2.4260355029585798</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
@@ -18884,17 +19470,629 @@
         <v>1066</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1065</v>
+        <v>1114</v>
       </c>
       <c r="C609" s="3">
-        <v>23203</v>
+        <v>19138</v>
       </c>
       <c r="D609" s="2">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E609" s="2">
         <f t="shared" si="8"/>
-        <v>0.26289703917596863</v>
+        <v>0.2403594942000209</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C610" s="3">
+        <v>7800</v>
+      </c>
+      <c r="D610" s="2">
+        <v>31</v>
+      </c>
+      <c r="E610" s="2">
+        <f t="shared" si="8"/>
+        <v>0.39743589743589747</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C611" s="3">
+        <v>29000</v>
+      </c>
+      <c r="D611" s="2">
+        <v>79</v>
+      </c>
+      <c r="E611" s="2">
+        <f t="shared" si="8"/>
+        <v>0.27241379310344827</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C612" s="3">
+        <v>31800</v>
+      </c>
+      <c r="D612" s="2">
+        <v>54</v>
+      </c>
+      <c r="E612" s="2">
+        <f t="shared" si="8"/>
+        <v>0.16981132075471697</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C613" s="3">
+        <v>3190</v>
+      </c>
+      <c r="D613" s="2">
+        <v>77</v>
+      </c>
+      <c r="E613" s="2">
+        <f t="shared" si="8"/>
+        <v>2.4137931034482758</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C614" s="3">
+        <v>15135</v>
+      </c>
+      <c r="D614" s="2">
+        <v>67</v>
+      </c>
+      <c r="E614" s="2">
+        <f t="shared" si="8"/>
+        <v>0.44268252395110669</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A615" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C615" s="3">
+        <v>579</v>
+      </c>
+      <c r="D615" s="2">
+        <v>22</v>
+      </c>
+      <c r="E615" s="2">
+        <f t="shared" si="8"/>
+        <v>3.7996545768566494</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A616" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C616" s="3">
+        <v>1280</v>
+      </c>
+      <c r="D616" s="2">
+        <v>22</v>
+      </c>
+      <c r="E616" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7187500000000002</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A617" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C617" s="3">
+        <v>2500</v>
+      </c>
+      <c r="D617" s="2">
+        <v>41</v>
+      </c>
+      <c r="E617" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6400000000000001</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A618" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C618" s="3">
+        <v>1890</v>
+      </c>
+      <c r="D618" s="2">
+        <v>26</v>
+      </c>
+      <c r="E618" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3756613756613756</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A619" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C619" s="3">
+        <v>1880</v>
+      </c>
+      <c r="D619" s="2">
+        <v>49</v>
+      </c>
+      <c r="E619" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6063829787234041</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A620" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C620" s="3">
+        <v>1330</v>
+      </c>
+      <c r="D620" s="2">
+        <v>33</v>
+      </c>
+      <c r="E620" s="2">
+        <f t="shared" si="8"/>
+        <v>2.481203007518797</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A621" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C621" s="3">
+        <v>2310</v>
+      </c>
+      <c r="D621" s="2">
+        <v>10</v>
+      </c>
+      <c r="E621" s="2">
+        <f t="shared" si="8"/>
+        <v>0.4329004329004329</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A622" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C622" s="3">
+        <v>190</v>
+      </c>
+      <c r="D622" s="2">
+        <v>1</v>
+      </c>
+      <c r="E622" s="2">
+        <f t="shared" si="8"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A623" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C623" s="3">
+        <v>393</v>
+      </c>
+      <c r="D623" s="2">
+        <v>35</v>
+      </c>
+      <c r="E623" s="2">
+        <f t="shared" si="8"/>
+        <v>8.9058524173027998</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A624" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C624" s="3">
+        <v>572</v>
+      </c>
+      <c r="D624" s="2">
+        <v>10</v>
+      </c>
+      <c r="E624" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7482517482517483</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C625" s="3">
+        <v>394</v>
+      </c>
+      <c r="D625" s="2">
+        <v>43</v>
+      </c>
+      <c r="E625" s="2">
+        <f t="shared" si="8"/>
+        <v>10.913705583756345</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C626" s="3">
+        <v>88</v>
+      </c>
+      <c r="D626" s="2">
+        <v>33</v>
+      </c>
+      <c r="E626" s="2">
+        <f t="shared" si="8"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C627" s="3">
+        <v>247</v>
+      </c>
+      <c r="D627" s="2">
+        <v>7</v>
+      </c>
+      <c r="E627" s="2">
+        <f t="shared" si="8"/>
+        <v>2.834008097165992</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C628" s="3">
+        <v>326</v>
+      </c>
+      <c r="D628" s="2">
+        <v>14</v>
+      </c>
+      <c r="E628" s="2">
+        <f t="shared" si="8"/>
+        <v>4.294478527607362</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C629" s="3">
+        <v>341</v>
+      </c>
+      <c r="D629" s="2">
+        <v>9</v>
+      </c>
+      <c r="E629" s="2">
+        <f t="shared" si="8"/>
+        <v>2.6392961876832843</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C630" s="3">
+        <v>414</v>
+      </c>
+      <c r="D630" s="2">
+        <v>13</v>
+      </c>
+      <c r="E630" s="2">
+        <f t="shared" si="8"/>
+        <v>3.1400966183574881</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C631" s="3">
+        <v>484</v>
+      </c>
+      <c r="D631" s="2">
+        <v>43</v>
+      </c>
+      <c r="E631" s="2">
+        <f t="shared" si="8"/>
+        <v>8.884297520661157</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C632" s="3">
+        <v>336</v>
+      </c>
+      <c r="D632" s="2">
+        <v>5</v>
+      </c>
+      <c r="E632" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4880952380952379</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C633" s="3">
+        <v>247</v>
+      </c>
+      <c r="D633" s="2">
+        <v>7</v>
+      </c>
+      <c r="E633" s="2">
+        <f t="shared" si="8"/>
+        <v>2.834008097165992</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C634" s="3">
+        <v>302</v>
+      </c>
+      <c r="D634" s="2">
+        <v>7</v>
+      </c>
+      <c r="E634" s="2">
+        <f t="shared" si="8"/>
+        <v>2.3178807947019866</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A635" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C635" s="3">
+        <v>480</v>
+      </c>
+      <c r="D635" s="2">
+        <v>36</v>
+      </c>
+      <c r="E635" s="2">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A636" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C636" s="3">
+        <v>747</v>
+      </c>
+      <c r="D636" s="2">
+        <v>10</v>
+      </c>
+      <c r="E636" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3386880856760375</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C637" s="3">
+        <v>355</v>
+      </c>
+      <c r="D637" s="2">
+        <v>7</v>
+      </c>
+      <c r="E637" s="2">
+        <f t="shared" si="8"/>
+        <v>1.971830985915493</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A638" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C638" s="3">
+        <v>468</v>
+      </c>
+      <c r="D638" s="2">
+        <v>7</v>
+      </c>
+      <c r="E638" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4957264957264957</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A639" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C639" s="3">
+        <v>81000</v>
+      </c>
+      <c r="D639" s="2">
+        <v>145</v>
+      </c>
+      <c r="E639" s="2">
+        <f t="shared" si="8"/>
+        <v>0.17901234567901236</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A640" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C640" s="3">
+        <v>421</v>
+      </c>
+      <c r="D640" s="2">
+        <v>13</v>
+      </c>
+      <c r="E640" s="2">
+        <f t="shared" ref="E640:E643" si="9">D640/C640*100</f>
+        <v>3.0878859857482186</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A641" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C641" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D641" s="2">
+        <v>92</v>
+      </c>
+      <c r="E641" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3232323232323231</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A642" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C642" s="3">
+        <v>295</v>
+      </c>
+      <c r="D642" s="2">
+        <v>10</v>
+      </c>
+      <c r="E642" s="2">
+        <f t="shared" si="9"/>
+        <v>3.3898305084745761</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A643" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C643" s="3">
+        <v>47499</v>
+      </c>
+      <c r="D643" s="2">
+        <v>78</v>
+      </c>
+      <c r="E643" s="2">
+        <f t="shared" si="9"/>
+        <v>0.16421398345228322</v>
       </c>
     </row>
   </sheetData>
@@ -20115,10 +21313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22481,7 +23679,7 @@
         <v>7</v>
       </c>
       <c r="E131" s="2">
-        <f t="shared" ref="E131:E141" si="2">D131/C131*100</f>
+        <f t="shared" ref="E131:E167" si="2">D131/C131*100</f>
         <v>3.0303030303030303</v>
       </c>
     </row>
@@ -22663,6 +23861,474 @@
       <c r="E141" s="2">
         <f t="shared" si="2"/>
         <v>0.10884892264304974</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C142" s="3">
+        <v>386</v>
+      </c>
+      <c r="D142" s="2">
+        <v>29</v>
+      </c>
+      <c r="E142" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5129533678756477</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C143" s="3">
+        <v>1670</v>
+      </c>
+      <c r="D143" s="2">
+        <v>52</v>
+      </c>
+      <c r="E143" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1137724550898205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D144" s="2">
+        <v>57</v>
+      </c>
+      <c r="E144" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D145" s="2">
+        <v>40</v>
+      </c>
+      <c r="E145" s="2">
+        <f t="shared" si="2"/>
+        <v>3.9603960396039604</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C146" s="3">
+        <v>1690</v>
+      </c>
+      <c r="D146" s="2">
+        <v>37</v>
+      </c>
+      <c r="E146" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1893491124260356</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C147" s="3">
+        <v>146</v>
+      </c>
+      <c r="D147" s="2">
+        <v>30</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" si="2"/>
+        <v>20.547945205479451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C148" s="3">
+        <v>266</v>
+      </c>
+      <c r="D148" s="2">
+        <v>33</v>
+      </c>
+      <c r="E148" s="2">
+        <f t="shared" si="2"/>
+        <v>12.406015037593985</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C149" s="3">
+        <v>378</v>
+      </c>
+      <c r="D149" s="2">
+        <v>43</v>
+      </c>
+      <c r="E149" s="2">
+        <f t="shared" si="2"/>
+        <v>11.375661375661375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C150" s="3">
+        <v>249</v>
+      </c>
+      <c r="D150" s="2">
+        <v>33</v>
+      </c>
+      <c r="E150" s="2">
+        <f t="shared" si="2"/>
+        <v>13.253012048192772</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C151" s="3">
+        <v>65</v>
+      </c>
+      <c r="D151" s="2">
+        <v>32</v>
+      </c>
+      <c r="E151" s="2">
+        <f t="shared" si="2"/>
+        <v>49.230769230769234</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C152" s="3">
+        <v>190</v>
+      </c>
+      <c r="D152" s="2">
+        <v>38</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C153" s="3">
+        <v>214</v>
+      </c>
+      <c r="D153" s="2">
+        <v>38</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="2"/>
+        <v>17.75700934579439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C154" s="3">
+        <v>253</v>
+      </c>
+      <c r="D154" s="2">
+        <v>36</v>
+      </c>
+      <c r="E154" s="2">
+        <f t="shared" si="2"/>
+        <v>14.229249011857709</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C155" s="3">
+        <v>323</v>
+      </c>
+      <c r="D155" s="2">
+        <v>41</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" si="2"/>
+        <v>12.693498452012383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C156" s="3">
+        <v>246</v>
+      </c>
+      <c r="D156" s="2">
+        <v>31</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="2"/>
+        <v>12.601626016260163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C157" s="3">
+        <v>197</v>
+      </c>
+      <c r="D157" s="2">
+        <v>35</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" si="2"/>
+        <v>17.766497461928935</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C158" s="3">
+        <v>209</v>
+      </c>
+      <c r="D158" s="2">
+        <v>42</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="2"/>
+        <v>20.095693779904305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C159" s="3">
+        <v>347</v>
+      </c>
+      <c r="D159" s="2">
+        <v>46</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" si="2"/>
+        <v>13.256484149855908</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C160" s="3">
+        <v>564</v>
+      </c>
+      <c r="D160" s="2">
+        <v>46</v>
+      </c>
+      <c r="E160" s="2">
+        <f t="shared" si="2"/>
+        <v>8.1560283687943276</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C161" s="3">
+        <v>250</v>
+      </c>
+      <c r="D161" s="2">
+        <v>40</v>
+      </c>
+      <c r="E161" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C162" s="3">
+        <v>316</v>
+      </c>
+      <c r="D162" s="2">
+        <v>33</v>
+      </c>
+      <c r="E162" s="2">
+        <f t="shared" si="2"/>
+        <v>10.443037974683545</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C163" s="3">
+        <v>315</v>
+      </c>
+      <c r="D163" s="2">
+        <v>44</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" si="2"/>
+        <v>13.968253968253968</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C164" s="3">
+        <v>217</v>
+      </c>
+      <c r="D164" s="2">
+        <v>40</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" si="2"/>
+        <v>18.433179723502306</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C165" s="3">
+        <v>744</v>
+      </c>
+      <c r="D165" s="2">
+        <v>23</v>
+      </c>
+      <c r="E165" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0913978494623655</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C166" s="3">
+        <v>52086</v>
+      </c>
+      <c r="D166" s="2">
+        <v>51</v>
+      </c>
+      <c r="E166" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7914986752678249E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C167" s="3">
+        <v>474</v>
+      </c>
+      <c r="D167" s="2">
+        <v>26</v>
+      </c>
+      <c r="E167" s="2">
+        <f t="shared" si="2"/>
+        <v>5.485232067510549</v>
       </c>
     </row>
   </sheetData>
@@ -23249,7 +24915,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23326,7 +24992,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E12" si="0">D4/C4*100</f>
+        <f t="shared" ref="E4:E19" si="0">D4/C4*100</f>
         <v>5.4140935623043736E-2</v>
       </c>
     </row>
@@ -23349,21 +25015,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>1066</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C6" s="3">
-        <v>31000</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10108</v>
+      </c>
+      <c r="D6" s="10">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>7.7419354838709681E-2</v>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.23743569449940641</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -23371,17 +25037,17 @@
         <v>1066</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1068</v>
+        <v>1147</v>
       </c>
       <c r="C7" s="3">
-        <v>34420</v>
+        <v>177</v>
       </c>
       <c r="D7" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>6.9726902963393386E-2</v>
+        <v>8.4745762711864394</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -23389,17 +25055,17 @@
         <v>1066</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1069</v>
+        <v>1148</v>
       </c>
       <c r="C8" s="3">
-        <v>22391</v>
+        <v>16536</v>
       </c>
       <c r="D8" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.1071859229154571</v>
+        <v>0.12094823415578133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -23407,17 +25073,17 @@
         <v>1066</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1070</v>
+        <v>1149</v>
       </c>
       <c r="C9" s="3">
-        <v>7060</v>
+        <v>393</v>
       </c>
       <c r="D9" s="2">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>0.77903682719546741</v>
+        <v>4.0712468193384224</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -23425,17 +25091,17 @@
         <v>1066</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1071</v>
+        <v>1150</v>
       </c>
       <c r="C10" s="3">
-        <v>28700</v>
+        <v>27100</v>
       </c>
       <c r="D10" s="2">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.67247386759581884</v>
+        <v>0.18450184501845018</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -23443,17 +25109,17 @@
         <v>1066</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1072</v>
+        <v>1151</v>
       </c>
       <c r="C11" s="3">
-        <v>24138</v>
+        <v>31966</v>
       </c>
       <c r="D11" s="2">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.33557046979865773</v>
+        <v>0.10323468685478321</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -23461,67 +25127,144 @@
         <v>1066</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C12" s="3">
+        <v>26528</v>
+      </c>
+      <c r="D12" s="2">
+        <v>170</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64083232810615198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C13" s="3">
+        <v>71000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0845070422535212E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C14" s="3">
+        <v>54747</v>
+      </c>
+      <c r="D14" s="2">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2011434416497712E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C15" s="3">
+        <v>52852</v>
+      </c>
+      <c r="D15" s="2">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4870203587376064E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7130</v>
+      </c>
+      <c r="D16" s="2">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84151472650771386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C17" s="3">
+        <v>30600</v>
+      </c>
+      <c r="D17" s="2">
+        <v>198</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C18" s="3">
+        <v>51940</v>
+      </c>
+      <c r="D18" s="2">
+        <v>122</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23488640739314595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="C12" s="3">
-        <v>31000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15161290322580645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="3">
+        <v>33200</v>
+      </c>
+      <c r="D19" s="2">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15060240963855423</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803E5F5-2DC4-45F1-8CA0-4CDFD76155B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D0AAE-78C0-4D1B-9EF1-FDF67C545A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="1211">
   <si>
     <t>Ссылка</t>
   </si>
@@ -3538,6 +3538,147 @@
   </si>
   <si>
     <t>https://ok.ru/group/70000036196257/topic/157295816502689</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157297659243937</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25496</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13935</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-78053332_691259</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25493</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157297539968417</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13934</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21951</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21924</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157451373769689</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25469</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157296183373217</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158088654902605</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4464</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2806311</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13939</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157298010975649</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25500</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157452673872857</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_21948</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5840</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5833</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7639</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6203</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6347</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6468</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5914</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6209</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12331</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3273</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7825</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6922</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6527</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8461</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4735</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4059</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8465</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2328</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5911</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17130</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11698</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10587</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-67433083_208803</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3970</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/919</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_459277</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-88454669_52782</t>
   </si>
 </sst>
 </file>
@@ -3928,10 +4069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5295,17 +5436,17 @@
         <v>1066</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1078</v>
+        <v>1164</v>
       </c>
       <c r="C76" s="3">
-        <v>1525</v>
+        <v>52000</v>
       </c>
       <c r="D76" s="2">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E76" s="2">
         <f t="shared" si="1"/>
-        <v>3.081967213114754</v>
+        <v>3.653846153846154E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -5313,17 +5454,17 @@
         <v>1066</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1079</v>
+        <v>1165</v>
       </c>
       <c r="C77" s="3">
-        <v>1714</v>
+        <v>9035</v>
       </c>
       <c r="D77" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" ref="E77:E83" si="2">D77/C77*100</f>
-        <v>1.1668611435239207</v>
+        <f t="shared" ref="E77:E90" si="2">D77/C77*100</f>
+        <v>0.77476480354178201</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -5331,17 +5472,17 @@
         <v>1066</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1080</v>
+        <v>1166</v>
       </c>
       <c r="C78" s="3">
-        <v>7894</v>
+        <v>3230</v>
       </c>
       <c r="D78" s="2">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="2"/>
-        <v>0.67139599695971619</v>
+        <v>2.1052631578947367</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -5349,17 +5490,17 @@
         <v>1066</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1081</v>
+        <v>1167</v>
       </c>
       <c r="C79" s="3">
-        <v>2188</v>
+        <v>4354</v>
       </c>
       <c r="D79" s="2">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2">
         <f t="shared" si="2"/>
-        <v>1.1882998171846435</v>
+        <v>1.8373909049150206</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -5367,17 +5508,17 @@
         <v>1066</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1082</v>
+        <v>1168</v>
       </c>
       <c r="C80" s="3">
-        <v>362</v>
+        <v>6820</v>
       </c>
       <c r="D80" s="2">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="2"/>
-        <v>12.154696132596685</v>
+        <v>1.5395894428152492</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -5385,17 +5526,17 @@
         <v>1066</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1083</v>
+        <v>1169</v>
       </c>
       <c r="C81" s="3">
-        <v>58000</v>
+        <v>107000</v>
       </c>
       <c r="D81" s="2">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E81" s="2">
         <f t="shared" si="2"/>
-        <v>7.4137931034482754E-2</v>
+        <v>3.0841121495327101E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -5403,17 +5544,17 @@
         <v>1066</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1084</v>
+        <v>1170</v>
       </c>
       <c r="C82" s="3">
-        <v>15304</v>
+        <v>3200</v>
       </c>
       <c r="D82" s="2">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="2"/>
-        <v>0.15028750653423942</v>
+        <v>2.96875</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -5421,17 +5562,143 @@
         <v>1066</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="C83" s="3">
-        <v>30275</v>
+        <v>2961</v>
       </c>
       <c r="D83" s="2">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" si="2"/>
-        <v>0.17175887696118911</v>
+        <v>3.4447821681864235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3133</v>
+      </c>
+      <c r="D84" s="2">
+        <v>63</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="2"/>
+        <v>2.010852218321098</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C85" s="3">
+        <v>19591</v>
+      </c>
+      <c r="D85" s="2">
+        <v>147</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="2"/>
+        <v>0.7503445459649839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C86" s="3">
+        <v>4052</v>
+      </c>
+      <c r="D86" s="2">
+        <v>70</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7275419545903257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C87" s="3">
+        <v>527</v>
+      </c>
+      <c r="D87" s="2">
+        <v>52</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8671726755218216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C88" s="3">
+        <v>97888</v>
+      </c>
+      <c r="D88" s="2">
+        <v>73</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="2"/>
+        <v>7.457502451781628E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C89" s="3">
+        <v>61823</v>
+      </c>
+      <c r="D89" s="2">
+        <v>86</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="2"/>
+        <v>0.13910680491079372</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C90" s="3">
+        <v>36260</v>
+      </c>
+      <c r="D90" s="2">
+        <v>96</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26475455046883617</v>
       </c>
     </row>
   </sheetData>
@@ -5916,7 +6183,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="A17:E21"/>
+      <selection activeCell="E21" sqref="B18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6275,14 +6542,14 @@
         <v>1153</v>
       </c>
       <c r="C20" s="3">
-        <v>20200</v>
+        <v>28400</v>
       </c>
       <c r="D20" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>0.43069306930693074</v>
+        <v>0.33098591549295775</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -6293,14 +6560,14 @@
         <v>1154</v>
       </c>
       <c r="C21" s="3">
-        <v>26149</v>
+        <v>30800</v>
       </c>
       <c r="D21" s="2">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0.43213889632490721</v>
+        <v>0.38961038961038963</v>
       </c>
     </row>
   </sheetData>
@@ -6317,7 +6584,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A7:E12"/>
+      <selection activeCell="E12" sqref="A9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6496,14 +6763,14 @@
         <v>1155</v>
       </c>
       <c r="C10" s="3">
-        <v>33441</v>
+        <v>40781</v>
       </c>
       <c r="D10" s="2">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.19736251906342517</v>
+        <v>0.29670679973517078</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -6514,14 +6781,14 @@
         <v>1156</v>
       </c>
       <c r="C11" s="3">
-        <v>48000</v>
+        <v>93857</v>
       </c>
       <c r="D11" s="2">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.22587553405712946</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6532,14 +6799,14 @@
         <v>1074</v>
       </c>
       <c r="C12" s="3">
-        <v>1350</v>
+        <v>1551</v>
       </c>
       <c r="D12" s="2">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>2.074074074074074</v>
+        <v>4.3842682140554476</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -6559,8 +6826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8325,14 +8592,14 @@
         <v>1157</v>
       </c>
       <c r="C98" s="3">
-        <v>1385</v>
+        <v>4780</v>
       </c>
       <c r="D98" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E98" s="2">
         <f t="shared" si="1"/>
-        <v>1.0108303249097472</v>
+        <v>0.39748953974895396</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -8343,14 +8610,14 @@
         <v>1158</v>
       </c>
       <c r="C99" s="3">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="D99" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" si="1"/>
-        <v>9.4444444444444442E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -8361,14 +8628,14 @@
         <v>1159</v>
       </c>
       <c r="C100" s="3">
-        <v>439</v>
+        <v>1144</v>
       </c>
       <c r="D100" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" si="1"/>
-        <v>3.8724373576309796</v>
+        <v>3.6713286713286712</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -8379,14 +8646,14 @@
         <v>1160</v>
       </c>
       <c r="C101" s="3">
-        <v>2610</v>
+        <v>3440</v>
       </c>
       <c r="D101" s="2">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E101" s="2">
         <f t="shared" si="1"/>
-        <v>1.992337164750958</v>
+        <v>1.7732558139534882</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -8397,14 +8664,14 @@
         <v>1161</v>
       </c>
       <c r="C102" s="3">
-        <v>2540</v>
+        <v>3390</v>
       </c>
       <c r="D102" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E102" s="2">
         <f t="shared" si="1"/>
-        <v>2.204724409448819</v>
+        <v>1.6814159292035398</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -8415,14 +8682,14 @@
         <v>1162</v>
       </c>
       <c r="C103" s="3">
-        <v>5476</v>
+        <v>7707</v>
       </c>
       <c r="D103" s="2">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E103" s="2">
         <f t="shared" si="1"/>
-        <v>0.4930606281957633</v>
+        <v>1.0380173867912288</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -8433,14 +8700,14 @@
         <v>1163</v>
       </c>
       <c r="C104" s="3">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="D104" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E104" s="2">
         <f t="shared" si="1"/>
-        <v>0.18181818181818182</v>
+        <v>0.19333333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -8451,14 +8718,14 @@
         <v>1075</v>
       </c>
       <c r="C105" s="3">
-        <v>62000</v>
+        <v>71610</v>
       </c>
       <c r="D105" s="2">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2">
         <f t="shared" si="1"/>
-        <v>0.10806451612903226</v>
+        <v>0.16338500209467952</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -8469,14 +8736,14 @@
         <v>1076</v>
       </c>
       <c r="C106" s="3">
-        <v>72090</v>
+        <v>79624</v>
       </c>
       <c r="D106" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E106" s="2">
         <f t="shared" si="1"/>
-        <v>0.11235955056179776</v>
+        <v>0.10423992766000201</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -8487,14 +8754,14 @@
         <v>1077</v>
       </c>
       <c r="C107" s="3">
-        <v>29586</v>
+        <v>33201</v>
       </c>
       <c r="D107" s="2">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2">
         <f t="shared" si="1"/>
-        <v>0.34475765564794159</v>
+        <v>0.4397457907894341</v>
       </c>
     </row>
   </sheetData>
@@ -8508,10 +8775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E643"/>
+  <dimension ref="A1:E678"/>
   <sheetViews>
-    <sheetView topLeftCell="A627" workbookViewId="0">
-      <selection activeCell="A643" sqref="A643"/>
+    <sheetView topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="F688" sqref="F688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18966,17 +19233,17 @@
         <v>1066</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1086</v>
+        <v>1171</v>
       </c>
       <c r="C581" s="3">
-        <v>520</v>
+        <v>20051</v>
       </c>
       <c r="D581" s="2">
-        <v>4</v>
-      </c>
-      <c r="E581" s="2">
+        <v>199</v>
+      </c>
+      <c r="E581">
         <f t="shared" si="8"/>
-        <v>0.76923076923076927</v>
+        <v>0.99246920353099599</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.3">
@@ -18984,17 +19251,17 @@
         <v>1066</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1087</v>
+        <v>1172</v>
       </c>
       <c r="C582" s="3">
-        <v>1570</v>
+        <v>49805</v>
       </c>
       <c r="D582" s="2">
-        <v>28</v>
-      </c>
-      <c r="E582" s="2">
+        <v>65</v>
+      </c>
+      <c r="E582">
         <f t="shared" si="8"/>
-        <v>1.7834394904458599</v>
+        <v>0.13050898504166247</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.3">
@@ -19002,17 +19269,17 @@
         <v>1066</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1088</v>
+        <v>1173</v>
       </c>
       <c r="C583" s="3">
-        <v>1750</v>
+        <v>43000</v>
       </c>
       <c r="D583" s="2">
-        <v>18</v>
-      </c>
-      <c r="E583" s="2">
+        <v>17</v>
+      </c>
+      <c r="E583">
         <f t="shared" si="8"/>
-        <v>1.0285714285714285</v>
+        <v>3.9534883720930232E-2</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.3">
@@ -19020,17 +19287,17 @@
         <v>1066</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1089</v>
+        <v>1174</v>
       </c>
       <c r="C584" s="3">
-        <v>1680</v>
+        <v>29486</v>
       </c>
       <c r="D584" s="2">
-        <v>13</v>
-      </c>
-      <c r="E584" s="2">
+        <v>71</v>
+      </c>
+      <c r="E584">
         <f t="shared" si="8"/>
-        <v>0.77380952380952384</v>
+        <v>0.24079224038526759</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.3">
@@ -19038,17 +19305,17 @@
         <v>1066</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1090</v>
+        <v>1175</v>
       </c>
       <c r="C585" s="3">
-        <v>283</v>
+        <v>38000</v>
       </c>
       <c r="D585" s="2">
-        <v>6</v>
-      </c>
-      <c r="E585" s="2">
+        <v>24</v>
+      </c>
+      <c r="E585">
         <f t="shared" si="8"/>
-        <v>2.1201413427561837</v>
+        <v>6.3157894736842107E-2</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.3">
@@ -19056,17 +19323,17 @@
         <v>1066</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1091</v>
+        <v>1176</v>
       </c>
       <c r="C586" s="3">
-        <v>529</v>
+        <v>56000</v>
       </c>
       <c r="D586" s="2">
-        <v>5</v>
-      </c>
-      <c r="E586" s="2">
+        <v>18</v>
+      </c>
+      <c r="E586">
         <f t="shared" si="8"/>
-        <v>0.94517958412098302</v>
+        <v>3.214285714285714E-2</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.3">
@@ -19074,17 +19341,17 @@
         <v>1066</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1092</v>
+        <v>1177</v>
       </c>
       <c r="C587" s="3">
-        <v>1180</v>
+        <v>15920</v>
       </c>
       <c r="D587" s="2">
-        <v>25</v>
-      </c>
-      <c r="E587" s="2">
+        <v>18</v>
+      </c>
+      <c r="E587">
         <f t="shared" si="8"/>
-        <v>2.1186440677966099</v>
+        <v>0.11306532663316582</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.3">
@@ -19092,17 +19359,17 @@
         <v>1066</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1093</v>
+        <v>1178</v>
       </c>
       <c r="C588" s="3">
-        <v>2070</v>
+        <v>10179</v>
       </c>
       <c r="D588" s="2">
-        <v>42</v>
-      </c>
-      <c r="E588" s="2">
+        <v>136</v>
+      </c>
+      <c r="E588">
         <f t="shared" si="8"/>
-        <v>2.0289855072463765</v>
+        <v>1.3360840947047843</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.3">
@@ -19110,17 +19377,17 @@
         <v>1066</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1094</v>
+        <v>1179</v>
       </c>
       <c r="C589" s="3">
-        <v>966</v>
+        <v>3530</v>
       </c>
       <c r="D589" s="2">
-        <v>22</v>
-      </c>
-      <c r="E589" s="2">
+        <v>99</v>
+      </c>
+      <c r="E589">
         <f t="shared" si="8"/>
-        <v>2.2774327122153206</v>
+        <v>2.8045325779036827</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.3">
@@ -19128,17 +19395,17 @@
         <v>1066</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1095</v>
+        <v>1180</v>
       </c>
       <c r="C590" s="3">
-        <v>2000</v>
+        <v>102000</v>
       </c>
       <c r="D590" s="2">
-        <v>14</v>
-      </c>
-      <c r="E590" s="2">
+        <v>234</v>
+      </c>
+      <c r="E590">
         <f t="shared" si="8"/>
-        <v>0.70000000000000007</v>
+        <v>0.22941176470588237</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.3">
@@ -19146,17 +19413,17 @@
         <v>1066</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1096</v>
+        <v>1181</v>
       </c>
       <c r="C591" s="3">
-        <v>170</v>
+        <v>46174</v>
       </c>
       <c r="D591" s="2">
-        <v>1</v>
-      </c>
-      <c r="E591" s="2">
+        <v>134</v>
+      </c>
+      <c r="E591">
         <f t="shared" si="8"/>
-        <v>0.58823529411764708</v>
+        <v>0.29020660978039592</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.3">
@@ -19164,17 +19431,17 @@
         <v>1066</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1097</v>
+        <v>1182</v>
       </c>
       <c r="C592" s="3">
-        <v>344</v>
+        <v>48000</v>
       </c>
       <c r="D592" s="2">
-        <v>32</v>
-      </c>
-      <c r="E592" s="2">
+        <v>189</v>
+      </c>
+      <c r="E592">
         <f t="shared" si="8"/>
-        <v>9.3023255813953494</v>
+        <v>0.39374999999999999</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.3">
@@ -19182,17 +19449,17 @@
         <v>1066</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1098</v>
+        <v>1183</v>
       </c>
       <c r="C593" s="3">
-        <v>434</v>
+        <v>16920</v>
       </c>
       <c r="D593" s="2">
-        <v>9</v>
-      </c>
-      <c r="E593" s="2">
+        <v>83</v>
+      </c>
+      <c r="E593">
         <f t="shared" si="8"/>
-        <v>2.0737327188940093</v>
+        <v>0.49054373522458627</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.3">
@@ -19200,17 +19467,17 @@
         <v>1066</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1099</v>
+        <v>1184</v>
       </c>
       <c r="C594" s="3">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D594" s="2">
-        <v>6</v>
-      </c>
-      <c r="E594" s="2">
+        <v>7</v>
+      </c>
+      <c r="E594">
         <f t="shared" si="8"/>
-        <v>2.1818181818181821</v>
+        <v>2.6119402985074625</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.3">
@@ -19218,17 +19485,17 @@
         <v>1066</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1100</v>
+        <v>1185</v>
       </c>
       <c r="C595" s="3">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="D595" s="2">
-        <v>34</v>
-      </c>
-      <c r="E595" s="2">
+        <v>7</v>
+      </c>
+      <c r="E595">
         <f t="shared" si="8"/>
-        <v>47.222222222222221</v>
+        <v>3.0303030303030303</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.3">
@@ -19236,17 +19503,17 @@
         <v>1066</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1101</v>
+        <v>1186</v>
       </c>
       <c r="C596" s="3">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="D596" s="2">
-        <v>9</v>
-      </c>
-      <c r="E596" s="2">
+        <v>12</v>
+      </c>
+      <c r="E596">
         <f t="shared" si="8"/>
-        <v>3.7656903765690379</v>
+        <v>3.2876712328767121</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.3">
@@ -19254,17 +19521,17 @@
         <v>1066</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1102</v>
+        <v>1187</v>
       </c>
       <c r="C597" s="3">
-        <v>236</v>
+        <v>699</v>
       </c>
       <c r="D597" s="2">
-        <v>8</v>
-      </c>
-      <c r="E597" s="2">
+        <v>14</v>
+      </c>
+      <c r="E597">
         <f t="shared" si="8"/>
-        <v>3.3898305084745761</v>
+        <v>2.0028612303290414</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.3">
@@ -19272,17 +19539,17 @@
         <v>1066</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1103</v>
+        <v>1188</v>
       </c>
       <c r="C598" s="3">
-        <v>442</v>
+        <v>333</v>
       </c>
       <c r="D598" s="2">
-        <v>41</v>
-      </c>
-      <c r="E598" s="2">
+        <v>7</v>
+      </c>
+      <c r="E598">
         <f t="shared" si="8"/>
-        <v>9.2760180995475121</v>
+        <v>2.1021021021021022</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.3">
@@ -19290,17 +19557,17 @@
         <v>1066</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1104</v>
+        <v>1189</v>
       </c>
       <c r="C599" s="3">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="D599" s="2">
-        <v>6</v>
-      </c>
-      <c r="E599" s="2">
+        <v>2</v>
+      </c>
+      <c r="E599">
         <f t="shared" si="8"/>
-        <v>2.0618556701030926</v>
+        <v>0.77821011673151752</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.3">
@@ -19308,17 +19575,17 @@
         <v>1066</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1105</v>
+        <v>1190</v>
       </c>
       <c r="C600" s="3">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="D600" s="2">
-        <v>10</v>
-      </c>
-      <c r="E600" s="2">
+        <v>11</v>
+      </c>
+      <c r="E600">
         <f t="shared" si="8"/>
-        <v>4.6511627906976747</v>
+        <v>3.5830618892508146</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.3">
@@ -19326,17 +19593,17 @@
         <v>1066</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1106</v>
+        <v>1191</v>
       </c>
       <c r="C601" s="3">
-        <v>231</v>
+        <v>574</v>
       </c>
       <c r="D601" s="2">
-        <v>10</v>
-      </c>
-      <c r="E601" s="2">
+        <v>12</v>
+      </c>
+      <c r="E601">
         <f t="shared" si="8"/>
-        <v>4.329004329004329</v>
+        <v>2.0905923344947737</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.3">
@@ -19344,17 +19611,17 @@
         <v>1066</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1107</v>
+        <v>1192</v>
       </c>
       <c r="C602" s="3">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="D602" s="2">
-        <v>31</v>
-      </c>
-      <c r="E602" s="2">
+        <v>10</v>
+      </c>
+      <c r="E602">
         <f t="shared" si="8"/>
-        <v>7.2429906542056068</v>
+        <v>2.5906735751295336</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.3">
@@ -19362,17 +19629,17 @@
         <v>1066</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1108</v>
+        <v>1193</v>
       </c>
       <c r="C603" s="3">
-        <v>629</v>
+        <v>71</v>
       </c>
       <c r="D603" s="2">
-        <v>10</v>
-      </c>
-      <c r="E603" s="2">
+        <v>6</v>
+      </c>
+      <c r="E603">
         <f t="shared" si="8"/>
-        <v>1.5898251192368837</v>
+        <v>8.4507042253521121</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.3">
@@ -19380,17 +19647,17 @@
         <v>1066</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1109</v>
+        <v>1194</v>
       </c>
       <c r="C604" s="3">
-        <v>328</v>
+        <v>182</v>
       </c>
       <c r="D604" s="2">
-        <v>8</v>
-      </c>
-      <c r="E604" s="2">
+        <v>5</v>
+      </c>
+      <c r="E604">
         <f t="shared" si="8"/>
-        <v>2.4390243902439024</v>
+        <v>2.7472527472527473</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.3">
@@ -19398,35 +19665,35 @@
         <v>1066</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1110</v>
+        <v>1195</v>
       </c>
       <c r="C605" s="3">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D605" s="2">
-        <v>6</v>
-      </c>
-      <c r="E605" s="2">
+        <v>8</v>
+      </c>
+      <c r="E605">
         <f t="shared" si="8"/>
-        <v>1.4598540145985401</v>
+        <v>1.8306636155606408</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A606" s="8" t="s">
+      <c r="A606" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="B606" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C606" s="3">
-        <v>403</v>
-      </c>
-      <c r="D606" s="2">
-        <v>10</v>
-      </c>
-      <c r="E606" s="2">
+      <c r="B606" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C606" s="11">
+        <v>276</v>
+      </c>
+      <c r="D606" s="10">
+        <v>5</v>
+      </c>
+      <c r="E606">
         <f t="shared" si="8"/>
-        <v>2.481389578163772</v>
+        <v>1.8115942028985508</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.3">
@@ -19434,17 +19701,17 @@
         <v>1066</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1112</v>
+        <v>1197</v>
       </c>
       <c r="C607" s="3">
-        <v>221</v>
+        <v>498</v>
       </c>
       <c r="D607" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E607" s="2">
         <f t="shared" si="8"/>
-        <v>3.6199095022624439</v>
+        <v>2.4096385542168677</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.3">
@@ -19452,17 +19719,17 @@
         <v>1066</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1113</v>
+        <v>1198</v>
       </c>
       <c r="C608" s="3">
-        <v>3380</v>
+        <v>463</v>
       </c>
       <c r="D608" s="2">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E608" s="2">
         <f t="shared" si="8"/>
-        <v>2.4260355029585798</v>
+        <v>2.3758099352051838</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.3">
@@ -19470,17 +19737,17 @@
         <v>1066</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1114</v>
+        <v>1199</v>
       </c>
       <c r="C609" s="3">
-        <v>19138</v>
+        <v>386</v>
       </c>
       <c r="D609" s="2">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E609" s="2">
         <f t="shared" si="8"/>
-        <v>0.2403594942000209</v>
+        <v>2.0725388601036272</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.3">
@@ -19488,17 +19755,17 @@
         <v>1066</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1115</v>
+        <v>1200</v>
       </c>
       <c r="C610" s="3">
-        <v>7800</v>
+        <v>424</v>
       </c>
       <c r="D610" s="2">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E610" s="2">
         <f t="shared" si="8"/>
-        <v>0.39743589743589747</v>
+        <v>1.6509433962264151</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.3">
@@ -19506,17 +19773,17 @@
         <v>1066</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1116</v>
+        <v>1201</v>
       </c>
       <c r="C611" s="3">
-        <v>29000</v>
+        <v>347</v>
       </c>
       <c r="D611" s="2">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="E611" s="2">
         <f t="shared" si="8"/>
-        <v>0.27241379310344827</v>
+        <v>1.4409221902017291</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.3">
@@ -19524,17 +19791,17 @@
         <v>1066</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1117</v>
+        <v>1202</v>
       </c>
       <c r="C612" s="3">
-        <v>31800</v>
+        <v>2330</v>
       </c>
       <c r="D612" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E612" s="2">
         <f t="shared" si="8"/>
-        <v>0.16981132075471697</v>
+        <v>1.5879828326180259</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.3">
@@ -19542,17 +19809,17 @@
         <v>1066</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1118</v>
+        <v>1203</v>
       </c>
       <c r="C613" s="3">
-        <v>3190</v>
+        <v>2029</v>
       </c>
       <c r="D613" s="2">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E613" s="2">
         <f t="shared" si="8"/>
-        <v>2.4137931034482758</v>
+        <v>2.4642681123706258</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.3">
@@ -19560,17 +19827,17 @@
         <v>1066</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1119</v>
+        <v>1204</v>
       </c>
       <c r="C614" s="3">
-        <v>15135</v>
+        <v>1330</v>
       </c>
       <c r="D614" s="2">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E614" s="2">
         <f t="shared" si="8"/>
-        <v>0.44268252395110669</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.3">
@@ -19578,17 +19845,17 @@
         <v>1066</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1037</v>
+        <v>1205</v>
       </c>
       <c r="C615" s="3">
-        <v>579</v>
+        <v>1220</v>
       </c>
       <c r="D615" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E615" s="2">
         <f t="shared" si="8"/>
-        <v>3.7996545768566494</v>
+        <v>1.1475409836065573</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.3">
@@ -19596,17 +19863,17 @@
         <v>1066</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1038</v>
+        <v>1086</v>
       </c>
       <c r="C616" s="3">
-        <v>1280</v>
+        <v>713</v>
       </c>
       <c r="D616" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E616" s="2">
         <f t="shared" si="8"/>
-        <v>1.7187500000000002</v>
+        <v>0.84151472650771386</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.3">
@@ -19614,17 +19881,17 @@
         <v>1066</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1039</v>
+        <v>1087</v>
       </c>
       <c r="C617" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D617" s="2">
-        <v>41</v>
-      </c>
-      <c r="E617" s="2">
+        <v>0</v>
+      </c>
+      <c r="E617" s="2" t="e">
         <f t="shared" si="8"/>
-        <v>1.6400000000000001</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.3">
@@ -19632,17 +19899,17 @@
         <v>1066</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1040</v>
+        <v>1088</v>
       </c>
       <c r="C618" s="3">
-        <v>1890</v>
+        <v>1940</v>
       </c>
       <c r="D618" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E618" s="2">
         <f t="shared" si="8"/>
-        <v>1.3756613756613756</v>
+        <v>1.0824742268041236</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.3">
@@ -19650,17 +19917,17 @@
         <v>1066</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1041</v>
+        <v>1089</v>
       </c>
       <c r="C619" s="3">
-        <v>1880</v>
+        <v>2310</v>
       </c>
       <c r="D619" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E619" s="2">
         <f t="shared" si="8"/>
-        <v>2.6063829787234041</v>
+        <v>0.60606060606060608</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.3">
@@ -19668,17 +19935,17 @@
         <v>1066</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1042</v>
+        <v>1090</v>
       </c>
       <c r="C620" s="3">
-        <v>1330</v>
+        <v>367</v>
       </c>
       <c r="D620" s="2">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E620" s="2">
         <f t="shared" si="8"/>
-        <v>2.481203007518797</v>
+        <v>1.6348773841961852</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.3">
@@ -19686,17 +19953,17 @@
         <v>1066</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1043</v>
+        <v>1091</v>
       </c>
       <c r="C621" s="3">
-        <v>2310</v>
+        <v>734</v>
       </c>
       <c r="D621" s="2">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E621" s="2">
         <f t="shared" si="8"/>
-        <v>0.4329004329004329</v>
+        <v>6.6757493188010901</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.3">
@@ -19704,17 +19971,17 @@
         <v>1066</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1044</v>
+        <v>1092</v>
       </c>
       <c r="C622" s="3">
-        <v>190</v>
+        <v>1390</v>
       </c>
       <c r="D622" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E622" s="2">
         <f t="shared" si="8"/>
-        <v>0.52631578947368418</v>
+        <v>4.3165467625899279</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.3">
@@ -19722,17 +19989,17 @@
         <v>1066</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1045</v>
+        <v>1093</v>
       </c>
       <c r="C623" s="3">
-        <v>393</v>
+        <v>2380</v>
       </c>
       <c r="D623" s="2">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="E623" s="2">
         <f t="shared" si="8"/>
-        <v>8.9058524173027998</v>
+        <v>3.6974789915966388</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.3">
@@ -19740,17 +20007,17 @@
         <v>1066</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1046</v>
+        <v>1094</v>
       </c>
       <c r="C624" s="3">
-        <v>572</v>
+        <v>1230</v>
       </c>
       <c r="D624" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E624" s="2">
         <f t="shared" si="8"/>
-        <v>1.7482517482517483</v>
+        <v>4.8780487804878048</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.3">
@@ -19758,17 +20025,17 @@
         <v>1066</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1047</v>
+        <v>1095</v>
       </c>
       <c r="C625" s="3">
-        <v>394</v>
+        <v>2360</v>
       </c>
       <c r="D625" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E625" s="2">
         <f t="shared" si="8"/>
-        <v>10.913705583756345</v>
+        <v>2.3305084745762712</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.3">
@@ -19776,17 +20043,17 @@
         <v>1066</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1048</v>
+        <v>1096</v>
       </c>
       <c r="C626" s="3">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="D626" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E626" s="2">
         <f t="shared" si="8"/>
-        <v>37.5</v>
+        <v>20.379146919431278</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.3">
@@ -19794,17 +20061,17 @@
         <v>1066</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1049</v>
+        <v>1097</v>
       </c>
       <c r="C627" s="3">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="D627" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E627" s="2">
         <f t="shared" si="8"/>
-        <v>2.834008097165992</v>
+        <v>12.051282051282051</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.3">
@@ -19812,17 +20079,17 @@
         <v>1066</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1050</v>
+        <v>1098</v>
       </c>
       <c r="C628" s="3">
-        <v>326</v>
+        <v>642</v>
       </c>
       <c r="D628" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E628" s="2">
         <f t="shared" si="8"/>
-        <v>4.294478527607362</v>
+        <v>7.4766355140186906</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.3">
@@ -19830,17 +20097,17 @@
         <v>1066</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1051</v>
+        <v>1099</v>
       </c>
       <c r="C629" s="3">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="D629" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E629" s="2">
         <f t="shared" si="8"/>
-        <v>2.6392961876832843</v>
+        <v>12.051282051282051</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.3">
@@ -19848,17 +20115,17 @@
         <v>1066</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1052</v>
+        <v>1100</v>
       </c>
       <c r="C630" s="3">
-        <v>414</v>
+        <v>89</v>
       </c>
       <c r="D630" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E630" s="2">
         <f t="shared" si="8"/>
-        <v>3.1400966183574881</v>
+        <v>51.68539325842697</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.3">
@@ -19866,17 +20133,17 @@
         <v>1066</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1053</v>
+        <v>1101</v>
       </c>
       <c r="C631" s="3">
-        <v>484</v>
+        <v>292</v>
       </c>
       <c r="D631" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E631" s="2">
         <f t="shared" si="8"/>
-        <v>8.884297520661157</v>
+        <v>17.123287671232877</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.3">
@@ -19884,17 +20151,17 @@
         <v>1066</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1054</v>
+        <v>1102</v>
       </c>
       <c r="C632" s="3">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D632" s="2">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E632" s="2">
         <f t="shared" si="8"/>
-        <v>1.4880952380952379</v>
+        <v>14.454277286135694</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.3">
@@ -19902,17 +20169,17 @@
         <v>1066</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1055</v>
+        <v>1103</v>
       </c>
       <c r="C633" s="3">
-        <v>247</v>
+        <v>529</v>
       </c>
       <c r="D633" s="2">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E633" s="2">
         <f t="shared" si="8"/>
-        <v>2.834008097165992</v>
+        <v>9.8298676748582228</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.3">
@@ -19920,17 +20187,17 @@
         <v>1066</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1056</v>
+        <v>1104</v>
       </c>
       <c r="C634" s="3">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="D634" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E634" s="2">
         <f t="shared" si="8"/>
-        <v>2.3178807947019866</v>
+        <v>12.885154061624648</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.3">
@@ -19938,17 +20205,17 @@
         <v>1066</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>1057</v>
+        <v>1105</v>
       </c>
       <c r="C635" s="3">
-        <v>480</v>
+        <v>262</v>
       </c>
       <c r="D635" s="2">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E635" s="2">
         <f t="shared" si="8"/>
-        <v>7.5</v>
+        <v>18.320610687022899</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.3">
@@ -19956,17 +20223,17 @@
         <v>1066</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1058</v>
+        <v>1106</v>
       </c>
       <c r="C636" s="3">
-        <v>747</v>
+        <v>317</v>
       </c>
       <c r="D636" s="2">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E636" s="2">
         <f t="shared" si="8"/>
-        <v>1.3386880856760375</v>
+        <v>14.826498422712934</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.3">
@@ -19974,17 +20241,17 @@
         <v>1066</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1059</v>
+        <v>1107</v>
       </c>
       <c r="C637" s="3">
-        <v>355</v>
+        <v>487</v>
       </c>
       <c r="D637" s="2">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E637" s="2">
         <f t="shared" si="8"/>
-        <v>1.971830985915493</v>
+        <v>8.8295687885010263</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.3">
@@ -19992,17 +20259,17 @@
         <v>1066</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1060</v>
+        <v>1108</v>
       </c>
       <c r="C638" s="3">
-        <v>468</v>
+        <v>764</v>
       </c>
       <c r="D638" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E638" s="2">
         <f t="shared" si="8"/>
-        <v>1.4957264957264957</v>
+        <v>6.1518324607329848</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.3">
@@ -20010,17 +20277,17 @@
         <v>1066</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1061</v>
+        <v>1109</v>
       </c>
       <c r="C639" s="3">
-        <v>81000</v>
+        <v>404</v>
       </c>
       <c r="D639" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="E639" s="2">
         <f t="shared" si="8"/>
-        <v>0.17901234567901236</v>
+        <v>11.138613861386139</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.3">
@@ -20028,17 +20295,17 @@
         <v>1066</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1062</v>
+        <v>1110</v>
       </c>
       <c r="C640" s="3">
-        <v>421</v>
+        <v>530</v>
       </c>
       <c r="D640" s="2">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E640" s="2">
-        <f t="shared" ref="E640:E643" si="9">D640/C640*100</f>
-        <v>3.0878859857482186</v>
+        <f t="shared" ref="E640:E678" si="9">D640/C640*100</f>
+        <v>8.1132075471698109</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.3">
@@ -20046,17 +20313,17 @@
         <v>1066</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1063</v>
+        <v>1111</v>
       </c>
       <c r="C641" s="3">
-        <v>3960</v>
+        <v>478</v>
       </c>
       <c r="D641" s="2">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E641" s="2">
         <f t="shared" si="9"/>
-        <v>2.3232323232323231</v>
+        <v>10.251046025104603</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.3">
@@ -20064,17 +20331,17 @@
         <v>1066</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1064</v>
+        <v>1112</v>
       </c>
       <c r="C642" s="3">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="D642" s="2">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E642" s="2">
         <f t="shared" si="9"/>
-        <v>3.3898305084745761</v>
+        <v>18.972332015810274</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.3">
@@ -20082,17 +20349,647 @@
         <v>1066</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1065</v>
+        <v>1113</v>
       </c>
       <c r="C643" s="3">
-        <v>47499</v>
+        <v>3850</v>
       </c>
       <c r="D643" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E643" s="2">
         <f t="shared" si="9"/>
-        <v>0.16421398345228322</v>
+        <v>2.2077922077922079</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A644" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C644" s="3">
+        <v>21202</v>
+      </c>
+      <c r="D644" s="2">
+        <v>96</v>
+      </c>
+      <c r="E644" s="2">
+        <f t="shared" si="9"/>
+        <v>0.452787472879917</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A645" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C645" s="3">
+        <v>8139</v>
+      </c>
+      <c r="D645" s="2">
+        <v>33</v>
+      </c>
+      <c r="E645" s="2">
+        <f t="shared" si="9"/>
+        <v>0.4054552156284556</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A646" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C646" s="3">
+        <v>42018</v>
+      </c>
+      <c r="D646" s="2">
+        <v>97</v>
+      </c>
+      <c r="E646" s="2">
+        <f t="shared" si="9"/>
+        <v>0.23085344376219713</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A647" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C647" s="3">
+        <v>36986</v>
+      </c>
+      <c r="D647" s="2">
+        <v>102</v>
+      </c>
+      <c r="E647" s="2">
+        <f t="shared" si="9"/>
+        <v>0.27578002487427677</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A648" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C648" s="3">
+        <v>3570</v>
+      </c>
+      <c r="D648" s="2">
+        <v>77</v>
+      </c>
+      <c r="E648" s="2">
+        <f t="shared" si="9"/>
+        <v>2.1568627450980391</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A649" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C649" s="3">
+        <v>22527</v>
+      </c>
+      <c r="D649" s="2">
+        <v>115</v>
+      </c>
+      <c r="E649" s="2">
+        <f t="shared" si="9"/>
+        <v>0.5104985128956363</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A650" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C650" s="3">
+        <v>656</v>
+      </c>
+      <c r="D650" s="2">
+        <v>53</v>
+      </c>
+      <c r="E650" s="2">
+        <f t="shared" si="9"/>
+        <v>8.0792682926829276</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A651" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C651" s="3">
+        <v>1380</v>
+      </c>
+      <c r="D651" s="2">
+        <v>54</v>
+      </c>
+      <c r="E651" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9130434782608701</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A652" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C652" s="3">
+        <v>2790</v>
+      </c>
+      <c r="D652" s="2">
+        <v>80</v>
+      </c>
+      <c r="E652" s="2">
+        <f t="shared" si="9"/>
+        <v>2.8673835125448028</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A653" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C653" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D653" s="2">
+        <v>68</v>
+      </c>
+      <c r="E653" s="2">
+        <f t="shared" si="9"/>
+        <v>3.3663366336633667</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A654" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C654" s="3">
+        <v>1980</v>
+      </c>
+      <c r="D654" s="2">
+        <v>87</v>
+      </c>
+      <c r="E654" s="2">
+        <f t="shared" si="9"/>
+        <v>4.3939393939393936</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A655" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C655" s="3">
+        <v>1470</v>
+      </c>
+      <c r="D655" s="2">
+        <v>56</v>
+      </c>
+      <c r="E655" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8095238095238098</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A656" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C656" s="3">
+        <v>2550</v>
+      </c>
+      <c r="D656" s="2">
+        <v>47</v>
+      </c>
+      <c r="E656" s="2">
+        <f t="shared" si="9"/>
+        <v>1.8431372549019609</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A657" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C657" s="3">
+        <v>238</v>
+      </c>
+      <c r="D657" s="2">
+        <v>36</v>
+      </c>
+      <c r="E657" s="2">
+        <f t="shared" si="9"/>
+        <v>15.126050420168067</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A658" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C658" s="3">
+        <v>422</v>
+      </c>
+      <c r="D658" s="2">
+        <v>46</v>
+      </c>
+      <c r="E658" s="2">
+        <f t="shared" si="9"/>
+        <v>10.900473933649289</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A659" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C659" s="3">
+        <v>650</v>
+      </c>
+      <c r="D659" s="2">
+        <v>47</v>
+      </c>
+      <c r="E659" s="2">
+        <f t="shared" si="9"/>
+        <v>7.2307692307692308</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A660" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C660" s="3">
+        <v>460</v>
+      </c>
+      <c r="D660" s="2">
+        <v>50</v>
+      </c>
+      <c r="E660" s="2">
+        <f t="shared" si="9"/>
+        <v>10.869565217391305</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A661" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C661" s="3">
+        <v>96</v>
+      </c>
+      <c r="D661" s="2">
+        <v>43</v>
+      </c>
+      <c r="E661" s="2">
+        <f t="shared" si="9"/>
+        <v>44.791666666666671</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A662" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C662" s="3">
+        <v>329</v>
+      </c>
+      <c r="D662" s="2">
+        <v>44</v>
+      </c>
+      <c r="E662" s="2">
+        <f t="shared" si="9"/>
+        <v>13.373860182370819</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A663" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C663" s="3">
+        <v>361</v>
+      </c>
+      <c r="D663" s="2">
+        <v>53</v>
+      </c>
+      <c r="E663" s="2">
+        <f t="shared" si="9"/>
+        <v>14.681440443213297</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A664" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C664" s="3">
+        <v>388</v>
+      </c>
+      <c r="D664" s="2">
+        <v>49</v>
+      </c>
+      <c r="E664" s="2">
+        <f t="shared" si="9"/>
+        <v>12.628865979381443</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A665" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C665" s="3">
+        <v>454</v>
+      </c>
+      <c r="D665" s="2">
+        <v>50</v>
+      </c>
+      <c r="E665" s="2">
+        <f t="shared" si="9"/>
+        <v>11.013215859030836</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A666" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C666" s="3">
+        <v>638</v>
+      </c>
+      <c r="D666" s="2">
+        <v>55</v>
+      </c>
+      <c r="E666" s="2">
+        <f t="shared" si="9"/>
+        <v>8.6206896551724146</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A667" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C667" s="3">
+        <v>387</v>
+      </c>
+      <c r="D667" s="2">
+        <v>45</v>
+      </c>
+      <c r="E667" s="2">
+        <f t="shared" si="9"/>
+        <v>11.627906976744185</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A668" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C668" s="3">
+        <v>311</v>
+      </c>
+      <c r="D668" s="2">
+        <v>44</v>
+      </c>
+      <c r="E668" s="2">
+        <f t="shared" si="9"/>
+        <v>14.14790996784566</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A669" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C669" s="3">
+        <v>338</v>
+      </c>
+      <c r="D669" s="2">
+        <v>47</v>
+      </c>
+      <c r="E669" s="2">
+        <f t="shared" si="9"/>
+        <v>13.905325443786982</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A670" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C670" s="3">
+        <v>574</v>
+      </c>
+      <c r="D670" s="2">
+        <v>47</v>
+      </c>
+      <c r="E670" s="2">
+        <f t="shared" si="9"/>
+        <v>8.1881533101045285</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A671" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C671" s="3">
+        <v>842</v>
+      </c>
+      <c r="D671" s="2">
+        <v>47</v>
+      </c>
+      <c r="E671" s="2">
+        <f t="shared" si="9"/>
+        <v>5.581947743467933</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A672" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C672" s="3">
+        <v>411</v>
+      </c>
+      <c r="D672" s="2">
+        <v>47</v>
+      </c>
+      <c r="E672" s="2">
+        <f t="shared" si="9"/>
+        <v>11.435523114355231</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A673" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C673" s="3">
+        <v>584</v>
+      </c>
+      <c r="D673" s="2">
+        <v>44</v>
+      </c>
+      <c r="E673" s="2">
+        <f t="shared" si="9"/>
+        <v>7.5342465753424657</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A674" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C674" s="3">
+        <v>89209</v>
+      </c>
+      <c r="D674" s="2">
+        <v>155</v>
+      </c>
+      <c r="E674" s="2">
+        <f t="shared" si="9"/>
+        <v>0.17374928538600365</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A675" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C675" s="3">
+        <v>482</v>
+      </c>
+      <c r="D675" s="2">
+        <v>50</v>
+      </c>
+      <c r="E675" s="2">
+        <f t="shared" si="9"/>
+        <v>10.37344398340249</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A676" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C676" s="3">
+        <v>4150</v>
+      </c>
+      <c r="D676" s="2">
+        <v>92</v>
+      </c>
+      <c r="E676" s="2">
+        <f t="shared" si="9"/>
+        <v>2.2168674698795181</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A677" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C677" s="3">
+        <v>340</v>
+      </c>
+      <c r="D677" s="2">
+        <v>50</v>
+      </c>
+      <c r="E677" s="2">
+        <f t="shared" si="9"/>
+        <v>14.705882352941178</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A678" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C678" s="3">
+        <v>50032</v>
+      </c>
+      <c r="D678" s="2">
+        <v>129</v>
+      </c>
+      <c r="E678" s="2">
+        <f t="shared" si="9"/>
+        <v>0.25783498560921009</v>
       </c>
     </row>
   </sheetData>
@@ -21316,7 +22213,7 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="I164" sqref="I164"/>
+      <selection activeCell="B142" sqref="B142:E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23871,14 +24768,14 @@
         <v>1120</v>
       </c>
       <c r="C142" s="3">
-        <v>386</v>
+        <v>572</v>
       </c>
       <c r="D142" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E142" s="2">
         <f t="shared" si="2"/>
-        <v>7.5129533678756477</v>
+        <v>8.2167832167832167</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -23889,14 +24786,14 @@
         <v>1121</v>
       </c>
       <c r="C143" s="3">
-        <v>1670</v>
+        <v>2170</v>
       </c>
       <c r="D143" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E143" s="2">
         <f t="shared" si="2"/>
-        <v>3.1137724550898205</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -23907,14 +24804,14 @@
         <v>1122</v>
       </c>
       <c r="C144" s="3">
-        <v>1500</v>
+        <v>1940</v>
       </c>
       <c r="D144" s="2">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E144" s="2">
         <f t="shared" si="2"/>
-        <v>3.8</v>
+        <v>3.7113402061855671</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -23925,14 +24822,14 @@
         <v>1123</v>
       </c>
       <c r="C145" s="3">
-        <v>1010</v>
+        <v>1230</v>
       </c>
       <c r="D145" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E145" s="2">
         <f t="shared" si="2"/>
-        <v>3.9603960396039604</v>
+        <v>4.3902439024390238</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -23943,14 +24840,14 @@
         <v>1124</v>
       </c>
       <c r="C146" s="3">
-        <v>1690</v>
+        <v>2210</v>
       </c>
       <c r="D146" s="2">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E146" s="2">
         <f t="shared" si="2"/>
-        <v>2.1893491124260356</v>
+        <v>2.2624434389140271</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -23961,14 +24858,14 @@
         <v>1125</v>
       </c>
       <c r="C147" s="3">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="D147" s="2">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E147" s="2">
         <f t="shared" si="2"/>
-        <v>20.547945205479451</v>
+        <v>22.043010752688172</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -23979,14 +24876,14 @@
         <v>1126</v>
       </c>
       <c r="C148" s="3">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="D148" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E148" s="2">
         <f t="shared" si="2"/>
-        <v>12.406015037593985</v>
+        <v>12.112676056338028</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -23997,14 +24894,14 @@
         <v>1127</v>
       </c>
       <c r="C149" s="3">
-        <v>378</v>
+        <v>586</v>
       </c>
       <c r="D149" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E149" s="2">
         <f t="shared" si="2"/>
-        <v>11.375661375661375</v>
+        <v>9.2150170648464158</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -24015,14 +24912,14 @@
         <v>1128</v>
       </c>
       <c r="C150" s="3">
-        <v>249</v>
+        <v>372</v>
       </c>
       <c r="D150" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E150" s="2">
         <f t="shared" si="2"/>
-        <v>13.253012048192772</v>
+        <v>11.559139784946236</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -24033,14 +24930,14 @@
         <v>1129</v>
       </c>
       <c r="C151" s="3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D151" s="2">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E151" s="2">
         <f t="shared" si="2"/>
-        <v>49.230769230769234</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -24051,14 +24948,14 @@
         <v>1130</v>
       </c>
       <c r="C152" s="3">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="D152" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E152" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16.602316602316602</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -24069,14 +24966,14 @@
         <v>1131</v>
       </c>
       <c r="C153" s="3">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="D153" s="2">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E153" s="2">
         <f t="shared" si="2"/>
-        <v>17.75700934579439</v>
+        <v>15.902140672782874</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -24087,14 +24984,14 @@
         <v>1132</v>
       </c>
       <c r="C154" s="3">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="D154" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E154" s="2">
         <f t="shared" si="2"/>
-        <v>14.229249011857709</v>
+        <v>13.35149863760218</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -24105,14 +25002,14 @@
         <v>1133</v>
       </c>
       <c r="C155" s="3">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="D155" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E155" s="2">
         <f t="shared" si="2"/>
-        <v>12.693498452012383</v>
+        <v>11.324786324786325</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -24123,14 +25020,14 @@
         <v>1134</v>
       </c>
       <c r="C156" s="3">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="D156" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E156" s="2">
         <f t="shared" si="2"/>
-        <v>12.601626016260163</v>
+        <v>14.102564102564102</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -24141,14 +25038,14 @@
         <v>1135</v>
       </c>
       <c r="C157" s="3">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="D157" s="2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E157" s="2">
         <f t="shared" si="2"/>
-        <v>17.766497461928935</v>
+        <v>19.918699186991869</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -24159,14 +25056,14 @@
         <v>1136</v>
       </c>
       <c r="C158" s="3">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="D158" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E158" s="2">
         <f t="shared" si="2"/>
-        <v>20.095693779904305</v>
+        <v>18.213058419243985</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -24177,14 +25074,14 @@
         <v>1137</v>
       </c>
       <c r="C159" s="3">
-        <v>347</v>
+        <v>520</v>
       </c>
       <c r="D159" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E159" s="2">
         <f t="shared" si="2"/>
-        <v>13.256484149855908</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -24195,14 +25092,14 @@
         <v>1138</v>
       </c>
       <c r="C160" s="3">
-        <v>564</v>
+        <v>715</v>
       </c>
       <c r="D160" s="2">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E160" s="2">
         <f t="shared" si="2"/>
-        <v>8.1560283687943276</v>
+        <v>8.2517482517482517</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -24213,14 +25110,14 @@
         <v>1139</v>
       </c>
       <c r="C161" s="3">
-        <v>250</v>
+        <v>358</v>
       </c>
       <c r="D161" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E161" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14.52513966480447</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -24231,14 +25128,14 @@
         <v>1140</v>
       </c>
       <c r="C162" s="3">
-        <v>316</v>
+        <v>461</v>
       </c>
       <c r="D162" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E162" s="2">
         <f t="shared" si="2"/>
-        <v>10.443037974683545</v>
+        <v>11.062906724511931</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -24249,14 +25146,14 @@
         <v>1141</v>
       </c>
       <c r="C163" s="3">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="D163" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E163" s="2">
         <f t="shared" si="2"/>
-        <v>13.968253968253968</v>
+        <v>13.691931540342297</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -24267,14 +25164,14 @@
         <v>1142</v>
       </c>
       <c r="C164" s="3">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D164" s="2">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E164" s="2">
         <f t="shared" si="2"/>
-        <v>18.433179723502306</v>
+        <v>22.222222222222221</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -24285,14 +25182,14 @@
         <v>1143</v>
       </c>
       <c r="C165" s="3">
-        <v>744</v>
+        <v>1099</v>
       </c>
       <c r="D165" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E165" s="2">
         <f t="shared" si="2"/>
-        <v>3.0913978494623655</v>
+        <v>2.2747952684258417</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -24303,14 +25200,14 @@
         <v>1144</v>
       </c>
       <c r="C166" s="3">
-        <v>52086</v>
+        <v>56293</v>
       </c>
       <c r="D166" s="2">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E166" s="2">
         <f t="shared" si="2"/>
-        <v>9.7914986752678249E-2</v>
+        <v>0.16875988133515712</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -24321,14 +25218,14 @@
         <v>1145</v>
       </c>
       <c r="C167" s="3">
-        <v>474</v>
+        <v>688</v>
       </c>
       <c r="D167" s="2">
         <v>26</v>
       </c>
       <c r="E167" s="2">
         <f t="shared" si="2"/>
-        <v>5.485232067510549</v>
+        <v>3.7790697674418601</v>
       </c>
     </row>
   </sheetData>
@@ -24912,10 +25809,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E24" sqref="A3:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24992,7 +25889,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E19" si="0">D4/C4*100</f>
+        <f t="shared" ref="E4:E24" si="0">D4/C4*100</f>
         <v>5.4140935623043736E-2</v>
       </c>
     </row>
@@ -25015,21 +25912,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C6" s="11">
-        <v>10108</v>
-      </c>
-      <c r="D6" s="10">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.23743569449940641</v>
+      <c r="B6" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1450</v>
+      </c>
+      <c r="D6" s="2">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4482758620689655</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -25037,17 +25934,17 @@
         <v>1066</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1147</v>
+        <v>1207</v>
       </c>
       <c r="C7" s="3">
-        <v>177</v>
+        <v>24694</v>
       </c>
       <c r="D7" s="2">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>8.4745762711864394</v>
+        <v>0.31991576901271568</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -25055,17 +25952,17 @@
         <v>1066</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1148</v>
+        <v>1208</v>
       </c>
       <c r="C8" s="3">
-        <v>16536</v>
+        <v>448</v>
       </c>
       <c r="D8" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.12094823415578133</v>
+        <v>8.9285714285714288</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -25073,17 +25970,17 @@
         <v>1066</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1149</v>
+        <v>1209</v>
       </c>
       <c r="C9" s="3">
-        <v>393</v>
+        <v>1253</v>
       </c>
       <c r="D9" s="2">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>4.0712468193384224</v>
+        <v>4.3096568236233042</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -25091,17 +25988,17 @@
         <v>1066</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1150</v>
+        <v>1210</v>
       </c>
       <c r="C10" s="3">
-        <v>27100</v>
+        <v>1705</v>
       </c>
       <c r="D10" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>0.18450184501845018</v>
+        <v>3.2844574780058653</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -25109,17 +26006,17 @@
         <v>1066</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C11" s="3">
-        <v>31966</v>
+        <v>24726</v>
       </c>
       <c r="D11" s="2">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>0.10323468685478321</v>
+        <v>0.2709698293294508</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -25127,17 +26024,17 @@
         <v>1066</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C12" s="3">
-        <v>26528</v>
+        <v>32370</v>
       </c>
       <c r="D12" s="2">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>0.64083232810615198</v>
+        <v>8.0321285140562249E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -25145,17 +26042,17 @@
         <v>1066</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1067</v>
+        <v>1148</v>
       </c>
       <c r="C13" s="3">
-        <v>71000</v>
+        <v>31229</v>
       </c>
       <c r="D13" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>4.0845070422535212E-2</v>
+        <v>0.20493771814659451</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -25163,17 +26060,17 @@
         <v>1066</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1068</v>
+        <v>1149</v>
       </c>
       <c r="C14" s="3">
-        <v>54747</v>
+        <v>31572</v>
       </c>
       <c r="D14" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>4.2011434416497712E-2</v>
+        <v>6.3347269732674516E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -25181,17 +26078,17 @@
         <v>1066</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1069</v>
+        <v>1150</v>
       </c>
       <c r="C15" s="3">
-        <v>52852</v>
+        <v>29800</v>
       </c>
       <c r="D15" s="2">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>5.4870203587376064E-2</v>
+        <v>0.17785234899328858</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -25199,17 +26096,17 @@
         <v>1066</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1070</v>
+        <v>1151</v>
       </c>
       <c r="C16" s="3">
-        <v>7130</v>
+        <v>39235</v>
       </c>
       <c r="D16" s="2">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>0.84151472650771386</v>
+        <v>0.19625334522747548</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -25217,17 +26114,17 @@
         <v>1066</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1071</v>
+        <v>1152</v>
       </c>
       <c r="C17" s="3">
-        <v>30600</v>
+        <v>29300</v>
       </c>
       <c r="D17" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>0.6470588235294118</v>
+        <v>0.56313993174061439</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -25235,17 +26132,17 @@
         <v>1066</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C18" s="3">
-        <v>51940</v>
+        <v>75906</v>
       </c>
       <c r="D18" s="2">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0.23488640739314595</v>
+        <v>3.8205148473111482E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -25253,25 +26150,108 @@
         <v>1066</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C19" s="3">
+        <v>54919</v>
+      </c>
+      <c r="D19" s="2">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11471439756732642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C20" s="3">
+        <v>53266</v>
+      </c>
+      <c r="D20" s="2">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13141591258964441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7170</v>
+      </c>
+      <c r="D21" s="2">
+        <v>60</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83682008368200833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C22" s="3">
+        <v>31700</v>
+      </c>
+      <c r="D22" s="2">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.63091482649842268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C23" s="3">
+        <v>52416</v>
+      </c>
+      <c r="D23" s="2">
+        <v>128</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24420024420024419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="C19" s="3">
-        <v>33200</v>
-      </c>
-      <c r="D19" s="2">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15060240963855423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C24" s="3">
+        <v>34700</v>
+      </c>
+      <c r="D24" s="2">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14697406340057637</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9D0AAE-78C0-4D1B-9EF1-FDF67C545A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4883B24-9560-4A66-B946-121E049A74B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1349">
   <si>
     <t>Ссылка</t>
   </si>
@@ -3679,6 +3679,420 @@
   </si>
   <si>
     <t>https://vk.com/wall-88454669_52782</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25598</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157306001911201</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14024</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3989</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/928</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_459950</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157304631225761</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25576</t>
+  </si>
+  <si>
+    <t>25.08 - 31.08</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10223</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10224</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10639</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5939</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17218</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11719</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6640</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7856</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2349</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6232</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12367</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3300</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6507</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6504</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6380</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7665</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8488</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5950</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6556</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5867</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8482</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6241</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4090</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4757</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6935</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5867</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157306224012705</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25605</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14030</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4086</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3292</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17233</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-136338823_304418</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-78053332_691483</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157304781237665</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25581</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14015</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12360</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13976</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25523</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157301474946465</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2807213</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158092595451213</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4472</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2807546</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000003608141/topic/158094412109133</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-222134246_456239659?c=1</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4482</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157457740919769</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48492</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4075</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2807348</t>
+  </si>
+  <si>
+    <t>25.08 -31.08</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6506</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-187624481_42811</t>
+  </si>
+  <si>
+    <t>https://ok.ru/kalugazanashih/topic/157460490941401</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158095500334413</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4488</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157458899203033</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2807969</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-105830515_336180</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-164004919_64690</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-154225721_251120</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-57628472_3859380</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-84737494_3209585</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-81543912_342668</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158094286280013</t>
+  </si>
+  <si>
+    <t>https://vk.com/clip-222134246_456239658</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4480</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157303086083489</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25551</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13998</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25582</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157304830127521</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48593</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-84737494_3209778</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48567</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48534</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157304912440737</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25586</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14016</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_3991</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/929</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157460000076761</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_22013</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10232</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10628</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5940</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17243</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11731</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6642</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7835</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2335</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6223</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12356</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3290</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6502</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6371</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7656</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8480</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5946</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6542</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5864</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8474</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6237</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4079</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4743</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6930</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5858</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-82003693_564254</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25570</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157304118996385</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25537</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157302648303009</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158092330685773</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4468</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-104288823_215912</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-145316206_132894</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-180268261_62163</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-78053332_691440</t>
+  </si>
+  <si>
+    <t>https://t.me/klgazhensovet/11112</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48489</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157457600869337</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48547</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48537</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157303427591585</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25560</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14003</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/13977</t>
   </si>
 </sst>
 </file>
@@ -3719,7 +4133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3755,12 +4169,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3777,6 +4204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4069,10 +4497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5463,7 +5891,7 @@
         <v>70</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" ref="E77:E90" si="2">D77/C77*100</f>
+        <f t="shared" ref="E77:E98" si="2">D77/C77*100</f>
         <v>0.77476480354178201</v>
       </c>
     </row>
@@ -5699,6 +6127,150 @@
       <c r="E90" s="2">
         <f t="shared" si="2"/>
         <v>0.26475455046883617</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C91" s="3">
+        <v>10480</v>
+      </c>
+      <c r="D91" s="2">
+        <v>25</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2385496183206107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C92" s="3">
+        <v>11000</v>
+      </c>
+      <c r="D92" s="2">
+        <v>16</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="2"/>
+        <v>0.14545454545454545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2880</v>
+      </c>
+      <c r="D93" s="2">
+        <v>52</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8055555555555554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C94" s="3">
+        <v>5821</v>
+      </c>
+      <c r="D94" s="2">
+        <v>38</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="2"/>
+        <v>0.65280879573956363</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C95" s="3">
+        <v>468</v>
+      </c>
+      <c r="D95" s="2">
+        <v>47</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="2"/>
+        <v>10.042735042735043</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D96" s="2">
+        <v>11</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="2"/>
+        <v>1.083743842364532</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C97" s="3">
+        <v>45000</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="2"/>
+        <v>9.7777777777777769E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C98" s="3">
+        <v>28609</v>
+      </c>
+      <c r="D98" s="2">
+        <v>76</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26565066936977877</v>
       </c>
     </row>
   </sheetData>
@@ -6180,10 +6752,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF44B6C-916C-4D23-9E6B-AE95ABFB7419}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="B18:E21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6242,7 +6814,7 @@
         <v>135</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E21" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E23" si="0">D3/C3*100</f>
         <v>0.45302013422818793</v>
       </c>
     </row>
@@ -6569,6 +7141,45 @@
         <f t="shared" si="0"/>
         <v>0.38961038961038963</v>
       </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C22" s="3">
+        <v>29600</v>
+      </c>
+      <c r="D22" s="2">
+        <v>138</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46621621621621623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C23" s="3">
+        <v>27400</v>
+      </c>
+      <c r="D23" s="2">
+        <v>179</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65328467153284664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6824,10 +7435,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8040,7 +8651,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67:E107" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E111" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -8762,6 +9373,78 @@
       <c r="E107" s="2">
         <f t="shared" si="1"/>
         <v>0.4397457907894341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C108" s="3">
+        <v>17323</v>
+      </c>
+      <c r="D108" s="2">
+        <v>31</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17895283726837152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C109" s="3">
+        <v>24524</v>
+      </c>
+      <c r="D109" s="2">
+        <v>65</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26504648507584405</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C110" s="3">
+        <v>3730</v>
+      </c>
+      <c r="D110" s="2">
+        <v>76</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0375335120643432</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3590</v>
+      </c>
+      <c r="D111" s="2">
+        <v>74</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0612813370473537</v>
       </c>
     </row>
   </sheetData>
@@ -8775,10 +9458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E678"/>
+  <dimension ref="A1:E730"/>
   <sheetViews>
-    <sheetView topLeftCell="A653" workbookViewId="0">
-      <selection activeCell="F688" sqref="F688"/>
+    <sheetView topLeftCell="A714" workbookViewId="0">
+      <selection activeCell="E730" sqref="A558:E730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19241,7 +19924,7 @@
       <c r="D581" s="2">
         <v>199</v>
       </c>
-      <c r="E581">
+      <c r="E581" s="2">
         <f t="shared" si="8"/>
         <v>0.99246920353099599</v>
       </c>
@@ -19259,7 +19942,7 @@
       <c r="D582" s="2">
         <v>65</v>
       </c>
-      <c r="E582">
+      <c r="E582" s="2">
         <f t="shared" si="8"/>
         <v>0.13050898504166247</v>
       </c>
@@ -19277,7 +19960,7 @@
       <c r="D583" s="2">
         <v>17</v>
       </c>
-      <c r="E583">
+      <c r="E583" s="2">
         <f t="shared" si="8"/>
         <v>3.9534883720930232E-2</v>
       </c>
@@ -19295,7 +19978,7 @@
       <c r="D584" s="2">
         <v>71</v>
       </c>
-      <c r="E584">
+      <c r="E584" s="2">
         <f t="shared" si="8"/>
         <v>0.24079224038526759</v>
       </c>
@@ -19313,7 +19996,7 @@
       <c r="D585" s="2">
         <v>24</v>
       </c>
-      <c r="E585">
+      <c r="E585" s="2">
         <f t="shared" si="8"/>
         <v>6.3157894736842107E-2</v>
       </c>
@@ -19331,7 +20014,7 @@
       <c r="D586" s="2">
         <v>18</v>
       </c>
-      <c r="E586">
+      <c r="E586" s="2">
         <f t="shared" si="8"/>
         <v>3.214285714285714E-2</v>
       </c>
@@ -19349,7 +20032,7 @@
       <c r="D587" s="2">
         <v>18</v>
       </c>
-      <c r="E587">
+      <c r="E587" s="2">
         <f t="shared" si="8"/>
         <v>0.11306532663316582</v>
       </c>
@@ -19367,7 +20050,7 @@
       <c r="D588" s="2">
         <v>136</v>
       </c>
-      <c r="E588">
+      <c r="E588" s="2">
         <f t="shared" si="8"/>
         <v>1.3360840947047843</v>
       </c>
@@ -19385,7 +20068,7 @@
       <c r="D589" s="2">
         <v>99</v>
       </c>
-      <c r="E589">
+      <c r="E589" s="2">
         <f t="shared" si="8"/>
         <v>2.8045325779036827</v>
       </c>
@@ -19403,7 +20086,7 @@
       <c r="D590" s="2">
         <v>234</v>
       </c>
-      <c r="E590">
+      <c r="E590" s="2">
         <f t="shared" si="8"/>
         <v>0.22941176470588237</v>
       </c>
@@ -19421,7 +20104,7 @@
       <c r="D591" s="2">
         <v>134</v>
       </c>
-      <c r="E591">
+      <c r="E591" s="2">
         <f t="shared" si="8"/>
         <v>0.29020660978039592</v>
       </c>
@@ -19439,7 +20122,7 @@
       <c r="D592" s="2">
         <v>189</v>
       </c>
-      <c r="E592">
+      <c r="E592" s="2">
         <f t="shared" si="8"/>
         <v>0.39374999999999999</v>
       </c>
@@ -19457,7 +20140,7 @@
       <c r="D593" s="2">
         <v>83</v>
       </c>
-      <c r="E593">
+      <c r="E593" s="2">
         <f t="shared" si="8"/>
         <v>0.49054373522458627</v>
       </c>
@@ -19475,7 +20158,7 @@
       <c r="D594" s="2">
         <v>7</v>
       </c>
-      <c r="E594">
+      <c r="E594" s="2">
         <f t="shared" si="8"/>
         <v>2.6119402985074625</v>
       </c>
@@ -19493,7 +20176,7 @@
       <c r="D595" s="2">
         <v>7</v>
       </c>
-      <c r="E595">
+      <c r="E595" s="2">
         <f t="shared" si="8"/>
         <v>3.0303030303030303</v>
       </c>
@@ -19511,7 +20194,7 @@
       <c r="D596" s="2">
         <v>12</v>
       </c>
-      <c r="E596">
+      <c r="E596" s="2">
         <f t="shared" si="8"/>
         <v>3.2876712328767121</v>
       </c>
@@ -19529,7 +20212,7 @@
       <c r="D597" s="2">
         <v>14</v>
       </c>
-      <c r="E597">
+      <c r="E597" s="2">
         <f t="shared" si="8"/>
         <v>2.0028612303290414</v>
       </c>
@@ -19547,7 +20230,7 @@
       <c r="D598" s="2">
         <v>7</v>
       </c>
-      <c r="E598">
+      <c r="E598" s="2">
         <f t="shared" si="8"/>
         <v>2.1021021021021022</v>
       </c>
@@ -19565,7 +20248,7 @@
       <c r="D599" s="2">
         <v>2</v>
       </c>
-      <c r="E599">
+      <c r="E599" s="2">
         <f t="shared" si="8"/>
         <v>0.77821011673151752</v>
       </c>
@@ -19583,7 +20266,7 @@
       <c r="D600" s="2">
         <v>11</v>
       </c>
-      <c r="E600">
+      <c r="E600" s="2">
         <f t="shared" si="8"/>
         <v>3.5830618892508146</v>
       </c>
@@ -19601,7 +20284,7 @@
       <c r="D601" s="2">
         <v>12</v>
       </c>
-      <c r="E601">
+      <c r="E601" s="2">
         <f t="shared" si="8"/>
         <v>2.0905923344947737</v>
       </c>
@@ -19619,7 +20302,7 @@
       <c r="D602" s="2">
         <v>10</v>
       </c>
-      <c r="E602">
+      <c r="E602" s="2">
         <f t="shared" si="8"/>
         <v>2.5906735751295336</v>
       </c>
@@ -19637,7 +20320,7 @@
       <c r="D603" s="2">
         <v>6</v>
       </c>
-      <c r="E603">
+      <c r="E603" s="2">
         <f t="shared" si="8"/>
         <v>8.4507042253521121</v>
       </c>
@@ -19655,7 +20338,7 @@
       <c r="D604" s="2">
         <v>5</v>
       </c>
-      <c r="E604">
+      <c r="E604" s="2">
         <f t="shared" si="8"/>
         <v>2.7472527472527473</v>
       </c>
@@ -19673,25 +20356,25 @@
       <c r="D605" s="2">
         <v>8</v>
       </c>
-      <c r="E605">
+      <c r="E605" s="2">
         <f t="shared" si="8"/>
         <v>1.8306636155606408</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A606" s="9" t="s">
+      <c r="A606" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="B606" s="10" t="s">
+      <c r="B606" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="C606" s="11">
+      <c r="C606" s="3">
         <v>276</v>
       </c>
-      <c r="D606" s="10">
+      <c r="D606" s="2">
         <v>5</v>
       </c>
-      <c r="E606">
+      <c r="E606" s="2">
         <f t="shared" si="8"/>
         <v>1.8115942028985508</v>
       </c>
@@ -20304,7 +20987,7 @@
         <v>43</v>
       </c>
       <c r="E640" s="2">
-        <f t="shared" ref="E640:E678" si="9">D640/C640*100</f>
+        <f t="shared" ref="E640:E703" si="9">D640/C640*100</f>
         <v>8.1132075471698109</v>
       </c>
     </row>
@@ -20990,6 +21673,942 @@
       <c r="E678" s="2">
         <f t="shared" si="9"/>
         <v>0.25783498560921009</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A679" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C679" s="3">
+        <v>480</v>
+      </c>
+      <c r="D679" s="2">
+        <v>13</v>
+      </c>
+      <c r="E679" s="2">
+        <f t="shared" si="9"/>
+        <v>2.7083333333333335</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A680" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C680" s="3">
+        <v>522</v>
+      </c>
+      <c r="D680" s="2">
+        <v>3</v>
+      </c>
+      <c r="E680" s="2">
+        <f t="shared" si="9"/>
+        <v>0.57471264367816088</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A681" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C681" s="3">
+        <v>943</v>
+      </c>
+      <c r="D681" s="2">
+        <v>9</v>
+      </c>
+      <c r="E681" s="2">
+        <f t="shared" si="9"/>
+        <v>0.95440084835630967</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A682" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C682" s="3">
+        <v>2100</v>
+      </c>
+      <c r="D682" s="2">
+        <v>41</v>
+      </c>
+      <c r="E682" s="2">
+        <f t="shared" si="9"/>
+        <v>1.9523809523809523</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A683" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C683" s="3">
+        <v>1910</v>
+      </c>
+      <c r="D683" s="2">
+        <v>28</v>
+      </c>
+      <c r="E683" s="2">
+        <f t="shared" si="9"/>
+        <v>1.4659685863874345</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A684" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C684" s="3">
+        <v>1160</v>
+      </c>
+      <c r="D684" s="2">
+        <v>11</v>
+      </c>
+      <c r="E684" s="2">
+        <f t="shared" si="9"/>
+        <v>0.94827586206896552</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A685" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C685" s="3">
+        <v>2150</v>
+      </c>
+      <c r="D685" s="2">
+        <v>14</v>
+      </c>
+      <c r="E685" s="2">
+        <f t="shared" si="9"/>
+        <v>0.65116279069767447</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A686" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C686" s="3">
+        <v>139</v>
+      </c>
+      <c r="D686" s="2">
+        <v>4</v>
+      </c>
+      <c r="E686" s="2">
+        <f t="shared" si="9"/>
+        <v>2.877697841726619</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A687" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C687" s="3">
+        <v>314</v>
+      </c>
+      <c r="D687" s="2">
+        <v>9</v>
+      </c>
+      <c r="E687" s="2">
+        <f t="shared" si="9"/>
+        <v>2.8662420382165608</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A688" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C688" s="3">
+        <v>315</v>
+      </c>
+      <c r="D688" s="2">
+        <v>12</v>
+      </c>
+      <c r="E688" s="2">
+        <f t="shared" si="9"/>
+        <v>3.8095238095238098</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A689" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C689" s="3">
+        <v>264</v>
+      </c>
+      <c r="D689" s="2">
+        <v>2</v>
+      </c>
+      <c r="E689" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A690" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C690" s="3">
+        <v>72</v>
+      </c>
+      <c r="D690" s="2">
+        <v>6</v>
+      </c>
+      <c r="E690" s="2">
+        <f t="shared" si="9"/>
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A691" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C691" s="3">
+        <v>130</v>
+      </c>
+      <c r="D691" s="2">
+        <v>4</v>
+      </c>
+      <c r="E691" s="2">
+        <f t="shared" si="9"/>
+        <v>3.0769230769230771</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A692" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C692" s="3">
+        <v>10</v>
+      </c>
+      <c r="D692" s="2">
+        <v>2</v>
+      </c>
+      <c r="E692" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A693" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C693" s="3">
+        <v>177</v>
+      </c>
+      <c r="D693" s="2">
+        <v>12</v>
+      </c>
+      <c r="E693" s="2">
+        <f t="shared" si="9"/>
+        <v>6.7796610169491522</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A694" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C694" s="3">
+        <v>199</v>
+      </c>
+      <c r="D694" s="2">
+        <v>7</v>
+      </c>
+      <c r="E694" s="2">
+        <f t="shared" si="9"/>
+        <v>3.5175879396984926</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A695" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C695" s="3">
+        <v>336</v>
+      </c>
+      <c r="D695" s="2">
+        <v>8</v>
+      </c>
+      <c r="E695" s="2">
+        <f t="shared" si="9"/>
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A696" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C696" s="3">
+        <v>191</v>
+      </c>
+      <c r="D696" s="2">
+        <v>8</v>
+      </c>
+      <c r="E696" s="2">
+        <f t="shared" si="9"/>
+        <v>4.1884816753926701</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A697" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C697" s="3">
+        <v>140</v>
+      </c>
+      <c r="D697" s="2">
+        <v>7</v>
+      </c>
+      <c r="E697" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A698" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C698" s="3">
+        <v>176</v>
+      </c>
+      <c r="D698" s="2">
+        <v>8</v>
+      </c>
+      <c r="E698" s="2">
+        <f t="shared" si="9"/>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A699" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C699" s="3">
+        <v>360</v>
+      </c>
+      <c r="D699" s="2">
+        <v>7</v>
+      </c>
+      <c r="E699" s="2">
+        <f t="shared" si="9"/>
+        <v>1.9444444444444444</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A700" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C700" s="3">
+        <v>395</v>
+      </c>
+      <c r="D700" s="2">
+        <v>10</v>
+      </c>
+      <c r="E700" s="2">
+        <f t="shared" si="9"/>
+        <v>2.5316455696202533</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A701" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C701" s="3">
+        <v>284</v>
+      </c>
+      <c r="D701" s="2">
+        <v>9</v>
+      </c>
+      <c r="E701" s="2">
+        <f t="shared" si="9"/>
+        <v>3.169014084507042</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A702" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C702" s="3">
+        <v>343</v>
+      </c>
+      <c r="D702" s="2">
+        <v>9</v>
+      </c>
+      <c r="E702" s="2">
+        <f t="shared" si="9"/>
+        <v>2.6239067055393588</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A703" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C703" s="3">
+        <v>313</v>
+      </c>
+      <c r="D703" s="2">
+        <v>7</v>
+      </c>
+      <c r="E703" s="2">
+        <f t="shared" si="9"/>
+        <v>2.2364217252396164</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A704" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C704" s="3">
+        <v>135</v>
+      </c>
+      <c r="D704" s="2">
+        <v>6</v>
+      </c>
+      <c r="E704" s="2">
+        <f t="shared" ref="E704:E730" si="10">D704/C704*100</f>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A705" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C705" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D705" s="2">
+        <v>22</v>
+      </c>
+      <c r="E705" s="2">
+        <f t="shared" si="10"/>
+        <v>0.14666666666666667</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A706" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C706" s="3">
+        <v>16118</v>
+      </c>
+      <c r="D706" s="2">
+        <v>44</v>
+      </c>
+      <c r="E706" s="2">
+        <f t="shared" si="10"/>
+        <v>0.27298672291847625</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A707" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C707" s="3">
+        <v>2790</v>
+      </c>
+      <c r="D707" s="2">
+        <v>73</v>
+      </c>
+      <c r="E707" s="2">
+        <f t="shared" si="10"/>
+        <v>2.6164874551971327</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A708" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C708" s="3">
+        <v>352</v>
+      </c>
+      <c r="D708" s="2">
+        <v>13</v>
+      </c>
+      <c r="E708" s="2">
+        <f t="shared" si="10"/>
+        <v>3.6931818181818183</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A709" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C709" s="3">
+        <v>84</v>
+      </c>
+      <c r="D709" s="2">
+        <v>6</v>
+      </c>
+      <c r="E709" s="2">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A710" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C710" s="3">
+        <v>1810</v>
+      </c>
+      <c r="D710" s="2">
+        <v>25</v>
+      </c>
+      <c r="E710" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3812154696132597</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A711" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C711" s="3">
+        <v>1140</v>
+      </c>
+      <c r="D711" s="2">
+        <v>14</v>
+      </c>
+      <c r="E711" s="2">
+        <f t="shared" si="10"/>
+        <v>1.2280701754385965</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A712" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C712" s="3">
+        <v>8786</v>
+      </c>
+      <c r="D712" s="2">
+        <v>77</v>
+      </c>
+      <c r="E712" s="2">
+        <f t="shared" si="10"/>
+        <v>0.87639426360118367</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A713" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C713" s="3">
+        <v>31000</v>
+      </c>
+      <c r="D713" s="2">
+        <v>23</v>
+      </c>
+      <c r="E713" s="2">
+        <f t="shared" si="10"/>
+        <v>7.4193548387096769E-2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A714" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C714" s="3">
+        <v>12254</v>
+      </c>
+      <c r="D714" s="2">
+        <v>23</v>
+      </c>
+      <c r="E714" s="2">
+        <f t="shared" si="10"/>
+        <v>0.18769381426472989</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A715" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C715" s="3">
+        <v>3250</v>
+      </c>
+      <c r="D715" s="2">
+        <v>51</v>
+      </c>
+      <c r="E715" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5692307692307692</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A716" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C716" s="3">
+        <v>320</v>
+      </c>
+      <c r="D716" s="2">
+        <v>5</v>
+      </c>
+      <c r="E716" s="2">
+        <f t="shared" si="10"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A717" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C717" s="3">
+        <v>3530</v>
+      </c>
+      <c r="D717" s="2">
+        <v>68</v>
+      </c>
+      <c r="E717" s="2">
+        <f t="shared" si="10"/>
+        <v>1.9263456090651558</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A718" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C718" s="3">
+        <v>36534</v>
+      </c>
+      <c r="D718" s="2">
+        <v>31</v>
+      </c>
+      <c r="E718" s="2">
+        <f t="shared" si="10"/>
+        <v>8.4852466195872348E-2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A719" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C719" s="3">
+        <v>54653</v>
+      </c>
+      <c r="D719" s="2">
+        <v>32</v>
+      </c>
+      <c r="E719" s="2">
+        <f t="shared" si="10"/>
+        <v>5.8551223171646571E-2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A720" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C720" s="3">
+        <v>6298</v>
+      </c>
+      <c r="D720" s="2">
+        <v>9</v>
+      </c>
+      <c r="E720" s="2">
+        <f t="shared" si="10"/>
+        <v>0.14290250873293109</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A721" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C721" s="3">
+        <v>40528</v>
+      </c>
+      <c r="D721" s="2">
+        <v>42</v>
+      </c>
+      <c r="E721" s="2">
+        <f t="shared" si="10"/>
+        <v>0.10363205684958546</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A722" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C722" s="3">
+        <v>29071</v>
+      </c>
+      <c r="D722" s="2">
+        <v>25</v>
+      </c>
+      <c r="E722" s="2">
+        <f t="shared" si="10"/>
+        <v>8.599635375460081E-2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A723" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C723" s="3">
+        <v>5232</v>
+      </c>
+      <c r="D723" s="2">
+        <v>21</v>
+      </c>
+      <c r="E723" s="2">
+        <f t="shared" si="10"/>
+        <v>0.40137614678899086</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A724" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C724" s="3">
+        <v>24937</v>
+      </c>
+      <c r="D724" s="2">
+        <v>47</v>
+      </c>
+      <c r="E724" s="2">
+        <f t="shared" si="10"/>
+        <v>0.18847495689136626</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A725" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C725" s="3">
+        <v>67890</v>
+      </c>
+      <c r="D725" s="2">
+        <v>61</v>
+      </c>
+      <c r="E725" s="2">
+        <f t="shared" si="10"/>
+        <v>8.9851229930770354E-2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A726" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C726" s="3">
+        <v>49662</v>
+      </c>
+      <c r="D726" s="2">
+        <v>79</v>
+      </c>
+      <c r="E726" s="2">
+        <f t="shared" si="10"/>
+        <v>0.15907534936168499</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A727" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C727" s="3">
+        <v>41262</v>
+      </c>
+      <c r="D727" s="2">
+        <v>81</v>
+      </c>
+      <c r="E727" s="2">
+        <f t="shared" si="10"/>
+        <v>0.1963065290097426</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A728" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C728" s="3">
+        <v>29200</v>
+      </c>
+      <c r="D728" s="2">
+        <v>397</v>
+      </c>
+      <c r="E728" s="2">
+        <f t="shared" si="10"/>
+        <v>1.3595890410958904</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A729" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C729" s="3">
+        <v>393</v>
+      </c>
+      <c r="D729" s="2">
+        <v>11</v>
+      </c>
+      <c r="E729" s="2">
+        <f t="shared" si="10"/>
+        <v>2.7989821882951653</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A730" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C730" s="3">
+        <v>9833</v>
+      </c>
+      <c r="D730" s="2">
+        <v>46</v>
+      </c>
+      <c r="E730" s="2">
+        <f t="shared" si="10"/>
+        <v>0.46781246821926165</v>
       </c>
     </row>
   </sheetData>
@@ -22210,10 +23829,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:E167"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24576,7 +26195,7 @@
         <v>7</v>
       </c>
       <c r="E131" s="2">
-        <f t="shared" ref="E131:E167" si="2">D131/C131*100</f>
+        <f t="shared" ref="E131:E174" si="2">D131/C131*100</f>
         <v>3.0303030303030303</v>
       </c>
     </row>
@@ -25226,6 +26845,132 @@
       <c r="E167" s="2">
         <f t="shared" si="2"/>
         <v>3.7790697674418601</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C168" s="3">
+        <v>154</v>
+      </c>
+      <c r="D168" s="2">
+        <v>2</v>
+      </c>
+      <c r="E168" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C169" s="3">
+        <v>434</v>
+      </c>
+      <c r="D169" s="2">
+        <v>22</v>
+      </c>
+      <c r="E169" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0691244239631335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D170" s="2">
+        <v>33</v>
+      </c>
+      <c r="E170" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C171" s="3">
+        <v>35000</v>
+      </c>
+      <c r="D171" s="2">
+        <v>35</v>
+      </c>
+      <c r="E171" s="2">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C172" s="3">
+        <v>62411</v>
+      </c>
+      <c r="D172" s="2">
+        <v>47</v>
+      </c>
+      <c r="E172" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5307237506208838E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C173" s="3">
+        <v>480</v>
+      </c>
+      <c r="D173" s="2">
+        <v>13</v>
+      </c>
+      <c r="E173" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7083333333333335</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C174" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D174" s="2">
+        <v>44</v>
+      </c>
+      <c r="E174" s="2">
+        <f t="shared" si="2"/>
+        <v>7.3333333333333334E-2</v>
       </c>
     </row>
   </sheetData>
@@ -25604,7 +27349,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A2:E3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25650,95 +27395,238 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8332</v>
+      </c>
+      <c r="D3" s="2">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E15" si="0">D3/C3*100</f>
+        <v>1.3562169947191549</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C4" s="3">
+        <v>706</v>
+      </c>
+      <c r="D4" s="2">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6912181303116145</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C5" s="3">
+        <v>517</v>
+      </c>
+      <c r="D5" s="2">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.67504835589942</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1009</v>
+      </c>
+      <c r="D6" s="2">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8830525272547076</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C7" s="3">
+        <v>619</v>
+      </c>
+      <c r="D7" s="2">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>3.877221324717286</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9299</v>
+      </c>
+      <c r="D8" s="2">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.87106140445209168</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1195</v>
+      </c>
+      <c r="D9" s="2">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8410041841004186</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C10" s="3">
+        <v>36070</v>
+      </c>
+      <c r="D10" s="2">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21347380094261159</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C11" s="3">
+        <v>67209</v>
+      </c>
+      <c r="D11" s="2">
+        <v>115</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17110803612611405</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="A12" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C12" s="3">
+        <v>23233</v>
+      </c>
+      <c r="D12" s="2">
+        <v>143</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.61550380923686132</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="A13" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C13" s="3">
+        <v>25770</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12029491656965463</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C14" s="3">
+        <v>23315</v>
+      </c>
+      <c r="D14" s="2">
+        <v>103</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44177568089212954</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3560</v>
+      </c>
+      <c r="D15" s="2">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0224719101123596</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -25783,36 +27671,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A772FBBA-2BCE-4F6F-A598-2C8AFC21352E}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="A3:E24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25840,6 +27702,199 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C2" s="3">
+        <v>24366</v>
+      </c>
+      <c r="D2" s="2">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2/C2*100</f>
+        <v>0.11901830419436921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C3" s="3">
+        <v>24000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D3/C3*100</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>896</v>
       </c>
@@ -25889,7 +27944,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E24" si="0">D4/C4*100</f>
+        <f t="shared" ref="E4:E67" si="0">D4/C4*100</f>
         <v>5.4140935623043736E-2</v>
       </c>
     </row>
@@ -26251,6 +28306,888 @@
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>0.14697406340057637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5450</v>
+      </c>
+      <c r="D25" s="2">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4678899082568808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8457</v>
+      </c>
+      <c r="D26" s="2">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46115643845335225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C27" s="3">
+        <v>24700</v>
+      </c>
+      <c r="D27" s="2">
+        <v>180</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.72874493927125505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C28" s="3">
+        <v>27200</v>
+      </c>
+      <c r="D28" s="2">
+        <v>337</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2389705882352942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C29" s="3">
+        <v>19000</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C30" s="3">
+        <v>38638</v>
+      </c>
+      <c r="D30" s="2">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1423469123660645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3480</v>
+      </c>
+      <c r="D31" s="2">
+        <v>68</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9540229885057472</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7827</v>
+      </c>
+      <c r="D32" s="2">
+        <v>52</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66436693496869814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C33" s="3">
+        <v>29500</v>
+      </c>
+      <c r="D33" s="2">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12203389830508474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C34" s="3">
+        <v>19000</v>
+      </c>
+      <c r="D34" s="2">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11052631578947368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C35" s="3">
+        <v>19309</v>
+      </c>
+      <c r="D35" s="2">
+        <v>21</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10875757418820238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C36" s="3">
+        <v>505</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1150</v>
+      </c>
+      <c r="D37" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1304347826086958</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2009</v>
+      </c>
+      <c r="D38" s="2">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7421602787456445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1880</v>
+      </c>
+      <c r="D39" s="2">
+        <v>19</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0106382978723405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1090</v>
+      </c>
+      <c r="D40" s="2">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91743119266055051</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1970</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25380710659898476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C42" s="3">
+        <v>175</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C43" s="3">
+        <v>385</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C44" s="3">
+        <v>496</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20161290322580644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C45" s="3">
+        <v>426</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>1.643192488262911</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C46" s="3">
+        <v>84</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C47" s="3">
+        <v>233</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C48" s="3">
+        <v>284</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>3.169014084507042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C49" s="3">
+        <v>340</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4705882352941175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C50" s="3">
+        <v>494</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0242914979757085</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C51" s="3">
+        <v>281</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5587188612099649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C52" s="3">
+        <v>226</v>
+      </c>
+      <c r="D52" s="2">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0973451327433628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C53" s="3">
+        <v>273</v>
+      </c>
+      <c r="D53" s="2">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="0"/>
+        <v>2.197802197802198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C54" s="3">
+        <v>434</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1520737327188941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C55" s="3">
+        <v>621</v>
+      </c>
+      <c r="D55" s="2">
+        <v>9</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4492753623188406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C56" s="3">
+        <v>376</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1276595744680851</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C57" s="3">
+        <v>442</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5837104072398189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C58" s="3">
+        <v>408</v>
+      </c>
+      <c r="D58" s="2">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2058823529411766</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C59" s="3">
+        <v>224</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4464285714285714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C60" s="3">
+        <v>4832</v>
+      </c>
+      <c r="D60" s="2">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14486754966887416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C61" s="3">
+        <v>18163</v>
+      </c>
+      <c r="D61" s="2">
+        <v>24</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13213676154820239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C62" s="3">
+        <v>40369</v>
+      </c>
+      <c r="D62" s="2">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1928707671728304E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C63" s="3">
+        <v>41202</v>
+      </c>
+      <c r="D63" s="2">
+        <v>25</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0676666181253336E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C64" s="3">
+        <v>27360</v>
+      </c>
+      <c r="D64" s="2">
+        <v>23</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="0"/>
+        <v>8.4064327485380119E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C65" s="3">
+        <v>67637</v>
+      </c>
+      <c r="D65" s="2">
+        <v>31</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5832902109791976E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C66" s="3">
+        <v>93687</v>
+      </c>
+      <c r="D66" s="2">
+        <v>26</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7751982665684675E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1807</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27670171555063638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1265</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" ref="E68:E73" si="1">D68/C68*100</f>
+        <v>7.9051383399209488E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C69" s="3">
+        <v>859</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34924330616996507</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1178</v>
+      </c>
+      <c r="D70" s="2">
+        <v>6</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50933786078098475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C71" s="3">
+        <v>499</v>
+      </c>
+      <c r="D71" s="2">
+        <v>52</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="1"/>
+        <v>10.420841683366733</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C72" s="3">
+        <v>28700</v>
+      </c>
+      <c r="D72" s="2">
+        <v>207</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="1"/>
+        <v>0.72125435540069693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C73" s="3">
+        <v>36826</v>
+      </c>
+      <c r="D73" s="2">
+        <v>36</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7757019497094449E-2</v>
       </c>
     </row>
   </sheetData>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4883B24-9560-4A66-B946-121E049A74B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA25134-B56A-4ACA-9F81-BA58A4FE36DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="1348">
   <si>
     <t>Ссылка</t>
   </si>
@@ -3862,9 +3862,6 @@
   </si>
   <si>
     <t>https://vk.com/wall-47908301_2807348</t>
-  </si>
-  <si>
-    <t>25.08 -31.08</t>
   </si>
   <si>
     <t>https://t.me/Babyninskij_informer/6506</t>
@@ -4499,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6755,7 +6752,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7147,7 +7144,7 @@
         <v>1219</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C22" s="3">
         <v>29600</v>
@@ -7165,7 +7162,7 @@
         <v>1219</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C23" s="3">
         <v>27400</v>
@@ -7195,7 +7192,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A9:E12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7437,8 +7434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9380,7 +9377,7 @@
         <v>1219</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C108" s="3">
         <v>17323</v>
@@ -9398,7 +9395,7 @@
         <v>1219</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C109" s="3">
         <v>24524</v>
@@ -9416,7 +9413,7 @@
         <v>1219</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C110" s="3">
         <v>3730</v>
@@ -9434,7 +9431,7 @@
         <v>1219</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C111" s="3">
         <v>3590</v>
@@ -9460,8 +9457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
   <dimension ref="A1:E730"/>
   <sheetViews>
-    <sheetView topLeftCell="A714" workbookViewId="0">
-      <selection activeCell="E730" sqref="A558:E730"/>
+    <sheetView topLeftCell="A663" workbookViewId="0">
+      <selection activeCell="A679" sqref="A679:A730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21676,8 +21673,8 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A679" s="2" t="s">
-        <v>1272</v>
+      <c r="A679" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B679" s="2" t="s">
         <v>1220</v>
@@ -21694,8 +21691,8 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A680" s="2" t="s">
-        <v>1272</v>
+      <c r="A680" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B680" s="2" t="s">
         <v>1221</v>
@@ -21712,8 +21709,8 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A681" s="2" t="s">
-        <v>1272</v>
+      <c r="A681" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B681" s="2" t="s">
         <v>1222</v>
@@ -21730,8 +21727,8 @@
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A682" s="2" t="s">
-        <v>1272</v>
+      <c r="A682" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B682" s="2" t="s">
         <v>1223</v>
@@ -21748,8 +21745,8 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A683" s="2" t="s">
-        <v>1272</v>
+      <c r="A683" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B683" s="2" t="s">
         <v>1224</v>
@@ -21766,8 +21763,8 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A684" s="2" t="s">
-        <v>1272</v>
+      <c r="A684" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B684" s="2" t="s">
         <v>1225</v>
@@ -21784,8 +21781,8 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A685" s="2" t="s">
-        <v>1272</v>
+      <c r="A685" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B685" s="2" t="s">
         <v>1226</v>
@@ -21802,8 +21799,8 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A686" s="2" t="s">
-        <v>1272</v>
+      <c r="A686" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B686" s="2" t="s">
         <v>1227</v>
@@ -21820,8 +21817,8 @@
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A687" s="2" t="s">
-        <v>1272</v>
+      <c r="A687" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B687" s="2" t="s">
         <v>1228</v>
@@ -21838,8 +21835,8 @@
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A688" s="2" t="s">
-        <v>1272</v>
+      <c r="A688" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B688" s="2" t="s">
         <v>1229</v>
@@ -21856,8 +21853,8 @@
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A689" s="2" t="s">
-        <v>1272</v>
+      <c r="A689" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B689" s="2" t="s">
         <v>1230</v>
@@ -21874,8 +21871,8 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A690" s="2" t="s">
-        <v>1272</v>
+      <c r="A690" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B690" s="2" t="s">
         <v>1231</v>
@@ -21892,8 +21889,8 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A691" s="2" t="s">
-        <v>1272</v>
+      <c r="A691" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B691" s="2" t="s">
         <v>1232</v>
@@ -21910,8 +21907,8 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A692" s="2" t="s">
-        <v>1272</v>
+      <c r="A692" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B692" s="2" t="s">
         <v>1233</v>
@@ -21928,8 +21925,8 @@
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A693" s="2" t="s">
-        <v>1272</v>
+      <c r="A693" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B693" s="2" t="s">
         <v>1234</v>
@@ -21946,8 +21943,8 @@
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A694" s="2" t="s">
-        <v>1272</v>
+      <c r="A694" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B694" s="2" t="s">
         <v>1235</v>
@@ -21964,8 +21961,8 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A695" s="2" t="s">
-        <v>1272</v>
+      <c r="A695" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B695" s="2" t="s">
         <v>1236</v>
@@ -21982,8 +21979,8 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A696" s="2" t="s">
-        <v>1272</v>
+      <c r="A696" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B696" s="2" t="s">
         <v>1237</v>
@@ -22000,8 +21997,8 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A697" s="2" t="s">
-        <v>1272</v>
+      <c r="A697" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B697" s="2" t="s">
         <v>1238</v>
@@ -22018,8 +22015,8 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A698" s="2" t="s">
-        <v>1272</v>
+      <c r="A698" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B698" s="2" t="s">
         <v>1239</v>
@@ -22036,8 +22033,8 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A699" s="2" t="s">
-        <v>1272</v>
+      <c r="A699" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B699" s="2" t="s">
         <v>1240</v>
@@ -22054,8 +22051,8 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A700" s="2" t="s">
-        <v>1272</v>
+      <c r="A700" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B700" s="2" t="s">
         <v>1241</v>
@@ -22072,8 +22069,8 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A701" s="2" t="s">
-        <v>1272</v>
+      <c r="A701" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B701" s="2" t="s">
         <v>1242</v>
@@ -22090,8 +22087,8 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A702" s="2" t="s">
-        <v>1272</v>
+      <c r="A702" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B702" s="2" t="s">
         <v>1243</v>
@@ -22108,8 +22105,8 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A703" s="2" t="s">
-        <v>1272</v>
+      <c r="A703" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B703" s="2" t="s">
         <v>1244</v>
@@ -22126,8 +22123,8 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A704" s="2" t="s">
-        <v>1272</v>
+      <c r="A704" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B704" s="2" t="s">
         <v>1245</v>
@@ -22144,8 +22141,8 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A705" s="2" t="s">
-        <v>1272</v>
+      <c r="A705" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B705" s="2" t="s">
         <v>1246</v>
@@ -22162,8 +22159,8 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A706" s="2" t="s">
-        <v>1272</v>
+      <c r="A706" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B706" s="2" t="s">
         <v>1247</v>
@@ -22180,8 +22177,8 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A707" s="2" t="s">
-        <v>1272</v>
+      <c r="A707" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B707" s="2" t="s">
         <v>1248</v>
@@ -22198,8 +22195,8 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A708" s="2" t="s">
-        <v>1272</v>
+      <c r="A708" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B708" s="2" t="s">
         <v>1249</v>
@@ -22216,8 +22213,8 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A709" s="2" t="s">
-        <v>1272</v>
+      <c r="A709" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B709" s="2" t="s">
         <v>1250</v>
@@ -22234,8 +22231,8 @@
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A710" s="2" t="s">
-        <v>1272</v>
+      <c r="A710" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B710" s="2" t="s">
         <v>1251</v>
@@ -22252,8 +22249,8 @@
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A711" s="2" t="s">
-        <v>1272</v>
+      <c r="A711" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B711" s="2" t="s">
         <v>1252</v>
@@ -22270,8 +22267,8 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A712" s="2" t="s">
-        <v>1272</v>
+      <c r="A712" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B712" s="2" t="s">
         <v>1253</v>
@@ -22288,8 +22285,8 @@
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A713" s="2" t="s">
-        <v>1272</v>
+      <c r="A713" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B713" s="2" t="s">
         <v>1254</v>
@@ -22306,8 +22303,8 @@
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A714" s="2" t="s">
-        <v>1272</v>
+      <c r="A714" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B714" s="2" t="s">
         <v>1255</v>
@@ -22324,8 +22321,8 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A715" s="2" t="s">
-        <v>1272</v>
+      <c r="A715" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B715" s="2" t="s">
         <v>1256</v>
@@ -22342,8 +22339,8 @@
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A716" s="2" t="s">
-        <v>1272</v>
+      <c r="A716" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B716" s="2" t="s">
         <v>1257</v>
@@ -22360,8 +22357,8 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A717" s="2" t="s">
-        <v>1272</v>
+      <c r="A717" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B717" s="2" t="s">
         <v>1258</v>
@@ -22378,8 +22375,8 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A718" s="2" t="s">
-        <v>1272</v>
+      <c r="A718" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B718" s="2" t="s">
         <v>1259</v>
@@ -22396,8 +22393,8 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A719" s="2" t="s">
-        <v>1272</v>
+      <c r="A719" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B719" s="2" t="s">
         <v>1260</v>
@@ -22414,8 +22411,8 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A720" s="2" t="s">
-        <v>1272</v>
+      <c r="A720" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B720" s="2" t="s">
         <v>1261</v>
@@ -22432,8 +22429,8 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A721" s="2" t="s">
-        <v>1272</v>
+      <c r="A721" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B721" s="2" t="s">
         <v>1262</v>
@@ -22450,8 +22447,8 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A722" s="2" t="s">
-        <v>1272</v>
+      <c r="A722" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B722" s="2" t="s">
         <v>1263</v>
@@ -22468,8 +22465,8 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A723" s="2" t="s">
-        <v>1272</v>
+      <c r="A723" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B723" s="2" t="s">
         <v>1264</v>
@@ -22486,8 +22483,8 @@
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A724" s="2" t="s">
-        <v>1272</v>
+      <c r="A724" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B724" s="2" t="s">
         <v>1265</v>
@@ -22504,8 +22501,8 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A725" s="2" t="s">
-        <v>1272</v>
+      <c r="A725" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B725" s="2" t="s">
         <v>1266</v>
@@ -22522,8 +22519,8 @@
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A726" s="2" t="s">
-        <v>1272</v>
+      <c r="A726" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B726" s="2" t="s">
         <v>1267</v>
@@ -22540,8 +22537,8 @@
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A727" s="2" t="s">
-        <v>1272</v>
+      <c r="A727" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B727" s="2" t="s">
         <v>1268</v>
@@ -22558,8 +22555,8 @@
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A728" s="2" t="s">
-        <v>1272</v>
+      <c r="A728" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B728" s="2" t="s">
         <v>1269</v>
@@ -22576,8 +22573,8 @@
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A729" s="2" t="s">
-        <v>1272</v>
+      <c r="A729" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B729" s="2" t="s">
         <v>1270</v>
@@ -22594,8 +22591,8 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A730" s="2" t="s">
-        <v>1272</v>
+      <c r="A730" s="8" t="s">
+        <v>1219</v>
       </c>
       <c r="B730" s="2" t="s">
         <v>1271</v>
@@ -26852,7 +26849,7 @@
         <v>1219</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C168" s="3">
         <v>154</v>
@@ -26870,7 +26867,7 @@
         <v>1219</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C169" s="3">
         <v>434</v>
@@ -26888,7 +26885,7 @@
         <v>1219</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C170" s="3">
         <v>1200</v>
@@ -26906,7 +26903,7 @@
         <v>1219</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C171" s="3">
         <v>35000</v>
@@ -26924,7 +26921,7 @@
         <v>1219</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C172" s="3">
         <v>62411</v>
@@ -26960,7 +26957,7 @@
         <v>1219</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C174" s="3">
         <v>60000</v>
@@ -27349,7 +27346,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27399,7 +27396,7 @@
         <v>1219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C3" s="3">
         <v>8332</v>
@@ -27417,7 +27414,7 @@
         <v>1219</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C4" s="3">
         <v>706</v>
@@ -27435,7 +27432,7 @@
         <v>1219</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C5" s="3">
         <v>517</v>
@@ -27453,7 +27450,7 @@
         <v>1219</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C6" s="3">
         <v>1009</v>
@@ -27471,7 +27468,7 @@
         <v>1219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C7" s="3">
         <v>619</v>
@@ -27489,7 +27486,7 @@
         <v>1219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C8" s="3">
         <v>9299</v>
@@ -27507,7 +27504,7 @@
         <v>1219</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C9" s="3">
         <v>1195</v>
@@ -27525,7 +27522,7 @@
         <v>1219</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C10" s="3">
         <v>36070</v>
@@ -27543,7 +27540,7 @@
         <v>1219</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C11" s="3">
         <v>67209</v>
@@ -27561,7 +27558,7 @@
         <v>1219</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C12" s="3">
         <v>23233</v>
@@ -27579,7 +27576,7 @@
         <v>1219</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C13" s="3">
         <v>25770</v>
@@ -27597,7 +27594,7 @@
         <v>1219</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C14" s="3">
         <v>23315</v>
@@ -27615,7 +27612,7 @@
         <v>1219</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C15" s="3">
         <v>3560</v>
@@ -27706,7 +27703,7 @@
         <v>1219</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C2" s="3">
         <v>24366</v>
@@ -27724,7 +27721,7 @@
         <v>1219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C3" s="3">
         <v>24000</v>
@@ -27866,8 +27863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28313,7 +28310,7 @@
         <v>1219</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C25" s="3">
         <v>5450</v>
@@ -28331,7 +28328,7 @@
         <v>1219</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C26" s="3">
         <v>8457</v>
@@ -28349,7 +28346,7 @@
         <v>1219</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C27" s="3">
         <v>24700</v>
@@ -28367,7 +28364,7 @@
         <v>1219</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C28" s="3">
         <v>27200</v>
@@ -28385,7 +28382,7 @@
         <v>1219</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C29" s="3">
         <v>19000</v>
@@ -28403,7 +28400,7 @@
         <v>1219</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C30" s="3">
         <v>38638</v>
@@ -28421,7 +28418,7 @@
         <v>1219</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C31" s="3">
         <v>3480</v>
@@ -28439,7 +28436,7 @@
         <v>1219</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C32" s="3">
         <v>7827</v>
@@ -28457,7 +28454,7 @@
         <v>1219</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C33" s="3">
         <v>29500</v>
@@ -28475,7 +28472,7 @@
         <v>1219</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C34" s="3">
         <v>19000</v>
@@ -28493,7 +28490,7 @@
         <v>1219</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C35" s="3">
         <v>19309</v>
@@ -28511,7 +28508,7 @@
         <v>1219</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C36" s="3">
         <v>505</v>
@@ -28529,7 +28526,7 @@
         <v>1219</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C37" s="3">
         <v>1150</v>
@@ -28547,7 +28544,7 @@
         <v>1219</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C38" s="3">
         <v>2009</v>
@@ -28565,7 +28562,7 @@
         <v>1219</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C39" s="3">
         <v>1880</v>
@@ -28583,7 +28580,7 @@
         <v>1219</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C40" s="3">
         <v>1090</v>
@@ -28601,7 +28598,7 @@
         <v>1219</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C41" s="3">
         <v>1970</v>
@@ -28619,7 +28616,7 @@
         <v>1219</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C42" s="3">
         <v>175</v>
@@ -28637,7 +28634,7 @@
         <v>1219</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C43" s="3">
         <v>385</v>
@@ -28655,7 +28652,7 @@
         <v>1219</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C44" s="3">
         <v>496</v>
@@ -28673,7 +28670,7 @@
         <v>1219</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C45" s="3">
         <v>426</v>
@@ -28691,7 +28688,7 @@
         <v>1219</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C46" s="3">
         <v>84</v>
@@ -28709,17 +28706,17 @@
         <v>1219</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C47" s="3">
         <v>233</v>
       </c>
       <c r="D47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.42918454935622319</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -28727,7 +28724,7 @@
         <v>1219</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C48" s="3">
         <v>284</v>
@@ -28745,7 +28742,7 @@
         <v>1219</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C49" s="3">
         <v>340</v>
@@ -28763,7 +28760,7 @@
         <v>1219</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C50" s="3">
         <v>494</v>
@@ -28781,7 +28778,7 @@
         <v>1219</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C51" s="3">
         <v>281</v>
@@ -28799,7 +28796,7 @@
         <v>1219</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C52" s="3">
         <v>226</v>
@@ -28817,7 +28814,7 @@
         <v>1219</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C53" s="3">
         <v>273</v>
@@ -28835,7 +28832,7 @@
         <v>1219</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C54" s="3">
         <v>434</v>
@@ -28853,7 +28850,7 @@
         <v>1219</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C55" s="3">
         <v>621</v>
@@ -28871,7 +28868,7 @@
         <v>1219</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C56" s="3">
         <v>376</v>
@@ -28889,7 +28886,7 @@
         <v>1219</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C57" s="3">
         <v>442</v>
@@ -28907,7 +28904,7 @@
         <v>1219</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C58" s="3">
         <v>408</v>
@@ -28925,7 +28922,7 @@
         <v>1219</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C59" s="3">
         <v>224</v>
@@ -28943,7 +28940,7 @@
         <v>1219</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C60" s="3">
         <v>4832</v>
@@ -28961,7 +28958,7 @@
         <v>1219</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C61" s="3">
         <v>18163</v>
@@ -28979,7 +28976,7 @@
         <v>1219</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C62" s="3">
         <v>40369</v>
@@ -28997,7 +28994,7 @@
         <v>1219</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C63" s="3">
         <v>41202</v>
@@ -29015,7 +29012,7 @@
         <v>1219</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C64" s="3">
         <v>27360</v>
@@ -29033,7 +29030,7 @@
         <v>1219</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C65" s="3">
         <v>67637</v>
@@ -29051,7 +29048,7 @@
         <v>1219</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C66" s="3">
         <v>93687</v>
@@ -29069,7 +29066,7 @@
         <v>1219</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C67" s="3">
         <v>1807</v>
@@ -29087,7 +29084,7 @@
         <v>1219</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C68" s="3">
         <v>1265</v>
@@ -29105,7 +29102,7 @@
         <v>1219</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C69" s="3">
         <v>859</v>
@@ -29123,7 +29120,7 @@
         <v>1219</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C70" s="3">
         <v>1178</v>
@@ -29141,7 +29138,7 @@
         <v>1219</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C71" s="3">
         <v>499</v>
@@ -29159,7 +29156,7 @@
         <v>1219</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C72" s="3">
         <v>28700</v>
@@ -29177,7 +29174,7 @@
         <v>1219</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C73" s="3">
         <v>36826</v>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7789275-77B3-4533-97F4-11A2E979427C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D5B93-530E-4DFB-8910-E2741820384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="1569">
   <si>
     <t>Ссылка</t>
   </si>
@@ -4384,6 +4384,375 @@
   </si>
   <si>
     <t>https://t.me/klg_alarm/14045</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10292</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10699</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5989</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17360</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11782</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6665</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7881</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2372</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6256</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12398</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3331</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6533</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6396</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7699</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8515</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5969</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6576</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5893</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8527</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6268</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4124</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4789</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6962</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5903</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48740</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2809967</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5892</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6399</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25714</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157315622464929</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14144</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157314448911777</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25689</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14131</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_22044</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157466807104473</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48736</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157466614756313</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14129</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25683</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157314195156385</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2809870</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14125</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_460681</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14111</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25669</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157312904490401</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6254</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157313118399905</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25672</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14112</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2809650</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14107</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25666</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157312787115425</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4506</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158103360853325</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10689</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7681</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6523</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7875</t>
+  </si>
+  <si>
+    <t>01.09 - 07.09</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4513</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158104874931533</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_22052</t>
+  </si>
+  <si>
+    <t>https://ok.ru/milayakalu/topic/158104811885901</t>
+  </si>
+  <si>
+    <t>https://t.me/milaya_kaluga/3068?single</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_4005</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/934</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-187624481_42866</t>
+  </si>
+  <si>
+    <t>https://ok.ru/kalugazanashih/topic/157466881946585</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10291</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10697</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5988</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17359</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11783</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6664</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7879</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2369</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6254</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12399</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3328</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6531</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6397</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7693</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8516</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5968</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6578</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5886</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8534</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6267</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4129</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4799</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6963</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5902</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157466526151641</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_460747</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-136338823_304590</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-54813709_760794</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-93925359_105214</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48733</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-105830515_336479</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-164004919_64820</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-154225721_251550</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-57628472_3860365</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-84737494_3211302</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-81543912_342890</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-145316206_133150</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-180268261_62326</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2809922</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157313993960865</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25678</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14126</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-104288823_216235</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-82003693_564629</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-67433083_208896</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-78053332_691750</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-88454669_52828</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48718</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48712</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25697</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157314569366945</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14133</t>
   </si>
 </sst>
 </file>
@@ -4424,7 +4793,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4460,25 +4829,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4492,7 +4848,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -6981,7 +7336,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B91:B104">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7461,17 +7816,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF44B6C-916C-4D23-9E6B-AE95ABFB7419}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -7523,7 +7879,7 @@
         <v>135</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E23" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E25" si="0">D3/C3*100</f>
         <v>0.45302013422818793</v>
       </c>
     </row>
@@ -7888,7 +8244,40 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+      <c r="A24" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C24" s="2">
+        <v>28600</v>
+      </c>
+      <c r="D24" s="1">
+        <v>95</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33216783216783219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C25" s="2">
+        <v>27400</v>
+      </c>
+      <c r="D25" s="1">
+        <v>118</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43065693430656937</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B22:B23">
@@ -8147,19 +8536,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J126" sqref="J125:J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="53.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -9363,7 +9752,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" ref="E67:E117" si="1">D67/C67*100</f>
+        <f t="shared" ref="E67:E120" si="1">D67/C67*100</f>
         <v>0.31050912789763907</v>
       </c>
     </row>
@@ -9542,25 +9931,25 @@
       <c r="D77" s="1">
         <v>61</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <f t="shared" si="1"/>
         <v>7.5776397515527947</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="2">
         <v>9845</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="1">
         <v>97</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <f t="shared" si="1"/>
         <v>0.98527171152869475</v>
       </c>
@@ -10265,6 +10654,60 @@
       <c r="E117" s="1">
         <f t="shared" si="1"/>
         <v>1.9946091644204851</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C118" s="2">
+        <v>7985</v>
+      </c>
+      <c r="D118" s="1">
+        <v>33</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41327489041953663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C119" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D119" s="1">
+        <v>24</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C120" s="2">
+        <v>2590</v>
+      </c>
+      <c r="D120" s="1">
+        <v>56</v>
+      </c>
+      <c r="E120" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1621621621621623</v>
       </c>
     </row>
   </sheetData>
@@ -10281,10 +10724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E760"/>
+  <dimension ref="A1:E821"/>
   <sheetViews>
-    <sheetView topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="E760" sqref="A677:E760"/>
+    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
+      <selection activeCell="C825" sqref="C825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22962,7 +23405,7 @@
         <v>60</v>
       </c>
       <c r="E704" s="1">
-        <f t="shared" ref="E704:E760" si="10">D704/C704*100</f>
+        <f t="shared" ref="E704:E767" si="10">D704/C704*100</f>
         <v>0.13844023996308261</v>
       </c>
     </row>
@@ -23974,9 +24417,1107 @@
         <v>0.7555126065184925</v>
       </c>
     </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A761" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C761" s="2">
+        <v>398</v>
+      </c>
+      <c r="D761" s="1">
+        <v>5</v>
+      </c>
+      <c r="E761" s="1">
+        <f t="shared" si="10"/>
+        <v>1.256281407035176</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A762" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C762" s="2">
+        <v>907</v>
+      </c>
+      <c r="D762" s="1">
+        <v>13</v>
+      </c>
+      <c r="E762" s="1">
+        <f t="shared" si="10"/>
+        <v>1.4332965821389196</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A763" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C763" s="2">
+        <v>1610</v>
+      </c>
+      <c r="D763" s="1">
+        <v>26</v>
+      </c>
+      <c r="E763" s="1">
+        <f t="shared" si="10"/>
+        <v>1.6149068322981366</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A764" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C764" s="2">
+        <v>1510</v>
+      </c>
+      <c r="D764" s="1">
+        <v>9</v>
+      </c>
+      <c r="E764" s="1">
+        <f t="shared" si="10"/>
+        <v>0.59602649006622521</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A765" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C765" s="2">
+        <v>881</v>
+      </c>
+      <c r="D765" s="1">
+        <v>21</v>
+      </c>
+      <c r="E765" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3836549375709422</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A766" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C766" s="2">
+        <v>1770</v>
+      </c>
+      <c r="D766" s="1">
+        <v>10</v>
+      </c>
+      <c r="E766" s="1">
+        <f t="shared" si="10"/>
+        <v>0.56497175141242939</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A767" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C767" s="2">
+        <v>117</v>
+      </c>
+      <c r="D767" s="1">
+        <v>3</v>
+      </c>
+      <c r="E767" s="1">
+        <f t="shared" si="10"/>
+        <v>2.5641025641025639</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A768" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C768" s="2">
+        <v>268</v>
+      </c>
+      <c r="D768" s="1">
+        <v>5</v>
+      </c>
+      <c r="E768" s="1">
+        <f t="shared" ref="E768:E821" si="11">D768/C768*100</f>
+        <v>1.8656716417910446</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A769" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C769" s="2">
+        <v>338</v>
+      </c>
+      <c r="D769" s="1">
+        <v>2</v>
+      </c>
+      <c r="E769" s="1">
+        <f t="shared" si="11"/>
+        <v>0.59171597633136097</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A770" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C770" s="2">
+        <v>238</v>
+      </c>
+      <c r="D770" s="1">
+        <v>2</v>
+      </c>
+      <c r="E770" s="1">
+        <f t="shared" si="11"/>
+        <v>0.84033613445378152</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A771" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C771" s="2">
+        <v>57</v>
+      </c>
+      <c r="D771" s="1">
+        <v>2</v>
+      </c>
+      <c r="E771" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5087719298245612</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A772" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C772" s="2">
+        <v>192</v>
+      </c>
+      <c r="D772" s="1">
+        <v>10</v>
+      </c>
+      <c r="E772" s="1">
+        <f t="shared" si="11"/>
+        <v>5.2083333333333339</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A773" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C773" s="2">
+        <v>226</v>
+      </c>
+      <c r="D773" s="1">
+        <v>6</v>
+      </c>
+      <c r="E773" s="1">
+        <f t="shared" si="11"/>
+        <v>2.6548672566371683</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A774" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C774" s="2">
+        <v>248</v>
+      </c>
+      <c r="D774" s="1">
+        <v>1</v>
+      </c>
+      <c r="E774" s="1">
+        <f t="shared" si="11"/>
+        <v>0.40322580645161288</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A775" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C775" s="2">
+        <v>354</v>
+      </c>
+      <c r="D775" s="1">
+        <v>7</v>
+      </c>
+      <c r="E775" s="1">
+        <f t="shared" si="11"/>
+        <v>1.977401129943503</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A776" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C776" s="2">
+        <v>236</v>
+      </c>
+      <c r="D776" s="1">
+        <v>4</v>
+      </c>
+      <c r="E776" s="1">
+        <f t="shared" si="11"/>
+        <v>1.6949152542372881</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A777" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C777" s="2">
+        <v>177</v>
+      </c>
+      <c r="D777" s="1">
+        <v>1</v>
+      </c>
+      <c r="E777" s="1">
+        <f t="shared" si="11"/>
+        <v>0.56497175141242939</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A778" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C778" s="2">
+        <v>194</v>
+      </c>
+      <c r="D778" s="1">
+        <v>8</v>
+      </c>
+      <c r="E778" s="1">
+        <f t="shared" si="11"/>
+        <v>4.1237113402061851</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A779" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C779" s="2">
+        <v>294</v>
+      </c>
+      <c r="D779" s="1">
+        <v>1</v>
+      </c>
+      <c r="E779" s="1">
+        <f t="shared" si="11"/>
+        <v>0.3401360544217687</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A780" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C780" s="2">
+        <v>535</v>
+      </c>
+      <c r="D780" s="1">
+        <v>7</v>
+      </c>
+      <c r="E780" s="1">
+        <f t="shared" si="11"/>
+        <v>1.3084112149532712</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A781" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C781" s="2">
+        <v>265</v>
+      </c>
+      <c r="D781" s="1">
+        <v>8</v>
+      </c>
+      <c r="E781" s="1">
+        <f t="shared" si="11"/>
+        <v>3.0188679245283021</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A782" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C782" s="2">
+        <v>347</v>
+      </c>
+      <c r="D782" s="1">
+        <v>8</v>
+      </c>
+      <c r="E782" s="1">
+        <f t="shared" si="11"/>
+        <v>2.3054755043227666</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A783" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C783" s="2">
+        <v>292</v>
+      </c>
+      <c r="D783" s="1">
+        <v>10</v>
+      </c>
+      <c r="E783" s="1">
+        <f t="shared" si="11"/>
+        <v>3.4246575342465753</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A784" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C784" s="2">
+        <v>190</v>
+      </c>
+      <c r="D784" s="1">
+        <v>2</v>
+      </c>
+      <c r="E784" s="1">
+        <f t="shared" si="11"/>
+        <v>1.0526315789473684</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A785" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C785" s="2">
+        <v>24900</v>
+      </c>
+      <c r="D785" s="1">
+        <v>647</v>
+      </c>
+      <c r="E785" s="1">
+        <f t="shared" si="11"/>
+        <v>2.5983935742971886</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A786" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C786" s="2">
+        <v>10635</v>
+      </c>
+      <c r="D786" s="1">
+        <v>205</v>
+      </c>
+      <c r="E786" s="1">
+        <f t="shared" si="11"/>
+        <v>1.9275975552421252</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A787" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C787" s="2">
+        <v>281</v>
+      </c>
+      <c r="D787" s="1">
+        <v>7</v>
+      </c>
+      <c r="E787" s="1">
+        <f t="shared" si="11"/>
+        <v>2.4911032028469751</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A788" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C788" s="2">
+        <v>208</v>
+      </c>
+      <c r="D788" s="1">
+        <v>7</v>
+      </c>
+      <c r="E788" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3653846153846154</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A789" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C789" s="2">
+        <v>270</v>
+      </c>
+      <c r="D789" s="1">
+        <v>14</v>
+      </c>
+      <c r="E789" s="1">
+        <f t="shared" si="11"/>
+        <v>5.1851851851851851</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A790" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C790" s="2">
+        <v>51</v>
+      </c>
+      <c r="D790" s="1">
+        <v>9</v>
+      </c>
+      <c r="E790" s="1">
+        <f t="shared" si="11"/>
+        <v>17.647058823529413</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A791" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C791" s="2">
+        <v>784</v>
+      </c>
+      <c r="D791" s="1">
+        <v>60</v>
+      </c>
+      <c r="E791" s="1">
+        <f t="shared" si="11"/>
+        <v>7.6530612244897958</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A792" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C792" s="2">
+        <v>17000</v>
+      </c>
+      <c r="D792" s="1">
+        <v>41</v>
+      </c>
+      <c r="E792" s="1">
+        <f t="shared" si="11"/>
+        <v>0.24117647058823527</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A793" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C793" s="2">
+        <v>721</v>
+      </c>
+      <c r="D793" s="1">
+        <v>36</v>
+      </c>
+      <c r="E793" s="1">
+        <f t="shared" si="11"/>
+        <v>4.9930651872399441</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A794" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C794" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D794" s="1">
+        <v>147</v>
+      </c>
+      <c r="E794" s="1">
+        <f t="shared" si="11"/>
+        <v>5.4444444444444438</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A795" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C795" s="2">
+        <v>10618</v>
+      </c>
+      <c r="D795" s="1">
+        <v>251</v>
+      </c>
+      <c r="E795" s="1">
+        <f t="shared" si="11"/>
+        <v>2.3639103409304951</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A796" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C796" s="2">
+        <v>8100</v>
+      </c>
+      <c r="D796" s="1">
+        <v>12</v>
+      </c>
+      <c r="E796" s="1">
+        <f t="shared" si="11"/>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A797" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C797" s="2">
+        <v>26100</v>
+      </c>
+      <c r="D797" s="1">
+        <v>141</v>
+      </c>
+      <c r="E797" s="1">
+        <f t="shared" si="11"/>
+        <v>0.54022988505747127</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A798" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C798" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D798" s="1">
+        <v>11</v>
+      </c>
+      <c r="E798" s="1">
+        <f t="shared" si="11"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A799" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C799" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D799" s="1">
+        <v>63</v>
+      </c>
+      <c r="E799" s="1">
+        <f t="shared" si="11"/>
+        <v>2.1724137931034484</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A800" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C800" s="2">
+        <v>4002</v>
+      </c>
+      <c r="D800" s="1">
+        <v>21</v>
+      </c>
+      <c r="E800" s="1">
+        <f t="shared" si="11"/>
+        <v>0.52473763118440786</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A801" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C801" s="2">
+        <v>6600</v>
+      </c>
+      <c r="D801" s="1">
+        <v>14</v>
+      </c>
+      <c r="E801" s="1">
+        <f t="shared" si="11"/>
+        <v>0.21212121212121215</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A802" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C802" s="2">
+        <v>4525</v>
+      </c>
+      <c r="D802" s="1">
+        <v>44</v>
+      </c>
+      <c r="E802" s="1">
+        <f t="shared" si="11"/>
+        <v>0.97237569060773488</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A803" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C803" s="2">
+        <v>2920</v>
+      </c>
+      <c r="D803" s="1">
+        <v>80</v>
+      </c>
+      <c r="E803" s="1">
+        <f t="shared" si="11"/>
+        <v>2.7397260273972601</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A804" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C804" s="2">
+        <v>853</v>
+      </c>
+      <c r="D804" s="1">
+        <v>5</v>
+      </c>
+      <c r="E804" s="1">
+        <f t="shared" si="11"/>
+        <v>0.58616647127784294</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A805" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C805" s="2">
+        <v>3190</v>
+      </c>
+      <c r="D805" s="1">
+        <v>71</v>
+      </c>
+      <c r="E805" s="1">
+        <f t="shared" si="11"/>
+        <v>2.2257053291536053</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A806" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C806" s="2">
+        <v>12843</v>
+      </c>
+      <c r="D806" s="1">
+        <v>41</v>
+      </c>
+      <c r="E806" s="1">
+        <f t="shared" si="11"/>
+        <v>0.3192400529471307</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A807" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C807" s="2">
+        <v>28012</v>
+      </c>
+      <c r="D807" s="1">
+        <v>79</v>
+      </c>
+      <c r="E807" s="1">
+        <f t="shared" si="11"/>
+        <v>0.28202199057546767</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A808" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C808" s="2">
+        <v>951</v>
+      </c>
+      <c r="D808" s="1">
+        <v>28</v>
+      </c>
+      <c r="E808" s="1">
+        <f t="shared" si="11"/>
+        <v>2.9442691903259726</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A809" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C809" s="2">
+        <v>45515</v>
+      </c>
+      <c r="D809" s="1">
+        <v>227</v>
+      </c>
+      <c r="E809" s="1">
+        <f t="shared" si="11"/>
+        <v>0.49873668021531364</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A810" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C810" s="2">
+        <v>14080</v>
+      </c>
+      <c r="D810" s="1">
+        <v>47</v>
+      </c>
+      <c r="E810" s="1">
+        <f t="shared" si="11"/>
+        <v>0.33380681818181818</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A811" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C811" s="2">
+        <v>3230</v>
+      </c>
+      <c r="D811" s="1">
+        <v>73</v>
+      </c>
+      <c r="E811" s="1">
+        <f t="shared" si="11"/>
+        <v>2.2600619195046439</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A812" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C812" s="2">
+        <v>6160</v>
+      </c>
+      <c r="D812" s="1">
+        <v>47</v>
+      </c>
+      <c r="E812" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76298701298701299</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A813" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C813" s="2">
+        <v>3430</v>
+      </c>
+      <c r="D813" s="1">
+        <v>85</v>
+      </c>
+      <c r="E813" s="1">
+        <f t="shared" si="11"/>
+        <v>2.4781341107871722</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A814" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C814" s="2">
+        <v>13120</v>
+      </c>
+      <c r="D814" s="1">
+        <v>52</v>
+      </c>
+      <c r="E814" s="1">
+        <f t="shared" si="11"/>
+        <v>0.39634146341463417</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A815" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C815" s="2">
+        <v>26431</v>
+      </c>
+      <c r="D815" s="1">
+        <v>149</v>
+      </c>
+      <c r="E815" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5637319813854943</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A816" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C816" s="2">
+        <v>22050</v>
+      </c>
+      <c r="D816" s="1">
+        <v>38</v>
+      </c>
+      <c r="E816" s="1">
+        <f t="shared" si="11"/>
+        <v>0.17233560090702948</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A817" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C817" s="2">
+        <v>66000</v>
+      </c>
+      <c r="D817" s="1">
+        <v>56</v>
+      </c>
+      <c r="E817" s="1">
+        <f t="shared" si="11"/>
+        <v>8.4848484848484854E-2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A818" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C818" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D818" s="1">
+        <v>52</v>
+      </c>
+      <c r="E818" s="1">
+        <f t="shared" si="11"/>
+        <v>4.5217391304347831</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A819" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C819" s="2">
+        <v>337</v>
+      </c>
+      <c r="D819" s="1">
+        <v>43</v>
+      </c>
+      <c r="E819" s="1">
+        <f t="shared" si="11"/>
+        <v>12.759643916913946</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A820" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C820" s="2">
+        <v>268</v>
+      </c>
+      <c r="D820" s="1">
+        <v>43</v>
+      </c>
+      <c r="E820" s="1">
+        <f t="shared" si="11"/>
+        <v>16.044776119402986</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A821" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C821" s="2">
+        <v>170</v>
+      </c>
+      <c r="D821" s="1">
+        <v>43</v>
+      </c>
+      <c r="E821" s="1">
+        <f t="shared" si="11"/>
+        <v>25.294117647058822</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B62:B142">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B679:B760">
     <cfRule type="duplicateValues" dxfId="29" priority="1"/>
@@ -23993,7 +25534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -29948,10 +31489,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31181,7 +32722,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ref="E68:E97" si="1">D68/C68*100</f>
+        <f t="shared" ref="E68:E131" si="1">D68/C68*100</f>
         <v>0.33500837520938026</v>
       </c>
     </row>
@@ -31705,6 +33246,1032 @@
       <c r="E97" s="1">
         <f t="shared" si="1"/>
         <v>8.8290025943684541E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C98" s="2">
+        <v>4977</v>
+      </c>
+      <c r="D98" s="1">
+        <v>19</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38175607795860961</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3600</v>
+      </c>
+      <c r="D99" s="1">
+        <v>17</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47222222222222221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C100" s="2">
+        <v>5833</v>
+      </c>
+      <c r="D100" s="1">
+        <v>19</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32573289902280134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C101" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D101" s="1">
+        <v>20</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C102" s="2">
+        <v>290</v>
+      </c>
+      <c r="D102" s="1">
+        <v>41</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" si="1"/>
+        <v>14.13793103448276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C103" s="2">
+        <v>22191</v>
+      </c>
+      <c r="D103" s="1">
+        <v>21</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4632959307827502E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C104" s="2">
+        <v>373</v>
+      </c>
+      <c r="D104" s="1">
+        <v>45</v>
+      </c>
+      <c r="E104" s="1">
+        <f t="shared" si="1"/>
+        <v>12.064343163538874</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C105" s="2">
+        <v>6645</v>
+      </c>
+      <c r="D105" s="1">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27088036117381487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C106" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D106" s="1">
+        <v>19</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C107" s="2">
+        <v>419</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23866348448687352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C108" s="2">
+        <v>989</v>
+      </c>
+      <c r="D108" s="1">
+        <v>13</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" si="1"/>
+        <v>1.314459049544995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1770</v>
+      </c>
+      <c r="D109" s="1">
+        <v>11</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62146892655367236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1550</v>
+      </c>
+      <c r="D110" s="1">
+        <v>9</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58064516129032262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C111" s="2">
+        <v>891</v>
+      </c>
+      <c r="D111" s="1">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2345679012345678</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1740</v>
+      </c>
+      <c r="D112" s="1">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40229885057471265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C113" s="2">
+        <v>115</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4782608695652173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C114" s="2">
+        <v>273</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8315018315018317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C115" s="2">
+        <v>355</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28169014084507044</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C116" s="2">
+        <v>231</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C117" s="2">
+        <v>55</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2727272727272725</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C118" s="2">
+        <v>187</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6042780748663104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C119" s="2">
+        <v>209</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9569377990430622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C120" s="2">
+        <v>270</v>
+      </c>
+      <c r="D120" s="1">
+        <v>4</v>
+      </c>
+      <c r="E120" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4814814814814816</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C121" s="2">
+        <v>356</v>
+      </c>
+      <c r="D121" s="1">
+        <v>7</v>
+      </c>
+      <c r="E121" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9662921348314606</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C122" s="2">
+        <v>236</v>
+      </c>
+      <c r="D122" s="1">
+        <v>4</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6949152542372881</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C123" s="2">
+        <v>171</v>
+      </c>
+      <c r="D123" s="1">
+        <v>4</v>
+      </c>
+      <c r="E123" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3391812865497075</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C124" s="2">
+        <v>219</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3698630136986301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C125" s="2">
+        <v>252</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4</v>
+      </c>
+      <c r="E125" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5873015873015872</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C126" s="2">
+        <v>538</v>
+      </c>
+      <c r="D126" s="1">
+        <v>6</v>
+      </c>
+      <c r="E126" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1152416356877324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C127" s="2">
+        <v>225</v>
+      </c>
+      <c r="D127" s="1">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C128" s="2">
+        <v>260</v>
+      </c>
+      <c r="D128" s="1">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C129" s="2">
+        <v>252</v>
+      </c>
+      <c r="D129" s="1">
+        <v>9</v>
+      </c>
+      <c r="E129" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C130" s="2">
+        <v>190</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3</v>
+      </c>
+      <c r="E130" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5789473684210527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C131" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D131" s="1">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C132" s="2">
+        <v>611</v>
+      </c>
+      <c r="D132" s="1">
+        <v>12</v>
+      </c>
+      <c r="E132" s="1">
+        <f t="shared" ref="E132:E154" si="2">D132/C132*100</f>
+        <v>1.9639934533551555</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C133" s="2">
+        <v>827</v>
+      </c>
+      <c r="D133" s="1">
+        <v>15</v>
+      </c>
+      <c r="E133" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8137847642079807</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1017</v>
+      </c>
+      <c r="D134" s="1">
+        <v>16</v>
+      </c>
+      <c r="E134" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5732546705998034</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C135" s="2">
+        <v>709</v>
+      </c>
+      <c r="D135" s="1">
+        <v>14</v>
+      </c>
+      <c r="E135" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9746121297602257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C136" s="2">
+        <v>24000</v>
+      </c>
+      <c r="D136" s="1">
+        <v>113</v>
+      </c>
+      <c r="E136" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47083333333333333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C137" s="2">
+        <v>602</v>
+      </c>
+      <c r="D137" s="1">
+        <v>12</v>
+      </c>
+      <c r="E137" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9933554817275747</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C138" s="2">
+        <v>249</v>
+      </c>
+      <c r="D138" s="1">
+        <v>12</v>
+      </c>
+      <c r="E138" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8192771084337354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C139" s="2">
+        <v>499</v>
+      </c>
+      <c r="D139" s="1">
+        <v>14</v>
+      </c>
+      <c r="E139" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8056112224448899</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C140" s="2">
+        <v>331</v>
+      </c>
+      <c r="D140" s="1">
+        <v>13</v>
+      </c>
+      <c r="E140" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9274924471299091</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C141" s="2">
+        <v>6070</v>
+      </c>
+      <c r="D141" s="1">
+        <v>19</v>
+      </c>
+      <c r="E141" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31301482701812189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C142" s="2">
+        <v>898</v>
+      </c>
+      <c r="D142" s="1">
+        <v>12</v>
+      </c>
+      <c r="E142" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3363028953229399</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1248</v>
+      </c>
+      <c r="D143" s="1">
+        <v>21</v>
+      </c>
+      <c r="E143" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6826923076923077</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1081</v>
+      </c>
+      <c r="D144" s="1">
+        <v>18</v>
+      </c>
+      <c r="E144" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6651248843663276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C145" s="2">
+        <v>3648</v>
+      </c>
+      <c r="D145" s="1">
+        <v>5</v>
+      </c>
+      <c r="E145" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13706140350877191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C146" s="2">
+        <v>853</v>
+      </c>
+      <c r="D146" s="1">
+        <v>5</v>
+      </c>
+      <c r="E146" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58616647127784294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C147" s="2">
+        <v>270</v>
+      </c>
+      <c r="D147" s="1">
+        <v>15</v>
+      </c>
+      <c r="E147" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C148" s="2">
+        <v>348</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816088</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2820</v>
+      </c>
+      <c r="D149" s="1">
+        <v>66</v>
+      </c>
+      <c r="E149" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3404255319148937</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1232</v>
+      </c>
+      <c r="D150" s="1">
+        <v>16</v>
+      </c>
+      <c r="E150" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2987012987012987</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3055</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20</v>
+      </c>
+      <c r="E151" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65466448445171854</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C152" s="2">
+        <v>736</v>
+      </c>
+      <c r="D152" s="1">
+        <v>12</v>
+      </c>
+      <c r="E152" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6304347826086956</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C153" s="2">
+        <v>865</v>
+      </c>
+      <c r="D153" s="1">
+        <v>12</v>
+      </c>
+      <c r="E153" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3872832369942196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C154" s="2">
+        <v>429</v>
+      </c>
+      <c r="D154" s="1">
+        <v>16</v>
+      </c>
+      <c r="E154" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7296037296037294</v>
       </c>
     </row>
   </sheetData>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D5B93-530E-4DFB-8910-E2741820384D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857A19A-CF7F-407D-B09E-3EEF379C3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Шеф сделал" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="1694">
   <si>
     <t>Ссылка</t>
   </si>
@@ -4753,6 +4753,381 @@
   </si>
   <si>
     <t>https://t.me/klg_alarm/14133</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2810347</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157316453461409</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25738</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14156</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4131</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5900</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5973</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3334</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6537</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8521</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157467857777625</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-105830515_336527</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-164004919_64853</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-154225721_251619</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-57628472_3860538</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-84737494_3211684</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-81543912_342952</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4532</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158106163500365</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_460880</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25776</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14152</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-105830515_336604</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-164004919_64895</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-154225721_251708</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-57628472_3860726</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-84737494_3212065</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-81543912_343017</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-67433083_208918</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-78053332_691811</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48803</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000003608141/topic/158107625149773</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4540</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25794</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157317922123169</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14173</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2810710</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5996</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17388</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11797</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6674</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7894</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2380</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6268</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12424</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3347</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6542</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7726</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8531</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5978</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6591</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8552</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6287</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4140</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4807</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6973</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5933</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25777</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157317595491745</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14170</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2810318</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25729</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157316134890913</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14151</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14161</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48807</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-105830515_336592</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-164004919_64890</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-154225721_251696</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-57628472_3860680</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-84737494_3212004</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-81543912_343011</t>
+  </si>
+  <si>
+    <t>https://t.me/klgazhensovet/11234</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2810566</t>
+  </si>
+  <si>
+    <t>https://ok.ru/milayakalu/topic/158107353503053</t>
+  </si>
+  <si>
+    <t>https://t.me/milaya_kaluga/3071</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-82003693_564766</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-145316206_133237</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-104288823_216328</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-136338823_304662</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-54813709_761193</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-67433083_208929</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-93925359_105277</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-78053332_691844</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_460985</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-180268261_62363</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4538</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158107543295309</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-224181694_4012</t>
+  </si>
+  <si>
+    <t>https://t.me/klgmem365/938</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14177</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10323</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10715</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/5995</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17387</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11791</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6673</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7890</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2378</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6267</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12423</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3345</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6541</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6421</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7724</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8529</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5977</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6590</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5907</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8551</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6288</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4139</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4806</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6971</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5934</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25783</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157317647527329</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14171</t>
+  </si>
+  <si>
+    <t>https://ok.ru/raionklg/topic/157469110957017</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-193500559_22166</t>
+  </si>
+  <si>
+    <t>https://ok.ru/kalugazanashih/topic/157469264901081</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-187624481_42881</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14146</t>
+  </si>
+  <si>
+    <t>https://ok.ru/goodnewsklg/topic/158106064541005</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-222134246_4530</t>
   </si>
 </sst>
 </file>
@@ -4793,7 +5168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4816,25 +5191,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4845,9 +5207,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -5450,17 +5809,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="53.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -6627,7 +6987,7 @@
       <c r="D65" s="1">
         <v>217</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <f t="shared" si="1"/>
         <v>1.4776983316309158</v>
       </c>
@@ -6645,7 +7005,7 @@
       <c r="D66" s="1">
         <v>79</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <f t="shared" si="1"/>
         <v>0.1984027324325682</v>
       </c>
@@ -6663,25 +7023,25 @@
       <c r="D67" s="1">
         <v>42</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <f t="shared" si="1"/>
         <v>0.19470585508321359</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="2">
         <v>3590</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="1">
         <v>77</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <f t="shared" si="1"/>
         <v>2.1448467966573816</v>
       </c>
@@ -6844,7 +7204,7 @@
         <v>70</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" ref="E77:E104" si="2">D77/C77*100</f>
+        <f t="shared" ref="E77:E124" si="2">D77/C77*100</f>
         <v>0.77476480354178201</v>
       </c>
     </row>
@@ -7332,6 +7692,366 @@
       <c r="E104" s="1">
         <f t="shared" si="2"/>
         <v>0.26911790931050694</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C105" s="2">
+        <v>11198</v>
+      </c>
+      <c r="D105" s="1">
+        <v>86</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76799428469369535</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C106" s="2">
+        <v>8700</v>
+      </c>
+      <c r="D106" s="1">
+        <v>13</v>
+      </c>
+      <c r="E106" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14942528735632185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C107" s="2">
+        <v>8476</v>
+      </c>
+      <c r="D107" s="1">
+        <v>22</v>
+      </c>
+      <c r="E107" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25955639452571966</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C108" s="2">
+        <v>3210</v>
+      </c>
+      <c r="D108" s="1">
+        <v>56</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7445482866043613</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C109" s="2">
+        <v>311</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96463022508038598</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C110" s="2">
+        <v>247</v>
+      </c>
+      <c r="D110" s="1">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" si="2"/>
+        <v>2.834008097165992</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C111" s="2">
+        <v>290</v>
+      </c>
+      <c r="D111" s="1">
+        <v>10</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4482758620689653</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C112" s="2">
+        <v>78</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2820512820512819</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C113" s="2">
+        <v>243</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6460905349794239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C114" s="2">
+        <v>434</v>
+      </c>
+      <c r="D114" s="1">
+        <v>30</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9124423963133648</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C115" s="2">
+        <v>20686</v>
+      </c>
+      <c r="D115" s="1">
+        <v>32</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1546939959392826</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C116" s="2">
+        <v>594</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16835016835016833</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C117" s="2">
+        <v>252</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <f t="shared" si="2"/>
+        <v>0.3968253968253968</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C118" s="2">
+        <v>626</v>
+      </c>
+      <c r="D118" s="1">
+        <v>13</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0766773162939298</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C119" s="2">
+        <v>437</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45766590389016021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C120" s="2">
+        <v>8261</v>
+      </c>
+      <c r="D120" s="1">
+        <v>24</v>
+      </c>
+      <c r="E120" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29052172860428521</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1059</v>
+      </c>
+      <c r="D121" s="1">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56657223796033995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C122" s="2">
+        <v>28352</v>
+      </c>
+      <c r="D122" s="1">
+        <v>60</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21162528216704291</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C123" s="2">
+        <v>10944</v>
+      </c>
+      <c r="D123" s="1">
+        <v>46</v>
+      </c>
+      <c r="E123" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42032163742690054</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C124" s="2">
+        <v>915</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32786885245901637</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +8539,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7879,7 +8599,7 @@
         <v>135</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E25" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E27" si="0">D3/C3*100</f>
         <v>0.45302013422818793</v>
       </c>
     </row>
@@ -8251,14 +8971,14 @@
         <v>1564</v>
       </c>
       <c r="C24" s="2">
-        <v>28600</v>
+        <v>31100</v>
       </c>
       <c r="D24" s="1">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>0.33216783216783219</v>
+        <v>0.32797427652733119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -8269,14 +8989,14 @@
         <v>1565</v>
       </c>
       <c r="C25" s="2">
-        <v>27400</v>
+        <v>29500</v>
       </c>
       <c r="D25" s="1">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>0.43065693430656937</v>
+        <v>0.43389830508474575</v>
       </c>
     </row>
   </sheetData>
@@ -8293,17 +9013,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F4AFC-4924-4E19-95BE-A705AC1FD4BE}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -8337,7 +9058,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E12" si="0">D2/C2*100</f>
+        <f t="shared" ref="E2:E14" si="0">D2/C2*100</f>
         <v>0.18780487804878049</v>
       </c>
     </row>
@@ -8522,11 +9243,40 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11849</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28694404591104739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C14" s="2">
+        <v>34854</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12624089057210075</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8538,8 +9288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J126" sqref="J125:J126"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10664,14 +11414,14 @@
         <v>1566</v>
       </c>
       <c r="C118" s="2">
-        <v>7985</v>
+        <v>58398</v>
       </c>
       <c r="D118" s="1">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" si="1"/>
-        <v>0.41327489041953663</v>
+        <v>0.13870338025274839</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -10682,14 +11432,14 @@
         <v>1567</v>
       </c>
       <c r="C119" s="2">
-        <v>20000</v>
+        <v>34887</v>
       </c>
       <c r="D119" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.11752228623842693</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -10700,14 +11450,14 @@
         <v>1568</v>
       </c>
       <c r="C120" s="2">
-        <v>2590</v>
+        <v>3300</v>
       </c>
       <c r="D120" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" si="1"/>
-        <v>2.1621621621621623</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10724,10 +11474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E821"/>
+  <dimension ref="A1:E871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A805" workbookViewId="0">
-      <selection activeCell="C825" sqref="C825"/>
+    <sheetView topLeftCell="A806" workbookViewId="0">
+      <selection activeCell="A806" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24422,17 +25172,17 @@
         <v>1507</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>1446</v>
+        <v>1589</v>
       </c>
       <c r="C761" s="2">
-        <v>398</v>
+        <v>7265</v>
       </c>
       <c r="D761" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E761" s="1">
         <f t="shared" si="10"/>
-        <v>1.256281407035176</v>
+        <v>0.33035099793530626</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.3">
@@ -24440,17 +25190,17 @@
         <v>1507</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>1447</v>
+        <v>1590</v>
       </c>
       <c r="C762" s="2">
-        <v>907</v>
+        <v>3260</v>
       </c>
       <c r="D762" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E762" s="1">
         <f t="shared" si="10"/>
-        <v>1.4332965821389196</v>
+        <v>0.85889570552147243</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.3">
@@ -24458,17 +25208,17 @@
         <v>1507</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1448</v>
+        <v>1591</v>
       </c>
       <c r="C763" s="2">
-        <v>1610</v>
+        <v>407</v>
       </c>
       <c r="D763" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E763" s="1">
         <f t="shared" si="10"/>
-        <v>1.6149068322981366</v>
+        <v>0.24570024570024571</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.3">
@@ -24476,17 +25226,17 @@
         <v>1507</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1449</v>
+        <v>1592</v>
       </c>
       <c r="C764" s="2">
-        <v>1510</v>
+        <v>264</v>
       </c>
       <c r="D764" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E764" s="1">
         <f t="shared" si="10"/>
-        <v>0.59602649006622521</v>
+        <v>0.75757575757575757</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.3">
@@ -24494,17 +25244,17 @@
         <v>1507</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1450</v>
+        <v>1593</v>
       </c>
       <c r="C765" s="2">
-        <v>881</v>
+        <v>505</v>
       </c>
       <c r="D765" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E765" s="1">
         <f t="shared" si="10"/>
-        <v>2.3836549375709422</v>
+        <v>0.19801980198019803</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.3">
@@ -24512,17 +25262,17 @@
         <v>1507</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1451</v>
+        <v>1594</v>
       </c>
       <c r="C766" s="2">
-        <v>1770</v>
+        <v>359</v>
       </c>
       <c r="D766" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E766" s="1">
         <f t="shared" si="10"/>
-        <v>0.56497175141242939</v>
+        <v>0.2785515320334262</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.3">
@@ -24530,17 +25280,17 @@
         <v>1507</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1452</v>
+        <v>1595</v>
       </c>
       <c r="C767" s="2">
-        <v>117</v>
+        <v>6698</v>
       </c>
       <c r="D767" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E767" s="1">
         <f t="shared" si="10"/>
-        <v>2.5641025641025639</v>
+        <v>0.26873693639892504</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.3">
@@ -24548,17 +25298,17 @@
         <v>1507</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>1453</v>
+        <v>1596</v>
       </c>
       <c r="C768" s="2">
-        <v>268</v>
+        <v>668</v>
       </c>
       <c r="D768" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E768" s="1">
-        <f t="shared" ref="E768:E821" si="11">D768/C768*100</f>
-        <v>1.8656716417910446</v>
+        <f t="shared" ref="E768:E831" si="11">D768/C768*100</f>
+        <v>0.29940119760479045</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.3">
@@ -24566,17 +25316,17 @@
         <v>1507</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>1454</v>
+        <v>1597</v>
       </c>
       <c r="C769" s="2">
-        <v>338</v>
+        <v>4006</v>
       </c>
       <c r="D769" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E769" s="1">
         <f t="shared" si="11"/>
-        <v>0.59171597633136097</v>
+        <v>0.29955067398901647</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.3">
@@ -24584,17 +25334,17 @@
         <v>1507</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1455</v>
+        <v>1598</v>
       </c>
       <c r="C770" s="2">
-        <v>238</v>
+        <v>4148</v>
       </c>
       <c r="D770" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E770" s="1">
         <f t="shared" si="11"/>
-        <v>0.84033613445378152</v>
+        <v>0.62680810028929601</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.3">
@@ -24602,17 +25352,17 @@
         <v>1507</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>1456</v>
+        <v>1599</v>
       </c>
       <c r="C771" s="2">
-        <v>57</v>
+        <v>23900</v>
       </c>
       <c r="D771" s="1">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="E771" s="1">
         <f t="shared" si="11"/>
-        <v>3.5087719298245612</v>
+        <v>1.2552301255230125</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.3">
@@ -24620,17 +25370,17 @@
         <v>1507</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>1457</v>
+        <v>1600</v>
       </c>
       <c r="C772" s="2">
-        <v>192</v>
+        <v>460</v>
       </c>
       <c r="D772" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E772" s="1">
         <f t="shared" si="11"/>
-        <v>5.2083333333333339</v>
+        <v>2.6086956521739131</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.3">
@@ -24638,17 +25388,17 @@
         <v>1507</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>1458</v>
+        <v>1601</v>
       </c>
       <c r="C773" s="2">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="D773" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E773" s="1">
         <f t="shared" si="11"/>
-        <v>2.6548672566371683</v>
+        <v>10.95890410958904</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.3">
@@ -24656,17 +25406,17 @@
         <v>1507</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1459</v>
+        <v>1602</v>
       </c>
       <c r="C774" s="2">
-        <v>248</v>
+        <v>5507</v>
       </c>
       <c r="D774" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E774" s="1">
         <f t="shared" si="11"/>
-        <v>0.40322580645161288</v>
+        <v>0.45396767750136185</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.3">
@@ -24674,17 +25424,17 @@
         <v>1507</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>1460</v>
+        <v>1603</v>
       </c>
       <c r="C775" s="2">
-        <v>354</v>
+        <v>12000</v>
       </c>
       <c r="D775" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E775" s="1">
         <f t="shared" si="11"/>
-        <v>1.977401129943503</v>
+        <v>0.24166666666666667</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.3">
@@ -24692,17 +25442,17 @@
         <v>1507</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>1461</v>
+        <v>1604</v>
       </c>
       <c r="C776" s="2">
-        <v>236</v>
+        <v>2780</v>
       </c>
       <c r="D776" s="1">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E776" s="1">
         <f t="shared" si="11"/>
-        <v>1.6949152542372881</v>
+        <v>2.1942446043165469</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.3">
@@ -24710,17 +25460,17 @@
         <v>1507</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1462</v>
+        <v>1605</v>
       </c>
       <c r="C777" s="2">
-        <v>177</v>
+        <v>3499</v>
       </c>
       <c r="D777" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E777" s="1">
         <f t="shared" si="11"/>
-        <v>0.56497175141242939</v>
+        <v>0.94312660760217204</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.3">
@@ -24728,17 +25478,17 @@
         <v>1507</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1463</v>
+        <v>1576</v>
       </c>
       <c r="C778" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="D778" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E778" s="1">
         <f t="shared" si="11"/>
-        <v>4.1237113402061851</v>
+        <v>1.2820512820512819</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.3">
@@ -24746,17 +25496,17 @@
         <v>1507</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>1464</v>
+        <v>1577</v>
       </c>
       <c r="C779" s="2">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="D779" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E779" s="1">
         <f t="shared" si="11"/>
-        <v>0.3401360544217687</v>
+        <v>1.6460905349794239</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.3">
@@ -24764,17 +25514,17 @@
         <v>1507</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1465</v>
+        <v>1578</v>
       </c>
       <c r="C780" s="2">
-        <v>535</v>
+        <v>434</v>
       </c>
       <c r="D780" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E780" s="1">
         <f t="shared" si="11"/>
-        <v>1.3084112149532712</v>
+        <v>6.9124423963133648</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.3">
@@ -24782,17 +25532,17 @@
         <v>1507</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1466</v>
+        <v>1575</v>
       </c>
       <c r="C781" s="2">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="D781" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E781" s="1">
         <f t="shared" si="11"/>
-        <v>3.0188679245283021</v>
+        <v>3.4482758620689653</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.3">
@@ -24800,17 +25550,17 @@
         <v>1507</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1467</v>
+        <v>1574</v>
       </c>
       <c r="C782" s="2">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="D782" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E782" s="1">
         <f t="shared" si="11"/>
-        <v>2.3054755043227666</v>
+        <v>2.834008097165992</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.3">
@@ -24818,17 +25568,17 @@
         <v>1507</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1468</v>
+        <v>1573</v>
       </c>
       <c r="C783" s="2">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="D783" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E783" s="1">
         <f t="shared" si="11"/>
-        <v>3.4246575342465753</v>
+        <v>0.96463022508038598</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.3">
@@ -24836,17 +25586,17 @@
         <v>1507</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1469</v>
+        <v>1606</v>
       </c>
       <c r="C784" s="2">
-        <v>190</v>
+        <v>1690</v>
       </c>
       <c r="D784" s="1">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E784" s="1">
         <f t="shared" si="11"/>
-        <v>1.0526315789473684</v>
+        <v>3.6686390532544375</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.3">
@@ -24854,17 +25604,17 @@
         <v>1507</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>1470</v>
+        <v>1607</v>
       </c>
       <c r="C785" s="2">
-        <v>24900</v>
+        <v>1570</v>
       </c>
       <c r="D785" s="1">
-        <v>647</v>
+        <v>45</v>
       </c>
       <c r="E785" s="1">
         <f t="shared" si="11"/>
-        <v>2.5983935742971886</v>
+        <v>2.8662420382165608</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.3">
@@ -24872,17 +25622,17 @@
         <v>1507</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>1471</v>
+        <v>1608</v>
       </c>
       <c r="C786" s="2">
-        <v>10635</v>
+        <v>946</v>
       </c>
       <c r="D786" s="1">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="E786" s="1">
         <f t="shared" si="11"/>
-        <v>1.9275975552421252</v>
+        <v>2.1141649048625792</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.3">
@@ -24890,17 +25640,17 @@
         <v>1507</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>1472</v>
+        <v>1609</v>
       </c>
       <c r="C787" s="2">
-        <v>281</v>
+        <v>1650</v>
       </c>
       <c r="D787" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E787" s="1">
         <f t="shared" si="11"/>
-        <v>2.4911032028469751</v>
+        <v>1.7575757575757573</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.3">
@@ -24908,17 +25658,17 @@
         <v>1507</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1473</v>
+        <v>1610</v>
       </c>
       <c r="C788" s="2">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="D788" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E788" s="1">
         <f t="shared" si="11"/>
-        <v>3.3653846153846154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.3">
@@ -24926,17 +25676,17 @@
         <v>1507</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>1474</v>
+        <v>1611</v>
       </c>
       <c r="C789" s="2">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D789" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E789" s="1">
         <f t="shared" si="11"/>
-        <v>5.1851851851851851</v>
+        <v>3.4965034965034967</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.3">
@@ -24944,17 +25694,17 @@
         <v>1507</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1475</v>
+        <v>1612</v>
       </c>
       <c r="C790" s="2">
-        <v>51</v>
+        <v>345</v>
       </c>
       <c r="D790" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E790" s="1">
         <f t="shared" si="11"/>
-        <v>17.647058823529413</v>
+        <v>0.57971014492753625</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.3">
@@ -24962,17 +25712,17 @@
         <v>1507</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1476</v>
+        <v>1613</v>
       </c>
       <c r="C791" s="2">
-        <v>784</v>
+        <v>220</v>
       </c>
       <c r="D791" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E791" s="1">
         <f t="shared" si="11"/>
-        <v>7.6530612244897958</v>
+        <v>1.3636363636363635</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.3">
@@ -24980,17 +25730,17 @@
         <v>1507</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1477</v>
+        <v>1614</v>
       </c>
       <c r="C792" s="2">
-        <v>17000</v>
+        <v>60</v>
       </c>
       <c r="D792" s="1">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E792" s="1">
         <f t="shared" si="11"/>
-        <v>0.24117647058823527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.3">
@@ -24998,17 +25748,17 @@
         <v>1507</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1478</v>
+        <v>1615</v>
       </c>
       <c r="C793" s="2">
-        <v>721</v>
+        <v>173</v>
       </c>
       <c r="D793" s="1">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E793" s="1">
         <f t="shared" si="11"/>
-        <v>4.9930651872399441</v>
+        <v>0.57803468208092479</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.3">
@@ -25016,17 +25766,17 @@
         <v>1507</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1479</v>
+        <v>1616</v>
       </c>
       <c r="C794" s="2">
-        <v>2700</v>
+        <v>278</v>
       </c>
       <c r="D794" s="1">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="E794" s="1">
         <f t="shared" si="11"/>
-        <v>5.4444444444444438</v>
+        <v>1.4388489208633095</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.3">
@@ -25034,17 +25784,17 @@
         <v>1507</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>1480</v>
+        <v>1617</v>
       </c>
       <c r="C795" s="2">
-        <v>10618</v>
+        <v>315</v>
       </c>
       <c r="D795" s="1">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="E795" s="1">
         <f t="shared" si="11"/>
-        <v>2.3639103409304951</v>
+        <v>1.2698412698412698</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.3">
@@ -25052,17 +25802,17 @@
         <v>1507</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1481</v>
+        <v>1618</v>
       </c>
       <c r="C796" s="2">
-        <v>8100</v>
+        <v>200</v>
       </c>
       <c r="D796" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E796" s="1">
         <f t="shared" si="11"/>
-        <v>0.14814814814814814</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.3">
@@ -25070,17 +25820,17 @@
         <v>1507</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>1482</v>
+        <v>1619</v>
       </c>
       <c r="C797" s="2">
-        <v>26100</v>
+        <v>160</v>
       </c>
       <c r="D797" s="1">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="E797" s="1">
         <f t="shared" si="11"/>
-        <v>0.54022988505747127</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.3">
@@ -25088,17 +25838,17 @@
         <v>1507</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>1483</v>
+        <v>1620</v>
       </c>
       <c r="C798" s="2">
-        <v>10000</v>
+        <v>333</v>
       </c>
       <c r="D798" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E798" s="1">
         <f t="shared" si="11"/>
-        <v>0.11</v>
+        <v>1.5015015015015014</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.3">
@@ -25106,17 +25856,17 @@
         <v>1507</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>1484</v>
+        <v>1621</v>
       </c>
       <c r="C799" s="2">
-        <v>2900</v>
+        <v>491</v>
       </c>
       <c r="D799" s="1">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E799" s="1">
         <f t="shared" si="11"/>
-        <v>2.1724137931034484</v>
+        <v>2.2403258655804481</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.3">
@@ -25124,17 +25874,17 @@
         <v>1507</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1485</v>
+        <v>1622</v>
       </c>
       <c r="C800" s="2">
-        <v>4002</v>
+        <v>250</v>
       </c>
       <c r="D800" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E800" s="1">
         <f t="shared" si="11"/>
-        <v>0.52473763118440786</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.3">
@@ -25142,17 +25892,17 @@
         <v>1507</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>1486</v>
+        <v>1623</v>
       </c>
       <c r="C801" s="2">
-        <v>6600</v>
+        <v>281</v>
       </c>
       <c r="D801" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E801" s="1">
         <f t="shared" si="11"/>
-        <v>0.21212121212121215</v>
+        <v>1.7793594306049825</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.3">
@@ -25160,17 +25910,17 @@
         <v>1507</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>1487</v>
+        <v>1624</v>
       </c>
       <c r="C802" s="2">
-        <v>4525</v>
+        <v>281</v>
       </c>
       <c r="D802" s="1">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E802" s="1">
         <f t="shared" si="11"/>
-        <v>0.97237569060773488</v>
+        <v>3.9145907473309607</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.3">
@@ -25178,17 +25928,17 @@
         <v>1507</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1488</v>
+        <v>1625</v>
       </c>
       <c r="C803" s="2">
-        <v>2920</v>
+        <v>177</v>
       </c>
       <c r="D803" s="1">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E803" s="1">
         <f t="shared" si="11"/>
-        <v>2.7397260273972601</v>
+        <v>2.2598870056497176</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.3">
@@ -25196,17 +25946,17 @@
         <v>1507</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1489</v>
+        <v>1626</v>
       </c>
       <c r="C804" s="2">
-        <v>853</v>
+        <v>5198</v>
       </c>
       <c r="D804" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E804" s="1">
         <f t="shared" si="11"/>
-        <v>0.58616647127784294</v>
+        <v>0.61562139284340134</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.3">
@@ -25214,17 +25964,17 @@
         <v>1507</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1490</v>
+        <v>1627</v>
       </c>
       <c r="C805" s="2">
-        <v>3190</v>
+        <v>12000</v>
       </c>
       <c r="D805" s="1">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E805" s="1">
         <f t="shared" si="11"/>
-        <v>2.2257053291536053</v>
+        <v>0.27499999999999997</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.3">
@@ -25232,17 +25982,17 @@
         <v>1507</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1491</v>
+        <v>1628</v>
       </c>
       <c r="C806" s="2">
-        <v>12843</v>
+        <v>2880</v>
       </c>
       <c r="D806" s="1">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E806" s="1">
         <f t="shared" si="11"/>
-        <v>0.3192400529471307</v>
+        <v>2.6388888888888888</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.3">
@@ -25250,17 +26000,17 @@
         <v>1507</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1492</v>
+        <v>1629</v>
       </c>
       <c r="C807" s="2">
-        <v>28012</v>
+        <v>8231</v>
       </c>
       <c r="D807" s="1">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E807" s="1">
         <f t="shared" si="11"/>
-        <v>0.28202199057546767</v>
+        <v>0.72895152472360591</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.3">
@@ -25268,17 +26018,17 @@
         <v>1507</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>1493</v>
+        <v>1630</v>
       </c>
       <c r="C808" s="2">
-        <v>951</v>
+        <v>4278</v>
       </c>
       <c r="D808" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E808" s="1">
         <f t="shared" si="11"/>
-        <v>2.9442691903259726</v>
+        <v>0.51425899953249188</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.3">
@@ -25286,17 +26036,17 @@
         <v>1507</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1494</v>
+        <v>1631</v>
       </c>
       <c r="C809" s="2">
-        <v>45515</v>
+        <v>5568</v>
       </c>
       <c r="D809" s="1">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="E809" s="1">
         <f t="shared" si="11"/>
-        <v>0.49873668021531364</v>
+        <v>0.41307471264367818</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.3">
@@ -25304,17 +26054,17 @@
         <v>1507</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>1495</v>
+        <v>1632</v>
       </c>
       <c r="C810" s="2">
-        <v>14080</v>
+        <v>2740</v>
       </c>
       <c r="D810" s="1">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E810" s="1">
         <f t="shared" si="11"/>
-        <v>0.33380681818181818</v>
+        <v>2.335766423357664</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.3">
@@ -25322,17 +26072,17 @@
         <v>1507</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>1496</v>
+        <v>1446</v>
       </c>
       <c r="C811" s="2">
-        <v>3230</v>
+        <v>536</v>
       </c>
       <c r="D811" s="1">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E811" s="1">
         <f t="shared" si="11"/>
-        <v>2.2600619195046439</v>
+        <v>7.4626865671641784</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.3">
@@ -25340,17 +26090,17 @@
         <v>1507</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1497</v>
+        <v>1447</v>
       </c>
       <c r="C812" s="2">
-        <v>6160</v>
+        <v>1270</v>
       </c>
       <c r="D812" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E812" s="1">
         <f t="shared" si="11"/>
-        <v>0.76298701298701299</v>
+        <v>3.2283464566929134</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.3">
@@ -25358,17 +26108,17 @@
         <v>1507</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1498</v>
+        <v>1448</v>
       </c>
       <c r="C813" s="2">
-        <v>3430</v>
+        <v>2250</v>
       </c>
       <c r="D813" s="1">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E813" s="1">
         <f t="shared" si="11"/>
-        <v>2.4781341107871722</v>
+        <v>2.5777777777777779</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.3">
@@ -25376,17 +26126,17 @@
         <v>1507</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>1499</v>
+        <v>1449</v>
       </c>
       <c r="C814" s="2">
-        <v>13120</v>
+        <v>1960</v>
       </c>
       <c r="D814" s="1">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E814" s="1">
         <f t="shared" si="11"/>
-        <v>0.39634146341463417</v>
+        <v>2.3469387755102042</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.3">
@@ -25394,17 +26144,17 @@
         <v>1507</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="C815" s="2">
-        <v>26431</v>
+        <v>1160</v>
       </c>
       <c r="D815" s="1">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="E815" s="1">
         <f t="shared" si="11"/>
-        <v>0.5637319813854943</v>
+        <v>3.7931034482758621</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.3">
@@ -25412,17 +26162,17 @@
         <v>1507</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>1501</v>
+        <v>1451</v>
       </c>
       <c r="C816" s="2">
-        <v>22050</v>
+        <v>2170</v>
       </c>
       <c r="D816" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E816" s="1">
         <f t="shared" si="11"/>
-        <v>0.17233560090702948</v>
+        <v>2.1658986175115209</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.3">
@@ -25430,17 +26180,17 @@
         <v>1507</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>1502</v>
+        <v>1452</v>
       </c>
       <c r="C817" s="2">
-        <v>66000</v>
+        <v>176</v>
       </c>
       <c r="D817" s="1">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E817" s="1">
         <f t="shared" si="11"/>
-        <v>8.4848484848484854E-2</v>
+        <v>21.59090909090909</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.3">
@@ -25448,17 +26198,17 @@
         <v>1507</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>1503</v>
+        <v>1453</v>
       </c>
       <c r="C818" s="2">
-        <v>1150</v>
+        <v>400</v>
       </c>
       <c r="D818" s="1">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E818" s="1">
         <f t="shared" si="11"/>
-        <v>4.5217391304347831</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.3">
@@ -25466,17 +26216,17 @@
         <v>1507</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>1504</v>
+        <v>1454</v>
       </c>
       <c r="C819" s="2">
-        <v>337</v>
+        <v>544</v>
       </c>
       <c r="D819" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E819" s="1">
         <f t="shared" si="11"/>
-        <v>12.759643916913946</v>
+        <v>6.6176470588235299</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.3">
@@ -25484,17 +26234,17 @@
         <v>1507</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1505</v>
+        <v>1455</v>
       </c>
       <c r="C820" s="2">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="D820" s="1">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E820" s="1">
         <f t="shared" si="11"/>
-        <v>16.044776119402986</v>
+        <v>10.542168674698797</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.3">
@@ -25502,17 +26252,917 @@
         <v>1507</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>1506</v>
+        <v>1456</v>
       </c>
       <c r="C821" s="2">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="D821" s="1">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E821" s="1">
         <f t="shared" si="11"/>
-        <v>25.294117647058822</v>
+        <v>37.209302325581397</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A822" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C822" s="2">
+        <v>256</v>
+      </c>
+      <c r="D822" s="1">
+        <v>36</v>
+      </c>
+      <c r="E822" s="1">
+        <f t="shared" si="11"/>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A823" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C823" s="2">
+        <v>308</v>
+      </c>
+      <c r="D823" s="1">
+        <v>41</v>
+      </c>
+      <c r="E823" s="1">
+        <f t="shared" si="11"/>
+        <v>13.311688311688311</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A824" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C824" s="2">
+        <v>354</v>
+      </c>
+      <c r="D824" s="1">
+        <v>36</v>
+      </c>
+      <c r="E824" s="1">
+        <f t="shared" si="11"/>
+        <v>10.16949152542373</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A825" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C825" s="2">
+        <v>464</v>
+      </c>
+      <c r="D825" s="1">
+        <v>43</v>
+      </c>
+      <c r="E825" s="1">
+        <f t="shared" si="11"/>
+        <v>9.2672413793103452</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A826" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C826" s="2">
+        <v>313</v>
+      </c>
+      <c r="D826" s="1">
+        <v>36</v>
+      </c>
+      <c r="E826" s="1">
+        <f t="shared" si="11"/>
+        <v>11.501597444089457</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A827" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C827" s="2">
+        <v>243</v>
+      </c>
+      <c r="D827" s="1">
+        <v>36</v>
+      </c>
+      <c r="E827" s="1">
+        <f t="shared" si="11"/>
+        <v>14.814814814814813</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A828" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C828" s="2">
+        <v>274</v>
+      </c>
+      <c r="D828" s="1">
+        <v>40</v>
+      </c>
+      <c r="E828" s="1">
+        <f t="shared" si="11"/>
+        <v>14.5985401459854</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A829" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C829" s="2">
+        <v>393</v>
+      </c>
+      <c r="D829" s="1">
+        <v>36</v>
+      </c>
+      <c r="E829" s="1">
+        <f t="shared" si="11"/>
+        <v>9.1603053435114496</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A830" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C830" s="2">
+        <v>705</v>
+      </c>
+      <c r="D830" s="1">
+        <v>42</v>
+      </c>
+      <c r="E830" s="1">
+        <f t="shared" si="11"/>
+        <v>5.9574468085106389</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A831" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C831" s="2">
+        <v>345</v>
+      </c>
+      <c r="D831" s="1">
+        <v>43</v>
+      </c>
+      <c r="E831" s="1">
+        <f t="shared" si="11"/>
+        <v>12.463768115942029</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A832" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C832" s="2">
+        <v>437</v>
+      </c>
+      <c r="D832" s="1">
+        <v>42</v>
+      </c>
+      <c r="E832" s="1">
+        <f t="shared" ref="E832:E871" si="12">D832/C832*100</f>
+        <v>9.610983981693364</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A833" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C833" s="2">
+        <v>410</v>
+      </c>
+      <c r="D833" s="1">
+        <v>45</v>
+      </c>
+      <c r="E833" s="1">
+        <f t="shared" si="12"/>
+        <v>10.975609756097562</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A834" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C834" s="2">
+        <v>240</v>
+      </c>
+      <c r="D834" s="1">
+        <v>36</v>
+      </c>
+      <c r="E834" s="1">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A835" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C835" s="2">
+        <v>29700</v>
+      </c>
+      <c r="D835" s="1">
+        <v>725</v>
+      </c>
+      <c r="E835" s="1">
+        <f t="shared" si="12"/>
+        <v>2.4410774410774412</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A836" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C836" s="2">
+        <v>20018</v>
+      </c>
+      <c r="D836" s="1">
+        <v>349</v>
+      </c>
+      <c r="E836" s="1">
+        <f t="shared" si="12"/>
+        <v>1.7434309121790388</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A837" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C837" s="2">
+        <v>348</v>
+      </c>
+      <c r="D837" s="1">
+        <v>9</v>
+      </c>
+      <c r="E837" s="1">
+        <f t="shared" si="12"/>
+        <v>2.5862068965517242</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A838" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C838" s="2">
+        <v>281</v>
+      </c>
+      <c r="D838" s="1">
+        <v>9</v>
+      </c>
+      <c r="E838" s="1">
+        <f t="shared" si="12"/>
+        <v>3.2028469750889679</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A839" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C839" s="2">
+        <v>20464</v>
+      </c>
+      <c r="D839" s="1">
+        <v>282</v>
+      </c>
+      <c r="E839" s="1">
+        <f t="shared" si="12"/>
+        <v>1.3780297107114934</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A840" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C840" s="2">
+        <v>24923</v>
+      </c>
+      <c r="D840" s="1">
+        <v>77</v>
+      </c>
+      <c r="E840" s="1">
+        <f t="shared" si="12"/>
+        <v>0.30895157083818159</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A841" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C841" s="2">
+        <v>3510</v>
+      </c>
+      <c r="D841" s="1">
+        <v>119</v>
+      </c>
+      <c r="E841" s="1">
+        <f t="shared" si="12"/>
+        <v>3.3903133903133904</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A842" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C842" s="2">
+        <v>41110</v>
+      </c>
+      <c r="D842" s="1">
+        <v>102</v>
+      </c>
+      <c r="E842" s="1">
+        <f t="shared" si="12"/>
+        <v>0.24811481391388956</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A843" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C843" s="2">
+        <v>1564</v>
+      </c>
+      <c r="D843" s="1">
+        <v>51</v>
+      </c>
+      <c r="E843" s="1">
+        <f t="shared" si="12"/>
+        <v>3.2608695652173911</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A844" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C844" s="2">
+        <v>3380</v>
+      </c>
+      <c r="D844" s="1">
+        <v>163</v>
+      </c>
+      <c r="E844" s="1">
+        <f t="shared" si="12"/>
+        <v>4.8224852071005913</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A845" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C845" s="2">
+        <v>38925</v>
+      </c>
+      <c r="D845" s="1">
+        <v>611</v>
+      </c>
+      <c r="E845" s="1">
+        <f t="shared" si="12"/>
+        <v>1.5696852922286448</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A846" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C846" s="2">
+        <v>30316</v>
+      </c>
+      <c r="D846" s="1">
+        <v>48</v>
+      </c>
+      <c r="E846" s="1">
+        <f t="shared" si="12"/>
+        <v>0.15833223380393194</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A847" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C847" s="2">
+        <v>30800</v>
+      </c>
+      <c r="D847" s="1">
+        <v>167</v>
+      </c>
+      <c r="E847" s="1">
+        <f t="shared" si="12"/>
+        <v>0.54220779220779214</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A848" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C848" s="2">
+        <v>26864</v>
+      </c>
+      <c r="D848" s="1">
+        <v>45</v>
+      </c>
+      <c r="E848" s="1">
+        <f t="shared" si="12"/>
+        <v>0.1675104228707564</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A849" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C849" s="2">
+        <v>3450</v>
+      </c>
+      <c r="D849" s="1">
+        <v>66</v>
+      </c>
+      <c r="E849" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9130434782608694</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A850" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C850" s="2">
+        <v>13519</v>
+      </c>
+      <c r="D850" s="1">
+        <v>29</v>
+      </c>
+      <c r="E850" s="1">
+        <f t="shared" si="12"/>
+        <v>0.21451290775944967</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A851" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C851" s="2">
+        <v>22568</v>
+      </c>
+      <c r="D851" s="1">
+        <v>25</v>
+      </c>
+      <c r="E851" s="1">
+        <f t="shared" si="12"/>
+        <v>0.11077632045373982</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A852" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C852" s="2">
+        <v>6662</v>
+      </c>
+      <c r="D852" s="1">
+        <v>52</v>
+      </c>
+      <c r="E852" s="1">
+        <f t="shared" si="12"/>
+        <v>0.78054638246772734</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A853" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C853" s="2">
+        <v>3360</v>
+      </c>
+      <c r="D853" s="1">
+        <v>84</v>
+      </c>
+      <c r="E853" s="1">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A854" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C854" s="2">
+        <v>1088</v>
+      </c>
+      <c r="D854" s="1">
+        <v>5</v>
+      </c>
+      <c r="E854" s="1">
+        <f t="shared" si="12"/>
+        <v>0.4595588235294118</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A855" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C855" s="2">
+        <v>3420</v>
+      </c>
+      <c r="D855" s="1">
+        <v>74</v>
+      </c>
+      <c r="E855" s="1">
+        <f t="shared" si="12"/>
+        <v>2.1637426900584797</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A856" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C856" s="2">
+        <v>23571</v>
+      </c>
+      <c r="D856" s="1">
+        <v>57</v>
+      </c>
+      <c r="E856" s="1">
+        <f t="shared" si="12"/>
+        <v>0.24182257859233805</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A857" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C857" s="2">
+        <v>40145</v>
+      </c>
+      <c r="D857" s="1">
+        <v>98</v>
+      </c>
+      <c r="E857" s="1">
+        <f t="shared" si="12"/>
+        <v>0.24411508282476024</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A858" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C858" s="2">
+        <v>1060</v>
+      </c>
+      <c r="D858" s="1">
+        <v>28</v>
+      </c>
+      <c r="E858" s="1">
+        <f t="shared" si="12"/>
+        <v>2.6415094339622645</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A859" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C859" s="2">
+        <v>63479</v>
+      </c>
+      <c r="D859" s="1">
+        <v>264</v>
+      </c>
+      <c r="E859" s="1">
+        <f t="shared" si="12"/>
+        <v>0.41588556845570979</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A860" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C860" s="2">
+        <v>25226</v>
+      </c>
+      <c r="D860" s="1">
+        <v>60</v>
+      </c>
+      <c r="E860" s="1">
+        <f t="shared" si="12"/>
+        <v>0.23784983746927774</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A861" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C861" s="2">
+        <v>3590</v>
+      </c>
+      <c r="D861" s="1">
+        <v>76</v>
+      </c>
+      <c r="E861" s="1">
+        <f t="shared" si="12"/>
+        <v>2.116991643454039</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A862" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C862" s="2">
+        <v>8298</v>
+      </c>
+      <c r="D862" s="1">
+        <v>55</v>
+      </c>
+      <c r="E862" s="1">
+        <f t="shared" si="12"/>
+        <v>0.66281031573873228</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A863" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C863" s="2">
+        <v>3670</v>
+      </c>
+      <c r="D863" s="1">
+        <v>86</v>
+      </c>
+      <c r="E863" s="1">
+        <f t="shared" si="12"/>
+        <v>2.3433242506811989</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A864" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C864" s="2">
+        <v>24174</v>
+      </c>
+      <c r="D864" s="1">
+        <v>70</v>
+      </c>
+      <c r="E864" s="1">
+        <f t="shared" si="12"/>
+        <v>0.28956730371473482</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A865" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C865" s="2">
+        <v>38398</v>
+      </c>
+      <c r="D865" s="1">
+        <v>184</v>
+      </c>
+      <c r="E865" s="1">
+        <f t="shared" si="12"/>
+        <v>0.47919162456377934</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A866" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C866" s="2">
+        <v>45613</v>
+      </c>
+      <c r="D866" s="1">
+        <v>51</v>
+      </c>
+      <c r="E866" s="1">
+        <f t="shared" si="12"/>
+        <v>0.11181022953982418</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A867" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C867" s="2">
+        <v>91496</v>
+      </c>
+      <c r="D867" s="1">
+        <v>68</v>
+      </c>
+      <c r="E867" s="1">
+        <f t="shared" si="12"/>
+        <v>7.4320188860715231E-2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A868" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C868" s="2">
+        <v>1290</v>
+      </c>
+      <c r="D868" s="1">
+        <v>54</v>
+      </c>
+      <c r="E868" s="1">
+        <f t="shared" si="12"/>
+        <v>4.1860465116279073</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A869" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C869" s="2">
+        <v>383</v>
+      </c>
+      <c r="D869" s="1">
+        <v>43</v>
+      </c>
+      <c r="E869" s="1">
+        <f t="shared" si="12"/>
+        <v>11.22715404699739</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A870" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C870" s="2">
+        <v>288</v>
+      </c>
+      <c r="D870" s="1">
+        <v>43</v>
+      </c>
+      <c r="E870" s="1">
+        <f t="shared" si="12"/>
+        <v>14.930555555555555</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A871" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C871" s="2">
+        <v>189</v>
+      </c>
+      <c r="D871" s="1">
+        <v>43</v>
+      </c>
+      <c r="E871" s="1">
+        <f t="shared" si="12"/>
+        <v>22.75132275132275</v>
       </c>
     </row>
   </sheetData>
@@ -31489,10 +33139,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="M111" sqref="M111"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A139" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33253,17 +34903,17 @@
         <v>1507</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1508</v>
+        <v>1633</v>
       </c>
       <c r="C98" s="2">
-        <v>4977</v>
+        <v>3190</v>
       </c>
       <c r="D98" s="1">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E98" s="1">
         <f t="shared" si="1"/>
-        <v>0.38175607795860961</v>
+        <v>1.3166144200626959</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -33271,17 +34921,17 @@
         <v>1507</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1509</v>
+        <v>1634</v>
       </c>
       <c r="C99" s="2">
-        <v>3600</v>
+        <v>23500</v>
       </c>
       <c r="D99" s="1">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E99" s="1">
         <f t="shared" si="1"/>
-        <v>0.47222222222222221</v>
+        <v>0.48085106382978721</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -33289,17 +34939,17 @@
         <v>1507</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1510</v>
+        <v>1635</v>
       </c>
       <c r="C100" s="2">
-        <v>5833</v>
+        <v>451</v>
       </c>
       <c r="D100" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1">
         <f t="shared" si="1"/>
-        <v>0.32573289902280134</v>
+        <v>0.22172949002217296</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -33307,17 +34957,17 @@
         <v>1507</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1511</v>
+        <v>1636</v>
       </c>
       <c r="C101" s="2">
-        <v>25000</v>
+        <v>230</v>
       </c>
       <c r="D101" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E101" s="1">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.86956521739130432</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -33325,17 +34975,17 @@
         <v>1507</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1512</v>
+        <v>1637</v>
       </c>
       <c r="C102" s="2">
-        <v>290</v>
+        <v>422</v>
       </c>
       <c r="D102" s="1">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" si="1"/>
-        <v>14.13793103448276</v>
+        <v>0.23696682464454977</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -33343,17 +34993,17 @@
         <v>1507</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1513</v>
+        <v>1638</v>
       </c>
       <c r="C103" s="2">
-        <v>22191</v>
+        <v>330</v>
       </c>
       <c r="D103" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E103" s="1">
         <f t="shared" si="1"/>
-        <v>9.4632959307827502E-2</v>
+        <v>0.60606060606060608</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -33361,17 +35011,17 @@
         <v>1507</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1514</v>
+        <v>1639</v>
       </c>
       <c r="C104" s="2">
-        <v>373</v>
+        <v>6016</v>
       </c>
       <c r="D104" s="1">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" si="1"/>
-        <v>12.064343163538874</v>
+        <v>0.1163563829787234</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -33379,17 +35029,17 @@
         <v>1507</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1515</v>
+        <v>1640</v>
       </c>
       <c r="C105" s="2">
-        <v>6645</v>
+        <v>670</v>
       </c>
       <c r="D105" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1">
         <f t="shared" si="1"/>
-        <v>0.27088036117381487</v>
+        <v>0.1492537313432836</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -33397,17 +35047,17 @@
         <v>1507</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1516</v>
+        <v>1641</v>
       </c>
       <c r="C106" s="2">
-        <v>5000</v>
+        <v>313</v>
       </c>
       <c r="D106" s="1">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" si="1"/>
-        <v>0.38</v>
+        <v>13.099041533546327</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -33415,17 +35065,17 @@
         <v>1507</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1517</v>
+        <v>1642</v>
       </c>
       <c r="C107" s="2">
-        <v>419</v>
+        <v>4223</v>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" si="1"/>
-        <v>0.23866348448687352</v>
+        <v>0.16575893914278947</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -33433,17 +35083,17 @@
         <v>1507</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1518</v>
+        <v>1643</v>
       </c>
       <c r="C108" s="2">
-        <v>989</v>
+        <v>6200</v>
       </c>
       <c r="D108" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" si="1"/>
-        <v>1.314459049544995</v>
+        <v>0.25806451612903225</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -33451,17 +35101,17 @@
         <v>1507</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1519</v>
+        <v>1644</v>
       </c>
       <c r="C109" s="2">
-        <v>1770</v>
+        <v>276</v>
       </c>
       <c r="D109" s="1">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E109" s="1">
         <f t="shared" si="1"/>
-        <v>0.62146892655367236</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -33469,17 +35119,17 @@
         <v>1507</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1520</v>
+        <v>1645</v>
       </c>
       <c r="C110" s="2">
-        <v>1550</v>
+        <v>3179</v>
       </c>
       <c r="D110" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E110" s="1">
         <f t="shared" si="1"/>
-        <v>0.58064516129032262</v>
+        <v>0.12582573136206354</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -33487,17 +35137,17 @@
         <v>1507</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1521</v>
+        <v>1646</v>
       </c>
       <c r="C111" s="2">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="D111" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E111" s="1">
         <f t="shared" si="1"/>
-        <v>1.2345679012345678</v>
+        <v>0.3129890453834116</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -33505,17 +35155,17 @@
         <v>1507</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1522</v>
+        <v>1647</v>
       </c>
       <c r="C112" s="2">
-        <v>1740</v>
+        <v>1381</v>
       </c>
       <c r="D112" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E112" s="1">
         <f t="shared" si="1"/>
-        <v>0.40229885057471265</v>
+        <v>0.28964518464880518</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -33523,17 +35173,17 @@
         <v>1507</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1523</v>
+        <v>1648</v>
       </c>
       <c r="C113" s="2">
-        <v>115</v>
+        <v>577</v>
       </c>
       <c r="D113" s="1">
         <v>4</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="1"/>
-        <v>3.4782608695652173</v>
+        <v>0.6932409012131715</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -33541,17 +35191,17 @@
         <v>1507</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1524</v>
+        <v>1649</v>
       </c>
       <c r="C114" s="2">
-        <v>273</v>
+        <v>1022</v>
       </c>
       <c r="D114" s="1">
         <v>5</v>
       </c>
       <c r="E114" s="1">
         <f t="shared" si="1"/>
-        <v>1.8315018315018317</v>
+        <v>0.48923679060665359</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -33559,17 +35209,17 @@
         <v>1507</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1525</v>
+        <v>1650</v>
       </c>
       <c r="C115" s="2">
-        <v>355</v>
+        <v>588</v>
       </c>
       <c r="D115" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="1"/>
-        <v>0.28169014084507044</v>
+        <v>0.51020408163265307</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -33577,17 +35227,17 @@
         <v>1507</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1526</v>
+        <v>1651</v>
       </c>
       <c r="C116" s="2">
-        <v>231</v>
+        <v>1259</v>
       </c>
       <c r="D116" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116" s="1">
         <f t="shared" si="1"/>
-        <v>1.2987012987012987</v>
+        <v>0.15885623510722796</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -33595,17 +35245,17 @@
         <v>1507</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1527</v>
+        <v>1652</v>
       </c>
       <c r="C117" s="2">
-        <v>55</v>
+        <v>569</v>
       </c>
       <c r="D117" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E117" s="1">
         <f t="shared" si="1"/>
-        <v>7.2727272727272725</v>
+        <v>0.17574692442882248</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -33613,17 +35263,17 @@
         <v>1507</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1528</v>
+        <v>1653</v>
       </c>
       <c r="C118" s="2">
-        <v>187</v>
+        <v>925</v>
       </c>
       <c r="D118" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" si="1"/>
-        <v>1.6042780748663104</v>
+        <v>0.10810810810810811</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -33631,17 +35281,17 @@
         <v>1507</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1529</v>
+        <v>1654</v>
       </c>
       <c r="C119" s="2">
-        <v>209</v>
+        <v>419</v>
       </c>
       <c r="D119" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" si="1"/>
-        <v>0.9569377990430622</v>
+        <v>0.23866348448687352</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -33649,17 +35299,17 @@
         <v>1507</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1530</v>
+        <v>1655</v>
       </c>
       <c r="C120" s="2">
-        <v>270</v>
+        <v>13324</v>
       </c>
       <c r="D120" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" si="1"/>
-        <v>1.4814814814814816</v>
+        <v>0.13509456619633745</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -33667,17 +35317,17 @@
         <v>1507</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1531</v>
+        <v>1656</v>
       </c>
       <c r="C121" s="2">
-        <v>356</v>
+        <v>6400</v>
       </c>
       <c r="D121" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E121" s="1">
         <f t="shared" si="1"/>
-        <v>1.9662921348314606</v>
+        <v>0.21875000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -33685,17 +35335,17 @@
         <v>1507</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1532</v>
+        <v>1657</v>
       </c>
       <c r="C122" s="2">
-        <v>236</v>
+        <v>16335</v>
       </c>
       <c r="D122" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E122" s="1">
         <f t="shared" si="1"/>
-        <v>1.6949152542372881</v>
+        <v>0.11019283746556473</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -33703,17 +35353,17 @@
         <v>1507</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1533</v>
+        <v>1658</v>
       </c>
       <c r="C123" s="2">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="D123" s="1">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E123" s="1">
         <f t="shared" si="1"/>
-        <v>2.3391812865497075</v>
+        <v>13.77245508982036</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -33721,17 +35371,17 @@
         <v>1507</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1534</v>
+        <v>1659</v>
       </c>
       <c r="C124" s="2">
-        <v>219</v>
+        <v>2620</v>
       </c>
       <c r="D124" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E124" s="1">
         <f t="shared" si="1"/>
-        <v>1.3698630136986301</v>
+        <v>1.4885496183206106</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -33739,17 +35389,17 @@
         <v>1507</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1535</v>
+        <v>1660</v>
       </c>
       <c r="C125" s="2">
-        <v>252</v>
+        <v>396</v>
       </c>
       <c r="D125" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E125" s="1">
         <f t="shared" si="1"/>
-        <v>1.5873015873015872</v>
+        <v>0.50505050505050508</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -33757,17 +35407,17 @@
         <v>1507</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1536</v>
+        <v>1661</v>
       </c>
       <c r="C126" s="2">
-        <v>538</v>
+        <v>967</v>
       </c>
       <c r="D126" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E126" s="1">
         <f t="shared" si="1"/>
-        <v>1.1152416356877324</v>
+        <v>0.51706308169596693</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -33775,17 +35425,17 @@
         <v>1507</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1537</v>
+        <v>1662</v>
       </c>
       <c r="C127" s="2">
-        <v>225</v>
+        <v>1800</v>
       </c>
       <c r="D127" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E127" s="1">
         <f t="shared" si="1"/>
-        <v>3.1111111111111112</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -33793,17 +35443,17 @@
         <v>1507</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1538</v>
+        <v>1663</v>
       </c>
       <c r="C128" s="2">
-        <v>260</v>
+        <v>1600</v>
       </c>
       <c r="D128" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E128" s="1">
         <f t="shared" si="1"/>
-        <v>1.9230769230769231</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -33811,17 +35461,17 @@
         <v>1507</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1539</v>
+        <v>1664</v>
       </c>
       <c r="C129" s="2">
-        <v>252</v>
+        <v>1070</v>
       </c>
       <c r="D129" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129" s="1">
         <f t="shared" si="1"/>
-        <v>3.5714285714285712</v>
+        <v>0.74766355140186924</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -33829,17 +35479,17 @@
         <v>1507</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1540</v>
+        <v>1665</v>
       </c>
       <c r="C130" s="2">
-        <v>190</v>
+        <v>1670</v>
       </c>
       <c r="D130" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E130" s="1">
         <f t="shared" si="1"/>
-        <v>1.5789473684210527</v>
+        <v>5.9880239520958084E-2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -33847,17 +35497,17 @@
         <v>1507</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1541</v>
+        <v>1666</v>
       </c>
       <c r="C131" s="2">
-        <v>12000</v>
+        <v>113</v>
       </c>
       <c r="D131" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E131" s="1">
         <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -33865,17 +35515,17 @@
         <v>1507</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1542</v>
+        <v>1667</v>
       </c>
       <c r="C132" s="2">
-        <v>611</v>
+        <v>319</v>
       </c>
       <c r="D132" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E132" s="1">
-        <f t="shared" ref="E132:E154" si="2">D132/C132*100</f>
-        <v>1.9639934533551555</v>
+        <f t="shared" ref="E132:E195" si="2">D132/C132*100</f>
+        <v>1.8808777429467085</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -33883,17 +35533,17 @@
         <v>1507</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1543</v>
+        <v>1668</v>
       </c>
       <c r="C133" s="2">
-        <v>827</v>
+        <v>366</v>
       </c>
       <c r="D133" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E133" s="1">
         <f t="shared" si="2"/>
-        <v>1.8137847642079807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -33901,17 +35551,17 @@
         <v>1507</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1544</v>
+        <v>1669</v>
       </c>
       <c r="C134" s="2">
-        <v>1017</v>
+        <v>237</v>
       </c>
       <c r="D134" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E134" s="1">
         <f t="shared" si="2"/>
-        <v>1.5732546705998034</v>
+        <v>0.42194092827004215</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -33919,17 +35569,17 @@
         <v>1507</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1545</v>
+        <v>1670</v>
       </c>
       <c r="C135" s="2">
-        <v>709</v>
+        <v>68</v>
       </c>
       <c r="D135" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E135" s="1">
         <f t="shared" si="2"/>
-        <v>1.9746121297602257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -33937,17 +35587,17 @@
         <v>1507</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1546</v>
+        <v>1671</v>
       </c>
       <c r="C136" s="2">
-        <v>24000</v>
+        <v>177</v>
       </c>
       <c r="D136" s="1">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="E136" s="1">
         <f t="shared" si="2"/>
-        <v>0.47083333333333333</v>
+        <v>0.56497175141242939</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -33955,17 +35605,17 @@
         <v>1507</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1547</v>
+        <v>1672</v>
       </c>
       <c r="C137" s="2">
-        <v>602</v>
+        <v>169</v>
       </c>
       <c r="D137" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E137" s="1">
         <f t="shared" si="2"/>
-        <v>1.9933554817275747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -33973,17 +35623,17 @@
         <v>1507</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1548</v>
+        <v>1673</v>
       </c>
       <c r="C138" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D138" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E138" s="1">
         <f t="shared" si="2"/>
-        <v>4.8192771084337354</v>
+        <v>0.38759689922480622</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -33991,17 +35641,17 @@
         <v>1507</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1549</v>
+        <v>1674</v>
       </c>
       <c r="C139" s="2">
-        <v>499</v>
+        <v>360</v>
       </c>
       <c r="D139" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E139" s="1">
         <f t="shared" si="2"/>
-        <v>2.8056112224448899</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -34009,17 +35659,17 @@
         <v>1507</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1550</v>
+        <v>1675</v>
       </c>
       <c r="C140" s="2">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="D140" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E140" s="1">
         <f t="shared" si="2"/>
-        <v>3.9274924471299091</v>
+        <v>1.4705882352941175</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -34027,17 +35677,17 @@
         <v>1507</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1551</v>
+        <v>1676</v>
       </c>
       <c r="C141" s="2">
-        <v>6070</v>
+        <v>165</v>
       </c>
       <c r="D141" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E141" s="1">
         <f t="shared" si="2"/>
-        <v>0.31301482701812189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -34045,17 +35695,17 @@
         <v>1507</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1552</v>
+        <v>1677</v>
       </c>
       <c r="C142" s="2">
-        <v>898</v>
+        <v>172</v>
       </c>
       <c r="D142" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E142" s="1">
         <f t="shared" si="2"/>
-        <v>1.3363028953229399</v>
+        <v>1.1627906976744187</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -34063,17 +35713,17 @@
         <v>1507</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1553</v>
+        <v>1678</v>
       </c>
       <c r="C143" s="2">
-        <v>1248</v>
+        <v>335</v>
       </c>
       <c r="D143" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E143" s="1">
         <f t="shared" si="2"/>
-        <v>1.6826923076923077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -34081,17 +35731,17 @@
         <v>1507</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1554</v>
+        <v>1679</v>
       </c>
       <c r="C144" s="2">
-        <v>1081</v>
+        <v>479</v>
       </c>
       <c r="D144" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E144" s="1">
         <f t="shared" si="2"/>
-        <v>1.6651248843663276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -34099,17 +35749,17 @@
         <v>1507</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1555</v>
+        <v>1680</v>
       </c>
       <c r="C145" s="2">
-        <v>3648</v>
+        <v>254</v>
       </c>
       <c r="D145" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E145" s="1">
         <f t="shared" si="2"/>
-        <v>0.13706140350877191</v>
+        <v>0.39370078740157477</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -34117,17 +35767,17 @@
         <v>1507</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1489</v>
+        <v>1681</v>
       </c>
       <c r="C146" s="2">
-        <v>853</v>
+        <v>279</v>
       </c>
       <c r="D146" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E146" s="1">
         <f t="shared" si="2"/>
-        <v>0.58616647127784294</v>
+        <v>0.35842293906810035</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -34135,17 +35785,17 @@
         <v>1507</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1556</v>
+        <v>1682</v>
       </c>
       <c r="C147" s="2">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="D147" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E147" s="1">
         <f t="shared" si="2"/>
-        <v>5.5555555555555554</v>
+        <v>1.9867549668874174</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -34153,17 +35803,17 @@
         <v>1507</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1557</v>
+        <v>1683</v>
       </c>
       <c r="C148" s="2">
-        <v>348</v>
+        <v>169</v>
       </c>
       <c r="D148" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E148" s="1">
         <f t="shared" si="2"/>
-        <v>5.7471264367816088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -34171,17 +35821,17 @@
         <v>1507</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1558</v>
+        <v>1684</v>
       </c>
       <c r="C149" s="2">
-        <v>2820</v>
+        <v>8387</v>
       </c>
       <c r="D149" s="1">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E149" s="1">
         <f t="shared" si="2"/>
-        <v>2.3404255319148937</v>
+        <v>0.22654107547394778</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -34189,17 +35839,17 @@
         <v>1507</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1559</v>
+        <v>1685</v>
       </c>
       <c r="C150" s="2">
-        <v>1232</v>
+        <v>9700</v>
       </c>
       <c r="D150" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E150" s="1">
         <f t="shared" si="2"/>
-        <v>1.2987012987012987</v>
+        <v>0.22680412371134021</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -34207,17 +35857,17 @@
         <v>1507</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1560</v>
+        <v>1686</v>
       </c>
       <c r="C151" s="2">
-        <v>3055</v>
+        <v>2880</v>
       </c>
       <c r="D151" s="1">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E151" s="1">
         <f t="shared" si="2"/>
-        <v>0.65466448445171854</v>
+        <v>1.5277777777777777</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -34225,17 +35875,17 @@
         <v>1507</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1561</v>
+        <v>1687</v>
       </c>
       <c r="C152" s="2">
-        <v>736</v>
+        <v>15000</v>
       </c>
       <c r="D152" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E152" s="1">
         <f t="shared" si="2"/>
-        <v>1.6304347826086956</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -34243,17 +35893,17 @@
         <v>1507</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1562</v>
+        <v>1688</v>
       </c>
       <c r="C153" s="2">
-        <v>865</v>
+        <v>8813</v>
       </c>
       <c r="D153" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E153" s="1">
         <f t="shared" si="2"/>
-        <v>1.3872832369942196</v>
+        <v>0.18154998297968908</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -34261,17 +35911,1079 @@
         <v>1507</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1563</v>
+        <v>1689</v>
       </c>
       <c r="C154" s="2">
-        <v>429</v>
+        <v>6100</v>
       </c>
       <c r="D154" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E154" s="1">
         <f t="shared" si="2"/>
-        <v>3.7296037296037294</v>
+        <v>0.22950819672131148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C155" s="2">
+        <v>7297</v>
+      </c>
+      <c r="D155" s="1">
+        <v>19</v>
+      </c>
+      <c r="E155" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26038097848430863</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C156" s="2">
+        <v>3300</v>
+      </c>
+      <c r="D156" s="1">
+        <v>51</v>
+      </c>
+      <c r="E156" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C157" s="2">
+        <v>37761</v>
+      </c>
+      <c r="D157" s="1">
+        <v>26</v>
+      </c>
+      <c r="E157" s="1">
+        <f t="shared" si="2"/>
+        <v>6.88541087365271E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C158" s="2">
+        <v>25097</v>
+      </c>
+      <c r="D158" s="1">
+        <v>23</v>
+      </c>
+      <c r="E158" s="1">
+        <f t="shared" si="2"/>
+        <v>9.1644419651751213E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C159" s="2">
+        <v>39915</v>
+      </c>
+      <c r="D159" s="1">
+        <v>24</v>
+      </c>
+      <c r="E159" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0127771514468242E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C160" s="2">
+        <v>66209</v>
+      </c>
+      <c r="D160" s="1">
+        <v>29</v>
+      </c>
+      <c r="E160" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3800691748855897E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C161" s="2">
+        <v>429</v>
+      </c>
+      <c r="D161" s="1">
+        <v>43</v>
+      </c>
+      <c r="E161" s="1">
+        <f t="shared" si="2"/>
+        <v>10.023310023310025</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C162" s="2">
+        <v>46392</v>
+      </c>
+      <c r="D162" s="1">
+        <v>28</v>
+      </c>
+      <c r="E162" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0355233660976032E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C163" s="2">
+        <v>622</v>
+      </c>
+      <c r="D163" s="1">
+        <v>49</v>
+      </c>
+      <c r="E163" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8778135048231519</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44029</v>
+      </c>
+      <c r="D164" s="1">
+        <v>26</v>
+      </c>
+      <c r="E164" s="1">
+        <f t="shared" si="2"/>
+        <v>5.905198846214995E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C165" s="2">
+        <v>29000</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C166" s="2">
+        <v>542</v>
+      </c>
+      <c r="D166" s="1">
+        <v>36</v>
+      </c>
+      <c r="E166" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6420664206642073</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1240</v>
+      </c>
+      <c r="D167" s="1">
+        <v>47</v>
+      </c>
+      <c r="E167" s="1">
+        <f t="shared" si="2"/>
+        <v>3.790322580645161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C168" s="2">
+        <v>2240</v>
+      </c>
+      <c r="D168" s="1">
+        <v>47</v>
+      </c>
+      <c r="E168" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0982142857142856</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1940</v>
+      </c>
+      <c r="D169" s="1">
+        <v>44</v>
+      </c>
+      <c r="E169" s="1">
+        <f t="shared" si="2"/>
+        <v>2.268041237113402</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1250</v>
+      </c>
+      <c r="D170" s="1">
+        <v>43</v>
+      </c>
+      <c r="E170" s="1">
+        <f t="shared" si="2"/>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C171" s="2">
+        <v>2100</v>
+      </c>
+      <c r="D171" s="1">
+        <v>44</v>
+      </c>
+      <c r="E171" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0952380952380953</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C172" s="2">
+        <v>170</v>
+      </c>
+      <c r="D172" s="1">
+        <v>35</v>
+      </c>
+      <c r="E172" s="1">
+        <f t="shared" si="2"/>
+        <v>20.588235294117645</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C173" s="2">
+        <v>364</v>
+      </c>
+      <c r="D173" s="1">
+        <v>41</v>
+      </c>
+      <c r="E173" s="1">
+        <f t="shared" si="2"/>
+        <v>11.263736263736265</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C174" s="2">
+        <v>512</v>
+      </c>
+      <c r="D174" s="1">
+        <v>36</v>
+      </c>
+      <c r="E174" s="1">
+        <f t="shared" si="2"/>
+        <v>7.03125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C175" s="2">
+        <v>335</v>
+      </c>
+      <c r="D175" s="1">
+        <v>36</v>
+      </c>
+      <c r="E175" s="1">
+        <f t="shared" si="2"/>
+        <v>10.746268656716417</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C176" s="2">
+        <v>87</v>
+      </c>
+      <c r="D176" s="1">
+        <v>36</v>
+      </c>
+      <c r="E176" s="1">
+        <f t="shared" si="2"/>
+        <v>41.379310344827587</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C177" s="2">
+        <v>239</v>
+      </c>
+      <c r="D177" s="1">
+        <v>36</v>
+      </c>
+      <c r="E177" s="1">
+        <f t="shared" si="2"/>
+        <v>15.062761506276152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C178" s="2">
+        <v>292</v>
+      </c>
+      <c r="D178" s="1">
+        <v>37</v>
+      </c>
+      <c r="E178" s="1">
+        <f t="shared" si="2"/>
+        <v>12.671232876712329</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C179" s="2">
+        <v>377</v>
+      </c>
+      <c r="D179" s="1">
+        <v>36</v>
+      </c>
+      <c r="E179" s="1">
+        <f t="shared" si="2"/>
+        <v>9.549071618037134</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C180" s="2">
+        <v>472</v>
+      </c>
+      <c r="D180" s="1">
+        <v>40</v>
+      </c>
+      <c r="E180" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4745762711864394</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C181" s="2">
+        <v>308</v>
+      </c>
+      <c r="D181" s="1">
+        <v>36</v>
+      </c>
+      <c r="E181" s="1">
+        <f t="shared" si="2"/>
+        <v>11.688311688311687</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C182" s="2">
+        <v>250</v>
+      </c>
+      <c r="D182" s="1">
+        <v>32</v>
+      </c>
+      <c r="E182" s="1">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C183" s="2">
+        <v>272</v>
+      </c>
+      <c r="D183" s="1">
+        <v>32</v>
+      </c>
+      <c r="E183" s="1">
+        <f t="shared" si="2"/>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C184" s="2">
+        <v>415</v>
+      </c>
+      <c r="D184" s="1">
+        <v>34</v>
+      </c>
+      <c r="E184" s="1">
+        <f t="shared" si="2"/>
+        <v>8.19277108433735</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C185" s="2">
+        <v>687</v>
+      </c>
+      <c r="D185" s="1">
+        <v>38</v>
+      </c>
+      <c r="E185" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5312954876273652</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C186" s="2">
+        <v>336</v>
+      </c>
+      <c r="D186" s="1">
+        <v>40</v>
+      </c>
+      <c r="E186" s="1">
+        <f t="shared" si="2"/>
+        <v>11.904761904761903</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C187" s="2">
+        <v>406</v>
+      </c>
+      <c r="D187" s="1">
+        <v>39</v>
+      </c>
+      <c r="E187" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6059113300492598</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C188" s="2">
+        <v>404</v>
+      </c>
+      <c r="D188" s="1">
+        <v>44</v>
+      </c>
+      <c r="E188" s="1">
+        <f t="shared" si="2"/>
+        <v>10.891089108910892</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C189" s="2">
+        <v>243</v>
+      </c>
+      <c r="D189" s="1">
+        <v>36</v>
+      </c>
+      <c r="E189" s="1">
+        <f t="shared" si="2"/>
+        <v>14.814814814814813</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C190" s="2">
+        <v>32674</v>
+      </c>
+      <c r="D190" s="1">
+        <v>23</v>
+      </c>
+      <c r="E190" s="1">
+        <f t="shared" si="2"/>
+        <v>7.0392360898573786E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C191" s="2">
+        <v>962</v>
+      </c>
+      <c r="D191" s="1">
+        <v>13</v>
+      </c>
+      <c r="E191" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3513513513513513</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1607</v>
+      </c>
+      <c r="D192" s="1">
+        <v>15</v>
+      </c>
+      <c r="E192" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93341630367143735</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1466</v>
+      </c>
+      <c r="D193" s="1">
+        <v>16</v>
+      </c>
+      <c r="E193" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0914051841746248</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C194" s="2">
+        <v>865</v>
+      </c>
+      <c r="D194" s="1">
+        <v>14</v>
+      </c>
+      <c r="E194" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6184971098265895</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C195" s="2">
+        <v>27600</v>
+      </c>
+      <c r="D195" s="1">
+        <v>124</v>
+      </c>
+      <c r="E195" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44927536231884058</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C196" s="2">
+        <v>969</v>
+      </c>
+      <c r="D196" s="1">
+        <v>12</v>
+      </c>
+      <c r="E196" s="1">
+        <f t="shared" ref="E196:E213" si="3">D196/C196*100</f>
+        <v>1.2383900928792571</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C197" s="2">
+        <v>336</v>
+      </c>
+      <c r="D197" s="1">
+        <v>12</v>
+      </c>
+      <c r="E197" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C198" s="2">
+        <v>699</v>
+      </c>
+      <c r="D198" s="1">
+        <v>14</v>
+      </c>
+      <c r="E198" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0028612303290414</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C199" s="2">
+        <v>452</v>
+      </c>
+      <c r="D199" s="1">
+        <v>13</v>
+      </c>
+      <c r="E199" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8761061946902653</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C200" s="2">
+        <v>8363</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20</v>
+      </c>
+      <c r="E200" s="1">
+        <f t="shared" si="3"/>
+        <v>0.23914863087408827</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1485</v>
+      </c>
+      <c r="D201" s="1">
+        <v>13</v>
+      </c>
+      <c r="E201" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87542087542087543</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C202" s="2">
+        <v>1943</v>
+      </c>
+      <c r="D202" s="1">
+        <v>23</v>
+      </c>
+      <c r="E202" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1837364899639733</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1674</v>
+      </c>
+      <c r="D203" s="1">
+        <v>18</v>
+      </c>
+      <c r="E203" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0752688172043012</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C204" s="2">
+        <v>5622</v>
+      </c>
+      <c r="D204" s="1">
+        <v>22</v>
+      </c>
+      <c r="E204" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39131981501245106</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1088</v>
+      </c>
+      <c r="D205" s="1">
+        <v>5</v>
+      </c>
+      <c r="E205" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4595588235294118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C206" s="2">
+        <v>14857</v>
+      </c>
+      <c r="D206" s="1">
+        <v>24</v>
+      </c>
+      <c r="E206" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16154001480783467</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C207" s="2">
+        <v>37533</v>
+      </c>
+      <c r="D207" s="1">
+        <v>31</v>
+      </c>
+      <c r="E207" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2593983960781187E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C208" s="2">
+        <v>3230</v>
+      </c>
+      <c r="D208" s="1">
+        <v>68</v>
+      </c>
+      <c r="E208" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1052631578947367</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C209" s="2">
+        <v>2385</v>
+      </c>
+      <c r="D209" s="1">
+        <v>16</v>
+      </c>
+      <c r="E209" s="1">
+        <f t="shared" si="3"/>
+        <v>0.67085953878406701</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C210" s="2">
+        <v>4837</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20</v>
+      </c>
+      <c r="E210" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41347942939838744</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C211" s="2">
+        <v>1210</v>
+      </c>
+      <c r="D211" s="1">
+        <v>13</v>
+      </c>
+      <c r="E211" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0743801652892562</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1290</v>
+      </c>
+      <c r="D212" s="1">
+        <v>13</v>
+      </c>
+      <c r="E212" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0077519379844961</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C213" s="2">
+        <v>1037</v>
+      </c>
+      <c r="D213" s="1">
+        <v>16</v>
+      </c>
+      <c r="E213" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5429122468659595</v>
       </c>
     </row>
   </sheetData>

--- a/public/спецпроекты.xlsx
+++ b/public/спецпроекты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Project\telegram-mini-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857A19A-CF7F-407D-B09E-3EEF379C3ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B7EEC7-D976-4305-91D6-151234B0EF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="1739">
   <si>
     <t>Ссылка</t>
   </si>
@@ -5128,6 +5128,141 @@
   </si>
   <si>
     <t>https://vk.com/wall-222134246_4530</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10720</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-204895491_25828</t>
+  </si>
+  <si>
+    <t>https://ok.ru/group/70000036196257/topic/157319330295201</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14186</t>
+  </si>
+  <si>
+    <t>https://ok.ru/milayakalu/topic/158108621231437</t>
+  </si>
+  <si>
+    <t>https://t.me/milaya_kaluga/3073</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-88454669_52836</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10326</t>
+  </si>
+  <si>
+    <t>https://t.me/Srochno_ii_tochno/10328</t>
+  </si>
+  <si>
+    <t>https://t.me/Mosalskaya_telezhka/10729</t>
+  </si>
+  <si>
+    <t>https://t.me/ZHizdra_40/6005</t>
+  </si>
+  <si>
+    <t>https://t.me/Na_rajone_Duminichi/17397</t>
+  </si>
+  <si>
+    <t>https://t.me/Suharik_lajf/11816</t>
+  </si>
+  <si>
+    <t>https://t.me/Kirovv40/6676</t>
+  </si>
+  <si>
+    <t>https://t.me/V_Dzerzhinskom_raione/7899</t>
+  </si>
+  <si>
+    <t>https://t.me/kuibyshevskij_obozrevatel/2389</t>
+  </si>
+  <si>
+    <t>https://t.me/Medyn_korotko_o_glavnom/6277</t>
+  </si>
+  <si>
+    <t>https://t.me/Zdes_i_seichas_po_kozelski/12441</t>
+  </si>
+  <si>
+    <t>https://t.me/Ulyanovskij_perepoloh/3353</t>
+  </si>
+  <si>
+    <t>https://t.me/Babyninskij_informer/6547</t>
+  </si>
+  <si>
+    <t>https://t.me/Borovskaya_stengazeta/6436</t>
+  </si>
+  <si>
+    <t>https://t.me/Lyudinovskij_standart/7737</t>
+  </si>
+  <si>
+    <t>https://t.me/Yuhnov_Pro_nastoyashchee/8540</t>
+  </si>
+  <si>
+    <t>https://t.me/Privet_Baryatino/5994</t>
+  </si>
+  <si>
+    <t>https://t.me/Meshchovskie_kuranty/6596</t>
+  </si>
+  <si>
+    <t>https://t.me/Prosto_ZHukovskij_rajon/5914</t>
+  </si>
+  <si>
+    <t>https://t.me/Spas_novosti/8567</t>
+  </si>
+  <si>
+    <t>https://t.me/Tarusa_zdes_i_sejchas/6295</t>
+  </si>
+  <si>
+    <t>https://t.me/Hvastovichi_segodnya/4149</t>
+  </si>
+  <si>
+    <t>https://t.me/Tvoyo_Ferzikovo/4812</t>
+  </si>
+  <si>
+    <t>https://t.me/Peremyshl_zdes/6978</t>
+  </si>
+  <si>
+    <t>https://t.me/Dela_VMalom/5939</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14184</t>
+  </si>
+  <si>
+    <t>https://t.me/klg_alarm/14192</t>
+  </si>
+  <si>
+    <t>https://vk.ru/wall-93925359_105302</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-105830515_336634</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-164004919_64911</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-154225721_251738</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-57628472_3860806</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-84737494_3212304</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-81543912_343070</t>
+  </si>
+  <si>
+    <t>https://t.me/klgzhest/48836</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-79894807_461062</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-47908301_2811042</t>
+  </si>
+  <si>
+    <t>https://vk.com/wall-88454669_52837</t>
   </si>
 </sst>
 </file>
@@ -5811,8 +5946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7702,14 +7837,14 @@
         <v>1569</v>
       </c>
       <c r="C105" s="2">
-        <v>11198</v>
+        <v>15794</v>
       </c>
       <c r="D105" s="1">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="E105" s="1">
         <f t="shared" si="2"/>
-        <v>0.76799428469369535</v>
+        <v>0.86741800683803971</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -7720,14 +7855,14 @@
         <v>1570</v>
       </c>
       <c r="C106" s="2">
-        <v>8700</v>
+        <v>28184</v>
       </c>
       <c r="D106" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" si="2"/>
-        <v>0.14942528735632185</v>
+        <v>8.5154697700823165E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -7738,14 +7873,14 @@
         <v>1571</v>
       </c>
       <c r="C107" s="2">
-        <v>8476</v>
+        <v>68741</v>
       </c>
       <c r="D107" s="1">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" si="2"/>
-        <v>0.25955639452571966</v>
+        <v>0.11928834320129181</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -7756,14 +7891,14 @@
         <v>1572</v>
       </c>
       <c r="C108" s="2">
-        <v>3210</v>
+        <v>3480</v>
       </c>
       <c r="D108" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" si="2"/>
-        <v>1.7445482866043613</v>
+        <v>1.6954022988505748</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -7774,14 +7909,14 @@
         <v>1573</v>
       </c>
       <c r="C109" s="2">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
       </c>
       <c r="E109" s="1">
         <f t="shared" si="2"/>
-        <v>0.96463022508038598</v>
+        <v>0.82191780821917804</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -7792,14 +7927,14 @@
         <v>1574</v>
       </c>
       <c r="C110" s="2">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="D110" s="1">
         <v>7</v>
       </c>
       <c r="E110" s="1">
         <f t="shared" si="2"/>
-        <v>2.834008097165992</v>
+        <v>2.3178807947019866</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -7810,14 +7945,14 @@
         <v>1575</v>
       </c>
       <c r="C111" s="2">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="D111" s="1">
         <v>10</v>
       </c>
       <c r="E111" s="1">
         <f t="shared" si="2"/>
-        <v>3.4482758620689653</v>
+        <v>2.9498525073746311</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -7828,14 +7963,14 @@
         <v>1576</v>
       </c>
       <c r="C112" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
       </c>
       <c r="E112" s="1">
         <f t="shared" si="2"/>
-        <v>1.2820512820512819</v>
+        <v>1.1494252873563218</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -7846,14 +7981,14 @@
         <v>1577</v>
       </c>
       <c r="C113" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="D113" s="1">
         <v>4</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="2"/>
-        <v>1.6460905349794239</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -7864,14 +7999,14 @@
         <v>1578</v>
       </c>
       <c r="C114" s="2">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="D114" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E114" s="1">
         <f t="shared" si="2"/>
-        <v>6.9124423963133648</v>
+        <v>6.262626262626263</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -7882,14 +8017,14 @@
         <v>1579</v>
       </c>
       <c r="C115" s="2">
-        <v>20686</v>
+        <v>66328</v>
       </c>
       <c r="D115" s="1">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="2"/>
-        <v>0.1546939959392826</v>
+        <v>0.14925823181763359</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -7900,14 +8035,14 @@
         <v>1580</v>
       </c>
       <c r="C116" s="2">
-        <v>594</v>
+        <v>847</v>
       </c>
       <c r="D116" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E116" s="1">
         <f t="shared" si="2"/>
-        <v>0.16835016835016833</v>
+        <v>2.4793388429752068</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -7918,14 +8053,14 @@
         <v>1581</v>
       </c>
       <c r="C117" s="2">
-        <v>252</v>
+        <v>334</v>
       </c>
       <c r="D117" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E117" s="1">
         <f t="shared" si="2"/>
-        <v>0.3968253968253968</v>
+        <v>6.2874251497005984</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -7936,14 +8071,14 @@
         <v>1582</v>
       </c>
       <c r="C118" s="2">
-        <v>626</v>
+        <v>782</v>
       </c>
       <c r="D118" s="1">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" si="2"/>
-        <v>2.0766773162939298</v>
+        <v>4.4757033248081841</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -7954,14 +8089,14 @@
         <v>1583</v>
       </c>
       <c r="C119" s="2">
-        <v>437</v>
+        <v>539</v>
       </c>
       <c r="D119" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" si="2"/>
-        <v>0.45766590389016021</v>
+        <v>4.0816326530612246</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -7972,14 +8107,14 @@
         <v>1584</v>
       </c>
       <c r="C120" s="2">
-        <v>8261</v>
+        <v>9709</v>
       </c>
       <c r="D120" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" si="2"/>
-        <v>0.29052172860428521</v>
+        <v>0.49438665156040784</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -7990,14 +8125,14 @@
         <v>1585</v>
       </c>
       <c r="C121" s="2">
-        <v>1059</v>
+        <v>1502</v>
       </c>
       <c r="D121" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E121" s="1">
         <f t="shared" si="2"/>
-        <v>0.56657223796033995</v>
+        <v>1.9307589880159786</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -8008,14 +8143,14 @@
         <v>1586</v>
       </c>
       <c r="C122" s="2">
-        <v>28352</v>
+        <v>63935</v>
       </c>
       <c r="D122" s="1">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="E122" s="1">
         <f t="shared" si="2"/>
-        <v>0.21162528216704291</v>
+        <v>0.22835692500195512</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -8026,14 +8161,14 @@
         <v>1587</v>
       </c>
       <c r="C123" s="2">
-        <v>10944</v>
+        <v>40317</v>
       </c>
       <c r="D123" s="1">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E123" s="1">
         <f t="shared" si="2"/>
-        <v>0.42032163742690054</v>
+        <v>0.19842746236079073</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -8044,14 +8179,14 @@
         <v>1588</v>
       </c>
       <c r="C124" s="2">
-        <v>915</v>
+        <v>1182</v>
       </c>
       <c r="D124" s="1">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E124" s="1">
         <f t="shared" si="2"/>
-        <v>0.32786885245901637</v>
+        <v>3.6379018612521152</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +8674,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8599,7 +8734,7 @@
         <v>135</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E27" si="0">D3/C3*100</f>
+        <f t="shared" ref="E3:E25" si="0">D3/C3*100</f>
         <v>0.45302013422818793</v>
       </c>
     </row>
@@ -8971,14 +9106,14 @@
         <v>1564</v>
       </c>
       <c r="C24" s="2">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="D24" s="1">
         <v>102</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>0.32797427652733119</v>
+        <v>0.32075471698113206</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -8989,14 +9124,14 @@
         <v>1565</v>
       </c>
       <c r="C25" s="2">
-        <v>29500</v>
+        <v>30200</v>
       </c>
       <c r="D25" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>0.43389830508474575</v>
+        <v>0.42715231788079466</v>
       </c>
     </row>
   </sheetData>
@@ -9016,7 +9151,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9250,14 +9385,14 @@
         <v>1692</v>
       </c>
       <c r="C13" s="2">
-        <v>11849</v>
+        <v>42072</v>
       </c>
       <c r="D13" s="1">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>0.28694404591104739</v>
+        <v>0.16638144133865754</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -9268,14 +9403,14 @@
         <v>1693</v>
       </c>
       <c r="C14" s="2">
-        <v>34854</v>
+        <v>77318</v>
       </c>
       <c r="D14" s="1">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>0.12624089057210075</v>
+        <v>0.15261646705812359</v>
       </c>
     </row>
   </sheetData>
@@ -9288,8 +9423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81847137-4DC6-4BE0-AB84-E4D1DABCDF3A}">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11414,14 +11549,14 @@
         <v>1566</v>
       </c>
       <c r="C118" s="2">
-        <v>58398</v>
+        <v>62524</v>
       </c>
       <c r="D118" s="1">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" si="1"/>
-        <v>0.13870338025274839</v>
+        <v>0.20152261531571877</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -11432,14 +11567,14 @@
         <v>1567</v>
       </c>
       <c r="C119" s="2">
-        <v>34887</v>
+        <v>37615</v>
       </c>
       <c r="D119" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" si="1"/>
-        <v>0.11752228623842693</v>
+        <v>0.11963312508307855</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -11450,14 +11585,14 @@
         <v>1568</v>
       </c>
       <c r="C120" s="2">
-        <v>3300</v>
+        <v>3470</v>
       </c>
       <c r="D120" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.9308357348703169</v>
       </c>
     </row>
   </sheetData>
@@ -11474,10 +11609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C59E1B9-CED3-4664-963C-6197669203DC}">
-  <dimension ref="A1:E871"/>
+  <dimension ref="A1:E879"/>
   <sheetViews>
-    <sheetView topLeftCell="A806" workbookViewId="0">
-      <selection activeCell="A806" sqref="A1:E1048576"/>
+    <sheetView topLeftCell="A856" workbookViewId="0">
+      <selection activeCell="A879" sqref="A879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25172,17 +25307,17 @@
         <v>1507</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>1589</v>
+        <v>1694</v>
       </c>
       <c r="C761" s="2">
-        <v>7265</v>
+        <v>1230</v>
       </c>
       <c r="D761" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E761" s="1">
         <f t="shared" si="10"/>
-        <v>0.33035099793530626</v>
+        <v>3.7398373983739837</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.3">
@@ -25190,17 +25325,17 @@
         <v>1507</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>1590</v>
+        <v>1695</v>
       </c>
       <c r="C762" s="2">
-        <v>3260</v>
+        <v>1776</v>
       </c>
       <c r="D762" s="1">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E762" s="1">
         <f t="shared" si="10"/>
-        <v>0.85889570552147243</v>
+        <v>3.9977477477477477</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.3">
@@ -25208,17 +25343,17 @@
         <v>1507</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>1591</v>
+        <v>1696</v>
       </c>
       <c r="C763" s="2">
-        <v>407</v>
+        <v>596</v>
       </c>
       <c r="D763" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E763" s="1">
         <f t="shared" si="10"/>
-        <v>0.24570024570024571</v>
+        <v>3.3557046979865772</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.3">
@@ -25226,17 +25361,17 @@
         <v>1507</v>
       </c>
       <c r="B764" s="1" t="s">
-        <v>1592</v>
+        <v>1697</v>
       </c>
       <c r="C764" s="2">
-        <v>264</v>
+        <v>3410</v>
       </c>
       <c r="D764" s="1">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E764" s="1">
         <f t="shared" si="10"/>
-        <v>0.75757575757575757</v>
+        <v>2.1994134897360706</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.3">
@@ -25244,17 +25379,17 @@
         <v>1507</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>1593</v>
+        <v>1698</v>
       </c>
       <c r="C765" s="2">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="D765" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E765" s="1">
         <f t="shared" si="10"/>
-        <v>0.19801980198019803</v>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.3">
@@ -25262,17 +25397,17 @@
         <v>1507</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>1594</v>
+        <v>1699</v>
       </c>
       <c r="C766" s="2">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="D766" s="1">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E766" s="1">
         <f t="shared" si="10"/>
-        <v>0.2785515320334262</v>
+        <v>13.033175355450238</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.3">
@@ -25280,17 +25415,17 @@
         <v>1507</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>1595</v>
+        <v>1700</v>
       </c>
       <c r="C767" s="2">
-        <v>6698</v>
+        <v>6727</v>
       </c>
       <c r="D767" s="1">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E767" s="1">
         <f t="shared" si="10"/>
-        <v>0.26873693639892504</v>
+        <v>0.46082949308755761</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.3">
@@ -25298,17 +25433,17 @@
         <v>1507</v>
       </c>
       <c r="B768" s="1" t="s">
-        <v>1596</v>
+        <v>1701</v>
       </c>
       <c r="C768" s="2">
-        <v>668</v>
+        <v>722</v>
       </c>
       <c r="D768" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E768" s="1">
         <f t="shared" ref="E768:E831" si="11">D768/C768*100</f>
-        <v>0.29940119760479045</v>
+        <v>1.8005540166204987</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.3">
@@ -25316,17 +25451,17 @@
         <v>1507</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="C769" s="2">
-        <v>4006</v>
+        <v>24004</v>
       </c>
       <c r="D769" s="1">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="E769" s="1">
         <f t="shared" si="11"/>
-        <v>0.29955067398901647</v>
+        <v>0.36243959340109982</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.3">
@@ -25334,17 +25469,17 @@
         <v>1507</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="C770" s="2">
-        <v>4148</v>
+        <v>3510</v>
       </c>
       <c r="D770" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E770" s="1">
         <f t="shared" si="11"/>
-        <v>0.62680810028929601</v>
+        <v>0.85470085470085477</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.3">
@@ -25352,17 +25487,17 @@
         <v>1507</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="C771" s="2">
-        <v>23900</v>
+        <v>881</v>
       </c>
       <c r="D771" s="1">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="E771" s="1">
         <f t="shared" si="11"/>
-        <v>1.2552301255230125</v>
+        <v>2.3836549375709422</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.3">
@@ -25370,17 +25505,17 @@
         <v>1507</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="C772" s="2">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="D772" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E772" s="1">
         <f t="shared" si="11"/>
-        <v>2.6086956521739131</v>
+        <v>5.2009456264775409</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.3">
@@ -25388,17 +25523,17 @@
         <v>1507</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="C773" s="2">
-        <v>146</v>
+        <v>853</v>
       </c>
       <c r="D773" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E773" s="1">
         <f t="shared" si="11"/>
-        <v>10.95890410958904</v>
+        <v>2.6963657678780772</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.3">
@@ -25406,17 +25541,17 @@
         <v>1507</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="C774" s="2">
-        <v>5507</v>
+        <v>596</v>
       </c>
       <c r="D774" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E774" s="1">
         <f t="shared" si="11"/>
-        <v>0.45396767750136185</v>
+        <v>3.6912751677852351</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.3">
@@ -25424,17 +25559,17 @@
         <v>1507</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="C775" s="2">
-        <v>12000</v>
+        <v>10723</v>
       </c>
       <c r="D775" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E775" s="1">
         <f t="shared" si="11"/>
-        <v>0.24166666666666667</v>
+        <v>0.38235568404364451</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.3">
@@ -25442,17 +25577,17 @@
         <v>1507</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="C776" s="2">
-        <v>2780</v>
+        <v>1392</v>
       </c>
       <c r="D776" s="1">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E776" s="1">
         <f t="shared" si="11"/>
-        <v>2.1942446043165469</v>
+        <v>1.6522988505747127</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.3">
@@ -25460,17 +25595,17 @@
         <v>1507</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="C777" s="2">
-        <v>3499</v>
+        <v>6719</v>
       </c>
       <c r="D777" s="1">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E777" s="1">
         <f t="shared" si="11"/>
-        <v>0.94312660760217204</v>
+        <v>0.72927518976038097</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.3">
@@ -25478,17 +25613,17 @@
         <v>1507</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>1576</v>
+        <v>1598</v>
       </c>
       <c r="C778" s="2">
-        <v>78</v>
+        <v>9093</v>
       </c>
       <c r="D778" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E778" s="1">
         <f t="shared" si="11"/>
-        <v>1.2820512820512819</v>
+        <v>0.70383811723303646</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.3">
@@ -25496,17 +25631,17 @@
         <v>1507</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>1577</v>
+        <v>1599</v>
       </c>
       <c r="C779" s="2">
-        <v>243</v>
+        <v>29000</v>
       </c>
       <c r="D779" s="1">
-        <v>4</v>
+        <v>348</v>
       </c>
       <c r="E779" s="1">
         <f t="shared" si="11"/>
-        <v>1.6460905349794239</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.3">
@@ -25514,17 +25649,17 @@
         <v>1507</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>1578</v>
+        <v>1600</v>
       </c>
       <c r="C780" s="2">
-        <v>434</v>
+        <v>767</v>
       </c>
       <c r="D780" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E780" s="1">
         <f t="shared" si="11"/>
-        <v>6.9124423963133648</v>
+        <v>2.216427640156454</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.3">
@@ -25532,17 +25667,17 @@
         <v>1507</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>1575</v>
+        <v>1601</v>
       </c>
       <c r="C781" s="2">
-        <v>290</v>
+        <v>369</v>
       </c>
       <c r="D781" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E781" s="1">
         <f t="shared" si="11"/>
-        <v>3.4482758620689653</v>
+        <v>16.260162601626014</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.3">
@@ -25550,17 +25685,17 @@
         <v>1507</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>1574</v>
+        <v>1602</v>
       </c>
       <c r="C782" s="2">
-        <v>247</v>
+        <v>20998</v>
       </c>
       <c r="D782" s="1">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E782" s="1">
         <f t="shared" si="11"/>
-        <v>2.834008097165992</v>
+        <v>0.39527574054671871</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.3">
@@ -25568,17 +25703,17 @@
         <v>1507</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>1573</v>
+        <v>1603</v>
       </c>
       <c r="C783" s="2">
-        <v>311</v>
+        <v>55243</v>
       </c>
       <c r="D783" s="1">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E783" s="1">
         <f t="shared" si="11"/>
-        <v>0.96463022508038598</v>
+        <v>0.18644896185942111</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.3">
@@ -25586,17 +25721,17 @@
         <v>1507</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C784" s="2">
-        <v>1690</v>
+        <v>3430</v>
       </c>
       <c r="D784" s="1">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E784" s="1">
         <f t="shared" si="11"/>
-        <v>3.6686390532544375</v>
+        <v>2.1282798833819241</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.3">
@@ -25604,17 +25739,17 @@
         <v>1507</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C785" s="2">
-        <v>1570</v>
+        <v>5591</v>
       </c>
       <c r="D785" s="1">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E785" s="1">
         <f t="shared" si="11"/>
-        <v>2.8662420382165608</v>
+        <v>1.5560722589876588</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.3">
@@ -25622,17 +25757,17 @@
         <v>1507</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>1608</v>
+        <v>1576</v>
       </c>
       <c r="C786" s="2">
-        <v>946</v>
+        <v>87</v>
       </c>
       <c r="D786" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E786" s="1">
         <f t="shared" si="11"/>
-        <v>2.1141649048625792</v>
+        <v>4.5977011494252871</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.3">
@@ -25640,17 +25775,17 @@
         <v>1507</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>1609</v>
+        <v>1577</v>
       </c>
       <c r="C787" s="2">
-        <v>1650</v>
+        <v>280</v>
       </c>
       <c r="D787" s="1">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E787" s="1">
         <f t="shared" si="11"/>
-        <v>1.7575757575757573</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.3">
@@ -25658,17 +25793,17 @@
         <v>1507</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>1610</v>
+        <v>1578</v>
       </c>
       <c r="C788" s="2">
-        <v>104</v>
+        <v>495</v>
       </c>
       <c r="D788" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E788" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6.262626262626263</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.3">
@@ -25676,17 +25811,17 @@
         <v>1507</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>1611</v>
+        <v>1575</v>
       </c>
       <c r="C789" s="2">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="D789" s="1">
         <v>10</v>
       </c>
       <c r="E789" s="1">
         <f t="shared" si="11"/>
-        <v>3.4965034965034967</v>
+        <v>2.9498525073746311</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.3">
@@ -25694,17 +25829,17 @@
         <v>1507</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>1612</v>
+        <v>1574</v>
       </c>
       <c r="C790" s="2">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D790" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E790" s="1">
         <f t="shared" si="11"/>
-        <v>0.57971014492753625</v>
+        <v>2.3178807947019866</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.3">
@@ -25712,17 +25847,17 @@
         <v>1507</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>1613</v>
+        <v>1573</v>
       </c>
       <c r="C791" s="2">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="D791" s="1">
         <v>3</v>
       </c>
       <c r="E791" s="1">
         <f t="shared" si="11"/>
-        <v>1.3636363636363635</v>
+        <v>0.82191780821917804</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.3">
@@ -25730,17 +25865,17 @@
         <v>1507</v>
       </c>
       <c r="B792" s="1" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="C792" s="2">
-        <v>60</v>
+        <v>2290</v>
       </c>
       <c r="D792" s="1">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E792" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.318777292576419</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.3">
@@ -25748,17 +25883,17 @@
         <v>1507</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="C793" s="2">
-        <v>173</v>
+        <v>2080</v>
       </c>
       <c r="D793" s="1">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E793" s="1">
         <f t="shared" si="11"/>
-        <v>0.57803468208092479</v>
+        <v>2.8846153846153846</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.3">
@@ -25766,17 +25901,17 @@
         <v>1507</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C794" s="2">
-        <v>278</v>
+        <v>1290</v>
       </c>
       <c r="D794" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E794" s="1">
         <f t="shared" si="11"/>
-        <v>1.4388489208633095</v>
+        <v>2.0930232558139537</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.3">
@@ -25784,17 +25919,17 @@
         <v>1507</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="C795" s="2">
-        <v>315</v>
+        <v>2300</v>
       </c>
       <c r="D795" s="1">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E795" s="1">
         <f t="shared" si="11"/>
-        <v>1.2698412698412698</v>
+        <v>1.6086956521739131</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.3">
@@ -25802,17 +25937,17 @@
         <v>1507</v>
       </c>
       <c r="B796" s="1" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="C796" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D796" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E796" s="1">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>2.9761904761904758</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.3">
@@ -25820,17 +25955,17 @@
         <v>1507</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="C797" s="2">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="D797" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E797" s="1">
         <f t="shared" si="11"/>
-        <v>0.625</v>
+        <v>3.5532994923857872</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.3">
@@ -25838,17 +25973,17 @@
         <v>1507</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="C798" s="2">
-        <v>333</v>
+        <v>567</v>
       </c>
       <c r="D798" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E798" s="1">
         <f t="shared" si="11"/>
-        <v>1.5015015015015014</v>
+        <v>0.35273368606701938</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.3">
@@ -25856,17 +25991,17 @@
         <v>1507</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="C799" s="2">
-        <v>491</v>
+        <v>348</v>
       </c>
       <c r="D799" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E799" s="1">
         <f t="shared" si="11"/>
-        <v>2.2403258655804481</v>
+        <v>1.1494252873563218</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.3">
@@ -25874,17 +26009,17 @@
         <v>1507</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="C800" s="2">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="D800" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E800" s="1">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>3.9603960396039604</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.3">
@@ -25892,17 +26027,17 @@
         <v>1507</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="C801" s="2">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="D801" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E801" s="1">
         <f t="shared" si="11"/>
-        <v>1.7793594306049825</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.3">
@@ -25910,17 +26045,17 @@
         <v>1507</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="C802" s="2">
-        <v>281</v>
+        <v>405</v>
       </c>
       <c r="D802" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E802" s="1">
         <f t="shared" si="11"/>
-        <v>3.9145907473309607</v>
+        <v>1.4814814814814816</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.3">
@@ -25928,17 +26063,17 @@
         <v>1507</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="C803" s="2">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="D803" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E803" s="1">
         <f t="shared" si="11"/>
-        <v>2.2598870056497176</v>
+        <v>1.3071895424836601</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.3">
@@ -25946,17 +26081,17 @@
         <v>1507</v>
       </c>
       <c r="B804" s="1" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="C804" s="2">
-        <v>5198</v>
+        <v>317</v>
       </c>
       <c r="D804" s="1">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E804" s="1">
         <f t="shared" si="11"/>
-        <v>0.61562139284340134</v>
+        <v>2.2082018927444795</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.3">
@@ -25964,17 +26099,17 @@
         <v>1507</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="C805" s="2">
-        <v>12000</v>
+        <v>236</v>
       </c>
       <c r="D805" s="1">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E805" s="1">
         <f t="shared" si="11"/>
-        <v>0.27499999999999997</v>
+        <v>2.1186440677966099</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.3">
@@ -25982,17 +26117,17 @@
         <v>1507</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="C806" s="2">
-        <v>2880</v>
+        <v>455</v>
       </c>
       <c r="D806" s="1">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E806" s="1">
         <f t="shared" si="11"/>
-        <v>2.6388888888888888</v>
+        <v>1.3186813186813187</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.3">
@@ -26000,17 +26135,17 @@
         <v>1507</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="C807" s="2">
-        <v>8231</v>
+        <v>747</v>
       </c>
       <c r="D807" s="1">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E807" s="1">
         <f t="shared" si="11"/>
-        <v>0.72895152472360591</v>
+        <v>1.7402945113788488</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.3">
@@ -26018,17 +26153,17 @@
         <v>1507</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="C808" s="2">
-        <v>4278</v>
+        <v>358</v>
       </c>
       <c r="D808" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E808" s="1">
         <f t="shared" si="11"/>
-        <v>0.51425899953249188</v>
+        <v>0.83798882681564246</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.3">
@@ -26036,17 +26171,17 @@
         <v>1507</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="C809" s="2">
-        <v>5568</v>
+        <v>429</v>
       </c>
       <c r="D809" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E809" s="1">
         <f t="shared" si="11"/>
-        <v>0.41307471264367818</v>
+        <v>1.1655011655011656</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.3">
@@ -26054,17 +26189,17 @@
         <v>1507</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="C810" s="2">
-        <v>2740</v>
+        <v>424</v>
       </c>
       <c r="D810" s="1">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E810" s="1">
         <f t="shared" si="11"/>
-        <v>2.335766423357664</v>
+        <v>2.8301886792452833</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.3">
@@ -26072,17 +26207,17 @@
         <v>1507</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>1446</v>
+        <v>1625</v>
       </c>
       <c r="C811" s="2">
-        <v>536</v>
+        <v>266</v>
       </c>
       <c r="D811" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E811" s="1">
         <f t="shared" si="11"/>
-        <v>7.4626865671641784</v>
+        <v>1.8796992481203008</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.3">
@@ -26090,17 +26225,17 @@
         <v>1507</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>1447</v>
+        <v>1626</v>
       </c>
       <c r="C812" s="2">
-        <v>1270</v>
+        <v>20559</v>
       </c>
       <c r="D812" s="1">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E812" s="1">
         <f t="shared" si="11"/>
-        <v>3.2283464566929134</v>
+        <v>0.4329004329004329</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.3">
@@ -26108,17 +26243,17 @@
         <v>1507</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>1448</v>
+        <v>1627</v>
       </c>
       <c r="C813" s="2">
-        <v>2250</v>
+        <v>36490</v>
       </c>
       <c r="D813" s="1">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E813" s="1">
         <f t="shared" si="11"/>
-        <v>2.5777777777777779</v>
+        <v>0.23020005480953687</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.3">
@@ -26126,17 +26261,17 @@
         <v>1507</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>1449</v>
+        <v>1628</v>
       </c>
       <c r="C814" s="2">
-        <v>1960</v>
+        <v>3400</v>
       </c>
       <c r="D814" s="1">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E814" s="1">
         <f t="shared" si="11"/>
-        <v>2.3469387755102042</v>
+        <v>2.4117647058823528</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.3">
@@ -26144,17 +26279,17 @@
         <v>1507</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>1450</v>
+        <v>1629</v>
       </c>
       <c r="C815" s="2">
-        <v>1160</v>
+        <v>10769</v>
       </c>
       <c r="D815" s="1">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E815" s="1">
         <f t="shared" si="11"/>
-        <v>3.7931034482758621</v>
+        <v>0.59429844925248398</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.3">
@@ -26162,17 +26297,17 @@
         <v>1507</v>
       </c>
       <c r="B816" s="1" t="s">
-        <v>1451</v>
+        <v>1630</v>
       </c>
       <c r="C816" s="2">
-        <v>2170</v>
+        <v>4278</v>
       </c>
       <c r="D816" s="1">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E816" s="1">
         <f t="shared" si="11"/>
-        <v>2.1658986175115209</v>
+        <v>0.51425899953249188</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.3">
@@ -26180,17 +26315,17 @@
         <v>1507</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>1452</v>
+        <v>1631</v>
       </c>
       <c r="C817" s="2">
-        <v>176</v>
+        <v>26921</v>
       </c>
       <c r="D817" s="1">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E817" s="1">
         <f t="shared" si="11"/>
-        <v>21.59090909090909</v>
+        <v>0.20801604695219345</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.3">
@@ -26198,17 +26333,17 @@
         <v>1507</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>1453</v>
+        <v>1632</v>
       </c>
       <c r="C818" s="2">
-        <v>400</v>
+        <v>2740</v>
       </c>
       <c r="D818" s="1">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E818" s="1">
         <f t="shared" si="11"/>
-        <v>10.25</v>
+        <v>2.335766423357664</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.3">
@@ -26216,17 +26351,17 @@
         <v>1507</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="C819" s="2">
-        <v>544</v>
+        <v>600</v>
       </c>
       <c r="D819" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E819" s="1">
         <f t="shared" si="11"/>
-        <v>6.6176470588235299</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.3">
@@ -26234,17 +26369,17 @@
         <v>1507</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="C820" s="2">
-        <v>332</v>
+        <v>1390</v>
       </c>
       <c r="D820" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E820" s="1">
         <f t="shared" si="11"/>
-        <v>10.542168674698797</v>
+        <v>3.0215827338129495</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.3">
@@ -26252,17 +26387,17 @@
         <v>1507</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="C821" s="2">
-        <v>86</v>
+        <v>2730</v>
       </c>
       <c r="D821" s="1">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E821" s="1">
         <f t="shared" si="11"/>
-        <v>37.209302325581397</v>
+        <v>2.1245421245421245</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.3">
@@ -26270,17 +26405,17 @@
         <v>1507</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="C822" s="2">
-        <v>256</v>
+        <v>2120</v>
       </c>
       <c r="D822" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E822" s="1">
         <f t="shared" si="11"/>
-        <v>14.0625</v>
+        <v>2.1698113207547167</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.3">
@@ -26288,17 +26423,17 @@
         <v>1507</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="C823" s="2">
-        <v>308</v>
+        <v>1300</v>
       </c>
       <c r="D823" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E823" s="1">
         <f t="shared" si="11"/>
-        <v>13.311688311688311</v>
+        <v>3.3846153846153846</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.3">
@@ -26306,17 +26441,17 @@
         <v>1507</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="C824" s="2">
-        <v>354</v>
+        <v>2410</v>
       </c>
       <c r="D824" s="1">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E824" s="1">
         <f t="shared" si="11"/>
-        <v>10.16949152542373</v>
+        <v>1.950207468879668</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.3">
@@ -26324,17 +26459,17 @@
         <v>1507</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="C825" s="2">
-        <v>464</v>
+        <v>203</v>
       </c>
       <c r="D825" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E825" s="1">
         <f t="shared" si="11"/>
-        <v>9.2672413793103452</v>
+        <v>18.7192118226601</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.3">
@@ -26342,17 +26477,17 @@
         <v>1507</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="C826" s="2">
-        <v>313</v>
+        <v>449</v>
       </c>
       <c r="D826" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E826" s="1">
         <f t="shared" si="11"/>
-        <v>11.501597444089457</v>
+        <v>9.1314031180400885</v>
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.3">
@@ -26360,17 +26495,17 @@
         <v>1507</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="C827" s="2">
-        <v>243</v>
+        <v>622</v>
       </c>
       <c r="D827" s="1">
         <v>36</v>
       </c>
       <c r="E827" s="1">
         <f t="shared" si="11"/>
-        <v>14.814814814814813</v>
+        <v>5.787781350482315</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.3">
@@ -26378,17 +26513,17 @@
         <v>1507</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>1463</v>
+        <v>1455</v>
       </c>
       <c r="C828" s="2">
-        <v>274</v>
+        <v>374</v>
       </c>
       <c r="D828" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E828" s="1">
         <f t="shared" si="11"/>
-        <v>14.5985401459854</v>
+        <v>9.3582887700534751</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.3">
@@ -26396,17 +26531,17 @@
         <v>1507</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>1464</v>
+        <v>1456</v>
       </c>
       <c r="C829" s="2">
-        <v>393</v>
+        <v>93</v>
       </c>
       <c r="D829" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E829" s="1">
         <f t="shared" si="11"/>
-        <v>9.1603053435114496</v>
+        <v>34.408602150537639</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.3">
@@ -26414,17 +26549,17 @@
         <v>1507</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="C830" s="2">
-        <v>705</v>
+        <v>283</v>
       </c>
       <c r="D830" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E830" s="1">
         <f t="shared" si="11"/>
-        <v>5.9574468085106389</v>
+        <v>12.7208480565371</v>
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.3">
@@ -26432,17 +26567,17 @@
         <v>1507</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>1466</v>
+        <v>1458</v>
       </c>
       <c r="C831" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D831" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E831" s="1">
         <f t="shared" si="11"/>
-        <v>12.463768115942029</v>
+        <v>12.202380952380953</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.3">
@@ -26450,17 +26585,17 @@
         <v>1507</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>1467</v>
+        <v>1459</v>
       </c>
       <c r="C832" s="2">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D832" s="1">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E832" s="1">
-        <f t="shared" ref="E832:E871" si="12">D832/C832*100</f>
-        <v>9.610983981693364</v>
+        <f t="shared" ref="E832:E879" si="12">D832/C832*100</f>
+        <v>9.5115681233933156</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.3">
@@ -26468,17 +26603,17 @@
         <v>1507</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>1468</v>
+        <v>1460</v>
       </c>
       <c r="C833" s="2">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="D833" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E833" s="1">
         <f t="shared" si="12"/>
-        <v>10.975609756097562</v>
+        <v>8.5487077534791247</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.3">
@@ -26486,17 +26621,17 @@
         <v>1507</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>1469</v>
+        <v>1461</v>
       </c>
       <c r="C834" s="2">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="D834" s="1">
         <v>36</v>
       </c>
       <c r="E834" s="1">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>10.344827586206897</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.3">
@@ -26504,17 +26639,17 @@
         <v>1507</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>1470</v>
+        <v>1462</v>
       </c>
       <c r="C835" s="2">
-        <v>29700</v>
+        <v>262</v>
       </c>
       <c r="D835" s="1">
-        <v>725</v>
+        <v>36</v>
       </c>
       <c r="E835" s="1">
         <f t="shared" si="12"/>
-        <v>2.4410774410774412</v>
+        <v>13.740458015267176</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.3">
@@ -26522,17 +26657,17 @@
         <v>1507</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>1471</v>
+        <v>1463</v>
       </c>
       <c r="C836" s="2">
-        <v>20018</v>
+        <v>303</v>
       </c>
       <c r="D836" s="1">
-        <v>349</v>
+        <v>40</v>
       </c>
       <c r="E836" s="1">
         <f t="shared" si="12"/>
-        <v>1.7434309121790388</v>
+        <v>13.201320132013199</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.3">
@@ -26540,17 +26675,17 @@
         <v>1507</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
       <c r="C837" s="2">
-        <v>348</v>
+        <v>429</v>
       </c>
       <c r="D837" s="1">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E837" s="1">
         <f t="shared" si="12"/>
-        <v>2.5862068965517242</v>
+        <v>8.3916083916083917</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.3">
@@ -26558,17 +26693,17 @@
         <v>1507</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>1473</v>
+        <v>1465</v>
       </c>
       <c r="C838" s="2">
-        <v>281</v>
+        <v>786</v>
       </c>
       <c r="D838" s="1">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E838" s="1">
         <f t="shared" si="12"/>
-        <v>3.2028469750889679</v>
+        <v>5.5979643765903306</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.3">
@@ -26576,17 +26711,17 @@
         <v>1507</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="C839" s="2">
-        <v>20464</v>
+        <v>380</v>
       </c>
       <c r="D839" s="1">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="E839" s="1">
         <f t="shared" si="12"/>
-        <v>1.3780297107114934</v>
+        <v>11.315789473684211</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.3">
@@ -26594,17 +26729,17 @@
         <v>1507</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>1475</v>
+        <v>1467</v>
       </c>
       <c r="C840" s="2">
-        <v>24923</v>
+        <v>485</v>
       </c>
       <c r="D840" s="1">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E840" s="1">
         <f t="shared" si="12"/>
-        <v>0.30895157083818159</v>
+        <v>8.6597938144329891</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.3">
@@ -26612,17 +26747,17 @@
         <v>1507</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>1476</v>
+        <v>1468</v>
       </c>
       <c r="C841" s="2">
-        <v>3510</v>
+        <v>478</v>
       </c>
       <c r="D841" s="1">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="E841" s="1">
         <f t="shared" si="12"/>
-        <v>3.3903133903133904</v>
+        <v>9.4142259414225933</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.3">
@@ -26630,17 +26765,17 @@
         <v>1507</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>1477</v>
+        <v>1469</v>
       </c>
       <c r="C842" s="2">
-        <v>41110</v>
+        <v>257</v>
       </c>
       <c r="D842" s="1">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="E842" s="1">
         <f t="shared" si="12"/>
-        <v>0.24811481391388956</v>
+        <v>14.007782101167315</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.3">
@@ -26648,17 +26783,17 @@
         <v>1507</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="C843" s="2">
-        <v>1564</v>
+        <v>30800</v>
       </c>
       <c r="D843" s="1">
-        <v>51</v>
+        <v>733</v>
       </c>
       <c r="E843" s="1">
         <f t="shared" si="12"/>
-        <v>3.2608695652173911</v>
+        <v>2.3798701298701297</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.3">
@@ -26666,17 +26801,17 @@
         <v>1507</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="C844" s="2">
-        <v>3380</v>
+        <v>29313</v>
       </c>
       <c r="D844" s="1">
-        <v>163</v>
+        <v>526</v>
       </c>
       <c r="E844" s="1">
         <f t="shared" si="12"/>
-        <v>4.8224852071005913</v>
+        <v>1.7944256814382695</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.3">
@@ -26684,17 +26819,17 @@
         <v>1507</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="C845" s="2">
-        <v>38925</v>
+        <v>379</v>
       </c>
       <c r="D845" s="1">
-        <v>611</v>
+        <v>9</v>
       </c>
       <c r="E845" s="1">
         <f t="shared" si="12"/>
-        <v>1.5696852922286448</v>
+        <v>2.3746701846965697</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.3">
@@ -26702,17 +26837,17 @@
         <v>1507</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="C846" s="2">
-        <v>30316</v>
+        <v>320</v>
       </c>
       <c r="D846" s="1">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E846" s="1">
         <f t="shared" si="12"/>
-        <v>0.15833223380393194</v>
+        <v>2.8125</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.3">
@@ -26720,17 +26855,17 @@
         <v>1507</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="C847" s="2">
-        <v>30800</v>
+        <v>44165</v>
       </c>
       <c r="D847" s="1">
-        <v>167</v>
+        <v>476</v>
       </c>
       <c r="E847" s="1">
         <f t="shared" si="12"/>
-        <v>0.54220779220779214</v>
+        <v>1.0777765198686742</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.3">
@@ -26738,17 +26873,17 @@
         <v>1507</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="C848" s="2">
-        <v>26864</v>
+        <v>38873</v>
       </c>
       <c r="D848" s="1">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E848" s="1">
         <f t="shared" si="12"/>
-        <v>0.1675104228707564</v>
+        <v>0.4064517788696525</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.3">
@@ -26756,17 +26891,17 @@
         <v>1507</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="C849" s="2">
-        <v>3450</v>
+        <v>3730</v>
       </c>
       <c r="D849" s="1">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="E849" s="1">
         <f t="shared" si="12"/>
-        <v>1.9130434782608694</v>
+        <v>3.2439678284182301</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.3">
@@ -26774,17 +26909,17 @@
         <v>1507</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="C850" s="2">
-        <v>13519</v>
+        <v>41110</v>
       </c>
       <c r="D850" s="1">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="E850" s="1">
         <f t="shared" si="12"/>
-        <v>0.21451290775944967</v>
+        <v>0.369739722695208</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.3">
@@ -26792,17 +26927,17 @@
         <v>1507</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="C851" s="2">
-        <v>22568</v>
+        <v>2081</v>
       </c>
       <c r="D851" s="1">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E851" s="1">
         <f t="shared" si="12"/>
-        <v>0.11077632045373982</v>
+        <v>4.5170591061989427</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.3">
@@ -26810,17 +26945,17 @@
         <v>1507</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="C852" s="2">
-        <v>6662</v>
+        <v>3520</v>
       </c>
       <c r="D852" s="1">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="E852" s="1">
         <f t="shared" si="12"/>
-        <v>0.78054638246772734</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.3">
@@ -26828,17 +26963,17 @@
         <v>1507</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="C853" s="2">
-        <v>3360</v>
+        <v>56950</v>
       </c>
       <c r="D853" s="1">
-        <v>84</v>
+        <v>782</v>
       </c>
       <c r="E853" s="1">
         <f t="shared" si="12"/>
-        <v>2.5</v>
+        <v>1.3731343283582089</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.3">
@@ -26846,17 +26981,17 @@
         <v>1507</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="C854" s="2">
-        <v>1088</v>
+        <v>30316</v>
       </c>
       <c r="D854" s="1">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E854" s="1">
         <f t="shared" si="12"/>
-        <v>0.4595588235294118</v>
+        <v>0.26718564454413513</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.3">
@@ -26864,17 +26999,17 @@
         <v>1507</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="C855" s="2">
-        <v>3420</v>
+        <v>32000</v>
       </c>
       <c r="D855" s="1">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="E855" s="1">
         <f t="shared" si="12"/>
-        <v>2.1637426900584797</v>
+        <v>0.52812500000000007</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.3">
@@ -26882,17 +27017,17 @@
         <v>1507</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="C856" s="2">
-        <v>23571</v>
+        <v>26864</v>
       </c>
       <c r="D856" s="1">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E856" s="1">
         <f t="shared" si="12"/>
-        <v>0.24182257859233805</v>
+        <v>0.32013103037522334</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.3">
@@ -26900,17 +27035,17 @@
         <v>1507</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="C857" s="2">
-        <v>40145</v>
+        <v>3660</v>
       </c>
       <c r="D857" s="1">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E857" s="1">
         <f t="shared" si="12"/>
-        <v>0.24411508282476024</v>
+        <v>1.8032786885245904</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.3">
@@ -26918,17 +27053,17 @@
         <v>1507</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="C858" s="2">
-        <v>1060</v>
+        <v>27305</v>
       </c>
       <c r="D858" s="1">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E858" s="1">
         <f t="shared" si="12"/>
-        <v>2.6415094339622645</v>
+        <v>0.27467496795458707</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.3">
@@ -26936,17 +27071,17 @@
         <v>1507</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="C859" s="2">
-        <v>63479</v>
+        <v>22568</v>
       </c>
       <c r="D859" s="1">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="E859" s="1">
         <f t="shared" si="12"/>
-        <v>0.41588556845570979</v>
+        <v>0.18610421836228289</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.3">
@@ -26954,17 +27089,17 @@
         <v>1507</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="C860" s="2">
-        <v>25226</v>
+        <v>7538</v>
       </c>
       <c r="D860" s="1">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E860" s="1">
         <f t="shared" si="12"/>
-        <v>0.23784983746927774</v>
+        <v>1.2470151233749005</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.3">
@@ -26972,17 +27107,17 @@
         <v>1507</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
       <c r="C861" s="2">
-        <v>3590</v>
+        <v>3480</v>
       </c>
       <c r="D861" s="1">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E861" s="1">
         <f t="shared" si="12"/>
-        <v>2.116991643454039</v>
+        <v>2.4137931034482758</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.3">
@@ -26990,17 +27125,17 @@
         <v>1507</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="C862" s="2">
-        <v>8298</v>
+        <v>1257</v>
       </c>
       <c r="D862" s="1">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E862" s="1">
         <f t="shared" si="12"/>
-        <v>0.66281031573873228</v>
+        <v>3.6595067621320609</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.3">
@@ -27008,17 +27143,17 @@
         <v>1507</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>1498</v>
+        <v>1490</v>
       </c>
       <c r="C863" s="2">
-        <v>3670</v>
+        <v>3530</v>
       </c>
       <c r="D863" s="1">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E863" s="1">
         <f t="shared" si="12"/>
-        <v>2.3433242506811989</v>
+        <v>2.0963172804532579</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.3">
@@ -27026,17 +27161,17 @@
         <v>1507</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>1499</v>
+        <v>1491</v>
       </c>
       <c r="C864" s="2">
-        <v>24174</v>
+        <v>39508</v>
       </c>
       <c r="D864" s="1">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E864" s="1">
         <f t="shared" si="12"/>
-        <v>0.28956730371473482</v>
+        <v>0.27083122405588739</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.3">
@@ -27044,17 +27179,17 @@
         <v>1507</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>1500</v>
+        <v>1492</v>
       </c>
       <c r="C865" s="2">
-        <v>38398</v>
+        <v>40145</v>
       </c>
       <c r="D865" s="1">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="E865" s="1">
         <f t="shared" si="12"/>
-        <v>0.47919162456377934</v>
+        <v>0.29144351724996886</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.3">
@@ -27062,17 +27197,17 @@
         <v>1507</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>1501</v>
+        <v>1493</v>
       </c>
       <c r="C866" s="2">
-        <v>45613</v>
+        <v>1180</v>
       </c>
       <c r="D866" s="1">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E866" s="1">
         <f t="shared" si="12"/>
-        <v>0.11181022953982418</v>
+        <v>2.4576271186440679</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.3">
@@ -27080,17 +27215,17 @@
         <v>1507</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="C867" s="2">
-        <v>91496</v>
+        <v>63479</v>
       </c>
       <c r="D867" s="1">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="E867" s="1">
         <f t="shared" si="12"/>
-        <v>7.4320188860715231E-2</v>
+        <v>0.47889853337324156</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.3">
@@ -27098,17 +27233,17 @@
         <v>1507</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="C868" s="2">
-        <v>1290</v>
+        <v>40518</v>
       </c>
       <c r="D868" s="1">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E868" s="1">
         <f t="shared" si="12"/>
-        <v>4.1860465116279073</v>
+        <v>0.29369662865886764</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.3">
@@ -27116,17 +27251,17 @@
         <v>1507</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="C869" s="2">
-        <v>383</v>
+        <v>3750</v>
       </c>
       <c r="D869" s="1">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E869" s="1">
         <f t="shared" si="12"/>
-        <v>11.22715404699739</v>
+        <v>2.0266666666666664</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.3">
@@ -27134,17 +27269,17 @@
         <v>1507</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>1505</v>
+        <v>1497</v>
       </c>
       <c r="C870" s="2">
-        <v>288</v>
+        <v>9481</v>
       </c>
       <c r="D870" s="1">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="E870" s="1">
         <f t="shared" si="12"/>
-        <v>14.930555555555555</v>
+        <v>1.0230988292374221</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.3">
@@ -27152,17 +27287,161 @@
         <v>1507</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>1506</v>
+        <v>1498</v>
       </c>
       <c r="C871" s="2">
-        <v>189</v>
+        <v>3800</v>
       </c>
       <c r="D871" s="1">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E871" s="1">
         <f t="shared" si="12"/>
-        <v>22.75132275132275</v>
+        <v>2.2631578947368425</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A872" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C872" s="2">
+        <v>39719</v>
+      </c>
+      <c r="D872" s="1">
+        <v>124</v>
+      </c>
+      <c r="E872" s="1">
+        <f t="shared" si="12"/>
+        <v>0.31219315692741512</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A873" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C873" s="2">
+        <v>38398</v>
+      </c>
+      <c r="D873" s="1">
+        <v>220</v>
+      </c>
+      <c r="E873" s="1">
+        <f t="shared" si="12"/>
+        <v>0.57294650763060573</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A874" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C874" s="2">
+        <v>46209</v>
+      </c>
+      <c r="D874" s="1">
+        <v>92</v>
+      </c>
+      <c r="E874" s="1">
+        <f t="shared" si="12"/>
+        <v>0.19909541431322902</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A875" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C875" s="2">
+        <v>91496</v>
+      </c>
+      <c r="D875" s="1">
+        <v>68</v>
+      </c>
+      <c r="E875" s="1">
+        <f t="shared" si="12"/>
+        <v>7.4320188860715231E-2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A876" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C876" s="2">
+        <v>1380</v>
+      </c>
+      <c r="D876" s="1">
+        <v>54</v>
+      </c>
+      <c r="E876" s="1">
+        <f t="shared" si="12"/>
+        <v>3.9130434782608701</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A877" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C877" s="2">
+        <v>444</v>
+      </c>
+      <c r="D877" s="1">
+        <v>43</v>
+      </c>
+      <c r="E877" s="1">
+        <f t="shared" si="12"/>
+        <v>9.6846846846846848</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A878" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C878" s="2">
+        <v>298</v>
+      </c>
+      <c r="D878" s="1">
+        <v>43</v>
+      </c>
+      <c r="E878" s="1">
+        <f t="shared" si="12"/>
+        <v>14.429530201342283</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A879" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C879" s="2">
+        <v>204</v>
+      </c>
+      <c r="D879" s="1">
+        <v>43</v>
+      </c>
+      <c r="E879" s="1">
+        <f t="shared" si="12"/>
+        <v>21.078431372549019</v>
       </c>
     </row>
   </sheetData>
@@ -27184,7 +27463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECD268A-1D1B-4593-9D1D-FD8A45FD1925}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -28386,17 +28665,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9114231D-599A-42FD-A9FD-84CC03FEAE5E}">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -31904,7 +32184,7 @@
         <v>4</v>
       </c>
       <c r="E195" s="1">
-        <f t="shared" ref="E195:E196" si="3">D195/C195*100</f>
+        <f t="shared" ref="E195:E220" si="3">D195/C195*100</f>
         <v>1.6597510373443984</v>
       </c>
     </row>
@@ -31924,6 +32204,438 @@
       <c r="E196" s="1">
         <f t="shared" si="3"/>
         <v>1.2471655328798186</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C197" s="2">
+        <v>544</v>
+      </c>
+      <c r="D197" s="1">
+        <v>6</v>
+      </c>
+      <c r="E197" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1029411764705883</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1090</v>
+      </c>
+      <c r="D198" s="1">
+        <v>10</v>
+      </c>
+      <c r="E198" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91743119266055051</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C199" s="2">
+        <v>2150</v>
+      </c>
+      <c r="D199" s="1">
+        <v>49</v>
+      </c>
+      <c r="E199" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2790697674418601</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1850</v>
+      </c>
+      <c r="D200" s="1">
+        <v>34</v>
+      </c>
+      <c r="E200" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8378378378378377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D201" s="1">
+        <v>21</v>
+      </c>
+      <c r="E201" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8260869565217392</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C202" s="2">
+        <v>2029</v>
+      </c>
+      <c r="D202" s="1">
+        <v>18</v>
+      </c>
+      <c r="E202" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88713652045342528</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C203" s="2">
+        <v>163</v>
+      </c>
+      <c r="D203" s="1">
+        <v>7</v>
+      </c>
+      <c r="E203" s="1">
+        <f t="shared" si="3"/>
+        <v>4.294478527607362</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C204" s="2">
+        <v>364</v>
+      </c>
+      <c r="D204" s="1">
+        <v>9</v>
+      </c>
+      <c r="E204" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4725274725274726</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C205" s="2">
+        <v>500</v>
+      </c>
+      <c r="D205" s="1">
+        <v>3</v>
+      </c>
+      <c r="E205" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C206" s="2">
+        <v>341</v>
+      </c>
+      <c r="D206" s="1">
+        <v>3</v>
+      </c>
+      <c r="E206" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87976539589442826</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C207" s="2">
+        <v>69</v>
+      </c>
+      <c r="D207" s="1">
+        <v>1</v>
+      </c>
+      <c r="E207" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4492753623188406</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C208" s="2">
+        <v>221</v>
+      </c>
+      <c r="D208" s="1">
+        <v>4</v>
+      </c>
+      <c r="E208" s="1">
+        <f t="shared" si="3"/>
+        <v>1.809954751131222</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C209" s="2">
+        <v>267</v>
+      </c>
+      <c r="D209" s="1">
+        <v>9</v>
+      </c>
+      <c r="E209" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3707865168539324</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C210" s="2">
+        <v>316</v>
+      </c>
+      <c r="D210" s="1">
+        <v>10</v>
+      </c>
+      <c r="E210" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1645569620253164</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C211" s="2">
+        <v>420</v>
+      </c>
+      <c r="D211" s="1">
+        <v>8</v>
+      </c>
+      <c r="E211" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9047619047619049</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C212" s="2">
+        <v>285</v>
+      </c>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+      <c r="E212" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35087719298245612</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C213" s="2">
+        <v>214</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46728971962616817</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C214" s="2">
+        <v>254</v>
+      </c>
+      <c r="D214" s="1">
+        <v>10</v>
+      </c>
+      <c r="E214" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9370078740157481</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C215" s="2">
+        <v>410</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24390243902439024</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C216" s="2">
+        <v>658</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1519756838905775</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C217" s="2">
+        <v>320</v>
+      </c>
+      <c r="D217" s="1">
+        <v>3</v>
+      </c>
+      <c r="E217" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C218" s="2">
+        <v>377</v>
+      </c>
+      <c r="D218" s="1">
+        <v>1</v>
+      </c>
+      <c r="E218" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2652519893899204</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C219" s="2">
+        <v>362</v>
+      </c>
+      <c r="D219" s="1">
+        <v>6</v>
+      </c>
+      <c r="E219" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6574585635359116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C220" s="2">
+        <v>219</v>
+      </c>
+      <c r="D220" s="1">
+        <v>6</v>
+      </c>
+      <c r="E220" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7397260273972601</v>
       </c>
     </row>
   </sheetData>
@@ -33139,10 +33851,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA696F9-DF40-44FA-A46C-1F218A6DC7C7}">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A139" sqref="A1:E1048576"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34903,17 +35615,17 @@
         <v>1507</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1633</v>
+        <v>1726</v>
       </c>
       <c r="C98" s="2">
-        <v>3190</v>
+        <v>3460</v>
       </c>
       <c r="D98" s="1">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E98" s="1">
         <f t="shared" si="1"/>
-        <v>1.3166144200626959</v>
+        <v>1.9942196531791907</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -34921,17 +35633,17 @@
         <v>1507</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1634</v>
+        <v>1727</v>
       </c>
       <c r="C99" s="2">
-        <v>23500</v>
+        <v>3410</v>
       </c>
       <c r="D99" s="1">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="E99" s="1">
         <f t="shared" si="1"/>
-        <v>0.48085106382978721</v>
+        <v>1.2903225806451613</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -34939,17 +35651,17 @@
         <v>1507</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1635</v>
+        <v>1728</v>
       </c>
       <c r="C100" s="2">
-        <v>451</v>
+        <v>1007</v>
       </c>
       <c r="D100" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E100" s="1">
         <f t="shared" si="1"/>
-        <v>0.22172949002217296</v>
+        <v>2.0854021847070507</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -34957,17 +35669,17 @@
         <v>1507</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1636</v>
+        <v>1729</v>
       </c>
       <c r="C101" s="2">
-        <v>230</v>
+        <v>603</v>
       </c>
       <c r="D101" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E101" s="1">
         <f t="shared" si="1"/>
-        <v>0.86956521739130432</v>
+        <v>3.4825870646766171</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -34975,17 +35687,17 @@
         <v>1507</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1637</v>
+        <v>1730</v>
       </c>
       <c r="C102" s="2">
-        <v>422</v>
+        <v>205</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E102" s="1">
         <f t="shared" si="1"/>
-        <v>0.23696682464454977</v>
+        <v>10.24390243902439</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -34993,17 +35705,17 @@
         <v>1507</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1638</v>
+        <v>1731</v>
       </c>
       <c r="C103" s="2">
-        <v>330</v>
+        <v>446</v>
       </c>
       <c r="D103" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E103" s="1">
         <f t="shared" si="1"/>
-        <v>0.60606060606060608</v>
+        <v>4.7085201793721971</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -35011,17 +35723,17 @@
         <v>1507</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1639</v>
+        <v>1732</v>
       </c>
       <c r="C104" s="2">
-        <v>6016</v>
+        <v>398</v>
       </c>
       <c r="D104" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E104" s="1">
         <f t="shared" si="1"/>
-        <v>0.1163563829787234</v>
+        <v>5.2763819095477382</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -35029,17 +35741,17 @@
         <v>1507</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1640</v>
+        <v>1733</v>
       </c>
       <c r="C105" s="2">
-        <v>670</v>
+        <v>7595</v>
       </c>
       <c r="D105" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E105" s="1">
         <f t="shared" si="1"/>
-        <v>0.1492537313432836</v>
+        <v>0.39499670836076367</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -35047,17 +35759,17 @@
         <v>1507</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1641</v>
+        <v>1734</v>
       </c>
       <c r="C106" s="2">
-        <v>313</v>
+        <v>832</v>
       </c>
       <c r="D106" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E106" s="1">
         <f t="shared" si="1"/>
-        <v>13.099041533546327</v>
+        <v>2.5240384615384617</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -35065,17 +35777,17 @@
         <v>1507</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1642</v>
+        <v>1735</v>
       </c>
       <c r="C107" s="2">
-        <v>4223</v>
+        <v>26200</v>
       </c>
       <c r="D107" s="1">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E107" s="1">
         <f t="shared" si="1"/>
-        <v>0.16575893914278947</v>
+        <v>0.41603053435114506</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -35083,17 +35795,17 @@
         <v>1507</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1643</v>
+        <v>1736</v>
       </c>
       <c r="C108" s="2">
-        <v>6200</v>
+        <v>1768</v>
       </c>
       <c r="D108" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E108" s="1">
         <f t="shared" si="1"/>
-        <v>0.25806451612903225</v>
+        <v>1.3009049773755657</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -35101,17 +35813,17 @@
         <v>1507</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1644</v>
+        <v>1737</v>
       </c>
       <c r="C109" s="2">
-        <v>276</v>
+        <v>5814</v>
       </c>
       <c r="D109" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E109" s="1">
         <f t="shared" si="1"/>
-        <v>16.666666666666664</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -35119,17 +35831,17 @@
         <v>1507</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1645</v>
+        <v>1738</v>
       </c>
       <c r="C110" s="2">
-        <v>3179</v>
+        <v>354</v>
       </c>
       <c r="D110" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E110" s="1">
         <f t="shared" si="1"/>
-        <v>0.12582573136206354</v>
+        <v>5.9322033898305087</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -35137,17 +35849,17 @@
         <v>1507</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="C111" s="2">
-        <v>639</v>
+        <v>3500</v>
       </c>
       <c r="D111" s="1">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E111" s="1">
         <f t="shared" si="1"/>
-        <v>0.3129890453834116</v>
+        <v>1.2571428571428571</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -35155,17 +35867,17 @@
         <v>1507</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="C112" s="2">
-        <v>1381</v>
+        <v>28900</v>
       </c>
       <c r="D112" s="1">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="E112" s="1">
         <f t="shared" si="1"/>
-        <v>0.28964518464880518</v>
+        <v>0.4290657439446367</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -35173,17 +35885,17 @@
         <v>1507</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
       <c r="C113" s="2">
-        <v>577</v>
+        <v>787</v>
       </c>
       <c r="D113" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E113" s="1">
         <f t="shared" si="1"/>
-        <v>0.6932409012131715</v>
+        <v>2.6683608640406606</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -35191,17 +35903,17 @@
         <v>1507</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="C114" s="2">
-        <v>1022</v>
+        <v>296</v>
       </c>
       <c r="D114" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E114" s="1">
         <f t="shared" si="1"/>
-        <v>0.48923679060665359</v>
+        <v>7.4324324324324325</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -35209,17 +35921,17 @@
         <v>1507</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
       <c r="C115" s="2">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="D115" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E115" s="1">
         <f t="shared" si="1"/>
-        <v>0.51020408163265307</v>
+        <v>3.5000000000000004</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -35227,17 +35939,17 @@
         <v>1507</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="C116" s="2">
-        <v>1259</v>
+        <v>477</v>
       </c>
       <c r="D116" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E116" s="1">
         <f t="shared" si="1"/>
-        <v>0.15885623510722796</v>
+        <v>4.6121593291404608</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -35245,17 +35957,17 @@
         <v>1507</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="C117" s="2">
-        <v>569</v>
+        <v>9149</v>
       </c>
       <c r="D117" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E117" s="1">
         <f t="shared" si="1"/>
-        <v>0.17574692442882248</v>
+        <v>0.33883484533828834</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -35263,17 +35975,17 @@
         <v>1507</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="C118" s="2">
-        <v>925</v>
+        <v>1115</v>
       </c>
       <c r="D118" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E118" s="1">
         <f t="shared" si="1"/>
-        <v>0.10810810810810811</v>
+        <v>1.883408071748879</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -35281,17 +35993,17 @@
         <v>1507</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="C119" s="2">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="D119" s="1">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E119" s="1">
         <f t="shared" si="1"/>
-        <v>0.23866348448687352</v>
+        <v>9.3607305936073057</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -35299,17 +36011,17 @@
         <v>1507</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="C120" s="2">
-        <v>13324</v>
+        <v>5975</v>
       </c>
       <c r="D120" s="1">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E120" s="1">
         <f t="shared" si="1"/>
-        <v>0.13509456619633745</v>
+        <v>0.80334728033472813</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -35317,17 +36029,17 @@
         <v>1507</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="C121" s="2">
-        <v>6400</v>
+        <v>6372</v>
       </c>
       <c r="D121" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E121" s="1">
         <f t="shared" si="1"/>
-        <v>0.21875000000000003</v>
+        <v>0.26679221594475833</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -35335,17 +36047,17 @@
         <v>1507</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="C122" s="2">
-        <v>16335</v>
+        <v>453</v>
       </c>
       <c r="D122" s="1">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E122" s="1">
         <f t="shared" si="1"/>
-        <v>0.11019283746556473</v>
+        <v>10.816777041942604</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -35353,17 +36065,17 @@
         <v>1507</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="C123" s="2">
-        <v>334</v>
+        <v>5297</v>
       </c>
       <c r="D123" s="1">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E123" s="1">
         <f t="shared" si="1"/>
-        <v>13.77245508982036</v>
+        <v>0.50972248442514634</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -35371,17 +36083,17 @@
         <v>1507</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="C124" s="2">
-        <v>2620</v>
+        <v>1240</v>
       </c>
       <c r="D124" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E124" s="1">
         <f t="shared" si="1"/>
-        <v>1.4885496183206106</v>
+        <v>1.8548387096774193</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -35389,17 +36101,17 @@
         <v>1507</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="C125" s="2">
-        <v>396</v>
+        <v>2519</v>
       </c>
       <c r="D125" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E125" s="1">
         <f t="shared" si="1"/>
-        <v>0.50505050505050508</v>
+        <v>0.99245732433505363</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -35407,17 +36119,17 @@
         <v>1507</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="C126" s="2">
-        <v>967</v>
+        <v>1664</v>
       </c>
       <c r="D126" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E126" s="1">
         <f t="shared" si="1"/>
-        <v>0.51706308169596693</v>
+        <v>1.4423076923076923</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -35425,17 +36137,17 @@
         <v>1507</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
       <c r="C127" s="2">
-        <v>1800</v>
+        <v>1821</v>
       </c>
       <c r="D127" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E127" s="1">
         <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+        <v>1.4827018121911038</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -35443,17 +36155,17 @@
         <v>1507</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="C128" s="2">
-        <v>1600</v>
+        <v>971</v>
       </c>
       <c r="D128" s="1">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E128" s="1">
         <f t="shared" si="1"/>
-        <v>0.5625</v>
+        <v>2.368692070030896</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -35461,17 +36173,17 @@
         <v>1507</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="C129" s="2">
-        <v>1070</v>
+        <v>1466</v>
       </c>
       <c r="D129" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E129" s="1">
         <f t="shared" si="1"/>
-        <v>0.74766355140186924</v>
+        <v>1.5006821282401093</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -35479,17 +36191,17 @@
         <v>1507</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="C130" s="2">
-        <v>1670</v>
+        <v>913</v>
       </c>
       <c r="D130" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E130" s="1">
         <f t="shared" si="1"/>
-        <v>5.9880239520958084E-2</v>
+        <v>2.3001095290251916</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -35497,17 +36209,17 @@
         <v>1507</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="C131" s="2">
-        <v>113</v>
+        <v>1560</v>
       </c>
       <c r="D131" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E131" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3461538461538463</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -35515,17 +36227,17 @@
         <v>1507</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="C132" s="2">
-        <v>319</v>
+        <v>807</v>
       </c>
       <c r="D132" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E132" s="1">
         <f t="shared" ref="E132:E195" si="2">D132/C132*100</f>
-        <v>1.8808777429467085</v>
+        <v>2.6022304832713754</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -35533,17 +36245,17 @@
         <v>1507</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="C133" s="2">
-        <v>366</v>
+        <v>14835</v>
       </c>
       <c r="D133" s="1">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E133" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.41793056959892144</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -35551,17 +36263,17 @@
         <v>1507</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="C134" s="2">
-        <v>237</v>
+        <v>6788</v>
       </c>
       <c r="D134" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E134" s="1">
         <f t="shared" si="2"/>
-        <v>0.42194092827004215</v>
+        <v>0.23571007660577489</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -35569,17 +36281,17 @@
         <v>1507</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="C135" s="2">
-        <v>68</v>
+        <v>16979</v>
       </c>
       <c r="D135" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E135" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.3710465869603628</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -35587,17 +36299,17 @@
         <v>1507</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="C136" s="2">
-        <v>177</v>
+        <v>513</v>
       </c>
       <c r="D136" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E136" s="1">
         <f t="shared" si="2"/>
-        <v>0.56497175141242939</v>
+        <v>10.1364522417154</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -35605,17 +36317,17 @@
         <v>1507</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="C137" s="2">
-        <v>169</v>
+        <v>3470</v>
       </c>
       <c r="D137" s="1">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E137" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2103746397694526</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -35623,17 +36335,17 @@
         <v>1507</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="C138" s="2">
-        <v>258</v>
+        <v>603</v>
       </c>
       <c r="D138" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138" s="1">
         <f t="shared" si="2"/>
-        <v>0.38759689922480622</v>
+        <v>0.49751243781094528</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -35641,17 +36353,17 @@
         <v>1507</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="C139" s="2">
-        <v>360</v>
+        <v>1270</v>
       </c>
       <c r="D139" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E139" s="1">
         <f t="shared" si="2"/>
-        <v>0.55555555555555558</v>
+        <v>0.39370078740157477</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -35659,17 +36371,17 @@
         <v>1507</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="C140" s="2">
-        <v>204</v>
+        <v>2290</v>
       </c>
       <c r="D140" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E140" s="1">
         <f t="shared" si="2"/>
-        <v>1.4705882352941175</v>
+        <v>0.5240174672489083</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -35677,17 +36389,17 @@
         <v>1507</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="C141" s="2">
-        <v>165</v>
+        <v>2029</v>
       </c>
       <c r="D141" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E141" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.49285362247412517</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -35695,17 +36407,17 @@
         <v>1507</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
       <c r="C142" s="2">
-        <v>172</v>
+        <v>1280</v>
       </c>
       <c r="D142" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E142" s="1">
         <f t="shared" si="2"/>
-        <v>1.1627906976744187</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -35713,17 +36425,17 @@
         <v>1507</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="C143" s="2">
-        <v>335</v>
+        <v>2350</v>
       </c>
       <c r="D143" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E143" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -35731,17 +36443,17 @@
         <v>1507</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="C144" s="2">
-        <v>479</v>
+        <v>168</v>
       </c>
       <c r="D144" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E144" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.7857142857142856</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -35749,17 +36461,17 @@
         <v>1507</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="C145" s="2">
-        <v>254</v>
+        <v>436</v>
       </c>
       <c r="D145" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E145" s="1">
         <f t="shared" si="2"/>
-        <v>0.39370078740157477</v>
+        <v>1.834862385321101</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -35767,17 +36479,17 @@
         <v>1507</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
       <c r="C146" s="2">
-        <v>279</v>
+        <v>548</v>
       </c>
       <c r="D146" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E146" s="1">
         <f t="shared" si="2"/>
-        <v>0.35842293906810035</v>
+        <v>0.54744525547445255</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -35785,17 +36497,17 @@
         <v>1507</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
       <c r="C147" s="2">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="D147" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1">
         <f t="shared" si="2"/>
-        <v>1.9867549668874174</v>
+        <v>0.28985507246376813</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -35803,17 +36515,17 @@
         <v>1507</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
       <c r="C148" s="2">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="D148" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E148" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6585365853658534</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -35821,17 +36533,17 @@
         <v>1507</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="C149" s="2">
-        <v>8387</v>
+        <v>300</v>
       </c>
       <c r="D149" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E149" s="1">
         <f t="shared" si="2"/>
-        <v>0.22654107547394778</v>
+        <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -35839,17 +36551,17 @@
         <v>1507</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="C150" s="2">
-        <v>9700</v>
+        <v>272</v>
       </c>
       <c r="D150" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E150" s="1">
         <f t="shared" si="2"/>
-        <v>0.22680412371134021</v>
+        <v>1.1029411764705883</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -35857,17 +36569,17 @@
         <v>1507</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="C151" s="2">
-        <v>2880</v>
+        <v>351</v>
       </c>
       <c r="D151" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E151" s="1">
         <f t="shared" si="2"/>
-        <v>1.5277777777777777</v>
+        <v>0.28490028490028491</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -35875,17 +36587,17 @@
         <v>1507</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="C152" s="2">
-        <v>15000</v>
+        <v>504</v>
       </c>
       <c r="D152" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E152" s="1">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>0.3968253968253968</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -35893,17 +36605,17 @@
         <v>1507</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
       <c r="C153" s="2">
-        <v>8813</v>
+        <v>312</v>
       </c>
       <c r="D153" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E153" s="1">
         <f t="shared" si="2"/>
-        <v>0.18154998297968908</v>
+        <v>0.96153846153846156</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -35911,17 +36623,17 @@
         <v>1507</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
       <c r="C154" s="2">
-        <v>6100</v>
+        <v>264</v>
       </c>
       <c r="D154" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E154" s="1">
         <f t="shared" si="2"/>
-        <v>0.22950819672131148</v>
+        <v>1.1363636363636365</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -35929,17 +36641,17 @@
         <v>1507</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1690</v>
+        <v>1677</v>
       </c>
       <c r="C155" s="2">
-        <v>7297</v>
+        <v>289</v>
       </c>
       <c r="D155" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E155" s="1">
         <f t="shared" si="2"/>
-        <v>0.26038097848430863</v>
+        <v>0.69204152249134954</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -35947,17 +36659,17 @@
         <v>1507</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="C156" s="2">
-        <v>3300</v>
+        <v>431</v>
       </c>
       <c r="D156" s="1">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E156" s="1">
         <f t="shared" si="2"/>
-        <v>1.5454545454545454</v>
+        <v>0.6960556844547563</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -35965,17 +36677,17 @@
         <v>1507</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1508</v>
+        <v>1679</v>
       </c>
       <c r="C157" s="2">
-        <v>37761</v>
+        <v>730</v>
       </c>
       <c r="D157" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E157" s="1">
         <f t="shared" si="2"/>
-        <v>6.88541087365271E-2</v>
+        <v>0.41095890410958902</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -35983,17 +36695,17 @@
         <v>1507</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1509</v>
+        <v>1680</v>
       </c>
       <c r="C158" s="2">
-        <v>25097</v>
+        <v>335</v>
       </c>
       <c r="D158" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1">
         <f t="shared" si="2"/>
-        <v>9.1644419651751213E-2</v>
+        <v>0.29850746268656719</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -36001,17 +36713,17 @@
         <v>1507</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1510</v>
+        <v>1681</v>
       </c>
       <c r="C159" s="2">
-        <v>39915</v>
+        <v>483</v>
       </c>
       <c r="D159" s="1">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E159" s="1">
         <f t="shared" si="2"/>
-        <v>6.0127771514468242E-2</v>
+        <v>0.82815734989648038</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -36019,17 +36731,17 @@
         <v>1507</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1511</v>
+        <v>1682</v>
       </c>
       <c r="C160" s="2">
-        <v>66209</v>
+        <v>423</v>
       </c>
       <c r="D160" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E160" s="1">
         <f t="shared" si="2"/>
-        <v>4.3800691748855897E-2</v>
+        <v>1.6548463356973995</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -36037,17 +36749,17 @@
         <v>1507</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1512</v>
+        <v>1683</v>
       </c>
       <c r="C161" s="2">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="D161" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E161" s="1">
         <f t="shared" si="2"/>
-        <v>10.023310023310025</v>
+        <v>1.7094017094017095</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -36055,17 +36767,17 @@
         <v>1507</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1513</v>
+        <v>1684</v>
       </c>
       <c r="C162" s="2">
-        <v>46392</v>
+        <v>9266</v>
       </c>
       <c r="D162" s="1">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E162" s="1">
         <f t="shared" si="2"/>
-        <v>6.0355233660976032E-2</v>
+        <v>0.67990502913878692</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -36073,17 +36785,17 @@
         <v>1507</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1514</v>
+        <v>1685</v>
       </c>
       <c r="C163" s="2">
-        <v>622</v>
+        <v>10330</v>
       </c>
       <c r="D163" s="1">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E163" s="1">
         <f t="shared" si="2"/>
-        <v>7.8778135048231519</v>
+        <v>0.26137463697967084</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -36091,17 +36803,17 @@
         <v>1507</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1515</v>
+        <v>1686</v>
       </c>
       <c r="C164" s="2">
-        <v>44029</v>
+        <v>3390</v>
       </c>
       <c r="D164" s="1">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E164" s="1">
         <f t="shared" si="2"/>
-        <v>5.905198846214995E-2</v>
+        <v>1.415929203539823</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -36109,17 +36821,17 @@
         <v>1507</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1516</v>
+        <v>1687</v>
       </c>
       <c r="C165" s="2">
-        <v>29000</v>
+        <v>15352</v>
       </c>
       <c r="D165" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E165" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13027618551328818</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -36127,17 +36839,17 @@
         <v>1507</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1517</v>
+        <v>1688</v>
       </c>
       <c r="C166" s="2">
-        <v>542</v>
+        <v>9578</v>
       </c>
       <c r="D166" s="1">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E166" s="1">
         <f t="shared" si="2"/>
-        <v>6.6420664206642073</v>
+        <v>0.62643558154103152</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -36145,17 +36857,17 @@
         <v>1507</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1518</v>
+        <v>1689</v>
       </c>
       <c r="C167" s="2">
-        <v>1240</v>
+        <v>6896</v>
       </c>
       <c r="D167" s="1">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E167" s="1">
         <f t="shared" si="2"/>
-        <v>3.790322580645161</v>
+        <v>0.26102088167053361</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -36163,17 +36875,17 @@
         <v>1507</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1519</v>
+        <v>1690</v>
       </c>
       <c r="C168" s="2">
-        <v>2240</v>
+        <v>7995</v>
       </c>
       <c r="D168" s="1">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E168" s="1">
         <f t="shared" si="2"/>
-        <v>2.0982142857142856</v>
+        <v>0.77548467792370235</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -36181,17 +36893,17 @@
         <v>1507</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1520</v>
+        <v>1691</v>
       </c>
       <c r="C169" s="2">
-        <v>1940</v>
+        <v>3500</v>
       </c>
       <c r="D169" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E169" s="1">
         <f t="shared" si="2"/>
-        <v>2.268041237113402</v>
+        <v>1.4857142857142858</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -36199,17 +36911,17 @@
         <v>1507</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="C170" s="2">
-        <v>1250</v>
+        <v>38590</v>
       </c>
       <c r="D170" s="1">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E170" s="1">
         <f t="shared" si="2"/>
-        <v>3.44</v>
+        <v>0.17362010883648613</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -36217,17 +36929,17 @@
         <v>1507</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="C171" s="2">
-        <v>2100</v>
+        <v>27456</v>
       </c>
       <c r="D171" s="1">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E171" s="1">
         <f t="shared" si="2"/>
-        <v>2.0952380952380953</v>
+        <v>8.3770396270396272E-2</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -36235,17 +36947,17 @@
         <v>1507</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="C172" s="2">
-        <v>170</v>
+        <v>40715</v>
       </c>
       <c r="D172" s="1">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E172" s="1">
         <f t="shared" si="2"/>
-        <v>20.588235294117645</v>
+        <v>0.15964632199435097</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -36253,17 +36965,17 @@
         <v>1507</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
       <c r="C173" s="2">
-        <v>364</v>
+        <v>70056</v>
       </c>
       <c r="D173" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E173" s="1">
         <f t="shared" si="2"/>
-        <v>11.263736263736265</v>
+        <v>3.7113166609569488E-2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -36271,17 +36983,17 @@
         <v>1507</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="C174" s="2">
-        <v>512</v>
+        <v>614</v>
       </c>
       <c r="D174" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E174" s="1">
         <f t="shared" si="2"/>
-        <v>7.03125</v>
+        <v>7.1661237785016292</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -36289,17 +37001,17 @@
         <v>1507</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="C175" s="2">
-        <v>335</v>
+        <v>46520</v>
       </c>
       <c r="D175" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E175" s="1">
         <f t="shared" si="2"/>
-        <v>10.746268656716417</v>
+        <v>6.2338779019776441E-2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -36307,17 +37019,17 @@
         <v>1507</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="C176" s="2">
-        <v>87</v>
+        <v>752</v>
       </c>
       <c r="D176" s="1">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E176" s="1">
         <f t="shared" si="2"/>
-        <v>41.379310344827587</v>
+        <v>6.5159574468085113</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -36325,17 +37037,17 @@
         <v>1507</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="C177" s="2">
-        <v>239</v>
+        <v>44374</v>
       </c>
       <c r="D177" s="1">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E177" s="1">
         <f t="shared" si="2"/>
-        <v>15.062761506276152</v>
+        <v>0.15098931806913959</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -36343,17 +37055,17 @@
         <v>1507</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="C178" s="2">
-        <v>292</v>
+        <v>29000</v>
       </c>
       <c r="D178" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E178" s="1">
         <f t="shared" si="2"/>
-        <v>12.671232876712329</v>
+        <v>8.6206896551724144E-2</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -36361,17 +37073,17 @@
         <v>1507</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="C179" s="2">
-        <v>377</v>
+        <v>598</v>
       </c>
       <c r="D179" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E179" s="1">
         <f t="shared" si="2"/>
-        <v>9.549071618037134</v>
+        <v>6.1872909698996654</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -36379,17 +37091,17 @@
         <v>1507</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="C180" s="2">
-        <v>472</v>
+        <v>1350</v>
       </c>
       <c r="D180" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E180" s="1">
         <f t="shared" si="2"/>
-        <v>8.4745762711864394</v>
+        <v>3.4814814814814814</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -36397,17 +37109,17 @@
         <v>1507</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="C181" s="2">
-        <v>308</v>
+        <v>2680</v>
       </c>
       <c r="D181" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E181" s="1">
         <f t="shared" si="2"/>
-        <v>11.688311688311687</v>
+        <v>1.791044776119403</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -36415,17 +37127,17 @@
         <v>1507</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="C182" s="2">
-        <v>250</v>
+        <v>2090</v>
       </c>
       <c r="D182" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E182" s="1">
         <f t="shared" si="2"/>
-        <v>12.8</v>
+        <v>2.1052631578947367</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -36433,17 +37145,17 @@
         <v>1507</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="C183" s="2">
-        <v>272</v>
+        <v>1390</v>
       </c>
       <c r="D183" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E183" s="1">
         <f t="shared" si="2"/>
-        <v>11.76470588235294</v>
+        <v>3.1654676258992804</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -36451,17 +37163,17 @@
         <v>1507</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
       <c r="C184" s="2">
-        <v>415</v>
+        <v>2470</v>
       </c>
       <c r="D184" s="1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E184" s="1">
         <f t="shared" si="2"/>
-        <v>8.19277108433735</v>
+        <v>1.7813765182186234</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -36469,17 +37181,17 @@
         <v>1507</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="C185" s="2">
-        <v>687</v>
+        <v>193</v>
       </c>
       <c r="D185" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E185" s="1">
         <f t="shared" si="2"/>
-        <v>5.5312954876273652</v>
+        <v>18.134715025906736</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -36487,17 +37199,17 @@
         <v>1507</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="C186" s="2">
-        <v>336</v>
+        <v>404</v>
       </c>
       <c r="D186" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E186" s="1">
         <f t="shared" si="2"/>
-        <v>11.904761904761903</v>
+        <v>10.14851485148515</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -36505,17 +37217,17 @@
         <v>1507</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="C187" s="2">
-        <v>406</v>
+        <v>584</v>
       </c>
       <c r="D187" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E187" s="1">
         <f t="shared" si="2"/>
-        <v>9.6059113300492598</v>
+        <v>6.1643835616438354</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -36523,17 +37235,17 @@
         <v>1507</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="C188" s="2">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="D188" s="1">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E188" s="1">
         <f t="shared" si="2"/>
-        <v>10.891089108910892</v>
+        <v>9.4986807387862786</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -36541,17 +37253,17 @@
         <v>1507</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1540</v>
+        <v>1527</v>
       </c>
       <c r="C189" s="2">
-        <v>243</v>
+        <v>96</v>
       </c>
       <c r="D189" s="1">
         <v>36</v>
       </c>
       <c r="E189" s="1">
         <f t="shared" si="2"/>
-        <v>14.814814814814813</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -36559,17 +37271,17 @@
         <v>1507</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="C190" s="2">
-        <v>32674</v>
+        <v>262</v>
       </c>
       <c r="D190" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E190" s="1">
         <f t="shared" si="2"/>
-        <v>7.0392360898573786E-2</v>
+        <v>13.740458015267176</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -36577,17 +37289,17 @@
         <v>1507</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="C191" s="2">
-        <v>962</v>
+        <v>319</v>
       </c>
       <c r="D191" s="1">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E191" s="1">
         <f t="shared" si="2"/>
-        <v>1.3513513513513513</v>
+        <v>11.598746081504702</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -36595,17 +37307,17 @@
         <v>1507</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
       <c r="C192" s="2">
-        <v>1607</v>
+        <v>414</v>
       </c>
       <c r="D192" s="1">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E192" s="1">
         <f t="shared" si="2"/>
-        <v>0.93341630367143735</v>
+        <v>8.695652173913043</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -36613,17 +37325,17 @@
         <v>1507</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="C193" s="2">
-        <v>1466</v>
+        <v>516</v>
       </c>
       <c r="D193" s="1">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E193" s="1">
         <f t="shared" si="2"/>
-        <v>1.0914051841746248</v>
+        <v>7.7519379844961236</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -36631,17 +37343,17 @@
         <v>1507</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="C194" s="2">
-        <v>865</v>
+        <v>368</v>
       </c>
       <c r="D194" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E194" s="1">
         <f t="shared" si="2"/>
-        <v>1.6184971098265895</v>
+        <v>9.7826086956521738</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -36649,17 +37361,17 @@
         <v>1507</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="C195" s="2">
-        <v>27600</v>
+        <v>271</v>
       </c>
       <c r="D195" s="1">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="E195" s="1">
         <f t="shared" si="2"/>
-        <v>0.44927536231884058</v>
+        <v>11.808118081180812</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -36667,17 +37379,17 @@
         <v>1507</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="C196" s="2">
-        <v>969</v>
+        <v>295</v>
       </c>
       <c r="D196" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E196" s="1">
-        <f t="shared" ref="E196:E213" si="3">D196/C196*100</f>
-        <v>1.2383900928792571</v>
+        <f t="shared" ref="E196:E226" si="3">D196/C196*100</f>
+        <v>10.847457627118644</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -36685,17 +37397,17 @@
         <v>1507</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="C197" s="2">
-        <v>336</v>
+        <v>458</v>
       </c>
       <c r="D197" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E197" s="1">
         <f t="shared" si="3"/>
-        <v>3.5714285714285712</v>
+        <v>7.4235807860262017</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -36703,17 +37415,17 @@
         <v>1507</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="C198" s="2">
-        <v>699</v>
+        <v>756</v>
       </c>
       <c r="D198" s="1">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E198" s="1">
         <f t="shared" si="3"/>
-        <v>2.0028612303290414</v>
+        <v>5.1587301587301582</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -36721,17 +37433,17 @@
         <v>1507</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="C199" s="2">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="D199" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E199" s="1">
         <f t="shared" si="3"/>
-        <v>2.8761061946902653</v>
+        <v>10.723860589812332</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -36739,17 +37451,17 @@
         <v>1507</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="C200" s="2">
-        <v>8363</v>
+        <v>514</v>
       </c>
       <c r="D200" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E200" s="1">
         <f t="shared" si="3"/>
-        <v>0.23914863087408827</v>
+        <v>7.5875486381322954</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -36757,17 +37469,17 @@
         <v>1507</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="C201" s="2">
-        <v>1485</v>
+        <v>504</v>
       </c>
       <c r="D201" s="1">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E201" s="1">
         <f t="shared" si="3"/>
-        <v>0.87542087542087543</v>
+        <v>8.7301587301587293</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -36775,17 +37487,17 @@
         <v>1507</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="C202" s="2">
-        <v>1943</v>
+        <v>261</v>
       </c>
       <c r="D202" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E202" s="1">
         <f t="shared" si="3"/>
-        <v>1.1837364899639733</v>
+        <v>13.793103448275861</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -36793,17 +37505,17 @@
         <v>1507</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="C203" s="2">
-        <v>1674</v>
+        <v>32674</v>
       </c>
       <c r="D203" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E203" s="1">
         <f t="shared" si="3"/>
-        <v>1.0752688172043012</v>
+        <v>7.0392360898573786E-2</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -36811,17 +37523,17 @@
         <v>1507</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
       <c r="C204" s="2">
-        <v>5622</v>
+        <v>1223</v>
       </c>
       <c r="D204" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E204" s="1">
         <f t="shared" si="3"/>
-        <v>0.39131981501245106</v>
+        <v>2.698282910874898</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -36829,17 +37541,17 @@
         <v>1507</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1489</v>
+        <v>1543</v>
       </c>
       <c r="C205" s="2">
-        <v>1088</v>
+        <v>2024</v>
       </c>
       <c r="D205" s="1">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E205" s="1">
         <f t="shared" si="3"/>
-        <v>0.4595588235294118</v>
+        <v>1.7786561264822136</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -36847,17 +37559,17 @@
         <v>1507</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="C206" s="2">
-        <v>14857</v>
+        <v>1661</v>
       </c>
       <c r="D206" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E206" s="1">
         <f t="shared" si="3"/>
-        <v>0.16154001480783467</v>
+        <v>2.1673690547862732</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -36865,17 +37577,17 @@
         <v>1507</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
       <c r="C207" s="2">
-        <v>37533</v>
+        <v>969</v>
       </c>
       <c r="D207" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E207" s="1">
         <f t="shared" si="3"/>
-        <v>8.2593983960781187E-2</v>
+        <v>3.5087719298245612</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -36883,17 +37595,17 @@
         <v>1507</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="C208" s="2">
-        <v>3230</v>
+        <v>28600</v>
       </c>
       <c r="D208" s="1">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E208" s="1">
         <f t="shared" si="3"/>
-        <v>2.1052631578947367</v>
+        <v>0.43706293706293708</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -36901,17 +37613,17 @@
         <v>1507</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="C209" s="2">
-        <v>2385</v>
+        <v>1252</v>
       </c>
       <c r="D209" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E209" s="1">
         <f t="shared" si="3"/>
-        <v>0.67085953878406701</v>
+        <v>2.5559105431309903</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -36919,17 +37631,17 @@
         <v>1507</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="C210" s="2">
-        <v>4837</v>
+        <v>412</v>
       </c>
       <c r="D210" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E210" s="1">
         <f t="shared" si="3"/>
-        <v>0.41347942939838744</v>
+        <v>8.009708737864079</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -36937,17 +37649,17 @@
         <v>1507</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="C211" s="2">
-        <v>1210</v>
+        <v>833</v>
       </c>
       <c r="D211" s="1">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E211" s="1">
         <f t="shared" si="3"/>
-        <v>1.0743801652892562</v>
+        <v>4.0816326530612246</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -36955,17 +37667,17 @@
         <v>1507</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="C212" s="2">
-        <v>1290</v>
+        <v>513</v>
       </c>
       <c r="D212" s="1">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E212" s="1">
         <f t="shared" si="3"/>
-        <v>1.0077519379844961</v>
+        <v>6.4327485380116958</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -36973,17 +37685,251 @@
         <v>1507</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="C213" s="2">
-        <v>1037</v>
+        <v>9260</v>
       </c>
       <c r="D213" s="1">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E213" s="1">
         <f t="shared" si="3"/>
-        <v>1.5429122468659595</v>
+        <v>0.43196544276457888</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1822</v>
+      </c>
+      <c r="D214" s="1">
+        <v>33</v>
+      </c>
+      <c r="E214" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8111964873765092</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C215" s="2">
+        <v>2364</v>
+      </c>
+      <c r="D215" s="1">
+        <v>34</v>
+      </c>
+      <c r="E215" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4382402707275803</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C216" s="2">
+        <v>2005</v>
+      </c>
+      <c r="D216" s="1">
+        <v>38</v>
+      </c>
+      <c r="E216" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8952618453865335</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C217" s="2">
+        <v>6208</v>
+      </c>
+      <c r="D217" s="1">
+        <v>62</v>
+      </c>
+      <c r="E217" s="1">
+        <f t="shared" si="3"/>
+        <v>0.99871134020618546</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1257</v>
+      </c>
+      <c r="D218" s="1">
+        <v>26</v>
+      </c>
+      <c r="E218" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0684168655529036</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C219" s="2">
+        <v>14857</v>
+      </c>
+      <c r="D219" s="1">
+        <v>25</v>
+      </c>
+      <c r="E219" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16827084875816115</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C220" s="2">
+        <v>37901</v>
+      </c>
+      <c r="D220" s="1">
+        <v>71</v>
+      </c>
+      <c r="E220" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18733014960027441</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C221" s="2">
+        <v>3350</v>
+      </c>
+      <c r="D221" s="1">
+        <v>69</v>
+      </c>
+      <c r="E221" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0597014925373136</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C222" s="2">
+        <v>2789</v>
+      </c>
+      <c r="D222" s="1">
+        <v>36</v>
+      </c>
+      <c r="E222" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2907852276801721</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C223" s="2">
+        <v>5843</v>
+      </c>
+      <c r="D223" s="1">
+        <v>41</v>
+      </c>
+      <c r="E223" s="1">
+        <f t="shared" si="3"/>
+        <v>0.70169433510183132</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1439</v>
+      </c>
+      <c r="D224" s="1">
+        <v>34</v>
+      </c>
+      <c r="E224" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3627519110493398</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1602</v>
+      </c>
+      <c r="D225" s="1">
+        <v>33</v>
+      </c>
+      <c r="E225" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0599250936329585</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1388</v>
+      </c>
+      <c r="D226" s="1">
+        <v>36</v>
+      </c>
+      <c r="E226" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5936599423631126</v>
       </c>
     </row>
   </sheetData>
